--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>FUJIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5425000</v>
+        <v>5450900</v>
       </c>
       <c r="E8" s="3">
-        <v>4866100</v>
+        <v>5539300</v>
       </c>
       <c r="F8" s="3">
-        <v>5741900</v>
+        <v>5544300</v>
       </c>
       <c r="G8" s="3">
-        <v>5700100</v>
+        <v>4973200</v>
       </c>
       <c r="H8" s="3">
-        <v>5525400</v>
+        <v>5868200</v>
       </c>
       <c r="I8" s="3">
+        <v>5825500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5646900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5134900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5669300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5620600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5572700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5166300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5492800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5132600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3196400</v>
+        <v>3300900</v>
       </c>
       <c r="E9" s="3">
-        <v>2789800</v>
+        <v>3221600</v>
       </c>
       <c r="F9" s="3">
-        <v>3532300</v>
+        <v>3266800</v>
       </c>
       <c r="G9" s="3">
-        <v>3268200</v>
+        <v>2851200</v>
       </c>
       <c r="H9" s="3">
-        <v>3242100</v>
+        <v>3610100</v>
       </c>
       <c r="I9" s="3">
+        <v>3340100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3313400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2992100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3832100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3631400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3695600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3077700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3267700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3036000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2228600</v>
+        <v>2150000</v>
       </c>
       <c r="E10" s="3">
-        <v>2076300</v>
+        <v>2317700</v>
       </c>
       <c r="F10" s="3">
-        <v>2209600</v>
+        <v>2277600</v>
       </c>
       <c r="G10" s="3">
-        <v>2431900</v>
+        <v>2122000</v>
       </c>
       <c r="H10" s="3">
-        <v>2283300</v>
+        <v>2258200</v>
       </c>
       <c r="I10" s="3">
+        <v>2485400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2333500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2142700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1837200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1989100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1877100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2088600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2225200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2096500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>370100</v>
+        <v>370500</v>
       </c>
       <c r="E12" s="3">
-        <v>354200</v>
+        <v>355900</v>
       </c>
       <c r="F12" s="3">
-        <v>366600</v>
+        <v>378300</v>
       </c>
       <c r="G12" s="3">
-        <v>330100</v>
+        <v>362000</v>
       </c>
       <c r="H12" s="3">
-        <v>357600</v>
+        <v>374600</v>
       </c>
       <c r="I12" s="3">
+        <v>337400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>365500</v>
+      </c>
+      <c r="K12" s="3">
         <v>364900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>454200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>351000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>375500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>336800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>366000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>346100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4925700</v>
+        <v>5126300</v>
       </c>
       <c r="E17" s="3">
-        <v>4528800</v>
+        <v>4985600</v>
       </c>
       <c r="F17" s="3">
-        <v>5274000</v>
+        <v>5034100</v>
       </c>
       <c r="G17" s="3">
-        <v>5023600</v>
+        <v>4628400</v>
       </c>
       <c r="H17" s="3">
-        <v>5097500</v>
+        <v>5390000</v>
       </c>
       <c r="I17" s="3">
+        <v>5134200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5209600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4799900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5667700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5161200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5226700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4842300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4977100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4680500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>499300</v>
+        <v>324500</v>
       </c>
       <c r="E18" s="3">
-        <v>337400</v>
+        <v>553600</v>
       </c>
       <c r="F18" s="3">
-        <v>468000</v>
+        <v>510300</v>
       </c>
       <c r="G18" s="3">
-        <v>676500</v>
+        <v>344800</v>
       </c>
       <c r="H18" s="3">
-        <v>427900</v>
+        <v>478200</v>
       </c>
       <c r="I18" s="3">
+        <v>691300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>437300</v>
+      </c>
+      <c r="K18" s="3">
         <v>335000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>459300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>346000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>324000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>515700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>452000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>153300</v>
+        <v>-260200</v>
       </c>
       <c r="E20" s="3">
-        <v>-90900</v>
+        <v>92500</v>
       </c>
       <c r="F20" s="3">
-        <v>65600</v>
+        <v>156700</v>
       </c>
       <c r="G20" s="3">
-        <v>-161900</v>
+        <v>-92900</v>
       </c>
       <c r="H20" s="3">
-        <v>63000</v>
+        <v>67100</v>
       </c>
       <c r="I20" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K20" s="3">
         <v>90000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>217700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>222800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>49400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>209800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>105300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>149000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>929700</v>
+        <v>350900</v>
       </c>
       <c r="E21" s="3">
-        <v>519400</v>
+        <v>936900</v>
       </c>
       <c r="F21" s="3">
-        <v>845900</v>
+        <v>950200</v>
       </c>
       <c r="G21" s="3">
-        <v>808900</v>
+        <v>530900</v>
       </c>
       <c r="H21" s="3">
-        <v>781300</v>
+        <v>864500</v>
       </c>
       <c r="I21" s="3">
+        <v>826700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>798500</v>
+      </c>
+      <c r="K21" s="3">
         <v>709100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>512800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>987300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>674700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>811400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>898400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>843800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5900</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
-        <v>6600</v>
+        <v>5200</v>
       </c>
       <c r="F22" s="3">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="G22" s="3">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="H22" s="3">
-        <v>8900</v>
+        <v>4700</v>
       </c>
       <c r="I22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K22" s="3">
         <v>8700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>14200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>646700</v>
+        <v>60800</v>
       </c>
       <c r="E23" s="3">
-        <v>239900</v>
+        <v>641000</v>
       </c>
       <c r="F23" s="3">
-        <v>529000</v>
+        <v>660900</v>
       </c>
       <c r="G23" s="3">
-        <v>506600</v>
+        <v>245200</v>
       </c>
       <c r="H23" s="3">
-        <v>482100</v>
+        <v>540700</v>
       </c>
       <c r="I23" s="3">
+        <v>517800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>492700</v>
+      </c>
+      <c r="K23" s="3">
         <v>416300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>211500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>672300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>384600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>520900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>608600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>586900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>75200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>166400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>65300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>159900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>142400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>122900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>125700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>158200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>116300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>92500</v>
+      </c>
+      <c r="P24" s="3">
+        <v>63400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>162800</v>
       </c>
-      <c r="E24" s="3">
-        <v>63900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>156400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>139300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>90900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>122900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>125700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>158200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>116300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>92500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>63400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>162800</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>483800</v>
+        <v>32200</v>
       </c>
       <c r="E26" s="3">
-        <v>176000</v>
+        <v>565800</v>
       </c>
       <c r="F26" s="3">
-        <v>372600</v>
+        <v>494500</v>
       </c>
       <c r="G26" s="3">
-        <v>367300</v>
+        <v>179800</v>
       </c>
       <c r="H26" s="3">
-        <v>391200</v>
+        <v>380800</v>
       </c>
       <c r="I26" s="3">
+        <v>375400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>399800</v>
+      </c>
+      <c r="K26" s="3">
         <v>293400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>85800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>514100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>268300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>428400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>545200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>424100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>422500</v>
+        <v>40200</v>
       </c>
       <c r="E27" s="3">
-        <v>133300</v>
+        <v>552900</v>
       </c>
       <c r="F27" s="3">
-        <v>336800</v>
+        <v>431800</v>
       </c>
       <c r="G27" s="3">
-        <v>323200</v>
+        <v>136200</v>
       </c>
       <c r="H27" s="3">
-        <v>337900</v>
+        <v>344200</v>
       </c>
       <c r="I27" s="3">
+        <v>330300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>345300</v>
+      </c>
+      <c r="K27" s="3">
         <v>257500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>147100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>484600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>245000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>396000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>484100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>393400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-153300</v>
+        <v>260200</v>
       </c>
       <c r="E32" s="3">
-        <v>90900</v>
+        <v>-92500</v>
       </c>
       <c r="F32" s="3">
-        <v>-65600</v>
+        <v>-156700</v>
       </c>
       <c r="G32" s="3">
-        <v>161900</v>
+        <v>92900</v>
       </c>
       <c r="H32" s="3">
-        <v>-63000</v>
+        <v>-67100</v>
       </c>
       <c r="I32" s="3">
+        <v>165400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-90000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-217700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-222800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-49400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-209800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-105300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-149000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>422500</v>
+        <v>40200</v>
       </c>
       <c r="E33" s="3">
-        <v>133300</v>
+        <v>552900</v>
       </c>
       <c r="F33" s="3">
-        <v>336800</v>
+        <v>431800</v>
       </c>
       <c r="G33" s="3">
-        <v>323200</v>
+        <v>136200</v>
       </c>
       <c r="H33" s="3">
-        <v>337900</v>
+        <v>344200</v>
       </c>
       <c r="I33" s="3">
+        <v>330300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>345300</v>
+      </c>
+      <c r="K33" s="3">
         <v>257500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>147100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>484600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>245000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>396000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>484100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>393400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>422500</v>
+        <v>40200</v>
       </c>
       <c r="E35" s="3">
-        <v>133300</v>
+        <v>552900</v>
       </c>
       <c r="F35" s="3">
-        <v>336800</v>
+        <v>431800</v>
       </c>
       <c r="G35" s="3">
-        <v>323200</v>
+        <v>136200</v>
       </c>
       <c r="H35" s="3">
-        <v>337900</v>
+        <v>344200</v>
       </c>
       <c r="I35" s="3">
+        <v>330300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>345300</v>
+      </c>
+      <c r="K35" s="3">
         <v>257500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>147100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>484600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>245000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>396000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>484100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>393400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5708900</v>
+        <v>3679700</v>
       </c>
       <c r="E41" s="3">
-        <v>6385100</v>
+        <v>4250400</v>
       </c>
       <c r="F41" s="3">
-        <v>5951700</v>
+        <v>5834500</v>
       </c>
       <c r="G41" s="3">
-        <v>5905200</v>
+        <v>6525600</v>
       </c>
       <c r="H41" s="3">
-        <v>5459200</v>
+        <v>6082600</v>
       </c>
       <c r="I41" s="3">
+        <v>6035100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5579300</v>
+      </c>
+      <c r="K41" s="3">
         <v>6580400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6983400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5895800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6172300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7190000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7769700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5709700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>27600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>54700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>54700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>53600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>26600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4907300</v>
+        <v>5187700</v>
       </c>
       <c r="E43" s="3">
-        <v>4746600</v>
+        <v>5310100</v>
       </c>
       <c r="F43" s="3">
-        <v>5615800</v>
+        <v>5015300</v>
       </c>
       <c r="G43" s="3">
-        <v>5418800</v>
+        <v>4851100</v>
       </c>
       <c r="H43" s="3">
-        <v>5325200</v>
+        <v>5739300</v>
       </c>
       <c r="I43" s="3">
+        <v>5538100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5442400</v>
+      </c>
+      <c r="K43" s="3">
         <v>5106600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5627200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5700700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5684900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5386900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5639400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5504800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3624900</v>
+        <v>3538700</v>
       </c>
       <c r="E44" s="3">
-        <v>3621700</v>
+        <v>3821200</v>
       </c>
       <c r="F44" s="3">
-        <v>3403800</v>
+        <v>3704700</v>
       </c>
       <c r="G44" s="3">
-        <v>3665700</v>
+        <v>3701400</v>
       </c>
       <c r="H44" s="3">
-        <v>3669700</v>
+        <v>3478700</v>
       </c>
       <c r="I44" s="3">
+        <v>3746400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3750400</v>
+      </c>
+      <c r="K44" s="3">
         <v>3580200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3284400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3610900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3538100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3539000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3009100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3299400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>829000</v>
+        <v>1428600</v>
       </c>
       <c r="E45" s="3">
-        <v>926000</v>
+        <v>1426200</v>
       </c>
       <c r="F45" s="3">
-        <v>762700</v>
+        <v>847200</v>
       </c>
       <c r="G45" s="3">
-        <v>878400</v>
+        <v>946400</v>
       </c>
       <c r="H45" s="3">
-        <v>916800</v>
+        <v>779500</v>
       </c>
       <c r="I45" s="3">
+        <v>897700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>937000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1244900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1019400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1182600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1199300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1194300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1576900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1208300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15070200</v>
+        <v>13834700</v>
       </c>
       <c r="E46" s="3">
-        <v>15679500</v>
+        <v>14808000</v>
       </c>
       <c r="F46" s="3">
-        <v>15733900</v>
+        <v>15401700</v>
       </c>
       <c r="G46" s="3">
-        <v>15868200</v>
+        <v>16024500</v>
       </c>
       <c r="H46" s="3">
-        <v>15370900</v>
+        <v>16080100</v>
       </c>
       <c r="I46" s="3">
+        <v>16217300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>15709100</v>
+      </c>
+      <c r="K46" s="3">
         <v>16512000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16914700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16417600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16649400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>17364900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>18048700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>15748800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2059600</v>
+        <v>1887100</v>
       </c>
       <c r="E47" s="3">
-        <v>2022000</v>
+        <v>2150900</v>
       </c>
       <c r="F47" s="3">
-        <v>2178800</v>
+        <v>2104900</v>
       </c>
       <c r="G47" s="3">
-        <v>2013100</v>
+        <v>2066400</v>
       </c>
       <c r="H47" s="3">
-        <v>2115700</v>
+        <v>2226700</v>
       </c>
       <c r="I47" s="3">
+        <v>2057400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2162200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2099400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2173900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2715900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2812500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2751100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2656900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3052200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6029100</v>
+        <v>6278300</v>
       </c>
       <c r="E48" s="3">
-        <v>4709900</v>
+        <v>6238600</v>
       </c>
       <c r="F48" s="3">
-        <v>4788600</v>
+        <v>6161700</v>
       </c>
       <c r="G48" s="3">
-        <v>4735100</v>
+        <v>4813500</v>
       </c>
       <c r="H48" s="3">
-        <v>4824000</v>
+        <v>4893900</v>
       </c>
       <c r="I48" s="3">
+        <v>4839300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4930200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4837700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4886300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4945600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4976300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4989300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4617800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4663300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7466900</v>
+        <v>7703500</v>
       </c>
       <c r="E49" s="3">
-        <v>7144200</v>
+        <v>7816000</v>
       </c>
       <c r="F49" s="3">
-        <v>7276700</v>
+        <v>7631200</v>
       </c>
       <c r="G49" s="3">
-        <v>7300300</v>
+        <v>7301400</v>
       </c>
       <c r="H49" s="3">
-        <v>7420500</v>
+        <v>7436800</v>
       </c>
       <c r="I49" s="3">
+        <v>7461000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7583800</v>
+      </c>
+      <c r="K49" s="3">
         <v>7296200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6533000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6655900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6660900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6641100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5111600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5222000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1014600</v>
+        <v>1155000</v>
       </c>
       <c r="E52" s="3">
-        <v>1784700</v>
+        <v>1045400</v>
       </c>
       <c r="F52" s="3">
-        <v>1061500</v>
+        <v>1036900</v>
       </c>
       <c r="G52" s="3">
-        <v>1111000</v>
+        <v>1824000</v>
       </c>
       <c r="H52" s="3">
-        <v>1167200</v>
+        <v>1084800</v>
       </c>
       <c r="I52" s="3">
+        <v>1135400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1192900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1142500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1242900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1181200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1180500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1225800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>904300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>879100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31640400</v>
+        <v>30858500</v>
       </c>
       <c r="E54" s="3">
-        <v>31340300</v>
+        <v>32058800</v>
       </c>
       <c r="F54" s="3">
-        <v>31039600</v>
+        <v>32336500</v>
       </c>
       <c r="G54" s="3">
-        <v>31027700</v>
+        <v>32029800</v>
       </c>
       <c r="H54" s="3">
-        <v>30898300</v>
+        <v>31722500</v>
       </c>
       <c r="I54" s="3">
+        <v>31710300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>31578100</v>
+      </c>
+      <c r="K54" s="3">
         <v>31887700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>31750800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>31916300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>32279500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32972100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31339400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>29565300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1805800</v>
+        <v>1829600</v>
       </c>
       <c r="E57" s="3">
-        <v>1803400</v>
+        <v>2020100</v>
       </c>
       <c r="F57" s="3">
-        <v>1932500</v>
+        <v>1845600</v>
       </c>
       <c r="G57" s="3">
-        <v>1978200</v>
+        <v>1843000</v>
       </c>
       <c r="H57" s="3">
-        <v>2010900</v>
+        <v>1975000</v>
       </c>
       <c r="I57" s="3">
+        <v>2021700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2055100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1998500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2066900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2047300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2039700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2089400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2110600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2016200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1276500</v>
+        <v>1124100</v>
       </c>
       <c r="E58" s="3">
-        <v>1557900</v>
+        <v>2548100</v>
       </c>
       <c r="F58" s="3">
-        <v>1550600</v>
+        <v>1304600</v>
       </c>
       <c r="G58" s="3">
-        <v>875500</v>
+        <v>1592100</v>
       </c>
       <c r="H58" s="3">
-        <v>616200</v>
+        <v>1584700</v>
       </c>
       <c r="I58" s="3">
+        <v>894700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>629700</v>
+      </c>
+      <c r="K58" s="3">
         <v>362700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>378800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>298400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>683500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1072600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1099900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1204700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3031200</v>
+        <v>3177800</v>
       </c>
       <c r="E59" s="3">
-        <v>3032200</v>
+        <v>2930600</v>
       </c>
       <c r="F59" s="3">
-        <v>2900700</v>
+        <v>3097900</v>
       </c>
       <c r="G59" s="3">
-        <v>2627100</v>
+        <v>3098900</v>
       </c>
       <c r="H59" s="3">
-        <v>2841700</v>
+        <v>2964500</v>
       </c>
       <c r="I59" s="3">
+        <v>2684900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2904200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3459000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3592000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2659800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2918900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2901100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2822700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2545900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6113600</v>
+        <v>6131500</v>
       </c>
       <c r="E60" s="3">
-        <v>6393400</v>
+        <v>7498800</v>
       </c>
       <c r="F60" s="3">
-        <v>6383800</v>
+        <v>6248100</v>
       </c>
       <c r="G60" s="3">
-        <v>5480800</v>
+        <v>6534100</v>
       </c>
       <c r="H60" s="3">
-        <v>5468700</v>
+        <v>6524200</v>
       </c>
       <c r="I60" s="3">
+        <v>5601300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5589000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5820200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6037700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5005500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5642100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6063100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6033200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5766900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3666000</v>
+        <v>4674500</v>
       </c>
       <c r="E61" s="3">
-        <v>3205600</v>
+        <v>3614600</v>
       </c>
       <c r="F61" s="3">
-        <v>3213600</v>
+        <v>3746600</v>
       </c>
       <c r="G61" s="3">
-        <v>4108600</v>
+        <v>3276100</v>
       </c>
       <c r="H61" s="3">
-        <v>3483600</v>
+        <v>3284300</v>
       </c>
       <c r="I61" s="3">
+        <v>4199000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3560200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3753100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3749600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3957200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3954200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4473500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3857100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2059100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1446600</v>
+        <v>1530600</v>
       </c>
       <c r="E62" s="3">
-        <v>1493200</v>
+        <v>1478800</v>
       </c>
       <c r="F62" s="3">
-        <v>1036600</v>
+        <v>1478400</v>
       </c>
       <c r="G62" s="3">
-        <v>1057400</v>
+        <v>1526000</v>
       </c>
       <c r="H62" s="3">
-        <v>1165300</v>
+        <v>1059400</v>
       </c>
       <c r="I62" s="3">
+        <v>1080700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1191000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1068700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1068200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1208300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1249400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1282400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1331500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1345000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13134000</v>
+        <v>12712800</v>
       </c>
       <c r="E66" s="3">
-        <v>12958300</v>
+        <v>12959600</v>
       </c>
       <c r="F66" s="3">
-        <v>12523600</v>
+        <v>13423000</v>
       </c>
       <c r="G66" s="3">
-        <v>12473600</v>
+        <v>13243500</v>
       </c>
       <c r="H66" s="3">
-        <v>11953100</v>
+        <v>12799100</v>
       </c>
       <c r="I66" s="3">
+        <v>12748000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>12216100</v>
+      </c>
+      <c r="K66" s="3">
         <v>12636000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12851500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12264300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13003500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13939800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13213000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11233800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23173300</v>
+        <v>23811100</v>
       </c>
       <c r="E72" s="3">
-        <v>22928300</v>
+        <v>23948400</v>
       </c>
       <c r="F72" s="3">
-        <v>22795200</v>
+        <v>23683200</v>
       </c>
       <c r="G72" s="3">
-        <v>22615600</v>
+        <v>23432700</v>
       </c>
       <c r="H72" s="3">
-        <v>22292400</v>
+        <v>23296700</v>
       </c>
       <c r="I72" s="3">
+        <v>23113200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>22782900</v>
+      </c>
+      <c r="K72" s="3">
         <v>22110200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>21668700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>21549000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>21064400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>20967600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>20184800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>20233000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18506400</v>
+        <v>18145700</v>
       </c>
       <c r="E76" s="3">
-        <v>18381900</v>
+        <v>19099300</v>
       </c>
       <c r="F76" s="3">
-        <v>18516000</v>
+        <v>18913500</v>
       </c>
       <c r="G76" s="3">
-        <v>18554100</v>
+        <v>18786400</v>
       </c>
       <c r="H76" s="3">
-        <v>18945200</v>
+        <v>18923400</v>
       </c>
       <c r="I76" s="3">
+        <v>18962300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>19362000</v>
+      </c>
+      <c r="K76" s="3">
         <v>19251700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>18899300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>19652000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>19276000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>19032300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>18126400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>18331500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>422500</v>
+        <v>40200</v>
       </c>
       <c r="E81" s="3">
-        <v>133300</v>
+        <v>552900</v>
       </c>
       <c r="F81" s="3">
-        <v>336800</v>
+        <v>431800</v>
       </c>
       <c r="G81" s="3">
-        <v>323200</v>
+        <v>136200</v>
       </c>
       <c r="H81" s="3">
-        <v>337900</v>
+        <v>344200</v>
       </c>
       <c r="I81" s="3">
+        <v>330300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>345300</v>
+      </c>
+      <c r="K81" s="3">
         <v>257500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>147100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>484600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>245000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>396000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>484100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>393400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>277200</v>
+        <v>286500</v>
       </c>
       <c r="E83" s="3">
-        <v>272900</v>
+        <v>290700</v>
       </c>
       <c r="F83" s="3">
-        <v>312300</v>
+        <v>283300</v>
       </c>
       <c r="G83" s="3">
-        <v>294300</v>
+        <v>278900</v>
       </c>
       <c r="H83" s="3">
-        <v>290400</v>
+        <v>319200</v>
       </c>
       <c r="I83" s="3">
+        <v>300700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>296800</v>
+      </c>
+      <c r="K83" s="3">
         <v>284100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>293600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>305100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>279200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>277600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>277400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>242800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>446700</v>
+        <v>866500</v>
       </c>
       <c r="E89" s="3">
-        <v>985500</v>
+        <v>45000</v>
       </c>
       <c r="F89" s="3">
-        <v>961600</v>
+        <v>456500</v>
       </c>
       <c r="G89" s="3">
-        <v>529900</v>
+        <v>1007200</v>
       </c>
       <c r="H89" s="3">
-        <v>-15700</v>
+        <v>982700</v>
       </c>
       <c r="I89" s="3">
+        <v>541500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K89" s="3">
         <v>790800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>958700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>404200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>159000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>844200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>874800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>444300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-224000</v>
+        <v>-185000</v>
       </c>
       <c r="E91" s="3">
-        <v>-168000</v>
+        <v>-201100</v>
       </c>
       <c r="F91" s="3">
-        <v>-195000</v>
+        <v>-228900</v>
       </c>
       <c r="G91" s="3">
-        <v>-157600</v>
+        <v>-171700</v>
       </c>
       <c r="H91" s="3">
-        <v>-136500</v>
+        <v>-199300</v>
       </c>
       <c r="I91" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-139500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-134100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-132800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-161000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-156000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-120800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-231900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>256900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1222000</v>
+        <v>-394300</v>
       </c>
       <c r="E94" s="3">
-        <v>-264200</v>
+        <v>-361400</v>
       </c>
       <c r="F94" s="3">
-        <v>-447100</v>
+        <v>-1248900</v>
       </c>
       <c r="G94" s="3">
-        <v>-257300</v>
+        <v>-270000</v>
       </c>
       <c r="H94" s="3">
-        <v>-224400</v>
+        <v>-456900</v>
       </c>
       <c r="I94" s="3">
+        <v>-262900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-229300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-967300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>541500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>68900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-277700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-448100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-286800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-148800</v>
+        <v>-180700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-154800</v>
+        <v>-152100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-146700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-148200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-138500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-137700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>169600</v>
+        <v>-938200</v>
       </c>
       <c r="E100" s="3">
-        <v>-193000</v>
+        <v>-1369200</v>
       </c>
       <c r="F100" s="3">
-        <v>-458100</v>
+        <v>173300</v>
       </c>
       <c r="G100" s="3">
-        <v>231900</v>
+        <v>-197200</v>
       </c>
       <c r="H100" s="3">
-        <v>-939700</v>
+        <v>-468200</v>
       </c>
       <c r="I100" s="3">
+        <v>237000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-960400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-229600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-328100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-788100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-959700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-266900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1700900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-500500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-70400</v>
+        <v>-104600</v>
       </c>
       <c r="E101" s="3">
-        <v>-94900</v>
+        <v>101400</v>
       </c>
       <c r="F101" s="3">
-        <v>-9900</v>
+        <v>-71900</v>
       </c>
       <c r="G101" s="3">
-        <v>-58500</v>
+        <v>-97000</v>
       </c>
       <c r="H101" s="3">
-        <v>58600</v>
+        <v>-10100</v>
       </c>
       <c r="I101" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K101" s="3">
         <v>3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-117200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>38500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>60700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>34300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-67600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>269600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-676200</v>
+        <v>-570700</v>
       </c>
       <c r="E102" s="3">
-        <v>433400</v>
+        <v>-1584100</v>
       </c>
       <c r="F102" s="3">
-        <v>46500</v>
+        <v>-691000</v>
       </c>
       <c r="G102" s="3">
-        <v>446000</v>
+        <v>443000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1121200</v>
+        <v>47500</v>
       </c>
       <c r="I102" s="3">
+        <v>455800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1145800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-403000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1054900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-276500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-728700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2060000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-56300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5450900</v>
+        <v>5538900</v>
       </c>
       <c r="E8" s="3">
-        <v>5539300</v>
+        <v>5628700</v>
       </c>
       <c r="F8" s="3">
-        <v>5544300</v>
+        <v>5633900</v>
       </c>
       <c r="G8" s="3">
-        <v>4973200</v>
+        <v>5053500</v>
       </c>
       <c r="H8" s="3">
-        <v>5868200</v>
+        <v>5963000</v>
       </c>
       <c r="I8" s="3">
-        <v>5825500</v>
+        <v>5919600</v>
       </c>
       <c r="J8" s="3">
-        <v>5646900</v>
+        <v>5738100</v>
       </c>
       <c r="K8" s="3">
         <v>5134900</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3300900</v>
+        <v>3354200</v>
       </c>
       <c r="E9" s="3">
-        <v>3221600</v>
+        <v>3273600</v>
       </c>
       <c r="F9" s="3">
-        <v>3266800</v>
+        <v>3319500</v>
       </c>
       <c r="G9" s="3">
-        <v>2851200</v>
+        <v>2897200</v>
       </c>
       <c r="H9" s="3">
-        <v>3610100</v>
+        <v>3668400</v>
       </c>
       <c r="I9" s="3">
-        <v>3340100</v>
+        <v>3394100</v>
       </c>
       <c r="J9" s="3">
-        <v>3313400</v>
+        <v>3366900</v>
       </c>
       <c r="K9" s="3">
         <v>2992100</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2150000</v>
+        <v>2184700</v>
       </c>
       <c r="E10" s="3">
-        <v>2317700</v>
+        <v>2355100</v>
       </c>
       <c r="F10" s="3">
-        <v>2277600</v>
+        <v>2314400</v>
       </c>
       <c r="G10" s="3">
-        <v>2122000</v>
+        <v>2156300</v>
       </c>
       <c r="H10" s="3">
-        <v>2258200</v>
+        <v>2294600</v>
       </c>
       <c r="I10" s="3">
-        <v>2485400</v>
+        <v>2525500</v>
       </c>
       <c r="J10" s="3">
-        <v>2333500</v>
+        <v>2371200</v>
       </c>
       <c r="K10" s="3">
         <v>2142700</v>
@@ -914,25 +914,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>370500</v>
+        <v>376500</v>
       </c>
       <c r="E12" s="3">
-        <v>355900</v>
+        <v>361700</v>
       </c>
       <c r="F12" s="3">
-        <v>378300</v>
+        <v>384400</v>
       </c>
       <c r="G12" s="3">
-        <v>362000</v>
+        <v>367800</v>
       </c>
       <c r="H12" s="3">
-        <v>374600</v>
+        <v>380700</v>
       </c>
       <c r="I12" s="3">
-        <v>337400</v>
+        <v>342800</v>
       </c>
       <c r="J12" s="3">
-        <v>365500</v>
+        <v>371400</v>
       </c>
       <c r="K12" s="3">
         <v>364900</v>
@@ -1131,25 +1131,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5126300</v>
+        <v>5209100</v>
       </c>
       <c r="E17" s="3">
-        <v>4985600</v>
+        <v>5066100</v>
       </c>
       <c r="F17" s="3">
-        <v>5034100</v>
+        <v>5115400</v>
       </c>
       <c r="G17" s="3">
-        <v>4628400</v>
+        <v>4703100</v>
       </c>
       <c r="H17" s="3">
-        <v>5390000</v>
+        <v>5477000</v>
       </c>
       <c r="I17" s="3">
-        <v>5134200</v>
+        <v>5217100</v>
       </c>
       <c r="J17" s="3">
-        <v>5209600</v>
+        <v>5293700</v>
       </c>
       <c r="K17" s="3">
         <v>4799900</v>
@@ -1181,25 +1181,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>324500</v>
+        <v>329800</v>
       </c>
       <c r="E18" s="3">
-        <v>553600</v>
+        <v>562600</v>
       </c>
       <c r="F18" s="3">
-        <v>510300</v>
+        <v>518500</v>
       </c>
       <c r="G18" s="3">
-        <v>344800</v>
+        <v>350300</v>
       </c>
       <c r="H18" s="3">
-        <v>478200</v>
+        <v>486000</v>
       </c>
       <c r="I18" s="3">
-        <v>691300</v>
+        <v>702500</v>
       </c>
       <c r="J18" s="3">
-        <v>437300</v>
+        <v>444400</v>
       </c>
       <c r="K18" s="3">
         <v>335000</v>
@@ -1251,25 +1251,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-260200</v>
+        <v>-264400</v>
       </c>
       <c r="E20" s="3">
-        <v>92500</v>
+        <v>94000</v>
       </c>
       <c r="F20" s="3">
-        <v>156700</v>
+        <v>159200</v>
       </c>
       <c r="G20" s="3">
-        <v>-92900</v>
+        <v>-94400</v>
       </c>
       <c r="H20" s="3">
-        <v>67100</v>
+        <v>68100</v>
       </c>
       <c r="I20" s="3">
-        <v>-165400</v>
+        <v>-168100</v>
       </c>
       <c r="J20" s="3">
-        <v>64400</v>
+        <v>65500</v>
       </c>
       <c r="K20" s="3">
         <v>90000</v>
@@ -1301,25 +1301,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>350900</v>
+        <v>356500</v>
       </c>
       <c r="E21" s="3">
-        <v>936900</v>
+        <v>952000</v>
       </c>
       <c r="F21" s="3">
-        <v>950200</v>
+        <v>965500</v>
       </c>
       <c r="G21" s="3">
-        <v>530900</v>
+        <v>539400</v>
       </c>
       <c r="H21" s="3">
-        <v>864500</v>
+        <v>878500</v>
       </c>
       <c r="I21" s="3">
-        <v>826700</v>
+        <v>840000</v>
       </c>
       <c r="J21" s="3">
-        <v>798500</v>
+        <v>811400</v>
       </c>
       <c r="K21" s="3">
         <v>709100</v>
@@ -1357,19 +1357,19 @@
         <v>5200</v>
       </c>
       <c r="F22" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H22" s="3">
         <v>4700</v>
       </c>
       <c r="I22" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="J22" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="K22" s="3">
         <v>8700</v>
@@ -1401,25 +1401,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>60800</v>
+        <v>61700</v>
       </c>
       <c r="E23" s="3">
-        <v>641000</v>
+        <v>651300</v>
       </c>
       <c r="F23" s="3">
-        <v>660900</v>
+        <v>671600</v>
       </c>
       <c r="G23" s="3">
-        <v>245200</v>
+        <v>249100</v>
       </c>
       <c r="H23" s="3">
-        <v>540700</v>
+        <v>549400</v>
       </c>
       <c r="I23" s="3">
-        <v>517800</v>
+        <v>526100</v>
       </c>
       <c r="J23" s="3">
-        <v>492700</v>
+        <v>500600</v>
       </c>
       <c r="K23" s="3">
         <v>416300</v>
@@ -1451,25 +1451,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="E24" s="3">
-        <v>75200</v>
+        <v>76400</v>
       </c>
       <c r="F24" s="3">
-        <v>166400</v>
+        <v>169100</v>
       </c>
       <c r="G24" s="3">
-        <v>65300</v>
+        <v>66400</v>
       </c>
       <c r="H24" s="3">
-        <v>159900</v>
+        <v>162400</v>
       </c>
       <c r="I24" s="3">
-        <v>142400</v>
+        <v>144700</v>
       </c>
       <c r="J24" s="3">
-        <v>92900</v>
+        <v>94400</v>
       </c>
       <c r="K24" s="3">
         <v>122900</v>
@@ -1551,25 +1551,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>32200</v>
+        <v>32700</v>
       </c>
       <c r="E26" s="3">
-        <v>565800</v>
+        <v>574900</v>
       </c>
       <c r="F26" s="3">
-        <v>494500</v>
+        <v>502500</v>
       </c>
       <c r="G26" s="3">
-        <v>179800</v>
+        <v>182700</v>
       </c>
       <c r="H26" s="3">
-        <v>380800</v>
+        <v>386900</v>
       </c>
       <c r="I26" s="3">
-        <v>375400</v>
+        <v>381500</v>
       </c>
       <c r="J26" s="3">
-        <v>399800</v>
+        <v>406200</v>
       </c>
       <c r="K26" s="3">
         <v>293400</v>
@@ -1601,25 +1601,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E27" s="3">
-        <v>552900</v>
+        <v>561800</v>
       </c>
       <c r="F27" s="3">
-        <v>431800</v>
+        <v>438800</v>
       </c>
       <c r="G27" s="3">
-        <v>136200</v>
+        <v>138400</v>
       </c>
       <c r="H27" s="3">
-        <v>344200</v>
+        <v>349800</v>
       </c>
       <c r="I27" s="3">
-        <v>330300</v>
+        <v>335700</v>
       </c>
       <c r="J27" s="3">
-        <v>345300</v>
+        <v>350900</v>
       </c>
       <c r="K27" s="3">
         <v>257500</v>
@@ -1851,25 +1851,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>260200</v>
+        <v>264400</v>
       </c>
       <c r="E32" s="3">
-        <v>-92500</v>
+        <v>-94000</v>
       </c>
       <c r="F32" s="3">
-        <v>-156700</v>
+        <v>-159200</v>
       </c>
       <c r="G32" s="3">
-        <v>92900</v>
+        <v>94400</v>
       </c>
       <c r="H32" s="3">
-        <v>-67100</v>
+        <v>-68100</v>
       </c>
       <c r="I32" s="3">
-        <v>165400</v>
+        <v>168100</v>
       </c>
       <c r="J32" s="3">
-        <v>-64400</v>
+        <v>-65500</v>
       </c>
       <c r="K32" s="3">
         <v>-90000</v>
@@ -1901,25 +1901,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E33" s="3">
-        <v>552900</v>
+        <v>561800</v>
       </c>
       <c r="F33" s="3">
-        <v>431800</v>
+        <v>438800</v>
       </c>
       <c r="G33" s="3">
-        <v>136200</v>
+        <v>138400</v>
       </c>
       <c r="H33" s="3">
-        <v>344200</v>
+        <v>349800</v>
       </c>
       <c r="I33" s="3">
-        <v>330300</v>
+        <v>335700</v>
       </c>
       <c r="J33" s="3">
-        <v>345300</v>
+        <v>350900</v>
       </c>
       <c r="K33" s="3">
         <v>257500</v>
@@ -2001,25 +2001,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E35" s="3">
-        <v>552900</v>
+        <v>561800</v>
       </c>
       <c r="F35" s="3">
-        <v>431800</v>
+        <v>438800</v>
       </c>
       <c r="G35" s="3">
-        <v>136200</v>
+        <v>138400</v>
       </c>
       <c r="H35" s="3">
-        <v>344200</v>
+        <v>349800</v>
       </c>
       <c r="I35" s="3">
-        <v>330300</v>
+        <v>335700</v>
       </c>
       <c r="J35" s="3">
-        <v>345300</v>
+        <v>350900</v>
       </c>
       <c r="K35" s="3">
         <v>257500</v>
@@ -2146,25 +2146,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3679700</v>
+        <v>3739100</v>
       </c>
       <c r="E41" s="3">
-        <v>4250400</v>
+        <v>4319000</v>
       </c>
       <c r="F41" s="3">
-        <v>5834500</v>
+        <v>5928700</v>
       </c>
       <c r="G41" s="3">
-        <v>6525600</v>
+        <v>6630900</v>
       </c>
       <c r="H41" s="3">
-        <v>6082600</v>
+        <v>6180800</v>
       </c>
       <c r="I41" s="3">
-        <v>6035100</v>
+        <v>6132500</v>
       </c>
       <c r="J41" s="3">
-        <v>5579300</v>
+        <v>5669400</v>
       </c>
       <c r="K41" s="3">
         <v>6580400</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5187700</v>
+        <v>5271500</v>
       </c>
       <c r="E43" s="3">
-        <v>5310100</v>
+        <v>5395800</v>
       </c>
       <c r="F43" s="3">
-        <v>5015300</v>
+        <v>5096300</v>
       </c>
       <c r="G43" s="3">
-        <v>4851100</v>
+        <v>4929400</v>
       </c>
       <c r="H43" s="3">
-        <v>5739300</v>
+        <v>5832000</v>
       </c>
       <c r="I43" s="3">
-        <v>5538100</v>
+        <v>5627500</v>
       </c>
       <c r="J43" s="3">
-        <v>5442400</v>
+        <v>5530200</v>
       </c>
       <c r="K43" s="3">
         <v>5106600</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3538700</v>
+        <v>3595800</v>
       </c>
       <c r="E44" s="3">
-        <v>3821200</v>
+        <v>3882900</v>
       </c>
       <c r="F44" s="3">
-        <v>3704700</v>
+        <v>3764500</v>
       </c>
       <c r="G44" s="3">
-        <v>3701400</v>
+        <v>3761200</v>
       </c>
       <c r="H44" s="3">
-        <v>3478700</v>
+        <v>3534900</v>
       </c>
       <c r="I44" s="3">
-        <v>3746400</v>
+        <v>3806900</v>
       </c>
       <c r="J44" s="3">
-        <v>3750400</v>
+        <v>3811000</v>
       </c>
       <c r="K44" s="3">
         <v>3580200</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1428600</v>
+        <v>1451700</v>
       </c>
       <c r="E45" s="3">
-        <v>1426200</v>
+        <v>1449300</v>
       </c>
       <c r="F45" s="3">
-        <v>847200</v>
+        <v>860900</v>
       </c>
       <c r="G45" s="3">
-        <v>946400</v>
+        <v>961700</v>
       </c>
       <c r="H45" s="3">
-        <v>779500</v>
+        <v>792100</v>
       </c>
       <c r="I45" s="3">
-        <v>897700</v>
+        <v>912200</v>
       </c>
       <c r="J45" s="3">
-        <v>937000</v>
+        <v>952100</v>
       </c>
       <c r="K45" s="3">
         <v>1244900</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13834700</v>
+        <v>14058100</v>
       </c>
       <c r="E46" s="3">
-        <v>14808000</v>
+        <v>15047100</v>
       </c>
       <c r="F46" s="3">
-        <v>15401700</v>
+        <v>15650400</v>
       </c>
       <c r="G46" s="3">
-        <v>16024500</v>
+        <v>16283200</v>
       </c>
       <c r="H46" s="3">
-        <v>16080100</v>
+        <v>16339800</v>
       </c>
       <c r="I46" s="3">
-        <v>16217300</v>
+        <v>16479200</v>
       </c>
       <c r="J46" s="3">
-        <v>15709100</v>
+        <v>15962700</v>
       </c>
       <c r="K46" s="3">
         <v>16512000</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1887100</v>
+        <v>1917600</v>
       </c>
       <c r="E47" s="3">
-        <v>2150900</v>
+        <v>2185700</v>
       </c>
       <c r="F47" s="3">
-        <v>2104900</v>
+        <v>2138900</v>
       </c>
       <c r="G47" s="3">
-        <v>2066400</v>
+        <v>2099800</v>
       </c>
       <c r="H47" s="3">
-        <v>2226700</v>
+        <v>2262700</v>
       </c>
       <c r="I47" s="3">
-        <v>2057400</v>
+        <v>2090600</v>
       </c>
       <c r="J47" s="3">
-        <v>2162200</v>
+        <v>2197100</v>
       </c>
       <c r="K47" s="3">
         <v>2099400</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6278300</v>
+        <v>6379600</v>
       </c>
       <c r="E48" s="3">
-        <v>6238600</v>
+        <v>6339300</v>
       </c>
       <c r="F48" s="3">
-        <v>6161700</v>
+        <v>6261200</v>
       </c>
       <c r="G48" s="3">
-        <v>4813500</v>
+        <v>4891200</v>
       </c>
       <c r="H48" s="3">
-        <v>4893900</v>
+        <v>4973000</v>
       </c>
       <c r="I48" s="3">
-        <v>4839300</v>
+        <v>4917400</v>
       </c>
       <c r="J48" s="3">
-        <v>4930200</v>
+        <v>5009800</v>
       </c>
       <c r="K48" s="3">
         <v>4837700</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7703500</v>
+        <v>7827900</v>
       </c>
       <c r="E49" s="3">
-        <v>7816000</v>
+        <v>7942200</v>
       </c>
       <c r="F49" s="3">
-        <v>7631200</v>
+        <v>7754400</v>
       </c>
       <c r="G49" s="3">
-        <v>7301400</v>
+        <v>7419300</v>
       </c>
       <c r="H49" s="3">
-        <v>7436800</v>
+        <v>7556900</v>
       </c>
       <c r="I49" s="3">
-        <v>7461000</v>
+        <v>7581400</v>
       </c>
       <c r="J49" s="3">
-        <v>7583800</v>
+        <v>7706300</v>
       </c>
       <c r="K49" s="3">
         <v>7296200</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1155000</v>
+        <v>1173600</v>
       </c>
       <c r="E52" s="3">
-        <v>1045400</v>
+        <v>1062200</v>
       </c>
       <c r="F52" s="3">
-        <v>1036900</v>
+        <v>1053700</v>
       </c>
       <c r="G52" s="3">
-        <v>1824000</v>
+        <v>1853400</v>
       </c>
       <c r="H52" s="3">
-        <v>1084800</v>
+        <v>1102400</v>
       </c>
       <c r="I52" s="3">
-        <v>1135400</v>
+        <v>1153800</v>
       </c>
       <c r="J52" s="3">
-        <v>1192900</v>
+        <v>1212200</v>
       </c>
       <c r="K52" s="3">
         <v>1142500</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30858500</v>
+        <v>31356800</v>
       </c>
       <c r="E54" s="3">
-        <v>32058800</v>
+        <v>32576500</v>
       </c>
       <c r="F54" s="3">
-        <v>32336500</v>
+        <v>32858600</v>
       </c>
       <c r="G54" s="3">
-        <v>32029800</v>
+        <v>32547000</v>
       </c>
       <c r="H54" s="3">
-        <v>31722500</v>
+        <v>32234700</v>
       </c>
       <c r="I54" s="3">
-        <v>31710300</v>
+        <v>32222300</v>
       </c>
       <c r="J54" s="3">
-        <v>31578100</v>
+        <v>32088000</v>
       </c>
       <c r="K54" s="3">
         <v>31887700</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1829600</v>
+        <v>1859100</v>
       </c>
       <c r="E57" s="3">
-        <v>2020100</v>
+        <v>2052700</v>
       </c>
       <c r="F57" s="3">
-        <v>1845600</v>
+        <v>1875400</v>
       </c>
       <c r="G57" s="3">
-        <v>1843000</v>
+        <v>1872800</v>
       </c>
       <c r="H57" s="3">
-        <v>1975000</v>
+        <v>2006900</v>
       </c>
       <c r="I57" s="3">
-        <v>2021700</v>
+        <v>2054400</v>
       </c>
       <c r="J57" s="3">
-        <v>2055100</v>
+        <v>2088300</v>
       </c>
       <c r="K57" s="3">
         <v>1998500</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1124100</v>
+        <v>1142200</v>
       </c>
       <c r="E58" s="3">
-        <v>2548100</v>
+        <v>2589200</v>
       </c>
       <c r="F58" s="3">
-        <v>1304600</v>
+        <v>1325700</v>
       </c>
       <c r="G58" s="3">
-        <v>1592100</v>
+        <v>1617800</v>
       </c>
       <c r="H58" s="3">
-        <v>1584700</v>
+        <v>1610300</v>
       </c>
       <c r="I58" s="3">
-        <v>894700</v>
+        <v>909200</v>
       </c>
       <c r="J58" s="3">
-        <v>629700</v>
+        <v>639900</v>
       </c>
       <c r="K58" s="3">
         <v>362700</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3177800</v>
+        <v>3229200</v>
       </c>
       <c r="E59" s="3">
-        <v>2930600</v>
+        <v>2977900</v>
       </c>
       <c r="F59" s="3">
-        <v>3097900</v>
+        <v>3147900</v>
       </c>
       <c r="G59" s="3">
-        <v>3098900</v>
+        <v>3148900</v>
       </c>
       <c r="H59" s="3">
-        <v>2964500</v>
+        <v>3012400</v>
       </c>
       <c r="I59" s="3">
-        <v>2684900</v>
+        <v>2728200</v>
       </c>
       <c r="J59" s="3">
-        <v>2904200</v>
+        <v>2951100</v>
       </c>
       <c r="K59" s="3">
         <v>3459000</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6131500</v>
+        <v>6230500</v>
       </c>
       <c r="E60" s="3">
-        <v>7498800</v>
+        <v>7619900</v>
       </c>
       <c r="F60" s="3">
-        <v>6248100</v>
+        <v>6348900</v>
       </c>
       <c r="G60" s="3">
-        <v>6534100</v>
+        <v>6639600</v>
       </c>
       <c r="H60" s="3">
-        <v>6524200</v>
+        <v>6629600</v>
       </c>
       <c r="I60" s="3">
-        <v>5601300</v>
+        <v>5691800</v>
       </c>
       <c r="J60" s="3">
-        <v>5589000</v>
+        <v>5679200</v>
       </c>
       <c r="K60" s="3">
         <v>5820200</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4674500</v>
+        <v>4749900</v>
       </c>
       <c r="E61" s="3">
-        <v>3614600</v>
+        <v>3672900</v>
       </c>
       <c r="F61" s="3">
-        <v>3746600</v>
+        <v>3807100</v>
       </c>
       <c r="G61" s="3">
-        <v>3276100</v>
+        <v>3329000</v>
       </c>
       <c r="H61" s="3">
-        <v>3284300</v>
+        <v>3337400</v>
       </c>
       <c r="I61" s="3">
-        <v>4199000</v>
+        <v>4266800</v>
       </c>
       <c r="J61" s="3">
-        <v>3560200</v>
+        <v>3617700</v>
       </c>
       <c r="K61" s="3">
         <v>3753100</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1530600</v>
+        <v>1555300</v>
       </c>
       <c r="E62" s="3">
-        <v>1478800</v>
+        <v>1502700</v>
       </c>
       <c r="F62" s="3">
-        <v>1478400</v>
+        <v>1502300</v>
       </c>
       <c r="G62" s="3">
-        <v>1526000</v>
+        <v>1550700</v>
       </c>
       <c r="H62" s="3">
-        <v>1059400</v>
+        <v>1076500</v>
       </c>
       <c r="I62" s="3">
-        <v>1080700</v>
+        <v>1098200</v>
       </c>
       <c r="J62" s="3">
-        <v>1191000</v>
+        <v>1210200</v>
       </c>
       <c r="K62" s="3">
         <v>1068700</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12712800</v>
+        <v>12918100</v>
       </c>
       <c r="E66" s="3">
-        <v>12959600</v>
+        <v>13168800</v>
       </c>
       <c r="F66" s="3">
-        <v>13423000</v>
+        <v>13639700</v>
       </c>
       <c r="G66" s="3">
-        <v>13243500</v>
+        <v>13457300</v>
       </c>
       <c r="H66" s="3">
-        <v>12799100</v>
+        <v>13005800</v>
       </c>
       <c r="I66" s="3">
-        <v>12748000</v>
+        <v>12953800</v>
       </c>
       <c r="J66" s="3">
-        <v>12216100</v>
+        <v>12413400</v>
       </c>
       <c r="K66" s="3">
         <v>12636000</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24195600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>24335100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>24065600</v>
+      </c>
+      <c r="G72" s="3">
         <v>23811100</v>
       </c>
-      <c r="E72" s="3">
-        <v>23948400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>23683200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>23432700</v>
-      </c>
       <c r="H72" s="3">
-        <v>23296700</v>
+        <v>23672900</v>
       </c>
       <c r="I72" s="3">
-        <v>23113200</v>
+        <v>23486400</v>
       </c>
       <c r="J72" s="3">
-        <v>22782900</v>
+        <v>23150700</v>
       </c>
       <c r="K72" s="3">
         <v>22110200</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18145700</v>
+        <v>18438700</v>
       </c>
       <c r="E76" s="3">
-        <v>19099300</v>
+        <v>19407600</v>
       </c>
       <c r="F76" s="3">
-        <v>18913500</v>
+        <v>19218900</v>
       </c>
       <c r="G76" s="3">
-        <v>18786400</v>
+        <v>19089700</v>
       </c>
       <c r="H76" s="3">
-        <v>18923400</v>
+        <v>19228900</v>
       </c>
       <c r="I76" s="3">
-        <v>18962300</v>
+        <v>19268500</v>
       </c>
       <c r="J76" s="3">
-        <v>19362000</v>
+        <v>19674700</v>
       </c>
       <c r="K76" s="3">
         <v>19251700</v>
@@ -3961,25 +3961,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E81" s="3">
-        <v>552900</v>
+        <v>561800</v>
       </c>
       <c r="F81" s="3">
-        <v>431800</v>
+        <v>438800</v>
       </c>
       <c r="G81" s="3">
-        <v>136200</v>
+        <v>138400</v>
       </c>
       <c r="H81" s="3">
-        <v>344200</v>
+        <v>349800</v>
       </c>
       <c r="I81" s="3">
-        <v>330300</v>
+        <v>335700</v>
       </c>
       <c r="J81" s="3">
-        <v>345300</v>
+        <v>350900</v>
       </c>
       <c r="K81" s="3">
         <v>257500</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>286500</v>
+        <v>291100</v>
       </c>
       <c r="E83" s="3">
-        <v>290700</v>
+        <v>295400</v>
       </c>
       <c r="F83" s="3">
-        <v>283300</v>
+        <v>287800</v>
       </c>
       <c r="G83" s="3">
-        <v>278900</v>
+        <v>283400</v>
       </c>
       <c r="H83" s="3">
-        <v>319200</v>
+        <v>324400</v>
       </c>
       <c r="I83" s="3">
-        <v>300700</v>
+        <v>305600</v>
       </c>
       <c r="J83" s="3">
-        <v>296800</v>
+        <v>301600</v>
       </c>
       <c r="K83" s="3">
         <v>284100</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>866500</v>
+        <v>880500</v>
       </c>
       <c r="E89" s="3">
-        <v>45000</v>
+        <v>45700</v>
       </c>
       <c r="F89" s="3">
-        <v>456500</v>
+        <v>463900</v>
       </c>
       <c r="G89" s="3">
-        <v>1007200</v>
+        <v>1023400</v>
       </c>
       <c r="H89" s="3">
-        <v>982700</v>
+        <v>998600</v>
       </c>
       <c r="I89" s="3">
-        <v>541500</v>
+        <v>550300</v>
       </c>
       <c r="J89" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="K89" s="3">
         <v>790800</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-185000</v>
+        <v>-188000</v>
       </c>
       <c r="E91" s="3">
-        <v>-201100</v>
+        <v>-204300</v>
       </c>
       <c r="F91" s="3">
-        <v>-228900</v>
+        <v>-232600</v>
       </c>
       <c r="G91" s="3">
-        <v>-171700</v>
+        <v>-174400</v>
       </c>
       <c r="H91" s="3">
-        <v>-199300</v>
+        <v>-202500</v>
       </c>
       <c r="I91" s="3">
-        <v>-161000</v>
+        <v>-163600</v>
       </c>
       <c r="J91" s="3">
-        <v>-139500</v>
+        <v>-141700</v>
       </c>
       <c r="K91" s="3">
         <v>-134100</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-394300</v>
+        <v>-400700</v>
       </c>
       <c r="E94" s="3">
-        <v>-361400</v>
+        <v>-367200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1248900</v>
+        <v>-1269100</v>
       </c>
       <c r="G94" s="3">
-        <v>-270000</v>
+        <v>-274400</v>
       </c>
       <c r="H94" s="3">
-        <v>-456900</v>
+        <v>-464300</v>
       </c>
       <c r="I94" s="3">
-        <v>-262900</v>
+        <v>-267200</v>
       </c>
       <c r="J94" s="3">
-        <v>-229300</v>
+        <v>-233000</v>
       </c>
       <c r="K94" s="3">
         <v>-967300</v>
@@ -4624,19 +4624,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-180700</v>
+        <v>-183600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-152100</v>
+        <v>-154500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-158200</v>
+        <v>-160800</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4821,25 +4821,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-938200</v>
+        <v>-953400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1369200</v>
+        <v>-1391300</v>
       </c>
       <c r="F100" s="3">
-        <v>173300</v>
+        <v>176100</v>
       </c>
       <c r="G100" s="3">
-        <v>-197200</v>
+        <v>-200400</v>
       </c>
       <c r="H100" s="3">
-        <v>-468200</v>
+        <v>-475700</v>
       </c>
       <c r="I100" s="3">
-        <v>237000</v>
+        <v>240800</v>
       </c>
       <c r="J100" s="3">
-        <v>-960400</v>
+        <v>-975900</v>
       </c>
       <c r="K100" s="3">
         <v>-229600</v>
@@ -4871,25 +4871,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-104600</v>
+        <v>-106300</v>
       </c>
       <c r="E101" s="3">
-        <v>101400</v>
+        <v>103000</v>
       </c>
       <c r="F101" s="3">
-        <v>-71900</v>
+        <v>-73100</v>
       </c>
       <c r="G101" s="3">
-        <v>-97000</v>
+        <v>-98500</v>
       </c>
       <c r="H101" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="I101" s="3">
-        <v>-59800</v>
+        <v>-60800</v>
       </c>
       <c r="J101" s="3">
-        <v>59900</v>
+        <v>60900</v>
       </c>
       <c r="K101" s="3">
         <v>3100</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-570700</v>
+        <v>-579900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1584100</v>
+        <v>-1609700</v>
       </c>
       <c r="F102" s="3">
-        <v>-691000</v>
+        <v>-702200</v>
       </c>
       <c r="G102" s="3">
-        <v>443000</v>
+        <v>450100</v>
       </c>
       <c r="H102" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="I102" s="3">
-        <v>455800</v>
+        <v>463200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1145800</v>
+        <v>-1164300</v>
       </c>
       <c r="K102" s="3">
         <v>-403000</v>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5538900</v>
+        <v>5638600</v>
       </c>
       <c r="E8" s="3">
-        <v>5628700</v>
+        <v>5730100</v>
       </c>
       <c r="F8" s="3">
-        <v>5633900</v>
+        <v>5735300</v>
       </c>
       <c r="G8" s="3">
-        <v>5053500</v>
+        <v>5144500</v>
       </c>
       <c r="H8" s="3">
-        <v>5963000</v>
+        <v>6070400</v>
       </c>
       <c r="I8" s="3">
-        <v>5919600</v>
+        <v>6026200</v>
       </c>
       <c r="J8" s="3">
-        <v>5738100</v>
+        <v>5841400</v>
       </c>
       <c r="K8" s="3">
         <v>5134900</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3354200</v>
+        <v>3414600</v>
       </c>
       <c r="E9" s="3">
-        <v>3273600</v>
+        <v>3332600</v>
       </c>
       <c r="F9" s="3">
-        <v>3319500</v>
+        <v>3379300</v>
       </c>
       <c r="G9" s="3">
-        <v>2897200</v>
+        <v>2949400</v>
       </c>
       <c r="H9" s="3">
-        <v>3668400</v>
+        <v>3734400</v>
       </c>
       <c r="I9" s="3">
-        <v>3394100</v>
+        <v>3455200</v>
       </c>
       <c r="J9" s="3">
-        <v>3366900</v>
+        <v>3427600</v>
       </c>
       <c r="K9" s="3">
         <v>2992100</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2184700</v>
+        <v>2224000</v>
       </c>
       <c r="E10" s="3">
-        <v>2355100</v>
+        <v>2397500</v>
       </c>
       <c r="F10" s="3">
-        <v>2314400</v>
+        <v>2356000</v>
       </c>
       <c r="G10" s="3">
-        <v>2156300</v>
+        <v>2195100</v>
       </c>
       <c r="H10" s="3">
-        <v>2294600</v>
+        <v>2336000</v>
       </c>
       <c r="I10" s="3">
-        <v>2525500</v>
+        <v>2571000</v>
       </c>
       <c r="J10" s="3">
-        <v>2371200</v>
+        <v>2413900</v>
       </c>
       <c r="K10" s="3">
         <v>2142700</v>
@@ -914,25 +914,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>376500</v>
+        <v>383300</v>
       </c>
       <c r="E12" s="3">
-        <v>361700</v>
+        <v>368200</v>
       </c>
       <c r="F12" s="3">
-        <v>384400</v>
+        <v>391300</v>
       </c>
       <c r="G12" s="3">
-        <v>367800</v>
+        <v>374500</v>
       </c>
       <c r="H12" s="3">
-        <v>380700</v>
+        <v>387500</v>
       </c>
       <c r="I12" s="3">
-        <v>342800</v>
+        <v>349000</v>
       </c>
       <c r="J12" s="3">
-        <v>371400</v>
+        <v>378100</v>
       </c>
       <c r="K12" s="3">
         <v>364900</v>
@@ -1131,25 +1131,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5209100</v>
+        <v>5302900</v>
       </c>
       <c r="E17" s="3">
-        <v>5066100</v>
+        <v>5157400</v>
       </c>
       <c r="F17" s="3">
-        <v>5115400</v>
+        <v>5207500</v>
       </c>
       <c r="G17" s="3">
-        <v>4703100</v>
+        <v>4787800</v>
       </c>
       <c r="H17" s="3">
-        <v>5477000</v>
+        <v>5575700</v>
       </c>
       <c r="I17" s="3">
-        <v>5217100</v>
+        <v>5311000</v>
       </c>
       <c r="J17" s="3">
-        <v>5293700</v>
+        <v>5389100</v>
       </c>
       <c r="K17" s="3">
         <v>4799900</v>
@@ -1181,25 +1181,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>329800</v>
+        <v>335700</v>
       </c>
       <c r="E18" s="3">
-        <v>562600</v>
+        <v>572700</v>
       </c>
       <c r="F18" s="3">
-        <v>518500</v>
+        <v>527800</v>
       </c>
       <c r="G18" s="3">
-        <v>350300</v>
+        <v>356700</v>
       </c>
       <c r="H18" s="3">
-        <v>486000</v>
+        <v>494700</v>
       </c>
       <c r="I18" s="3">
-        <v>702500</v>
+        <v>715100</v>
       </c>
       <c r="J18" s="3">
-        <v>444400</v>
+        <v>452400</v>
       </c>
       <c r="K18" s="3">
         <v>335000</v>
@@ -1251,25 +1251,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-264400</v>
+        <v>-269200</v>
       </c>
       <c r="E20" s="3">
-        <v>94000</v>
+        <v>95700</v>
       </c>
       <c r="F20" s="3">
-        <v>159200</v>
+        <v>162100</v>
       </c>
       <c r="G20" s="3">
-        <v>-94400</v>
+        <v>-96100</v>
       </c>
       <c r="H20" s="3">
-        <v>68100</v>
+        <v>69400</v>
       </c>
       <c r="I20" s="3">
-        <v>-168100</v>
+        <v>-171100</v>
       </c>
       <c r="J20" s="3">
-        <v>65500</v>
+        <v>66600</v>
       </c>
       <c r="K20" s="3">
         <v>90000</v>
@@ -1301,25 +1301,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>356500</v>
+        <v>362900</v>
       </c>
       <c r="E21" s="3">
-        <v>952000</v>
+        <v>969200</v>
       </c>
       <c r="F21" s="3">
-        <v>965500</v>
+        <v>982900</v>
       </c>
       <c r="G21" s="3">
-        <v>539400</v>
+        <v>549100</v>
       </c>
       <c r="H21" s="3">
-        <v>878500</v>
+        <v>894300</v>
       </c>
       <c r="I21" s="3">
-        <v>840000</v>
+        <v>855100</v>
       </c>
       <c r="J21" s="3">
-        <v>811400</v>
+        <v>826000</v>
       </c>
       <c r="K21" s="3">
         <v>709100</v>
@@ -1351,25 +1351,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G22" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H22" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I22" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="J22" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="K22" s="3">
         <v>8700</v>
@@ -1401,25 +1401,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>61700</v>
+        <v>62900</v>
       </c>
       <c r="E23" s="3">
-        <v>651300</v>
+        <v>663100</v>
       </c>
       <c r="F23" s="3">
-        <v>671600</v>
+        <v>683700</v>
       </c>
       <c r="G23" s="3">
-        <v>249100</v>
+        <v>253600</v>
       </c>
       <c r="H23" s="3">
-        <v>549400</v>
+        <v>559300</v>
       </c>
       <c r="I23" s="3">
-        <v>526100</v>
+        <v>535600</v>
       </c>
       <c r="J23" s="3">
-        <v>500600</v>
+        <v>509700</v>
       </c>
       <c r="K23" s="3">
         <v>416300</v>
@@ -1451,25 +1451,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="E24" s="3">
-        <v>76400</v>
+        <v>77800</v>
       </c>
       <c r="F24" s="3">
-        <v>169100</v>
+        <v>172200</v>
       </c>
       <c r="G24" s="3">
-        <v>66400</v>
+        <v>67600</v>
       </c>
       <c r="H24" s="3">
-        <v>162400</v>
+        <v>165400</v>
       </c>
       <c r="I24" s="3">
-        <v>144700</v>
+        <v>147300</v>
       </c>
       <c r="J24" s="3">
-        <v>94400</v>
+        <v>96100</v>
       </c>
       <c r="K24" s="3">
         <v>122900</v>
@@ -1551,25 +1551,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="E26" s="3">
-        <v>574900</v>
+        <v>585300</v>
       </c>
       <c r="F26" s="3">
-        <v>502500</v>
+        <v>511500</v>
       </c>
       <c r="G26" s="3">
-        <v>182700</v>
+        <v>186000</v>
       </c>
       <c r="H26" s="3">
-        <v>386900</v>
+        <v>393900</v>
       </c>
       <c r="I26" s="3">
-        <v>381500</v>
+        <v>388300</v>
       </c>
       <c r="J26" s="3">
-        <v>406200</v>
+        <v>413500</v>
       </c>
       <c r="K26" s="3">
         <v>293400</v>
@@ -1601,25 +1601,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="E27" s="3">
-        <v>561800</v>
+        <v>571900</v>
       </c>
       <c r="F27" s="3">
-        <v>438800</v>
+        <v>446700</v>
       </c>
       <c r="G27" s="3">
-        <v>138400</v>
+        <v>140900</v>
       </c>
       <c r="H27" s="3">
-        <v>349800</v>
+        <v>356100</v>
       </c>
       <c r="I27" s="3">
-        <v>335700</v>
+        <v>341700</v>
       </c>
       <c r="J27" s="3">
-        <v>350900</v>
+        <v>357200</v>
       </c>
       <c r="K27" s="3">
         <v>257500</v>
@@ -1851,25 +1851,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>264400</v>
+        <v>269200</v>
       </c>
       <c r="E32" s="3">
-        <v>-94000</v>
+        <v>-95700</v>
       </c>
       <c r="F32" s="3">
-        <v>-159200</v>
+        <v>-162100</v>
       </c>
       <c r="G32" s="3">
-        <v>94400</v>
+        <v>96100</v>
       </c>
       <c r="H32" s="3">
-        <v>-68100</v>
+        <v>-69400</v>
       </c>
       <c r="I32" s="3">
-        <v>168100</v>
+        <v>171100</v>
       </c>
       <c r="J32" s="3">
-        <v>-65500</v>
+        <v>-66600</v>
       </c>
       <c r="K32" s="3">
         <v>-90000</v>
@@ -1901,25 +1901,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="E33" s="3">
-        <v>561800</v>
+        <v>571900</v>
       </c>
       <c r="F33" s="3">
-        <v>438800</v>
+        <v>446700</v>
       </c>
       <c r="G33" s="3">
-        <v>138400</v>
+        <v>140900</v>
       </c>
       <c r="H33" s="3">
-        <v>349800</v>
+        <v>356100</v>
       </c>
       <c r="I33" s="3">
-        <v>335700</v>
+        <v>341700</v>
       </c>
       <c r="J33" s="3">
-        <v>350900</v>
+        <v>357200</v>
       </c>
       <c r="K33" s="3">
         <v>257500</v>
@@ -2001,25 +2001,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="E35" s="3">
-        <v>561800</v>
+        <v>571900</v>
       </c>
       <c r="F35" s="3">
-        <v>438800</v>
+        <v>446700</v>
       </c>
       <c r="G35" s="3">
-        <v>138400</v>
+        <v>140900</v>
       </c>
       <c r="H35" s="3">
-        <v>349800</v>
+        <v>356100</v>
       </c>
       <c r="I35" s="3">
-        <v>335700</v>
+        <v>341700</v>
       </c>
       <c r="J35" s="3">
-        <v>350900</v>
+        <v>357200</v>
       </c>
       <c r="K35" s="3">
         <v>257500</v>
@@ -2146,25 +2146,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3739100</v>
+        <v>3806400</v>
       </c>
       <c r="E41" s="3">
-        <v>4319000</v>
+        <v>4396800</v>
       </c>
       <c r="F41" s="3">
-        <v>5928700</v>
+        <v>6035500</v>
       </c>
       <c r="G41" s="3">
-        <v>6630900</v>
+        <v>6750300</v>
       </c>
       <c r="H41" s="3">
-        <v>6180800</v>
+        <v>6292100</v>
       </c>
       <c r="I41" s="3">
-        <v>6132500</v>
+        <v>6243000</v>
       </c>
       <c r="J41" s="3">
-        <v>5669400</v>
+        <v>5771500</v>
       </c>
       <c r="K41" s="3">
         <v>6580400</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5271500</v>
+        <v>5366400</v>
       </c>
       <c r="E43" s="3">
-        <v>5395800</v>
+        <v>5493000</v>
       </c>
       <c r="F43" s="3">
-        <v>5096300</v>
+        <v>5188000</v>
       </c>
       <c r="G43" s="3">
-        <v>4929400</v>
+        <v>5018200</v>
       </c>
       <c r="H43" s="3">
-        <v>5832000</v>
+        <v>5937000</v>
       </c>
       <c r="I43" s="3">
-        <v>5627500</v>
+        <v>5728800</v>
       </c>
       <c r="J43" s="3">
-        <v>5530200</v>
+        <v>5629800</v>
       </c>
       <c r="K43" s="3">
         <v>5106600</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3595800</v>
+        <v>3660600</v>
       </c>
       <c r="E44" s="3">
-        <v>3882900</v>
+        <v>3952900</v>
       </c>
       <c r="F44" s="3">
-        <v>3764500</v>
+        <v>3832300</v>
       </c>
       <c r="G44" s="3">
-        <v>3761200</v>
+        <v>3828900</v>
       </c>
       <c r="H44" s="3">
-        <v>3534900</v>
+        <v>3598500</v>
       </c>
       <c r="I44" s="3">
-        <v>3806900</v>
+        <v>3875400</v>
       </c>
       <c r="J44" s="3">
-        <v>3811000</v>
+        <v>3879600</v>
       </c>
       <c r="K44" s="3">
         <v>3580200</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1451700</v>
+        <v>1477900</v>
       </c>
       <c r="E45" s="3">
-        <v>1449300</v>
+        <v>1475400</v>
       </c>
       <c r="F45" s="3">
-        <v>860900</v>
+        <v>876400</v>
       </c>
       <c r="G45" s="3">
-        <v>961700</v>
+        <v>979000</v>
       </c>
       <c r="H45" s="3">
-        <v>792100</v>
+        <v>806400</v>
       </c>
       <c r="I45" s="3">
-        <v>912200</v>
+        <v>928700</v>
       </c>
       <c r="J45" s="3">
-        <v>952100</v>
+        <v>969300</v>
       </c>
       <c r="K45" s="3">
         <v>1244900</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14058100</v>
+        <v>14311200</v>
       </c>
       <c r="E46" s="3">
-        <v>15047100</v>
+        <v>15318100</v>
       </c>
       <c r="F46" s="3">
-        <v>15650400</v>
+        <v>15932300</v>
       </c>
       <c r="G46" s="3">
-        <v>16283200</v>
+        <v>16576400</v>
       </c>
       <c r="H46" s="3">
-        <v>16339800</v>
+        <v>16634000</v>
       </c>
       <c r="I46" s="3">
-        <v>16479200</v>
+        <v>16775900</v>
       </c>
       <c r="J46" s="3">
-        <v>15962700</v>
+        <v>16250200</v>
       </c>
       <c r="K46" s="3">
         <v>16512000</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1917600</v>
+        <v>1952100</v>
       </c>
       <c r="E47" s="3">
-        <v>2185700</v>
+        <v>2225000</v>
       </c>
       <c r="F47" s="3">
-        <v>2138900</v>
+        <v>2177400</v>
       </c>
       <c r="G47" s="3">
-        <v>2099800</v>
+        <v>2137600</v>
       </c>
       <c r="H47" s="3">
-        <v>2262700</v>
+        <v>2303400</v>
       </c>
       <c r="I47" s="3">
-        <v>2090600</v>
+        <v>2128200</v>
       </c>
       <c r="J47" s="3">
-        <v>2197100</v>
+        <v>2236700</v>
       </c>
       <c r="K47" s="3">
         <v>2099400</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6379600</v>
+        <v>6494500</v>
       </c>
       <c r="E48" s="3">
-        <v>6339300</v>
+        <v>6453500</v>
       </c>
       <c r="F48" s="3">
-        <v>6261200</v>
+        <v>6374000</v>
       </c>
       <c r="G48" s="3">
-        <v>4891200</v>
+        <v>4979300</v>
       </c>
       <c r="H48" s="3">
-        <v>4973000</v>
+        <v>5062500</v>
       </c>
       <c r="I48" s="3">
-        <v>4917400</v>
+        <v>5005900</v>
       </c>
       <c r="J48" s="3">
-        <v>5009800</v>
+        <v>5100000</v>
       </c>
       <c r="K48" s="3">
         <v>4837700</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7827900</v>
+        <v>7968900</v>
       </c>
       <c r="E49" s="3">
-        <v>7942200</v>
+        <v>8085200</v>
       </c>
       <c r="F49" s="3">
-        <v>7754400</v>
+        <v>7894100</v>
       </c>
       <c r="G49" s="3">
-        <v>7419300</v>
+        <v>7552900</v>
       </c>
       <c r="H49" s="3">
-        <v>7556900</v>
+        <v>7693000</v>
       </c>
       <c r="I49" s="3">
-        <v>7581400</v>
+        <v>7718000</v>
       </c>
       <c r="J49" s="3">
-        <v>7706300</v>
+        <v>7845000</v>
       </c>
       <c r="K49" s="3">
         <v>7296200</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1173600</v>
+        <v>1194700</v>
       </c>
       <c r="E52" s="3">
-        <v>1062200</v>
+        <v>1081400</v>
       </c>
       <c r="F52" s="3">
-        <v>1053700</v>
+        <v>1072600</v>
       </c>
       <c r="G52" s="3">
-        <v>1853400</v>
+        <v>1886800</v>
       </c>
       <c r="H52" s="3">
-        <v>1102400</v>
+        <v>1122200</v>
       </c>
       <c r="I52" s="3">
-        <v>1153800</v>
+        <v>1174500</v>
       </c>
       <c r="J52" s="3">
-        <v>1212200</v>
+        <v>1234000</v>
       </c>
       <c r="K52" s="3">
         <v>1142500</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31356800</v>
+        <v>31921500</v>
       </c>
       <c r="E54" s="3">
-        <v>32576500</v>
+        <v>33163100</v>
       </c>
       <c r="F54" s="3">
-        <v>32858600</v>
+        <v>33450400</v>
       </c>
       <c r="G54" s="3">
-        <v>32547000</v>
+        <v>33133100</v>
       </c>
       <c r="H54" s="3">
-        <v>32234700</v>
+        <v>32815200</v>
       </c>
       <c r="I54" s="3">
-        <v>32222300</v>
+        <v>32802600</v>
       </c>
       <c r="J54" s="3">
-        <v>32088000</v>
+        <v>32665900</v>
       </c>
       <c r="K54" s="3">
         <v>31887700</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1859100</v>
+        <v>1892600</v>
       </c>
       <c r="E57" s="3">
-        <v>2052700</v>
+        <v>2089700</v>
       </c>
       <c r="F57" s="3">
-        <v>1875400</v>
+        <v>1909100</v>
       </c>
       <c r="G57" s="3">
-        <v>1872800</v>
+        <v>1906500</v>
       </c>
       <c r="H57" s="3">
-        <v>2006900</v>
+        <v>2043100</v>
       </c>
       <c r="I57" s="3">
-        <v>2054400</v>
+        <v>2091300</v>
       </c>
       <c r="J57" s="3">
-        <v>2088300</v>
+        <v>2125900</v>
       </c>
       <c r="K57" s="3">
         <v>1998500</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1142200</v>
+        <v>1162800</v>
       </c>
       <c r="E58" s="3">
-        <v>2589200</v>
+        <v>2635800</v>
       </c>
       <c r="F58" s="3">
-        <v>1325700</v>
+        <v>1349500</v>
       </c>
       <c r="G58" s="3">
-        <v>1617800</v>
+        <v>1647000</v>
       </c>
       <c r="H58" s="3">
-        <v>1610300</v>
+        <v>1639300</v>
       </c>
       <c r="I58" s="3">
-        <v>909200</v>
+        <v>925600</v>
       </c>
       <c r="J58" s="3">
-        <v>639900</v>
+        <v>651400</v>
       </c>
       <c r="K58" s="3">
         <v>362700</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3229200</v>
+        <v>3287300</v>
       </c>
       <c r="E59" s="3">
-        <v>2977900</v>
+        <v>3031600</v>
       </c>
       <c r="F59" s="3">
-        <v>3147900</v>
+        <v>3204600</v>
       </c>
       <c r="G59" s="3">
-        <v>3148900</v>
+        <v>3205600</v>
       </c>
       <c r="H59" s="3">
-        <v>3012400</v>
+        <v>3066600</v>
       </c>
       <c r="I59" s="3">
-        <v>2728200</v>
+        <v>2777400</v>
       </c>
       <c r="J59" s="3">
-        <v>2951100</v>
+        <v>3004200</v>
       </c>
       <c r="K59" s="3">
         <v>3459000</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6230500</v>
+        <v>6342700</v>
       </c>
       <c r="E60" s="3">
-        <v>7619900</v>
+        <v>7757100</v>
       </c>
       <c r="F60" s="3">
-        <v>6348900</v>
+        <v>6463300</v>
       </c>
       <c r="G60" s="3">
-        <v>6639600</v>
+        <v>6759100</v>
       </c>
       <c r="H60" s="3">
-        <v>6629600</v>
+        <v>6749000</v>
       </c>
       <c r="I60" s="3">
-        <v>5691800</v>
+        <v>5794300</v>
       </c>
       <c r="J60" s="3">
-        <v>5679200</v>
+        <v>5781500</v>
       </c>
       <c r="K60" s="3">
         <v>5820200</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4749900</v>
+        <v>4835500</v>
       </c>
       <c r="E61" s="3">
-        <v>3672900</v>
+        <v>3739100</v>
       </c>
       <c r="F61" s="3">
-        <v>3807100</v>
+        <v>3875700</v>
       </c>
       <c r="G61" s="3">
-        <v>3329000</v>
+        <v>3389000</v>
       </c>
       <c r="H61" s="3">
-        <v>3337400</v>
+        <v>3397500</v>
       </c>
       <c r="I61" s="3">
-        <v>4266800</v>
+        <v>4343600</v>
       </c>
       <c r="J61" s="3">
-        <v>3617700</v>
+        <v>3682800</v>
       </c>
       <c r="K61" s="3">
         <v>3753100</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1555300</v>
+        <v>1583300</v>
       </c>
       <c r="E62" s="3">
-        <v>1502700</v>
+        <v>1529700</v>
       </c>
       <c r="F62" s="3">
-        <v>1502300</v>
+        <v>1529400</v>
       </c>
       <c r="G62" s="3">
-        <v>1550700</v>
+        <v>1578600</v>
       </c>
       <c r="H62" s="3">
-        <v>1076500</v>
+        <v>1095900</v>
       </c>
       <c r="I62" s="3">
-        <v>1098200</v>
+        <v>1117900</v>
       </c>
       <c r="J62" s="3">
-        <v>1210200</v>
+        <v>1232000</v>
       </c>
       <c r="K62" s="3">
         <v>1068700</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12918100</v>
+        <v>13150700</v>
       </c>
       <c r="E66" s="3">
-        <v>13168800</v>
+        <v>13406000</v>
       </c>
       <c r="F66" s="3">
-        <v>13639700</v>
+        <v>13885300</v>
       </c>
       <c r="G66" s="3">
-        <v>13457300</v>
+        <v>13699600</v>
       </c>
       <c r="H66" s="3">
-        <v>13005800</v>
+        <v>13240000</v>
       </c>
       <c r="I66" s="3">
-        <v>12953800</v>
+        <v>13187100</v>
       </c>
       <c r="J66" s="3">
-        <v>12413400</v>
+        <v>12636900</v>
       </c>
       <c r="K66" s="3">
         <v>12636000</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24195600</v>
+        <v>24631300</v>
       </c>
       <c r="E72" s="3">
-        <v>24335100</v>
+        <v>24773400</v>
       </c>
       <c r="F72" s="3">
-        <v>24065600</v>
+        <v>24499000</v>
       </c>
       <c r="G72" s="3">
-        <v>23811100</v>
+        <v>24239900</v>
       </c>
       <c r="H72" s="3">
-        <v>23672900</v>
+        <v>24099200</v>
       </c>
       <c r="I72" s="3">
-        <v>23486400</v>
+        <v>23909300</v>
       </c>
       <c r="J72" s="3">
-        <v>23150700</v>
+        <v>23567600</v>
       </c>
       <c r="K72" s="3">
         <v>22110200</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18438700</v>
+        <v>18770800</v>
       </c>
       <c r="E76" s="3">
-        <v>19407600</v>
+        <v>19757100</v>
       </c>
       <c r="F76" s="3">
-        <v>19218900</v>
+        <v>19565000</v>
       </c>
       <c r="G76" s="3">
-        <v>19089700</v>
+        <v>19433500</v>
       </c>
       <c r="H76" s="3">
-        <v>19228900</v>
+        <v>19575200</v>
       </c>
       <c r="I76" s="3">
-        <v>19268500</v>
+        <v>19615500</v>
       </c>
       <c r="J76" s="3">
-        <v>19674700</v>
+        <v>20029000</v>
       </c>
       <c r="K76" s="3">
         <v>19251700</v>
@@ -3961,25 +3961,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>40900</v>
+        <v>41600</v>
       </c>
       <c r="E81" s="3">
-        <v>561800</v>
+        <v>571900</v>
       </c>
       <c r="F81" s="3">
-        <v>438800</v>
+        <v>446700</v>
       </c>
       <c r="G81" s="3">
-        <v>138400</v>
+        <v>140900</v>
       </c>
       <c r="H81" s="3">
-        <v>349800</v>
+        <v>356100</v>
       </c>
       <c r="I81" s="3">
-        <v>335700</v>
+        <v>341700</v>
       </c>
       <c r="J81" s="3">
-        <v>350900</v>
+        <v>357200</v>
       </c>
       <c r="K81" s="3">
         <v>257500</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>291100</v>
+        <v>296400</v>
       </c>
       <c r="E83" s="3">
-        <v>295400</v>
+        <v>300800</v>
       </c>
       <c r="F83" s="3">
-        <v>287800</v>
+        <v>293000</v>
       </c>
       <c r="G83" s="3">
-        <v>283400</v>
+        <v>288500</v>
       </c>
       <c r="H83" s="3">
-        <v>324400</v>
+        <v>330200</v>
       </c>
       <c r="I83" s="3">
-        <v>305600</v>
+        <v>311100</v>
       </c>
       <c r="J83" s="3">
-        <v>301600</v>
+        <v>307000</v>
       </c>
       <c r="K83" s="3">
         <v>284100</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>880500</v>
+        <v>896300</v>
       </c>
       <c r="E89" s="3">
-        <v>45700</v>
+        <v>46600</v>
       </c>
       <c r="F89" s="3">
-        <v>463900</v>
+        <v>472200</v>
       </c>
       <c r="G89" s="3">
-        <v>1023400</v>
+        <v>1041900</v>
       </c>
       <c r="H89" s="3">
-        <v>998600</v>
+        <v>1016600</v>
       </c>
       <c r="I89" s="3">
-        <v>550300</v>
+        <v>560200</v>
       </c>
       <c r="J89" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="K89" s="3">
         <v>790800</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-188000</v>
+        <v>-191400</v>
       </c>
       <c r="E91" s="3">
-        <v>-204300</v>
+        <v>-208000</v>
       </c>
       <c r="F91" s="3">
-        <v>-232600</v>
+        <v>-236800</v>
       </c>
       <c r="G91" s="3">
-        <v>-174400</v>
+        <v>-177600</v>
       </c>
       <c r="H91" s="3">
-        <v>-202500</v>
+        <v>-206100</v>
       </c>
       <c r="I91" s="3">
-        <v>-163600</v>
+        <v>-166600</v>
       </c>
       <c r="J91" s="3">
-        <v>-141700</v>
+        <v>-144300</v>
       </c>
       <c r="K91" s="3">
         <v>-134100</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400700</v>
+        <v>-407900</v>
       </c>
       <c r="E94" s="3">
-        <v>-367200</v>
+        <v>-373800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1269100</v>
+        <v>-1291900</v>
       </c>
       <c r="G94" s="3">
-        <v>-274400</v>
+        <v>-279300</v>
       </c>
       <c r="H94" s="3">
-        <v>-464300</v>
+        <v>-472700</v>
       </c>
       <c r="I94" s="3">
-        <v>-267200</v>
+        <v>-272000</v>
       </c>
       <c r="J94" s="3">
-        <v>-233000</v>
+        <v>-237200</v>
       </c>
       <c r="K94" s="3">
         <v>-967300</v>
@@ -4624,19 +4624,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-183600</v>
+        <v>-186900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-154500</v>
+        <v>-157300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-160800</v>
+        <v>-163700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4821,25 +4821,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-953400</v>
+        <v>-970500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1391300</v>
+        <v>-1416300</v>
       </c>
       <c r="F100" s="3">
-        <v>176100</v>
+        <v>179300</v>
       </c>
       <c r="G100" s="3">
-        <v>-200400</v>
+        <v>-204000</v>
       </c>
       <c r="H100" s="3">
-        <v>-475700</v>
+        <v>-484300</v>
       </c>
       <c r="I100" s="3">
-        <v>240800</v>
+        <v>245200</v>
       </c>
       <c r="J100" s="3">
-        <v>-975900</v>
+        <v>-993500</v>
       </c>
       <c r="K100" s="3">
         <v>-229600</v>
@@ -4871,25 +4871,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-106300</v>
+        <v>-108200</v>
       </c>
       <c r="E101" s="3">
-        <v>103000</v>
+        <v>104900</v>
       </c>
       <c r="F101" s="3">
-        <v>-73100</v>
+        <v>-74400</v>
       </c>
       <c r="G101" s="3">
-        <v>-98500</v>
+        <v>-100300</v>
       </c>
       <c r="H101" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="I101" s="3">
-        <v>-60800</v>
+        <v>-61900</v>
       </c>
       <c r="J101" s="3">
-        <v>60900</v>
+        <v>61900</v>
       </c>
       <c r="K101" s="3">
         <v>3100</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-579900</v>
+        <v>-590400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1609700</v>
+        <v>-1638700</v>
       </c>
       <c r="F102" s="3">
-        <v>-702200</v>
+        <v>-714800</v>
       </c>
       <c r="G102" s="3">
-        <v>450100</v>
+        <v>458200</v>
       </c>
       <c r="H102" s="3">
-        <v>48300</v>
+        <v>49100</v>
       </c>
       <c r="I102" s="3">
-        <v>463200</v>
+        <v>471500</v>
       </c>
       <c r="J102" s="3">
-        <v>-1164300</v>
+        <v>-1185300</v>
       </c>
       <c r="K102" s="3">
         <v>-403000</v>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5638600</v>
+        <v>5276600</v>
       </c>
       <c r="E8" s="3">
-        <v>5730100</v>
+        <v>4956700</v>
       </c>
       <c r="F8" s="3">
-        <v>5735300</v>
+        <v>4179400</v>
       </c>
       <c r="G8" s="3">
-        <v>5144500</v>
+        <v>5374600</v>
       </c>
       <c r="H8" s="3">
+        <v>5461800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5466800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4903600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6070400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>6026200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>5841400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>5134900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>5669300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>5620600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>5572700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>5166300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>5492800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>5132600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3414600</v>
+        <v>2952700</v>
       </c>
       <c r="E9" s="3">
-        <v>3332600</v>
+        <v>3034800</v>
       </c>
       <c r="F9" s="3">
-        <v>3379300</v>
+        <v>2462600</v>
       </c>
       <c r="G9" s="3">
-        <v>2949400</v>
+        <v>3254700</v>
       </c>
       <c r="H9" s="3">
+        <v>3176500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3221000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2811300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3734400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>3455200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>3427600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>2992100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>3832100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>3631400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>3695600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>3077700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>3267700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>3036000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2224000</v>
+        <v>2323900</v>
       </c>
       <c r="E10" s="3">
-        <v>2397500</v>
+        <v>1921800</v>
       </c>
       <c r="F10" s="3">
-        <v>2356000</v>
+        <v>1716900</v>
       </c>
       <c r="G10" s="3">
-        <v>2195100</v>
+        <v>2119900</v>
       </c>
       <c r="H10" s="3">
+        <v>2285200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2245700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2092300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2336000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>2571000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>2413900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>2142700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1837200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>1989100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>1877100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>2088600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>2225200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>2096500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +946,70 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>383300</v>
+        <v>332900</v>
       </c>
       <c r="E12" s="3">
-        <v>368200</v>
+        <v>348200</v>
       </c>
       <c r="F12" s="3">
-        <v>391300</v>
+        <v>333400</v>
       </c>
       <c r="G12" s="3">
-        <v>374500</v>
+        <v>365300</v>
       </c>
       <c r="H12" s="3">
+        <v>350900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>373000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>356900</v>
+      </c>
+      <c r="K12" s="3">
         <v>387500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>349000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>378100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>364900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>454200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>351000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <v>375500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>336800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>366000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="3">
         <v>346100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1058,17 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1117,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1176,17 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1202,129 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5302900</v>
+        <v>4690400</v>
       </c>
       <c r="E17" s="3">
-        <v>5157400</v>
+        <v>4626100</v>
       </c>
       <c r="F17" s="3">
-        <v>5207500</v>
+        <v>3992700</v>
       </c>
       <c r="G17" s="3">
-        <v>4787800</v>
+        <v>5054600</v>
       </c>
       <c r="H17" s="3">
+        <v>4915900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4963600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4563600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5575700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>5311000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>5389100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>4799900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>5667700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>5161200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>5226700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>4842300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>4977100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>4680500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>335700</v>
+        <v>586200</v>
       </c>
       <c r="E18" s="3">
-        <v>572700</v>
+        <v>330500</v>
       </c>
       <c r="F18" s="3">
-        <v>527800</v>
+        <v>186800</v>
       </c>
       <c r="G18" s="3">
-        <v>356700</v>
+        <v>320000</v>
       </c>
       <c r="H18" s="3">
+        <v>545900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>503100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>340000</v>
+      </c>
+      <c r="K18" s="3">
         <v>494700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>715100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>452400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>335000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>459300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>346000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>324000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>515700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>452000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1343,306 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-269200</v>
+        <v>111400</v>
       </c>
       <c r="E20" s="3">
-        <v>95700</v>
+        <v>199800</v>
       </c>
       <c r="F20" s="3">
-        <v>162100</v>
+        <v>205100</v>
       </c>
       <c r="G20" s="3">
-        <v>-96100</v>
+        <v>-256600</v>
       </c>
       <c r="H20" s="3">
+        <v>91200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>154500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="K20" s="3">
         <v>69400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-171100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>66600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>90000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>217700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>222800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>49400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>209800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>105300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>149000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>362900</v>
+        <v>979200</v>
       </c>
       <c r="E21" s="3">
-        <v>969200</v>
+        <v>806900</v>
       </c>
       <c r="F21" s="3">
-        <v>982900</v>
+        <v>666200</v>
       </c>
       <c r="G21" s="3">
-        <v>549100</v>
+        <v>345900</v>
       </c>
       <c r="H21" s="3">
+        <v>923800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>936900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>523400</v>
+      </c>
+      <c r="K21" s="3">
         <v>894300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>855100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>826000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>709100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>512800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>987300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>674700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>811400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>898400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>843800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>3700</v>
+        <v>8300</v>
       </c>
       <c r="E22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
-        <v>6300</v>
-      </c>
       <c r="G22" s="3">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="H22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>8400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>9400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>8700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>7800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>9800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>10900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>12900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>12400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>14200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>62900</v>
+        <v>689300</v>
       </c>
       <c r="E23" s="3">
-        <v>663100</v>
+        <v>525500</v>
       </c>
       <c r="F23" s="3">
-        <v>683700</v>
+        <v>386500</v>
       </c>
       <c r="G23" s="3">
-        <v>253600</v>
+        <v>59900</v>
       </c>
       <c r="H23" s="3">
+        <v>632000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>651600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>241800</v>
+      </c>
+      <c r="K23" s="3">
         <v>559300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>535600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>509700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>416300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>211500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>672300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>384600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>520900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>608600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>586900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>29500</v>
+        <v>161200</v>
       </c>
       <c r="E24" s="3">
-        <v>77800</v>
+        <v>143700</v>
       </c>
       <c r="F24" s="3">
-        <v>172200</v>
+        <v>118300</v>
       </c>
       <c r="G24" s="3">
-        <v>67600</v>
+        <v>28100</v>
       </c>
       <c r="H24" s="3">
+        <v>74100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>164100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K24" s="3">
         <v>165400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>147300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>96100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>122900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>125700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>158200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>116300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>92500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>63400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>162800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1691,135 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>33300</v>
+        <v>528200</v>
       </c>
       <c r="E26" s="3">
-        <v>585300</v>
+        <v>381900</v>
       </c>
       <c r="F26" s="3">
-        <v>511500</v>
+        <v>268200</v>
       </c>
       <c r="G26" s="3">
-        <v>186000</v>
+        <v>31800</v>
       </c>
       <c r="H26" s="3">
+        <v>557900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>487600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>177300</v>
+      </c>
+      <c r="K26" s="3">
         <v>393900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>388300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>413500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>293400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>85800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>514100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>268300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>428400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>545200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>424100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>41600</v>
+        <v>539400</v>
       </c>
       <c r="E27" s="3">
-        <v>571900</v>
+        <v>367400</v>
       </c>
       <c r="F27" s="3">
-        <v>446700</v>
+        <v>251900</v>
       </c>
       <c r="G27" s="3">
-        <v>140900</v>
+        <v>39700</v>
       </c>
       <c r="H27" s="3">
+        <v>545100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>425800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K27" s="3">
         <v>356100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>341700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>357200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>257500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>147100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>484600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>245000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>396000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>484100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>393400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1868,17 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1927,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1986,17 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,108 +2045,135 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>269200</v>
+        <v>-111400</v>
       </c>
       <c r="E32" s="3">
-        <v>-95700</v>
+        <v>-199800</v>
       </c>
       <c r="F32" s="3">
-        <v>-162100</v>
+        <v>-205100</v>
       </c>
       <c r="G32" s="3">
-        <v>96100</v>
+        <v>256600</v>
       </c>
       <c r="H32" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-154500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>91600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-69400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>171100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-66600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-90000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-217700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-222800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-49400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-209800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-105300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>-149000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>41600</v>
+        <v>539400</v>
       </c>
       <c r="E33" s="3">
-        <v>571900</v>
+        <v>367400</v>
       </c>
       <c r="F33" s="3">
-        <v>446700</v>
+        <v>251900</v>
       </c>
       <c r="G33" s="3">
-        <v>140900</v>
+        <v>39700</v>
       </c>
       <c r="H33" s="3">
+        <v>545100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>425800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K33" s="3">
         <v>356100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>341700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>357200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>257500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>147100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>484600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>245000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>396000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>484100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>393400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2222,140 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>41600</v>
+        <v>539400</v>
       </c>
       <c r="E35" s="3">
-        <v>571900</v>
+        <v>367400</v>
       </c>
       <c r="F35" s="3">
-        <v>446700</v>
+        <v>251900</v>
       </c>
       <c r="G35" s="3">
-        <v>140900</v>
+        <v>39700</v>
       </c>
       <c r="H35" s="3">
+        <v>545100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>425800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K35" s="3">
         <v>356100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>341700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>357200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>257500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>147100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>484600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>245000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>396000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>484100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>393400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2374,11 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,58 +2397,70 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3806400</v>
+        <v>4532100</v>
       </c>
       <c r="E41" s="3">
-        <v>4396800</v>
+        <v>4191000</v>
       </c>
       <c r="F41" s="3">
-        <v>6035500</v>
+        <v>3538200</v>
       </c>
       <c r="G41" s="3">
-        <v>6750300</v>
+        <v>3628200</v>
       </c>
       <c r="H41" s="3">
+        <v>4190900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5752900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6434200</v>
+      </c>
+      <c r="K41" s="3">
         <v>6292100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>6243000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>5771500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>6580400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>6983400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>5895800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>6172300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>7190000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>7769700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>5709700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2216,382 +2485,454 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>27600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>54700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>54700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>53600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>26600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5366400</v>
+        <v>4854800</v>
       </c>
       <c r="E43" s="3">
-        <v>5493000</v>
+        <v>4553600</v>
       </c>
       <c r="F43" s="3">
-        <v>5188000</v>
+        <v>4240100</v>
       </c>
       <c r="G43" s="3">
-        <v>5018200</v>
+        <v>5115100</v>
       </c>
       <c r="H43" s="3">
+        <v>5235800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4945100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4783200</v>
+      </c>
+      <c r="K43" s="3">
         <v>5937000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>5728800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>5629800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>5106600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>5627200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>5700700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>5684900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>5386900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>5639400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>5504800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3660600</v>
+        <v>3727100</v>
       </c>
       <c r="E44" s="3">
-        <v>3952900</v>
+        <v>3719300</v>
       </c>
       <c r="F44" s="3">
-        <v>3832300</v>
+        <v>3905300</v>
       </c>
       <c r="G44" s="3">
-        <v>3828900</v>
+        <v>3489100</v>
       </c>
       <c r="H44" s="3">
+        <v>3767800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3652800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3649600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3598500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>3875400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>3879600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>3580200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>3284400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>3610900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>3538100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>3539000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>3009100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>3299400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1477900</v>
+        <v>847500</v>
       </c>
       <c r="E45" s="3">
-        <v>1475400</v>
+        <v>890500</v>
       </c>
       <c r="F45" s="3">
-        <v>876400</v>
+        <v>1520800</v>
       </c>
       <c r="G45" s="3">
-        <v>979000</v>
+        <v>1408700</v>
       </c>
       <c r="H45" s="3">
+        <v>1406300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>835400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>933200</v>
+      </c>
+      <c r="K45" s="3">
         <v>806400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>928700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>969300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>1244900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>1019400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>1182600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>1199300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>1194300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>1576900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>1208300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14311200</v>
+        <v>13961600</v>
       </c>
       <c r="E46" s="3">
-        <v>15318100</v>
+        <v>13354400</v>
       </c>
       <c r="F46" s="3">
-        <v>15932300</v>
+        <v>13204400</v>
       </c>
       <c r="G46" s="3">
-        <v>16576400</v>
+        <v>13641100</v>
       </c>
       <c r="H46" s="3">
+        <v>14600800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>15186200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>15800200</v>
+      </c>
+      <c r="K46" s="3">
         <v>16634000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>16775900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>16250200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>16512000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>16914700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>16417600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>16649400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>17364900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>18048700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>15748800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1952100</v>
+        <v>1951400</v>
       </c>
       <c r="E47" s="3">
-        <v>2225000</v>
+        <v>2037600</v>
       </c>
       <c r="F47" s="3">
-        <v>2177400</v>
+        <v>1960900</v>
       </c>
       <c r="G47" s="3">
-        <v>2137600</v>
+        <v>1860700</v>
       </c>
       <c r="H47" s="3">
+        <v>2120800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2075400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2037500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2303400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>2128200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>2236700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>2099400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>2173900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>2715900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>2812500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>2751100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>2656900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>3052200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6494500</v>
+        <v>6332600</v>
       </c>
       <c r="E48" s="3">
-        <v>6453500</v>
+        <v>6288300</v>
       </c>
       <c r="F48" s="3">
-        <v>6374000</v>
+        <v>6246500</v>
       </c>
       <c r="G48" s="3">
-        <v>4979300</v>
+        <v>6190400</v>
       </c>
       <c r="H48" s="3">
+        <v>6151300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6075500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4746100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5062500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>5005900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>5100000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>4837700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>4886300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>4945600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>4976300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>4989300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>4617800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>4663300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7968900</v>
+        <v>7524800</v>
       </c>
       <c r="E49" s="3">
-        <v>8085200</v>
+        <v>7562100</v>
       </c>
       <c r="F49" s="3">
-        <v>7894100</v>
+        <v>7608300</v>
       </c>
       <c r="G49" s="3">
-        <v>7552900</v>
+        <v>7595700</v>
       </c>
       <c r="H49" s="3">
+        <v>7706600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7524400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7199300</v>
+      </c>
+      <c r="K49" s="3">
         <v>7693000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>7718000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>7845000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>7296200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>6533000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>6655900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>6660900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>6641100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>5111600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>5222000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2981,17 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +3040,76 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1194700</v>
+        <v>1098100</v>
       </c>
       <c r="E52" s="3">
-        <v>1081400</v>
+        <v>1060800</v>
       </c>
       <c r="F52" s="3">
-        <v>1072600</v>
+        <v>1044600</v>
       </c>
       <c r="G52" s="3">
-        <v>1886800</v>
+        <v>1138800</v>
       </c>
       <c r="H52" s="3">
+        <v>1030700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1022400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1798500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1122200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1174500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1234000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1142500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1242900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1181200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>1180500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>1225800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>904300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>879100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3158,76 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31921500</v>
+        <v>30868500</v>
       </c>
       <c r="E54" s="3">
-        <v>33163100</v>
+        <v>30303200</v>
       </c>
       <c r="F54" s="3">
-        <v>33450400</v>
+        <v>30064600</v>
       </c>
       <c r="G54" s="3">
-        <v>33133100</v>
+        <v>30426700</v>
       </c>
       <c r="H54" s="3">
+        <v>31610200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>31884000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>31581600</v>
+      </c>
+      <c r="K54" s="3">
         <v>32815200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>32802600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>32665900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>31887700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>31750800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>31916300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>32279500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>32972100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>31339400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>29565300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3246,11 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3269,365 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1892600</v>
+        <v>1745500</v>
       </c>
       <c r="E57" s="3">
-        <v>2089700</v>
+        <v>1647400</v>
       </c>
       <c r="F57" s="3">
-        <v>1909100</v>
+        <v>1655300</v>
       </c>
       <c r="G57" s="3">
-        <v>1906500</v>
+        <v>1804000</v>
       </c>
       <c r="H57" s="3">
+        <v>1991800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1819700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1817300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2043100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>2091300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2125900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>1998500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2066900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>2047300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>2039700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>2089400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>2110600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>2016200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1162800</v>
+        <v>725900</v>
       </c>
       <c r="E58" s="3">
-        <v>2635800</v>
+        <v>667600</v>
       </c>
       <c r="F58" s="3">
-        <v>1349500</v>
+        <v>640700</v>
       </c>
       <c r="G58" s="3">
-        <v>1647000</v>
+        <v>1108300</v>
       </c>
       <c r="H58" s="3">
+        <v>2512400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1286300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1569800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1639300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>925600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>651400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>362700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>378800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>298400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>683500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>1072600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>1099900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>1204700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3287300</v>
+        <v>3246200</v>
       </c>
       <c r="E59" s="3">
-        <v>3031600</v>
+        <v>3123000</v>
       </c>
       <c r="F59" s="3">
-        <v>3204600</v>
+        <v>3113700</v>
       </c>
       <c r="G59" s="3">
-        <v>3205600</v>
+        <v>3133400</v>
       </c>
       <c r="H59" s="3">
+        <v>2889600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3054500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3055500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3066600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>2777400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3004200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>3459000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>3592000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>2659800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>2918900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>2901100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>2822700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>2545900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6342700</v>
+        <v>5717600</v>
       </c>
       <c r="E60" s="3">
-        <v>7757100</v>
+        <v>5438000</v>
       </c>
       <c r="F60" s="3">
-        <v>6463300</v>
+        <v>5409700</v>
       </c>
       <c r="G60" s="3">
-        <v>6759100</v>
+        <v>6045700</v>
       </c>
       <c r="H60" s="3">
+        <v>7393800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>6160600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6442600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6749000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>5794300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>5781500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>5820200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>6037700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>5005500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>5642100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>6063100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>6033200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>5766900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4835500</v>
+        <v>4269600</v>
       </c>
       <c r="E61" s="3">
-        <v>3739100</v>
+        <v>4516300</v>
       </c>
       <c r="F61" s="3">
-        <v>3875700</v>
+        <v>4509600</v>
       </c>
       <c r="G61" s="3">
-        <v>3389000</v>
+        <v>4609000</v>
       </c>
       <c r="H61" s="3">
+        <v>3564000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>3694200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3230300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3397500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>4343600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>3682800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>3753100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>3749600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>3957200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>3954200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>4473500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>3857100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>2059100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1583300</v>
+        <v>1423600</v>
       </c>
       <c r="E62" s="3">
-        <v>1529700</v>
+        <v>1497300</v>
       </c>
       <c r="F62" s="3">
-        <v>1529400</v>
+        <v>1545200</v>
       </c>
       <c r="G62" s="3">
-        <v>1578600</v>
+        <v>1509200</v>
       </c>
       <c r="H62" s="3">
+        <v>1458100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1457700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1504700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1095900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>1117900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>1232000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>1068700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>1068200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>1208300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>1249400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>1282400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>1331500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>1345000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3676,17 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3735,17 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3794,76 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13150700</v>
+        <v>11806500</v>
       </c>
       <c r="E66" s="3">
-        <v>13406000</v>
+        <v>11850000</v>
       </c>
       <c r="F66" s="3">
-        <v>13885300</v>
+        <v>11855800</v>
       </c>
       <c r="G66" s="3">
-        <v>13699600</v>
+        <v>12534900</v>
       </c>
       <c r="H66" s="3">
+        <v>12778200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>13235100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13058100</v>
+      </c>
+      <c r="K66" s="3">
         <v>13240000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>13187100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>12636900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>12636000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>12851500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>12264300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>13003500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>13939800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>13213000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>11233800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3882,11 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3935,17 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3994,17 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +4053,17 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +4112,76 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24631300</v>
+        <v>24447000</v>
       </c>
       <c r="E72" s="3">
-        <v>24773400</v>
+        <v>23906100</v>
       </c>
       <c r="F72" s="3">
-        <v>24499000</v>
+        <v>23711200</v>
       </c>
       <c r="G72" s="3">
-        <v>24239900</v>
+        <v>23477900</v>
       </c>
       <c r="H72" s="3">
+        <v>23613300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>23351800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>23104800</v>
+      </c>
+      <c r="K72" s="3">
         <v>24099200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>23909300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>23567600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>22110200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>21668700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>21549000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>21064400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>20967600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>20184800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>20233000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4230,17 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4289,17 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4348,76 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18770800</v>
+        <v>19062000</v>
       </c>
       <c r="E76" s="3">
-        <v>19757100</v>
+        <v>18453200</v>
       </c>
       <c r="F76" s="3">
-        <v>19565000</v>
+        <v>18208800</v>
       </c>
       <c r="G76" s="3">
-        <v>19433500</v>
+        <v>17891800</v>
       </c>
       <c r="H76" s="3">
+        <v>18832000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>18648900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>18523500</v>
+      </c>
+      <c r="K76" s="3">
         <v>19575200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>19615500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>20029000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>19251700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>18899300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>19652000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>19276000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>19032300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>18126400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>18331500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4466,140 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>41600</v>
+        <v>539400</v>
       </c>
       <c r="E81" s="3">
-        <v>571900</v>
+        <v>367400</v>
       </c>
       <c r="F81" s="3">
-        <v>446700</v>
+        <v>251900</v>
       </c>
       <c r="G81" s="3">
-        <v>140900</v>
+        <v>39700</v>
       </c>
       <c r="H81" s="3">
+        <v>545100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>425800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K81" s="3">
         <v>356100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>341700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>357200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>257500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>147100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>484600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>245000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>396000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>484100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>393400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4618,70 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>296400</v>
+        <v>281600</v>
       </c>
       <c r="E83" s="3">
-        <v>300800</v>
+        <v>276600</v>
       </c>
       <c r="F83" s="3">
-        <v>293000</v>
+        <v>274300</v>
       </c>
       <c r="G83" s="3">
-        <v>288500</v>
+        <v>282500</v>
       </c>
       <c r="H83" s="3">
+        <v>286700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>279300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>275000</v>
+      </c>
+      <c r="K83" s="3">
         <v>330200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>311100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>307000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>284100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>293600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>305100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>279200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>277600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>277400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>242800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4730,17 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4789,17 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4848,17 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4907,17 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4966,17 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,49 +4984,58 @@
         <v>896300</v>
       </c>
       <c r="E89" s="3">
-        <v>46600</v>
+        <v>862200</v>
       </c>
       <c r="F89" s="3">
-        <v>472200</v>
+        <v>919900</v>
       </c>
       <c r="G89" s="3">
-        <v>1041900</v>
+        <v>854300</v>
       </c>
       <c r="H89" s="3">
+        <v>44400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>450100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>993100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1016600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>560200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-16600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>790800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>958700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>404200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>159000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>844200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>874800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>444300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +5054,70 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-191400</v>
+        <v>-218500</v>
       </c>
       <c r="E91" s="3">
-        <v>-208000</v>
+        <v>-238200</v>
       </c>
       <c r="F91" s="3">
-        <v>-236800</v>
+        <v>-211100</v>
       </c>
       <c r="G91" s="3">
-        <v>-177600</v>
+        <v>-182400</v>
       </c>
       <c r="H91" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-225700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-169200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-206100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-166600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-144300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-134100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-132800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-161000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-156000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-120800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-231900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>256900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +5166,17 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +5225,76 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-407900</v>
+        <v>-162600</v>
       </c>
       <c r="E94" s="3">
-        <v>-373800</v>
+        <v>-262400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1291900</v>
+        <v>-307100</v>
       </c>
       <c r="G94" s="3">
-        <v>-279300</v>
+        <v>-388800</v>
       </c>
       <c r="H94" s="3">
+        <v>-356300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1231400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-266300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-472700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-272000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-237200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-967300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>541500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>68900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-277700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-448100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-286800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +5313,70 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-173900</v>
       </c>
       <c r="E96" s="3">
-        <v>-186900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-173900</v>
       </c>
       <c r="G96" s="3">
-        <v>-157300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-178100</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-163700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-146700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-148200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-138500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-137700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5425,17 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5484,17 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5543,190 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-970500</v>
+        <v>-394900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1416300</v>
+        <v>46100</v>
       </c>
       <c r="F100" s="3">
-        <v>179300</v>
+        <v>-728900</v>
       </c>
       <c r="G100" s="3">
-        <v>-204000</v>
+        <v>-925100</v>
       </c>
       <c r="H100" s="3">
+        <v>-1350000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>170900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-194400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-484300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>245200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-993500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-229600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-328100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-788100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>-959700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>-266900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>1700900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-500500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-108200</v>
+        <v>2300</v>
       </c>
       <c r="E101" s="3">
-        <v>104900</v>
+        <v>6900</v>
       </c>
       <c r="F101" s="3">
-        <v>-74400</v>
+        <v>26100</v>
       </c>
       <c r="G101" s="3">
-        <v>-100300</v>
+        <v>-103200</v>
       </c>
       <c r="H101" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-61900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>61900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-117200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>38500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>60700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>34300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>-67600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>269600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="U101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-590400</v>
+        <v>341100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1638700</v>
+        <v>652800</v>
       </c>
       <c r="F102" s="3">
-        <v>-714800</v>
+        <v>-90000</v>
       </c>
       <c r="G102" s="3">
-        <v>458200</v>
+        <v>-562700</v>
       </c>
       <c r="H102" s="3">
+        <v>-1562000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-681400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>436800</v>
+      </c>
+      <c r="K102" s="3">
         <v>49100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>471500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-403000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>1054900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-276500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-728700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-56300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5276600</v>
+        <v>5689400</v>
       </c>
       <c r="E8" s="3">
-        <v>4956700</v>
+        <v>5293900</v>
       </c>
       <c r="F8" s="3">
-        <v>4179400</v>
+        <v>4972900</v>
       </c>
       <c r="G8" s="3">
-        <v>5374600</v>
+        <v>4193100</v>
       </c>
       <c r="H8" s="3">
-        <v>5461800</v>
+        <v>5392200</v>
       </c>
       <c r="I8" s="3">
-        <v>5466800</v>
+        <v>5479700</v>
       </c>
       <c r="J8" s="3">
+        <v>5484700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4903600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6070400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6026200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5841400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5134900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5669300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5620600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5572700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5166300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5492800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5132600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2952700</v>
+        <v>3679100</v>
       </c>
       <c r="E9" s="3">
-        <v>3034800</v>
+        <v>2962300</v>
       </c>
       <c r="F9" s="3">
-        <v>2462600</v>
+        <v>3044800</v>
       </c>
       <c r="G9" s="3">
-        <v>3254700</v>
+        <v>2470600</v>
       </c>
       <c r="H9" s="3">
-        <v>3176500</v>
+        <v>3265400</v>
       </c>
       <c r="I9" s="3">
-        <v>3221000</v>
+        <v>3186900</v>
       </c>
       <c r="J9" s="3">
+        <v>3231600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2811300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3734400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3455200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3427600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2992100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3832100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3631400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3695600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3077700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3267700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3036000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2323900</v>
+        <v>2010300</v>
       </c>
       <c r="E10" s="3">
-        <v>1921800</v>
+        <v>2331500</v>
       </c>
       <c r="F10" s="3">
-        <v>1716900</v>
+        <v>1928100</v>
       </c>
       <c r="G10" s="3">
-        <v>2119900</v>
+        <v>1722500</v>
       </c>
       <c r="H10" s="3">
-        <v>2285200</v>
+        <v>2126800</v>
       </c>
       <c r="I10" s="3">
-        <v>2245700</v>
+        <v>2292700</v>
       </c>
       <c r="J10" s="3">
+        <v>2253100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2092300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2336000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2571000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2413900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2142700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1837200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1989100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1877100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2088600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2225200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2096500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>332900</v>
+        <v>380500</v>
       </c>
       <c r="E12" s="3">
-        <v>348200</v>
+        <v>334000</v>
       </c>
       <c r="F12" s="3">
-        <v>333400</v>
+        <v>349300</v>
       </c>
       <c r="G12" s="3">
-        <v>365300</v>
+        <v>334500</v>
       </c>
       <c r="H12" s="3">
-        <v>350900</v>
+        <v>366500</v>
       </c>
       <c r="I12" s="3">
-        <v>373000</v>
+        <v>352100</v>
       </c>
       <c r="J12" s="3">
+        <v>374200</v>
+      </c>
+      <c r="K12" s="3">
         <v>356900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>387500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>349000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>378100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>364900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>454200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>351000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>375500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>336800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>366000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>346100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4690400</v>
+        <v>5275800</v>
       </c>
       <c r="E17" s="3">
-        <v>4626100</v>
+        <v>4705700</v>
       </c>
       <c r="F17" s="3">
-        <v>3992700</v>
+        <v>4641300</v>
       </c>
       <c r="G17" s="3">
-        <v>5054600</v>
+        <v>4005700</v>
       </c>
       <c r="H17" s="3">
-        <v>4915900</v>
+        <v>5071100</v>
       </c>
       <c r="I17" s="3">
-        <v>4963600</v>
+        <v>4932000</v>
       </c>
       <c r="J17" s="3">
+        <v>4979900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4563600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5575700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5311000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5389100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4799900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5667700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5161200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5226700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4842300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4977100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4680500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>586200</v>
+        <v>413600</v>
       </c>
       <c r="E18" s="3">
-        <v>330500</v>
+        <v>588100</v>
       </c>
       <c r="F18" s="3">
-        <v>186800</v>
+        <v>331600</v>
       </c>
       <c r="G18" s="3">
-        <v>320000</v>
+        <v>187400</v>
       </c>
       <c r="H18" s="3">
-        <v>545900</v>
+        <v>321100</v>
       </c>
       <c r="I18" s="3">
-        <v>503100</v>
+        <v>547700</v>
       </c>
       <c r="J18" s="3">
+        <v>504800</v>
+      </c>
+      <c r="K18" s="3">
         <v>340000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>494700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>715100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>452400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>335000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>459300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>346000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>324000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>515700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>452000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>111400</v>
+        <v>152700</v>
       </c>
       <c r="E20" s="3">
-        <v>199800</v>
+        <v>111800</v>
       </c>
       <c r="F20" s="3">
-        <v>205100</v>
+        <v>200500</v>
       </c>
       <c r="G20" s="3">
-        <v>-256600</v>
+        <v>205800</v>
       </c>
       <c r="H20" s="3">
-        <v>91200</v>
+        <v>-257400</v>
       </c>
       <c r="I20" s="3">
-        <v>154500</v>
+        <v>91500</v>
       </c>
       <c r="J20" s="3">
+        <v>155000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-91600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>69400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-171100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>66600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>90000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>217700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>222800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>49400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>209800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>105300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>149000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>979200</v>
+        <v>865300</v>
       </c>
       <c r="E21" s="3">
-        <v>806900</v>
+        <v>982400</v>
       </c>
       <c r="F21" s="3">
-        <v>666200</v>
+        <v>809500</v>
       </c>
       <c r="G21" s="3">
-        <v>345900</v>
+        <v>668400</v>
       </c>
       <c r="H21" s="3">
-        <v>923800</v>
+        <v>347100</v>
       </c>
       <c r="I21" s="3">
-        <v>936900</v>
+        <v>926800</v>
       </c>
       <c r="J21" s="3">
+        <v>940000</v>
+      </c>
+      <c r="K21" s="3">
         <v>523400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>894300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>855100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>826000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>709100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>512800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>987300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>674700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>811400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>898400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>843800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
         <v>8300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>689300</v>
+        <v>561000</v>
       </c>
       <c r="E23" s="3">
-        <v>525500</v>
+        <v>691600</v>
       </c>
       <c r="F23" s="3">
-        <v>386500</v>
+        <v>527200</v>
       </c>
       <c r="G23" s="3">
-        <v>59900</v>
+        <v>387800</v>
       </c>
       <c r="H23" s="3">
-        <v>632000</v>
+        <v>60100</v>
       </c>
       <c r="I23" s="3">
-        <v>651600</v>
+        <v>634100</v>
       </c>
       <c r="J23" s="3">
+        <v>653800</v>
+      </c>
+      <c r="K23" s="3">
         <v>241800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>559300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>535600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>509700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>416300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>211500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>672300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>384600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>520900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>608600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>586900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>161200</v>
+        <v>86500</v>
       </c>
       <c r="E24" s="3">
-        <v>143700</v>
+        <v>161700</v>
       </c>
       <c r="F24" s="3">
-        <v>118300</v>
+        <v>144100</v>
       </c>
       <c r="G24" s="3">
-        <v>28100</v>
+        <v>118700</v>
       </c>
       <c r="H24" s="3">
-        <v>74100</v>
+        <v>28200</v>
       </c>
       <c r="I24" s="3">
-        <v>164100</v>
+        <v>74400</v>
       </c>
       <c r="J24" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K24" s="3">
         <v>64400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>165400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>147300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>96100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>122900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>125700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>158200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>116300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>92500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>63400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>162800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>528200</v>
+        <v>474500</v>
       </c>
       <c r="E26" s="3">
-        <v>381900</v>
+        <v>529900</v>
       </c>
       <c r="F26" s="3">
-        <v>268200</v>
+        <v>383100</v>
       </c>
       <c r="G26" s="3">
-        <v>31800</v>
+        <v>269100</v>
       </c>
       <c r="H26" s="3">
-        <v>557900</v>
+        <v>31900</v>
       </c>
       <c r="I26" s="3">
-        <v>487600</v>
+        <v>559700</v>
       </c>
       <c r="J26" s="3">
+        <v>489100</v>
+      </c>
+      <c r="K26" s="3">
         <v>177300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>393900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>388300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>413500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>293400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>85800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>514100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>268300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>428400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>545200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>424100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>539400</v>
+        <v>502800</v>
       </c>
       <c r="E27" s="3">
-        <v>367400</v>
+        <v>541100</v>
       </c>
       <c r="F27" s="3">
-        <v>251900</v>
+        <v>368600</v>
       </c>
       <c r="G27" s="3">
-        <v>39700</v>
+        <v>252700</v>
       </c>
       <c r="H27" s="3">
-        <v>545100</v>
+        <v>39800</v>
       </c>
       <c r="I27" s="3">
-        <v>425800</v>
+        <v>546900</v>
       </c>
       <c r="J27" s="3">
+        <v>427200</v>
+      </c>
+      <c r="K27" s="3">
         <v>134300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>356100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>341700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>357200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>257500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>147100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>484600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>245000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>396000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>484100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>393400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-111400</v>
+        <v>-152700</v>
       </c>
       <c r="E32" s="3">
-        <v>-199800</v>
+        <v>-111800</v>
       </c>
       <c r="F32" s="3">
-        <v>-205100</v>
+        <v>-200500</v>
       </c>
       <c r="G32" s="3">
-        <v>256600</v>
+        <v>-205800</v>
       </c>
       <c r="H32" s="3">
-        <v>-91200</v>
+        <v>257400</v>
       </c>
       <c r="I32" s="3">
-        <v>-154500</v>
+        <v>-91500</v>
       </c>
       <c r="J32" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="K32" s="3">
         <v>91600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-69400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>171100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-66600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-90000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-217700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-222800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-49400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-209800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-105300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-149000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>539400</v>
+        <v>502800</v>
       </c>
       <c r="E33" s="3">
-        <v>367400</v>
+        <v>541100</v>
       </c>
       <c r="F33" s="3">
-        <v>251900</v>
+        <v>368600</v>
       </c>
       <c r="G33" s="3">
-        <v>39700</v>
+        <v>252700</v>
       </c>
       <c r="H33" s="3">
-        <v>545100</v>
+        <v>39800</v>
       </c>
       <c r="I33" s="3">
-        <v>425800</v>
+        <v>546900</v>
       </c>
       <c r="J33" s="3">
+        <v>427200</v>
+      </c>
+      <c r="K33" s="3">
         <v>134300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>356100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>341700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>357200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>257500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>147100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>484600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>245000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>396000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>484100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>393400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>539400</v>
+        <v>502800</v>
       </c>
       <c r="E35" s="3">
-        <v>367400</v>
+        <v>541100</v>
       </c>
       <c r="F35" s="3">
-        <v>251900</v>
+        <v>368600</v>
       </c>
       <c r="G35" s="3">
-        <v>39700</v>
+        <v>252700</v>
       </c>
       <c r="H35" s="3">
-        <v>545100</v>
+        <v>39800</v>
       </c>
       <c r="I35" s="3">
-        <v>425800</v>
+        <v>546900</v>
       </c>
       <c r="J35" s="3">
+        <v>427200</v>
+      </c>
+      <c r="K35" s="3">
         <v>134300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>356100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>341700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>357200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>257500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>147100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>484600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>245000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>396000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>484100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>393400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4532100</v>
+        <v>3628200</v>
       </c>
       <c r="E41" s="3">
-        <v>4191000</v>
+        <v>4546900</v>
       </c>
       <c r="F41" s="3">
-        <v>3538200</v>
+        <v>4204700</v>
       </c>
       <c r="G41" s="3">
-        <v>3628200</v>
+        <v>3549800</v>
       </c>
       <c r="H41" s="3">
-        <v>4190900</v>
+        <v>3640100</v>
       </c>
       <c r="I41" s="3">
-        <v>5752900</v>
+        <v>4204600</v>
       </c>
       <c r="J41" s="3">
+        <v>5771700</v>
+      </c>
+      <c r="K41" s="3">
         <v>6434200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6292100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6243000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5771500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6580400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6983400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5895800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6172300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7190000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7769700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5709700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2494,445 +2584,469 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27600</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>54700</v>
       </c>
       <c r="R42" s="3">
         <v>54700</v>
       </c>
       <c r="S42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="T42" s="3">
         <v>53600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>26600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4854800</v>
+        <v>5566500</v>
       </c>
       <c r="E43" s="3">
-        <v>4553600</v>
+        <v>4870700</v>
       </c>
       <c r="F43" s="3">
-        <v>4240100</v>
+        <v>4568500</v>
       </c>
       <c r="G43" s="3">
-        <v>5115100</v>
+        <v>4254000</v>
       </c>
       <c r="H43" s="3">
-        <v>5235800</v>
+        <v>5131900</v>
       </c>
       <c r="I43" s="3">
-        <v>4945100</v>
+        <v>5252900</v>
       </c>
       <c r="J43" s="3">
+        <v>4961300</v>
+      </c>
+      <c r="K43" s="3">
         <v>4783200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5937000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5728800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5629800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5106600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5627200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5700700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5684900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5386900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5639400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5504800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3727100</v>
+        <v>3838300</v>
       </c>
       <c r="E44" s="3">
-        <v>3719300</v>
+        <v>3739400</v>
       </c>
       <c r="F44" s="3">
-        <v>3905300</v>
+        <v>3731500</v>
       </c>
       <c r="G44" s="3">
-        <v>3489100</v>
+        <v>3918100</v>
       </c>
       <c r="H44" s="3">
-        <v>3767800</v>
+        <v>3500600</v>
       </c>
       <c r="I44" s="3">
-        <v>3652800</v>
+        <v>3780100</v>
       </c>
       <c r="J44" s="3">
+        <v>3664800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3649600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3598500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3875400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3879600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3580200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3284400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3610900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3538100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3539000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3009100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3299400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>847500</v>
+        <v>819800</v>
       </c>
       <c r="E45" s="3">
-        <v>890500</v>
+        <v>850300</v>
       </c>
       <c r="F45" s="3">
-        <v>1520800</v>
+        <v>893500</v>
       </c>
       <c r="G45" s="3">
-        <v>1408700</v>
+        <v>1525800</v>
       </c>
       <c r="H45" s="3">
-        <v>1406300</v>
+        <v>1413300</v>
       </c>
       <c r="I45" s="3">
-        <v>835400</v>
+        <v>1410900</v>
       </c>
       <c r="J45" s="3">
+        <v>838100</v>
+      </c>
+      <c r="K45" s="3">
         <v>933200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>806400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>928700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>969300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1244900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1019400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1182600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1199300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1194300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1576900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1208300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13961600</v>
+        <v>13852800</v>
       </c>
       <c r="E46" s="3">
-        <v>13354400</v>
+        <v>14007300</v>
       </c>
       <c r="F46" s="3">
-        <v>13204400</v>
+        <v>13398200</v>
       </c>
       <c r="G46" s="3">
-        <v>13641100</v>
+        <v>13247600</v>
       </c>
       <c r="H46" s="3">
-        <v>14600800</v>
+        <v>13685800</v>
       </c>
       <c r="I46" s="3">
-        <v>15186200</v>
+        <v>14648600</v>
       </c>
       <c r="J46" s="3">
+        <v>15235900</v>
+      </c>
+      <c r="K46" s="3">
         <v>15800200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16634000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16775900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16250200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16512000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16914700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16417600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16649400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17364900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18048700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15748800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1951400</v>
+        <v>2093700</v>
       </c>
       <c r="E47" s="3">
-        <v>2037600</v>
+        <v>1957800</v>
       </c>
       <c r="F47" s="3">
-        <v>1960900</v>
+        <v>2044300</v>
       </c>
       <c r="G47" s="3">
-        <v>1860700</v>
+        <v>1967300</v>
       </c>
       <c r="H47" s="3">
-        <v>2120800</v>
+        <v>1866800</v>
       </c>
       <c r="I47" s="3">
-        <v>2075400</v>
+        <v>2127800</v>
       </c>
       <c r="J47" s="3">
+        <v>2082200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2037500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2303400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2128200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2236700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2099400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2173900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2715900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2812500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2751100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2656900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3052200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6332600</v>
+        <v>6556600</v>
       </c>
       <c r="E48" s="3">
-        <v>6288300</v>
+        <v>6353300</v>
       </c>
       <c r="F48" s="3">
-        <v>6246500</v>
+        <v>6308900</v>
       </c>
       <c r="G48" s="3">
-        <v>6190400</v>
+        <v>6267000</v>
       </c>
       <c r="H48" s="3">
-        <v>6151300</v>
+        <v>6210700</v>
       </c>
       <c r="I48" s="3">
-        <v>6075500</v>
+        <v>6171400</v>
       </c>
       <c r="J48" s="3">
+        <v>6095400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4746100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5062500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5005900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5100000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4837700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4886300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4945600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4976300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4989300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4617800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4663300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7524800</v>
+        <v>8571500</v>
       </c>
       <c r="E49" s="3">
-        <v>7562100</v>
+        <v>7549500</v>
       </c>
       <c r="F49" s="3">
-        <v>7608300</v>
+        <v>7586800</v>
       </c>
       <c r="G49" s="3">
-        <v>7595700</v>
+        <v>7633200</v>
       </c>
       <c r="H49" s="3">
-        <v>7706600</v>
+        <v>7620600</v>
       </c>
       <c r="I49" s="3">
-        <v>7524400</v>
+        <v>7731900</v>
       </c>
       <c r="J49" s="3">
+        <v>7549100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7199300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7693000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7718000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7845000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7296200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6533000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6655900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6660900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6641100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5111600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5222000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1098100</v>
+        <v>1542600</v>
       </c>
       <c r="E52" s="3">
-        <v>1060800</v>
+        <v>1101700</v>
       </c>
       <c r="F52" s="3">
-        <v>1044600</v>
+        <v>1064300</v>
       </c>
       <c r="G52" s="3">
-        <v>1138800</v>
+        <v>1048000</v>
       </c>
       <c r="H52" s="3">
-        <v>1030700</v>
+        <v>1142500</v>
       </c>
       <c r="I52" s="3">
-        <v>1022400</v>
+        <v>1034100</v>
       </c>
       <c r="J52" s="3">
+        <v>1025800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1798500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1122200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1174500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1234000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1142500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1242900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1181200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1180500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1225800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>904300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>879100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30868500</v>
+        <v>32617200</v>
       </c>
       <c r="E54" s="3">
-        <v>30303200</v>
+        <v>30969600</v>
       </c>
       <c r="F54" s="3">
-        <v>30064600</v>
+        <v>30402400</v>
       </c>
       <c r="G54" s="3">
-        <v>30426700</v>
+        <v>30163100</v>
       </c>
       <c r="H54" s="3">
-        <v>31610200</v>
+        <v>30526300</v>
       </c>
       <c r="I54" s="3">
-        <v>31884000</v>
+        <v>31713700</v>
       </c>
       <c r="J54" s="3">
+        <v>31988400</v>
+      </c>
+      <c r="K54" s="3">
         <v>31581600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32815200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32802600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32665900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31887700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31750800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31916300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32279500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32972100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31339400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29565300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1745500</v>
+        <v>2010400</v>
       </c>
       <c r="E57" s="3">
-        <v>1647400</v>
+        <v>1751200</v>
       </c>
       <c r="F57" s="3">
-        <v>1655300</v>
+        <v>1652800</v>
       </c>
       <c r="G57" s="3">
-        <v>1804000</v>
+        <v>1660700</v>
       </c>
       <c r="H57" s="3">
-        <v>1991800</v>
+        <v>1809900</v>
       </c>
       <c r="I57" s="3">
-        <v>1819700</v>
+        <v>1998300</v>
       </c>
       <c r="J57" s="3">
+        <v>1825700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1817300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2043100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2091300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2125900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1998500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2066900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2047300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2039700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2089400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2110600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2016200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>725900</v>
+        <v>585700</v>
       </c>
       <c r="E58" s="3">
-        <v>667600</v>
+        <v>728300</v>
       </c>
       <c r="F58" s="3">
-        <v>640700</v>
+        <v>669800</v>
       </c>
       <c r="G58" s="3">
-        <v>1108300</v>
+        <v>642800</v>
       </c>
       <c r="H58" s="3">
-        <v>2512400</v>
+        <v>1112000</v>
       </c>
       <c r="I58" s="3">
-        <v>1286300</v>
+        <v>2520600</v>
       </c>
       <c r="J58" s="3">
+        <v>1290600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1569800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1639300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>925600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>651400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>362700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>378800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>298400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>683500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1072600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1099900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1204700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3246200</v>
+        <v>3986500</v>
       </c>
       <c r="E59" s="3">
-        <v>3123000</v>
+        <v>3256900</v>
       </c>
       <c r="F59" s="3">
-        <v>3113700</v>
+        <v>3133200</v>
       </c>
       <c r="G59" s="3">
-        <v>3133400</v>
+        <v>3123900</v>
       </c>
       <c r="H59" s="3">
-        <v>2889600</v>
+        <v>3143600</v>
       </c>
       <c r="I59" s="3">
-        <v>3054500</v>
+        <v>2899100</v>
       </c>
       <c r="J59" s="3">
+        <v>3064600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3055500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3066600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2777400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3004200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3459000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3592000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2659800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2918900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2901100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2822700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2545900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5717600</v>
+        <v>6582600</v>
       </c>
       <c r="E60" s="3">
-        <v>5438000</v>
+        <v>5736400</v>
       </c>
       <c r="F60" s="3">
-        <v>5409700</v>
+        <v>5455800</v>
       </c>
       <c r="G60" s="3">
-        <v>6045700</v>
+        <v>5427400</v>
       </c>
       <c r="H60" s="3">
-        <v>7393800</v>
+        <v>6065500</v>
       </c>
       <c r="I60" s="3">
-        <v>6160600</v>
+        <v>7418100</v>
       </c>
       <c r="J60" s="3">
+        <v>6180800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6442600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6749000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5794300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5781500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5820200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6037700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5005500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5642100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6063100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6033200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5766900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4269600</v>
+        <v>4037600</v>
       </c>
       <c r="E61" s="3">
-        <v>4516300</v>
+        <v>4283600</v>
       </c>
       <c r="F61" s="3">
-        <v>4509600</v>
+        <v>4531100</v>
       </c>
       <c r="G61" s="3">
-        <v>4609000</v>
+        <v>4524400</v>
       </c>
       <c r="H61" s="3">
-        <v>3564000</v>
+        <v>4624100</v>
       </c>
       <c r="I61" s="3">
-        <v>3694200</v>
+        <v>3575700</v>
       </c>
       <c r="J61" s="3">
+        <v>3706300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3230300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3397500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4343600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3682800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3753100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3749600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3957200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3954200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4473500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3857100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2059100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1423600</v>
+        <v>1575300</v>
       </c>
       <c r="E62" s="3">
-        <v>1497300</v>
+        <v>1428200</v>
       </c>
       <c r="F62" s="3">
-        <v>1545200</v>
+        <v>1502300</v>
       </c>
       <c r="G62" s="3">
-        <v>1509200</v>
+        <v>1550300</v>
       </c>
       <c r="H62" s="3">
-        <v>1458100</v>
+        <v>1514100</v>
       </c>
       <c r="I62" s="3">
-        <v>1457700</v>
+        <v>1462900</v>
       </c>
       <c r="J62" s="3">
+        <v>1462500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1504700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1095900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1117900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1232000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1068700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1068200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1208300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1249400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1282400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1331500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1345000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11806500</v>
+        <v>12357200</v>
       </c>
       <c r="E66" s="3">
-        <v>11850000</v>
+        <v>11845100</v>
       </c>
       <c r="F66" s="3">
-        <v>11855800</v>
+        <v>11888800</v>
       </c>
       <c r="G66" s="3">
-        <v>12534900</v>
+        <v>11894700</v>
       </c>
       <c r="H66" s="3">
-        <v>12778200</v>
+        <v>12576000</v>
       </c>
       <c r="I66" s="3">
-        <v>13235100</v>
+        <v>12820100</v>
       </c>
       <c r="J66" s="3">
+        <v>13278500</v>
+      </c>
+      <c r="K66" s="3">
         <v>13058100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13240000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13187100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12636900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12636000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12851500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12264300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13003500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13939800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13213000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11233800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24447000</v>
+        <v>24838400</v>
       </c>
       <c r="E72" s="3">
-        <v>23906100</v>
+        <v>24527100</v>
       </c>
       <c r="F72" s="3">
-        <v>23711200</v>
+        <v>23984400</v>
       </c>
       <c r="G72" s="3">
-        <v>23477900</v>
+        <v>23788900</v>
       </c>
       <c r="H72" s="3">
-        <v>23613300</v>
+        <v>23554800</v>
       </c>
       <c r="I72" s="3">
-        <v>23351800</v>
+        <v>23690700</v>
       </c>
       <c r="J72" s="3">
+        <v>23428300</v>
+      </c>
+      <c r="K72" s="3">
         <v>23104800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24099200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23909300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23567600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22110200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21668700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21549000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21064400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20967600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20184800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20233000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19062000</v>
+        <v>20260000</v>
       </c>
       <c r="E76" s="3">
-        <v>18453200</v>
+        <v>19124400</v>
       </c>
       <c r="F76" s="3">
-        <v>18208800</v>
+        <v>18513600</v>
       </c>
       <c r="G76" s="3">
-        <v>17891800</v>
+        <v>18268400</v>
       </c>
       <c r="H76" s="3">
-        <v>18832000</v>
+        <v>17950400</v>
       </c>
       <c r="I76" s="3">
-        <v>18648900</v>
+        <v>18893700</v>
       </c>
       <c r="J76" s="3">
+        <v>18710000</v>
+      </c>
+      <c r="K76" s="3">
         <v>18523500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19575200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19615500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20029000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19251700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18899300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19652000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19276000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19032300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18126400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18331500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>539400</v>
+        <v>502800</v>
       </c>
       <c r="E81" s="3">
-        <v>367400</v>
+        <v>541100</v>
       </c>
       <c r="F81" s="3">
-        <v>251900</v>
+        <v>368600</v>
       </c>
       <c r="G81" s="3">
-        <v>39700</v>
+        <v>252700</v>
       </c>
       <c r="H81" s="3">
-        <v>545100</v>
+        <v>39800</v>
       </c>
       <c r="I81" s="3">
-        <v>425800</v>
+        <v>546900</v>
       </c>
       <c r="J81" s="3">
+        <v>427200</v>
+      </c>
+      <c r="K81" s="3">
         <v>134300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>356100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>341700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>357200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>257500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>147100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>484600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>245000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>396000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>484100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>393400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>281600</v>
+        <v>299000</v>
       </c>
       <c r="E83" s="3">
-        <v>276600</v>
+        <v>282600</v>
       </c>
       <c r="F83" s="3">
-        <v>274300</v>
+        <v>277500</v>
       </c>
       <c r="G83" s="3">
-        <v>282500</v>
+        <v>275200</v>
       </c>
       <c r="H83" s="3">
-        <v>286700</v>
+        <v>283400</v>
       </c>
       <c r="I83" s="3">
-        <v>279300</v>
+        <v>287600</v>
       </c>
       <c r="J83" s="3">
+        <v>280200</v>
+      </c>
+      <c r="K83" s="3">
         <v>275000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>330200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>311100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>307000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>284100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>293600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>305100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>279200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>277600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>277400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>242800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>896300</v>
+        <v>1180500</v>
       </c>
       <c r="E89" s="3">
-        <v>862200</v>
+        <v>899300</v>
       </c>
       <c r="F89" s="3">
-        <v>919900</v>
+        <v>865000</v>
       </c>
       <c r="G89" s="3">
-        <v>854300</v>
+        <v>923000</v>
       </c>
       <c r="H89" s="3">
-        <v>44400</v>
+        <v>857100</v>
       </c>
       <c r="I89" s="3">
-        <v>450100</v>
+        <v>44500</v>
       </c>
       <c r="J89" s="3">
+        <v>451600</v>
+      </c>
+      <c r="K89" s="3">
         <v>993100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1016600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>560200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>790800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>958700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>404200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>159000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>844200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>874800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>444300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-218500</v>
+        <v>-249700</v>
       </c>
       <c r="E91" s="3">
-        <v>-238200</v>
+        <v>-219200</v>
       </c>
       <c r="F91" s="3">
-        <v>-211100</v>
+        <v>-238900</v>
       </c>
       <c r="G91" s="3">
-        <v>-182400</v>
+        <v>-211800</v>
       </c>
       <c r="H91" s="3">
-        <v>-198200</v>
+        <v>-183000</v>
       </c>
       <c r="I91" s="3">
-        <v>-225700</v>
+        <v>-198900</v>
       </c>
       <c r="J91" s="3">
+        <v>-226500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-169200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-206100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-166600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-144300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-134100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-132800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-156000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-120800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-231900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>256900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-162600</v>
+        <v>-1833000</v>
       </c>
       <c r="E94" s="3">
-        <v>-262400</v>
+        <v>-163100</v>
       </c>
       <c r="F94" s="3">
-        <v>-307100</v>
+        <v>-263300</v>
       </c>
       <c r="G94" s="3">
-        <v>-388800</v>
+        <v>-308100</v>
       </c>
       <c r="H94" s="3">
-        <v>-356300</v>
+        <v>-390100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1231400</v>
+        <v>-357500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1235400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-266300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-472700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-272000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-237200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-967300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>541500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>68900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-277700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-448100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-286800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-173900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-174500</v>
       </c>
       <c r="F96" s="3">
-        <v>-173900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-174500</v>
       </c>
       <c r="H96" s="3">
-        <v>-178100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-178700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-150000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-163700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-146700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-148200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-138500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-137700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-394900</v>
+        <v>-417600</v>
       </c>
       <c r="E100" s="3">
-        <v>46100</v>
+        <v>-396200</v>
       </c>
       <c r="F100" s="3">
-        <v>-728900</v>
+        <v>46300</v>
       </c>
       <c r="G100" s="3">
-        <v>-925100</v>
+        <v>-731300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1350000</v>
+        <v>-928100</v>
       </c>
       <c r="I100" s="3">
-        <v>170900</v>
+        <v>-1354400</v>
       </c>
       <c r="J100" s="3">
+        <v>171400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-194400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-484300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>245200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-993500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-229600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-328100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-788100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-959700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-266900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1700900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6900</v>
       </c>
-      <c r="F101" s="3">
-        <v>26100</v>
-      </c>
       <c r="G101" s="3">
-        <v>-103200</v>
+        <v>26200</v>
       </c>
       <c r="H101" s="3">
-        <v>100000</v>
+        <v>-103500</v>
       </c>
       <c r="I101" s="3">
-        <v>-70900</v>
+        <v>100300</v>
       </c>
       <c r="J101" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-95600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-61900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>61900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-117200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>38500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>60700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>34300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-67600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>269600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>341100</v>
+        <v>-918700</v>
       </c>
       <c r="E102" s="3">
-        <v>652800</v>
+        <v>342200</v>
       </c>
       <c r="F102" s="3">
-        <v>-90000</v>
+        <v>655000</v>
       </c>
       <c r="G102" s="3">
-        <v>-562700</v>
+        <v>-90300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1562000</v>
+        <v>-564600</v>
       </c>
       <c r="I102" s="3">
-        <v>-681400</v>
+        <v>-1567100</v>
       </c>
       <c r="J102" s="3">
+        <v>-683600</v>
+      </c>
+      <c r="K102" s="3">
         <v>436800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>471500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-403000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1054900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-276500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-728700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2060000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-56300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5689400</v>
+        <v>5308000</v>
       </c>
       <c r="E8" s="3">
-        <v>5293900</v>
+        <v>5639900</v>
       </c>
       <c r="F8" s="3">
-        <v>4972900</v>
+        <v>5247800</v>
       </c>
       <c r="G8" s="3">
-        <v>4193100</v>
+        <v>4929600</v>
       </c>
       <c r="H8" s="3">
-        <v>5392200</v>
+        <v>4156600</v>
       </c>
       <c r="I8" s="3">
-        <v>5479700</v>
+        <v>5345200</v>
       </c>
       <c r="J8" s="3">
+        <v>5432000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5484700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4903600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6070400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6026200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5841400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5134900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5669300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5620600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5572700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5166300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5492800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5132600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3679100</v>
+        <v>3006200</v>
       </c>
       <c r="E9" s="3">
-        <v>2962300</v>
+        <v>3647000</v>
       </c>
       <c r="F9" s="3">
-        <v>3044800</v>
+        <v>2936500</v>
       </c>
       <c r="G9" s="3">
-        <v>2470600</v>
+        <v>3018300</v>
       </c>
       <c r="H9" s="3">
-        <v>3265400</v>
+        <v>2449100</v>
       </c>
       <c r="I9" s="3">
-        <v>3186900</v>
+        <v>3236900</v>
       </c>
       <c r="J9" s="3">
+        <v>3159200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3231600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2811300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3734400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3455200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3427600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2992100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3832100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3631400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3695600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3077700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3267700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3036000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2010300</v>
+        <v>2301800</v>
       </c>
       <c r="E10" s="3">
-        <v>2331500</v>
+        <v>1992800</v>
       </c>
       <c r="F10" s="3">
-        <v>1928100</v>
+        <v>2311200</v>
       </c>
       <c r="G10" s="3">
-        <v>1722500</v>
+        <v>1911300</v>
       </c>
       <c r="H10" s="3">
-        <v>2126800</v>
+        <v>1707500</v>
       </c>
       <c r="I10" s="3">
-        <v>2292700</v>
+        <v>2108300</v>
       </c>
       <c r="J10" s="3">
+        <v>2272800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2253100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2092300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2336000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2571000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2413900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2142700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1837200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1989100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1877100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2088600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2225200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2096500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>380500</v>
+        <v>338500</v>
       </c>
       <c r="E12" s="3">
-        <v>334000</v>
+        <v>377200</v>
       </c>
       <c r="F12" s="3">
-        <v>349300</v>
+        <v>331100</v>
       </c>
       <c r="G12" s="3">
-        <v>334500</v>
+        <v>346300</v>
       </c>
       <c r="H12" s="3">
-        <v>366500</v>
+        <v>331600</v>
       </c>
       <c r="I12" s="3">
-        <v>352100</v>
+        <v>363300</v>
       </c>
       <c r="J12" s="3">
+        <v>349000</v>
+      </c>
+      <c r="K12" s="3">
         <v>374200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>356900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>387500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>349000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>378100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>364900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>454200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>351000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>375500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>336800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>366000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>346100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5275800</v>
+        <v>4794900</v>
       </c>
       <c r="E17" s="3">
-        <v>4705700</v>
+        <v>5229900</v>
       </c>
       <c r="F17" s="3">
-        <v>4641300</v>
+        <v>4664800</v>
       </c>
       <c r="G17" s="3">
-        <v>4005700</v>
+        <v>4600900</v>
       </c>
       <c r="H17" s="3">
-        <v>5071100</v>
+        <v>3970900</v>
       </c>
       <c r="I17" s="3">
-        <v>4932000</v>
+        <v>5027000</v>
       </c>
       <c r="J17" s="3">
+        <v>4889000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4979900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4563600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5575700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5311000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5389100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4799900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5667700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5161200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5226700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4842300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4977100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4680500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>413600</v>
+        <v>513100</v>
       </c>
       <c r="E18" s="3">
-        <v>588100</v>
+        <v>410000</v>
       </c>
       <c r="F18" s="3">
-        <v>331600</v>
+        <v>583000</v>
       </c>
       <c r="G18" s="3">
-        <v>187400</v>
+        <v>328700</v>
       </c>
       <c r="H18" s="3">
-        <v>321100</v>
+        <v>185800</v>
       </c>
       <c r="I18" s="3">
-        <v>547700</v>
+        <v>318300</v>
       </c>
       <c r="J18" s="3">
+        <v>542900</v>
+      </c>
+      <c r="K18" s="3">
         <v>504800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>340000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>494700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>715100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>452400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>335000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>459300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>346000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>324000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>515700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>452000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>152700</v>
+        <v>200400</v>
       </c>
       <c r="E20" s="3">
-        <v>111800</v>
+        <v>151300</v>
       </c>
       <c r="F20" s="3">
-        <v>200500</v>
+        <v>110800</v>
       </c>
       <c r="G20" s="3">
-        <v>205800</v>
+        <v>198700</v>
       </c>
       <c r="H20" s="3">
-        <v>-257400</v>
+        <v>204000</v>
       </c>
       <c r="I20" s="3">
-        <v>91500</v>
+        <v>-255200</v>
       </c>
       <c r="J20" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K20" s="3">
         <v>155000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-91600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>69400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-171100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>66600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>90000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>217700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>222800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>49400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>209800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>105300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>149000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>865300</v>
+        <v>998600</v>
       </c>
       <c r="E21" s="3">
-        <v>982400</v>
+        <v>857800</v>
       </c>
       <c r="F21" s="3">
-        <v>809500</v>
+        <v>973900</v>
       </c>
       <c r="G21" s="3">
-        <v>668400</v>
+        <v>802500</v>
       </c>
       <c r="H21" s="3">
-        <v>347100</v>
+        <v>662500</v>
       </c>
       <c r="I21" s="3">
-        <v>926800</v>
+        <v>344100</v>
       </c>
       <c r="J21" s="3">
+        <v>918700</v>
+      </c>
+      <c r="K21" s="3">
         <v>940000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>523400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>894300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>855100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>826000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>709100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>512800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>987300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>674700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>811400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>898400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>843800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
-        <v>8300</v>
-      </c>
       <c r="F22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>561000</v>
+        <v>708600</v>
       </c>
       <c r="E23" s="3">
-        <v>691600</v>
+        <v>556200</v>
       </c>
       <c r="F23" s="3">
-        <v>527200</v>
+        <v>685500</v>
       </c>
       <c r="G23" s="3">
-        <v>387800</v>
+        <v>522600</v>
       </c>
       <c r="H23" s="3">
-        <v>60100</v>
+        <v>384400</v>
       </c>
       <c r="I23" s="3">
-        <v>634100</v>
+        <v>59600</v>
       </c>
       <c r="J23" s="3">
+        <v>628600</v>
+      </c>
+      <c r="K23" s="3">
         <v>653800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>241800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>559300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>535600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>509700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>416300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>211500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>672300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>384600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>520900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>608600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>586900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>86500</v>
+        <v>209900</v>
       </c>
       <c r="E24" s="3">
-        <v>161700</v>
+        <v>85800</v>
       </c>
       <c r="F24" s="3">
-        <v>144100</v>
+        <v>160300</v>
       </c>
       <c r="G24" s="3">
-        <v>118700</v>
+        <v>142900</v>
       </c>
       <c r="H24" s="3">
-        <v>28200</v>
+        <v>117700</v>
       </c>
       <c r="I24" s="3">
-        <v>74400</v>
+        <v>28000</v>
       </c>
       <c r="J24" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K24" s="3">
         <v>164600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>165400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>147300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>96100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>122900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>125700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>158200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>116300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>92500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>63400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>162800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>474500</v>
+        <v>498700</v>
       </c>
       <c r="E26" s="3">
-        <v>529900</v>
+        <v>470400</v>
       </c>
       <c r="F26" s="3">
-        <v>383100</v>
+        <v>525300</v>
       </c>
       <c r="G26" s="3">
-        <v>269100</v>
+        <v>379800</v>
       </c>
       <c r="H26" s="3">
-        <v>31900</v>
+        <v>266700</v>
       </c>
       <c r="I26" s="3">
-        <v>559700</v>
+        <v>31600</v>
       </c>
       <c r="J26" s="3">
+        <v>554800</v>
+      </c>
+      <c r="K26" s="3">
         <v>489100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>177300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>393900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>388300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>413500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>293400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>85800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>514100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>268300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>428400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>545200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>424100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>502800</v>
+        <v>522100</v>
       </c>
       <c r="E27" s="3">
-        <v>541100</v>
+        <v>498500</v>
       </c>
       <c r="F27" s="3">
-        <v>368600</v>
+        <v>536400</v>
       </c>
       <c r="G27" s="3">
-        <v>252700</v>
+        <v>365400</v>
       </c>
       <c r="H27" s="3">
-        <v>39800</v>
+        <v>250500</v>
       </c>
       <c r="I27" s="3">
-        <v>546900</v>
+        <v>39400</v>
       </c>
       <c r="J27" s="3">
+        <v>542200</v>
+      </c>
+      <c r="K27" s="3">
         <v>427200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>134300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>356100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>341700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>357200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>257500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>147100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>484600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>245000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>396000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>484100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>393400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-152700</v>
+        <v>-200400</v>
       </c>
       <c r="E32" s="3">
-        <v>-111800</v>
+        <v>-151300</v>
       </c>
       <c r="F32" s="3">
-        <v>-200500</v>
+        <v>-110800</v>
       </c>
       <c r="G32" s="3">
-        <v>-205800</v>
+        <v>-198700</v>
       </c>
       <c r="H32" s="3">
-        <v>257400</v>
+        <v>-204000</v>
       </c>
       <c r="I32" s="3">
-        <v>-91500</v>
+        <v>255200</v>
       </c>
       <c r="J32" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-155000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>91600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-69400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>171100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-66600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-90000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-217700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-222800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-49400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-209800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-105300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-149000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>502800</v>
+        <v>522100</v>
       </c>
       <c r="E33" s="3">
-        <v>541100</v>
+        <v>498500</v>
       </c>
       <c r="F33" s="3">
-        <v>368600</v>
+        <v>536400</v>
       </c>
       <c r="G33" s="3">
-        <v>252700</v>
+        <v>365400</v>
       </c>
       <c r="H33" s="3">
-        <v>39800</v>
+        <v>250500</v>
       </c>
       <c r="I33" s="3">
-        <v>546900</v>
+        <v>39400</v>
       </c>
       <c r="J33" s="3">
+        <v>542200</v>
+      </c>
+      <c r="K33" s="3">
         <v>427200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>134300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>356100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>341700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>357200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>257500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>147100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>484600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>245000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>396000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>484100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>393400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>502800</v>
+        <v>522100</v>
       </c>
       <c r="E35" s="3">
-        <v>541100</v>
+        <v>498500</v>
       </c>
       <c r="F35" s="3">
-        <v>368600</v>
+        <v>536400</v>
       </c>
       <c r="G35" s="3">
-        <v>252700</v>
+        <v>365400</v>
       </c>
       <c r="H35" s="3">
-        <v>39800</v>
+        <v>250500</v>
       </c>
       <c r="I35" s="3">
-        <v>546900</v>
+        <v>39400</v>
       </c>
       <c r="J35" s="3">
+        <v>542200</v>
+      </c>
+      <c r="K35" s="3">
         <v>427200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>134300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>356100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>341700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>357200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>257500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>147100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>484600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>245000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>396000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>484100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>393400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3628200</v>
+        <v>3930000</v>
       </c>
       <c r="E41" s="3">
-        <v>4546900</v>
+        <v>3596600</v>
       </c>
       <c r="F41" s="3">
-        <v>4204700</v>
+        <v>4507300</v>
       </c>
       <c r="G41" s="3">
-        <v>3549800</v>
+        <v>4168100</v>
       </c>
       <c r="H41" s="3">
-        <v>3640100</v>
+        <v>3518900</v>
       </c>
       <c r="I41" s="3">
-        <v>4204600</v>
+        <v>3608400</v>
       </c>
       <c r="J41" s="3">
+        <v>4168000</v>
+      </c>
+      <c r="K41" s="3">
         <v>5771700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6434200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6292100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6243000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5771500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6580400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6983400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5895800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6172300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7190000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7769700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5709700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2587,466 +2677,490 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27600</v>
-      </c>
-      <c r="R42" s="3">
-        <v>54700</v>
       </c>
       <c r="S42" s="3">
         <v>54700</v>
       </c>
       <c r="T42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="U42" s="3">
         <v>53600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>26600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5566500</v>
+        <v>4878500</v>
       </c>
       <c r="E43" s="3">
-        <v>4870700</v>
+        <v>5518100</v>
       </c>
       <c r="F43" s="3">
-        <v>4568500</v>
+        <v>4828300</v>
       </c>
       <c r="G43" s="3">
-        <v>4254000</v>
+        <v>4528700</v>
       </c>
       <c r="H43" s="3">
-        <v>5131900</v>
+        <v>4217000</v>
       </c>
       <c r="I43" s="3">
-        <v>5252900</v>
+        <v>5087200</v>
       </c>
       <c r="J43" s="3">
+        <v>5207200</v>
+      </c>
+      <c r="K43" s="3">
         <v>4961300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4783200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5937000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5728800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5629800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5106600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5627200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5700700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5684900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5386900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5639400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5504800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3838300</v>
+        <v>4172400</v>
       </c>
       <c r="E44" s="3">
-        <v>3739400</v>
+        <v>3804900</v>
       </c>
       <c r="F44" s="3">
-        <v>3731500</v>
+        <v>3706800</v>
       </c>
       <c r="G44" s="3">
-        <v>3918100</v>
+        <v>3699000</v>
       </c>
       <c r="H44" s="3">
-        <v>3500600</v>
+        <v>3884000</v>
       </c>
       <c r="I44" s="3">
-        <v>3780100</v>
+        <v>3470100</v>
       </c>
       <c r="J44" s="3">
+        <v>3747200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3664800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3649600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3598500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3875400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3879600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3580200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3284400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3610900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3538100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3539000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3009100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3299400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>819800</v>
+        <v>1105600</v>
       </c>
       <c r="E45" s="3">
-        <v>850300</v>
+        <v>812600</v>
       </c>
       <c r="F45" s="3">
-        <v>893500</v>
+        <v>842900</v>
       </c>
       <c r="G45" s="3">
-        <v>1525800</v>
+        <v>885700</v>
       </c>
       <c r="H45" s="3">
-        <v>1413300</v>
+        <v>1512500</v>
       </c>
       <c r="I45" s="3">
-        <v>1410900</v>
+        <v>1401000</v>
       </c>
       <c r="J45" s="3">
+        <v>1398600</v>
+      </c>
+      <c r="K45" s="3">
         <v>838100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>933200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>806400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>928700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>969300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1244900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1019400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1182600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1199300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1194300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1576900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1208300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13852800</v>
+        <v>14086500</v>
       </c>
       <c r="E46" s="3">
-        <v>14007300</v>
+        <v>13732200</v>
       </c>
       <c r="F46" s="3">
-        <v>13398200</v>
+        <v>13885400</v>
       </c>
       <c r="G46" s="3">
-        <v>13247600</v>
+        <v>13281500</v>
       </c>
       <c r="H46" s="3">
-        <v>13685800</v>
+        <v>13132300</v>
       </c>
       <c r="I46" s="3">
-        <v>14648600</v>
+        <v>13566600</v>
       </c>
       <c r="J46" s="3">
+        <v>14521100</v>
+      </c>
+      <c r="K46" s="3">
         <v>15235900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15800200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16634000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16775900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16250200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16512000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16914700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16417600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16649400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17364900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18048700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15748800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2093700</v>
+        <v>2235700</v>
       </c>
       <c r="E47" s="3">
-        <v>1957800</v>
+        <v>2075500</v>
       </c>
       <c r="F47" s="3">
-        <v>2044300</v>
+        <v>1940700</v>
       </c>
       <c r="G47" s="3">
-        <v>1967300</v>
+        <v>2026500</v>
       </c>
       <c r="H47" s="3">
-        <v>1866800</v>
+        <v>1950200</v>
       </c>
       <c r="I47" s="3">
-        <v>2127800</v>
+        <v>1850500</v>
       </c>
       <c r="J47" s="3">
+        <v>2109300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2082200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2037500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2303400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2128200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2236700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2099400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2173900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2715900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2812500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2751100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2656900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3052200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6556600</v>
+        <v>6582700</v>
       </c>
       <c r="E48" s="3">
-        <v>6353300</v>
+        <v>6499600</v>
       </c>
       <c r="F48" s="3">
-        <v>6308900</v>
+        <v>6298000</v>
       </c>
       <c r="G48" s="3">
-        <v>6267000</v>
+        <v>6254000</v>
       </c>
       <c r="H48" s="3">
-        <v>6210700</v>
+        <v>6212400</v>
       </c>
       <c r="I48" s="3">
-        <v>6171400</v>
+        <v>6156600</v>
       </c>
       <c r="J48" s="3">
+        <v>6117700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6095400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4746100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5062500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5005900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5100000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4837700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4886300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4945600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4976300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4989300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4617800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4663300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8571500</v>
+        <v>8505600</v>
       </c>
       <c r="E49" s="3">
-        <v>7549500</v>
+        <v>8496900</v>
       </c>
       <c r="F49" s="3">
-        <v>7586800</v>
+        <v>7483800</v>
       </c>
       <c r="G49" s="3">
-        <v>7633200</v>
+        <v>7520800</v>
       </c>
       <c r="H49" s="3">
-        <v>7620600</v>
+        <v>7566700</v>
       </c>
       <c r="I49" s="3">
-        <v>7731900</v>
+        <v>7554200</v>
       </c>
       <c r="J49" s="3">
+        <v>7664500</v>
+      </c>
+      <c r="K49" s="3">
         <v>7549100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7199300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7693000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7718000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7845000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7296200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6533000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6655900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6660900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6641100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5111600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5222000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1542600</v>
+        <v>1577000</v>
       </c>
       <c r="E52" s="3">
-        <v>1101700</v>
+        <v>1529100</v>
       </c>
       <c r="F52" s="3">
-        <v>1064300</v>
+        <v>1092100</v>
       </c>
       <c r="G52" s="3">
-        <v>1048000</v>
+        <v>1055000</v>
       </c>
       <c r="H52" s="3">
+        <v>1038900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1132600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1025100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1025800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1798500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1174500</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="P52" s="3">
         <v>1142500</v>
       </c>
-      <c r="I52" s="3">
-        <v>1034100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1025800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1798500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1122200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1174500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1234000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1142500</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1242900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1181200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1180500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1225800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>904300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>879100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32617200</v>
+        <v>32987500</v>
       </c>
       <c r="E54" s="3">
-        <v>30969600</v>
+        <v>32333200</v>
       </c>
       <c r="F54" s="3">
-        <v>30402400</v>
+        <v>30700000</v>
       </c>
       <c r="G54" s="3">
-        <v>30163100</v>
+        <v>30137800</v>
       </c>
       <c r="H54" s="3">
-        <v>30526300</v>
+        <v>29900500</v>
       </c>
       <c r="I54" s="3">
-        <v>31713700</v>
+        <v>30260600</v>
       </c>
       <c r="J54" s="3">
+        <v>31437700</v>
+      </c>
+      <c r="K54" s="3">
         <v>31988400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31581600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32815200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32802600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32665900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31887700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31750800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31916300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32279500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32972100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31339400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29565300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2010400</v>
+        <v>2044900</v>
       </c>
       <c r="E57" s="3">
-        <v>1751200</v>
+        <v>1992900</v>
       </c>
       <c r="F57" s="3">
-        <v>1652800</v>
+        <v>1735900</v>
       </c>
       <c r="G57" s="3">
-        <v>1660700</v>
+        <v>1638400</v>
       </c>
       <c r="H57" s="3">
-        <v>1809900</v>
+        <v>1646300</v>
       </c>
       <c r="I57" s="3">
-        <v>1998300</v>
+        <v>1794100</v>
       </c>
       <c r="J57" s="3">
+        <v>1980900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1825700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1817300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2043100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2091300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2125900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1998500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2066900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2047300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2039700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2089400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2110600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2016200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>585700</v>
+        <v>578700</v>
       </c>
       <c r="E58" s="3">
-        <v>728300</v>
+        <v>604400</v>
       </c>
       <c r="F58" s="3">
-        <v>669800</v>
+        <v>721900</v>
       </c>
       <c r="G58" s="3">
-        <v>642800</v>
+        <v>663900</v>
       </c>
       <c r="H58" s="3">
-        <v>1112000</v>
+        <v>637200</v>
       </c>
       <c r="I58" s="3">
-        <v>2520600</v>
+        <v>1102300</v>
       </c>
       <c r="J58" s="3">
+        <v>2498700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1290600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1569800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1639300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>925600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>651400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>362700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>378800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>298400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>683500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1072600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1099900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1204700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3986500</v>
+        <v>3903500</v>
       </c>
       <c r="E59" s="3">
-        <v>3256900</v>
+        <v>3928000</v>
       </c>
       <c r="F59" s="3">
-        <v>3133200</v>
+        <v>3228500</v>
       </c>
       <c r="G59" s="3">
-        <v>3123900</v>
+        <v>3105900</v>
       </c>
       <c r="H59" s="3">
-        <v>3143600</v>
+        <v>3096700</v>
       </c>
       <c r="I59" s="3">
-        <v>2899100</v>
+        <v>3116300</v>
       </c>
       <c r="J59" s="3">
+        <v>2873800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3064600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3055500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3066600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2777400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3004200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3459000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3592000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2659800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2918900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2901100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2822700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2545900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6582600</v>
+        <v>6527000</v>
       </c>
       <c r="E60" s="3">
-        <v>5736400</v>
+        <v>6525300</v>
       </c>
       <c r="F60" s="3">
-        <v>5455800</v>
+        <v>5686400</v>
       </c>
       <c r="G60" s="3">
-        <v>5427400</v>
+        <v>5408300</v>
       </c>
       <c r="H60" s="3">
-        <v>6065500</v>
+        <v>5380200</v>
       </c>
       <c r="I60" s="3">
-        <v>7418100</v>
+        <v>6012700</v>
       </c>
       <c r="J60" s="3">
+        <v>7353500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6180800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6442600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6749000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5794300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5781500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5820200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6037700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5005500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5642100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6063100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6033200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5766900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4037600</v>
+        <v>4001700</v>
       </c>
       <c r="E61" s="3">
-        <v>4283600</v>
+        <v>4063700</v>
       </c>
       <c r="F61" s="3">
-        <v>4531100</v>
+        <v>4246300</v>
       </c>
       <c r="G61" s="3">
-        <v>4524400</v>
+        <v>4491700</v>
       </c>
       <c r="H61" s="3">
-        <v>4624100</v>
+        <v>4485000</v>
       </c>
       <c r="I61" s="3">
-        <v>3575700</v>
+        <v>4583900</v>
       </c>
       <c r="J61" s="3">
+        <v>3544500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3706300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3230300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3397500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4343600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3682800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3753100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3749600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3957200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3954200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4473500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3857100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2059100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1575300</v>
+        <v>1625200</v>
       </c>
       <c r="E62" s="3">
-        <v>1428200</v>
+        <v>1500300</v>
       </c>
       <c r="F62" s="3">
-        <v>1502300</v>
+        <v>1415800</v>
       </c>
       <c r="G62" s="3">
-        <v>1550300</v>
+        <v>1489200</v>
       </c>
       <c r="H62" s="3">
-        <v>1514100</v>
+        <v>1536800</v>
       </c>
       <c r="I62" s="3">
-        <v>1462900</v>
+        <v>1500900</v>
       </c>
       <c r="J62" s="3">
+        <v>1450100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1462500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1504700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1095900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1117900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1232000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1068700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1068200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1208300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1249400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1282400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1331500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1345000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12357200</v>
+        <v>12316900</v>
       </c>
       <c r="E66" s="3">
-        <v>11845100</v>
+        <v>12249600</v>
       </c>
       <c r="F66" s="3">
-        <v>11888800</v>
+        <v>11742000</v>
       </c>
       <c r="G66" s="3">
-        <v>11894700</v>
+        <v>11785300</v>
       </c>
       <c r="H66" s="3">
-        <v>12576000</v>
+        <v>11791100</v>
       </c>
       <c r="I66" s="3">
-        <v>12820100</v>
+        <v>12466500</v>
       </c>
       <c r="J66" s="3">
+        <v>12708500</v>
+      </c>
+      <c r="K66" s="3">
         <v>13278500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13058100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13240000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13187100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12636900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12636000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12851500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12264300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13003500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13939800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13213000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11233800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24838400</v>
+        <v>25144100</v>
       </c>
       <c r="E72" s="3">
-        <v>24527100</v>
+        <v>24622100</v>
       </c>
       <c r="F72" s="3">
-        <v>23984400</v>
+        <v>24313500</v>
       </c>
       <c r="G72" s="3">
-        <v>23788900</v>
+        <v>23775600</v>
       </c>
       <c r="H72" s="3">
-        <v>23554800</v>
+        <v>23581800</v>
       </c>
       <c r="I72" s="3">
-        <v>23690700</v>
+        <v>23349800</v>
       </c>
       <c r="J72" s="3">
+        <v>23484400</v>
+      </c>
+      <c r="K72" s="3">
         <v>23428300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23104800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>24099200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23909300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23567600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22110200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21668700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21549000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21064400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20967600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20184800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20233000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20260000</v>
+        <v>20670600</v>
       </c>
       <c r="E76" s="3">
-        <v>19124400</v>
+        <v>20083600</v>
       </c>
       <c r="F76" s="3">
-        <v>18513600</v>
+        <v>18957900</v>
       </c>
       <c r="G76" s="3">
-        <v>18268400</v>
+        <v>18352400</v>
       </c>
       <c r="H76" s="3">
-        <v>17950400</v>
+        <v>18109400</v>
       </c>
       <c r="I76" s="3">
-        <v>18893700</v>
+        <v>17794100</v>
       </c>
       <c r="J76" s="3">
+        <v>18729200</v>
+      </c>
+      <c r="K76" s="3">
         <v>18710000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18523500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19575200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19615500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20029000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19251700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18899300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19652000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19276000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19032300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18126400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18331500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>502800</v>
+        <v>522100</v>
       </c>
       <c r="E81" s="3">
-        <v>541100</v>
+        <v>498500</v>
       </c>
       <c r="F81" s="3">
-        <v>368600</v>
+        <v>536400</v>
       </c>
       <c r="G81" s="3">
-        <v>252700</v>
+        <v>365400</v>
       </c>
       <c r="H81" s="3">
-        <v>39800</v>
+        <v>250500</v>
       </c>
       <c r="I81" s="3">
-        <v>546900</v>
+        <v>39400</v>
       </c>
       <c r="J81" s="3">
+        <v>542200</v>
+      </c>
+      <c r="K81" s="3">
         <v>427200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>134300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>356100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>341700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>357200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>257500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>147100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>484600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>245000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>396000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>484100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>393400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>299000</v>
+        <v>285100</v>
       </c>
       <c r="E83" s="3">
-        <v>282600</v>
+        <v>296400</v>
       </c>
       <c r="F83" s="3">
-        <v>277500</v>
+        <v>280100</v>
       </c>
       <c r="G83" s="3">
-        <v>275200</v>
+        <v>275000</v>
       </c>
       <c r="H83" s="3">
-        <v>283400</v>
+        <v>272800</v>
       </c>
       <c r="I83" s="3">
-        <v>287600</v>
+        <v>281000</v>
       </c>
       <c r="J83" s="3">
+        <v>285100</v>
+      </c>
+      <c r="K83" s="3">
         <v>280200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>275000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>330200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>311100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>307000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>284100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>293600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>305100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>279200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>277600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>277400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>242800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1180500</v>
+        <v>869500</v>
       </c>
       <c r="E89" s="3">
-        <v>899300</v>
+        <v>1170200</v>
       </c>
       <c r="F89" s="3">
-        <v>865000</v>
+        <v>891400</v>
       </c>
       <c r="G89" s="3">
-        <v>923000</v>
+        <v>857500</v>
       </c>
       <c r="H89" s="3">
-        <v>857100</v>
+        <v>914900</v>
       </c>
       <c r="I89" s="3">
-        <v>44500</v>
+        <v>849700</v>
       </c>
       <c r="J89" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K89" s="3">
         <v>451600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>993100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1016600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>560200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>790800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>958700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>404200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>159000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>844200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>874800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>444300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-249700</v>
+        <v>-250100</v>
       </c>
       <c r="E91" s="3">
-        <v>-219200</v>
+        <v>-247500</v>
       </c>
       <c r="F91" s="3">
-        <v>-238900</v>
+        <v>-217300</v>
       </c>
       <c r="G91" s="3">
-        <v>-211800</v>
+        <v>-236900</v>
       </c>
       <c r="H91" s="3">
-        <v>-183000</v>
+        <v>-209900</v>
       </c>
       <c r="I91" s="3">
-        <v>-198900</v>
+        <v>-181400</v>
       </c>
       <c r="J91" s="3">
+        <v>-197200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-226500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-169200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-206100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-166600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-144300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-134100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-132800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-161000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-156000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-120800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-231900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>256900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1833000</v>
+        <v>-335800</v>
       </c>
       <c r="E94" s="3">
-        <v>-163100</v>
+        <v>-1817100</v>
       </c>
       <c r="F94" s="3">
-        <v>-263300</v>
+        <v>-161700</v>
       </c>
       <c r="G94" s="3">
-        <v>-308100</v>
+        <v>-261000</v>
       </c>
       <c r="H94" s="3">
-        <v>-390100</v>
+        <v>-305400</v>
       </c>
       <c r="I94" s="3">
-        <v>-357500</v>
+        <v>-386700</v>
       </c>
       <c r="J94" s="3">
+        <v>-354400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-266300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-472700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-272000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-237200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-967300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>541500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>68900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-277700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-448100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-286800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-191200</v>
       </c>
       <c r="E96" s="3">
-        <v>-174500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-173000</v>
       </c>
       <c r="G96" s="3">
-        <v>-174500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-173000</v>
       </c>
       <c r="I96" s="3">
-        <v>-178700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-177200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-150000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-163700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-146700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-148200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-138500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-137700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-417600</v>
+        <v>-214100</v>
       </c>
       <c r="E100" s="3">
-        <v>-396200</v>
+        <v>-413900</v>
       </c>
       <c r="F100" s="3">
-        <v>46300</v>
+        <v>-392800</v>
       </c>
       <c r="G100" s="3">
-        <v>-731300</v>
+        <v>45900</v>
       </c>
       <c r="H100" s="3">
-        <v>-928100</v>
+        <v>-725000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1354400</v>
+        <v>-920000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1342600</v>
+      </c>
+      <c r="K100" s="3">
         <v>171400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-194400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-484300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>245200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-993500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-229600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-328100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-788100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-959700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-266900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1700900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>151400</v>
+        <v>13800</v>
       </c>
       <c r="E101" s="3">
+        <v>150100</v>
+      </c>
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3">
-        <v>6900</v>
-      </c>
       <c r="G101" s="3">
-        <v>26200</v>
+        <v>6800</v>
       </c>
       <c r="H101" s="3">
-        <v>-103500</v>
+        <v>25900</v>
       </c>
       <c r="I101" s="3">
-        <v>100300</v>
+        <v>-102600</v>
       </c>
       <c r="J101" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-71200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-95600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-61900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>61900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-117200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>38500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>60700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>34300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-67600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>269600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-918700</v>
+        <v>333400</v>
       </c>
       <c r="E102" s="3">
-        <v>342200</v>
+        <v>-910700</v>
       </c>
       <c r="F102" s="3">
-        <v>655000</v>
+        <v>339200</v>
       </c>
       <c r="G102" s="3">
-        <v>-90300</v>
+        <v>649300</v>
       </c>
       <c r="H102" s="3">
-        <v>-564600</v>
+        <v>-89500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1567100</v>
+        <v>-559600</v>
       </c>
       <c r="J102" s="3">
+        <v>-1553400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-683600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>436800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>471500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-403000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1054900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-276500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-728700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2060000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-56300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5308000</v>
+        <v>5484100</v>
       </c>
       <c r="E8" s="3">
-        <v>5639900</v>
+        <v>5133200</v>
       </c>
       <c r="F8" s="3">
-        <v>5247800</v>
+        <v>5454100</v>
       </c>
       <c r="G8" s="3">
-        <v>4929600</v>
+        <v>5075000</v>
       </c>
       <c r="H8" s="3">
-        <v>4156600</v>
+        <v>4767300</v>
       </c>
       <c r="I8" s="3">
-        <v>5345200</v>
+        <v>4019700</v>
       </c>
       <c r="J8" s="3">
+        <v>5169200</v>
+      </c>
+      <c r="K8" s="3">
         <v>5432000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5484700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4903600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6070400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6026200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5841400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5134900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5669300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5620600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5572700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5166300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5492800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5132600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3006200</v>
+        <v>3249100</v>
       </c>
       <c r="E9" s="3">
-        <v>3647000</v>
+        <v>2907200</v>
       </c>
       <c r="F9" s="3">
-        <v>2936500</v>
+        <v>3526900</v>
       </c>
       <c r="G9" s="3">
-        <v>3018300</v>
+        <v>2839800</v>
       </c>
       <c r="H9" s="3">
-        <v>2449100</v>
+        <v>2918900</v>
       </c>
       <c r="I9" s="3">
-        <v>3236900</v>
+        <v>2368500</v>
       </c>
       <c r="J9" s="3">
+        <v>3130300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3159200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3231600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2811300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3734400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3455200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3427600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2992100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3832100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3631400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3695600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3077700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3267700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3036000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2301800</v>
+        <v>2235000</v>
       </c>
       <c r="E10" s="3">
-        <v>1992800</v>
+        <v>2226000</v>
       </c>
       <c r="F10" s="3">
-        <v>2311200</v>
+        <v>1927200</v>
       </c>
       <c r="G10" s="3">
-        <v>1911300</v>
+        <v>2235100</v>
       </c>
       <c r="H10" s="3">
-        <v>1707500</v>
+        <v>1848400</v>
       </c>
       <c r="I10" s="3">
-        <v>2108300</v>
+        <v>1651300</v>
       </c>
       <c r="J10" s="3">
+        <v>2038900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2272800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2253100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2092300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2336000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2571000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2413900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2142700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1837200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1989100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1877100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2088600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2225200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2096500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>338500</v>
+        <v>340200</v>
       </c>
       <c r="E12" s="3">
-        <v>377200</v>
+        <v>327400</v>
       </c>
       <c r="F12" s="3">
-        <v>331100</v>
+        <v>364700</v>
       </c>
       <c r="G12" s="3">
-        <v>346300</v>
+        <v>320200</v>
       </c>
       <c r="H12" s="3">
-        <v>331600</v>
+        <v>334900</v>
       </c>
       <c r="I12" s="3">
-        <v>363300</v>
+        <v>320700</v>
       </c>
       <c r="J12" s="3">
+        <v>351400</v>
+      </c>
+      <c r="K12" s="3">
         <v>349000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>374200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>356900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>387500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>349000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>378100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>364900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>454200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>351000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>375500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>336800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>366000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>346100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4794900</v>
+        <v>5030000</v>
       </c>
       <c r="E17" s="3">
-        <v>5229900</v>
+        <v>4637000</v>
       </c>
       <c r="F17" s="3">
-        <v>4664800</v>
+        <v>5057600</v>
       </c>
       <c r="G17" s="3">
-        <v>4600900</v>
+        <v>4511100</v>
       </c>
       <c r="H17" s="3">
-        <v>3970900</v>
+        <v>4449400</v>
       </c>
       <c r="I17" s="3">
-        <v>5027000</v>
+        <v>3840100</v>
       </c>
       <c r="J17" s="3">
+        <v>4861400</v>
+      </c>
+      <c r="K17" s="3">
         <v>4889000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4979900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4563600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5575700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5311000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5389100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4799900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5667700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5161200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5226700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4842300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4977100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4680500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>513100</v>
+        <v>454100</v>
       </c>
       <c r="E18" s="3">
-        <v>410000</v>
+        <v>496200</v>
       </c>
       <c r="F18" s="3">
-        <v>583000</v>
+        <v>396500</v>
       </c>
       <c r="G18" s="3">
-        <v>328700</v>
+        <v>563800</v>
       </c>
       <c r="H18" s="3">
-        <v>185800</v>
+        <v>317900</v>
       </c>
       <c r="I18" s="3">
-        <v>318300</v>
+        <v>179600</v>
       </c>
       <c r="J18" s="3">
+        <v>307800</v>
+      </c>
+      <c r="K18" s="3">
         <v>542900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>504800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>340000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>494700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>715100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>452400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>335000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>459300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>346000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>324000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>515700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>452000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>200400</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="3">
-        <v>151300</v>
+        <v>193800</v>
       </c>
       <c r="F20" s="3">
-        <v>110800</v>
+        <v>146400</v>
       </c>
       <c r="G20" s="3">
-        <v>198700</v>
+        <v>107100</v>
       </c>
       <c r="H20" s="3">
-        <v>204000</v>
+        <v>192200</v>
       </c>
       <c r="I20" s="3">
-        <v>-255200</v>
+        <v>197300</v>
       </c>
       <c r="J20" s="3">
+        <v>-246800</v>
+      </c>
+      <c r="K20" s="3">
         <v>90700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>155000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-91600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>69400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-171100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>66600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>90000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>217700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>222800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>49400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>209800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>105300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>149000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>998600</v>
+        <v>761100</v>
       </c>
       <c r="E21" s="3">
-        <v>857800</v>
+        <v>965700</v>
       </c>
       <c r="F21" s="3">
-        <v>973900</v>
+        <v>829500</v>
       </c>
       <c r="G21" s="3">
-        <v>802500</v>
+        <v>941800</v>
       </c>
       <c r="H21" s="3">
-        <v>662500</v>
+        <v>776000</v>
       </c>
       <c r="I21" s="3">
-        <v>344100</v>
+        <v>640700</v>
       </c>
       <c r="J21" s="3">
+        <v>332700</v>
+      </c>
+      <c r="K21" s="3">
         <v>918700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>940000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>523400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>894300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>855100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>826000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>709100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>512800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>987300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>674700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>811400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>898400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>843800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1553,194 +1593,203 @@
         <v>4900</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="F22" s="3">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4800</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>708600</v>
+        <v>459200</v>
       </c>
       <c r="E23" s="3">
-        <v>556200</v>
+        <v>685300</v>
       </c>
       <c r="F23" s="3">
-        <v>685500</v>
+        <v>537800</v>
       </c>
       <c r="G23" s="3">
-        <v>522600</v>
+        <v>663000</v>
       </c>
       <c r="H23" s="3">
-        <v>384400</v>
+        <v>505400</v>
       </c>
       <c r="I23" s="3">
-        <v>59600</v>
+        <v>371800</v>
       </c>
       <c r="J23" s="3">
+        <v>57600</v>
+      </c>
+      <c r="K23" s="3">
         <v>628600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>653800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>241800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>559300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>535600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>509700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>416300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>211500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>672300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>384600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>520900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>608600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>586900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>209900</v>
+        <v>116300</v>
       </c>
       <c r="E24" s="3">
-        <v>85800</v>
+        <v>203000</v>
       </c>
       <c r="F24" s="3">
-        <v>160300</v>
+        <v>83000</v>
       </c>
       <c r="G24" s="3">
-        <v>142900</v>
+        <v>155000</v>
       </c>
       <c r="H24" s="3">
-        <v>117700</v>
+        <v>138200</v>
       </c>
       <c r="I24" s="3">
-        <v>28000</v>
+        <v>113800</v>
       </c>
       <c r="J24" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K24" s="3">
         <v>73700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>164600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>165400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>147300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>96100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>122900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>125700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>158200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>116300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>92500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>63400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>162800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>498700</v>
+        <v>342900</v>
       </c>
       <c r="E26" s="3">
-        <v>470400</v>
+        <v>482300</v>
       </c>
       <c r="F26" s="3">
-        <v>525300</v>
+        <v>454900</v>
       </c>
       <c r="G26" s="3">
-        <v>379800</v>
+        <v>508000</v>
       </c>
       <c r="H26" s="3">
-        <v>266700</v>
+        <v>367300</v>
       </c>
       <c r="I26" s="3">
-        <v>31600</v>
+        <v>258000</v>
       </c>
       <c r="J26" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K26" s="3">
         <v>554800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>489100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>177300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>393900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>388300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>413500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>293400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>85800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>514100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>268300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>428400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>545200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>424100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>522100</v>
+        <v>343200</v>
       </c>
       <c r="E27" s="3">
-        <v>498500</v>
+        <v>504900</v>
       </c>
       <c r="F27" s="3">
-        <v>536400</v>
+        <v>482000</v>
       </c>
       <c r="G27" s="3">
-        <v>365400</v>
+        <v>518800</v>
       </c>
       <c r="H27" s="3">
-        <v>250500</v>
+        <v>353300</v>
       </c>
       <c r="I27" s="3">
-        <v>39400</v>
+        <v>242300</v>
       </c>
       <c r="J27" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K27" s="3">
         <v>542200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>427200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>134300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>356100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>341700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>357200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>257500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>147100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>484600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>245000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>396000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>484100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>393400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-200400</v>
+        <v>-10000</v>
       </c>
       <c r="E32" s="3">
-        <v>-151300</v>
+        <v>-193800</v>
       </c>
       <c r="F32" s="3">
-        <v>-110800</v>
+        <v>-146400</v>
       </c>
       <c r="G32" s="3">
-        <v>-198700</v>
+        <v>-107100</v>
       </c>
       <c r="H32" s="3">
-        <v>-204000</v>
+        <v>-192200</v>
       </c>
       <c r="I32" s="3">
-        <v>255200</v>
+        <v>-197300</v>
       </c>
       <c r="J32" s="3">
+        <v>246800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-90700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-155000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>91600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-69400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>171100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-66600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-90000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-217700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-222800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-49400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-209800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-105300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-149000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>522100</v>
+        <v>343200</v>
       </c>
       <c r="E33" s="3">
-        <v>498500</v>
+        <v>504900</v>
       </c>
       <c r="F33" s="3">
-        <v>536400</v>
+        <v>482000</v>
       </c>
       <c r="G33" s="3">
-        <v>365400</v>
+        <v>518800</v>
       </c>
       <c r="H33" s="3">
-        <v>250500</v>
+        <v>353300</v>
       </c>
       <c r="I33" s="3">
-        <v>39400</v>
+        <v>242300</v>
       </c>
       <c r="J33" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K33" s="3">
         <v>542200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>427200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>134300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>356100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>341700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>357200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>257500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>147100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>484600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>245000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>396000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>484100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>393400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>522100</v>
+        <v>343200</v>
       </c>
       <c r="E35" s="3">
-        <v>498500</v>
+        <v>504900</v>
       </c>
       <c r="F35" s="3">
-        <v>536400</v>
+        <v>482000</v>
       </c>
       <c r="G35" s="3">
-        <v>365400</v>
+        <v>518800</v>
       </c>
       <c r="H35" s="3">
-        <v>250500</v>
+        <v>353300</v>
       </c>
       <c r="I35" s="3">
-        <v>39400</v>
+        <v>242300</v>
       </c>
       <c r="J35" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K35" s="3">
         <v>542200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>427200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>134300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>356100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>341700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>357200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>257500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>147100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>484600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>245000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>396000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>484100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>393400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3930000</v>
+        <v>3818900</v>
       </c>
       <c r="E41" s="3">
-        <v>3596600</v>
+        <v>3800600</v>
       </c>
       <c r="F41" s="3">
-        <v>4507300</v>
+        <v>3478100</v>
       </c>
       <c r="G41" s="3">
-        <v>4168100</v>
+        <v>4358900</v>
       </c>
       <c r="H41" s="3">
-        <v>3518900</v>
+        <v>4030900</v>
       </c>
       <c r="I41" s="3">
-        <v>3608400</v>
+        <v>3403000</v>
       </c>
       <c r="J41" s="3">
+        <v>3489600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4168000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5771700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6434200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6292100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6243000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5771500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6580400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6983400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5895800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6172300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7190000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7769700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5709700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2680,487 +2770,511 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27600</v>
-      </c>
-      <c r="S42" s="3">
-        <v>54700</v>
       </c>
       <c r="T42" s="3">
         <v>54700</v>
       </c>
       <c r="U42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="V42" s="3">
         <v>53600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>26600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4878500</v>
+        <v>4816400</v>
       </c>
       <c r="E43" s="3">
-        <v>5518100</v>
+        <v>4717800</v>
       </c>
       <c r="F43" s="3">
-        <v>4828300</v>
+        <v>5336400</v>
       </c>
       <c r="G43" s="3">
-        <v>4528700</v>
+        <v>4669300</v>
       </c>
       <c r="H43" s="3">
-        <v>4217000</v>
+        <v>4379600</v>
       </c>
       <c r="I43" s="3">
-        <v>5087200</v>
+        <v>4078100</v>
       </c>
       <c r="J43" s="3">
+        <v>4919700</v>
+      </c>
+      <c r="K43" s="3">
         <v>5207200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4961300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4783200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5937000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5728800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5629800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5106600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5627200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5700700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5684900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5386900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5639400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5504800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4172400</v>
+        <v>4078900</v>
       </c>
       <c r="E44" s="3">
-        <v>3804900</v>
+        <v>4035000</v>
       </c>
       <c r="F44" s="3">
-        <v>3706800</v>
+        <v>3679600</v>
       </c>
       <c r="G44" s="3">
-        <v>3699000</v>
+        <v>3584700</v>
       </c>
       <c r="H44" s="3">
-        <v>3884000</v>
+        <v>3577200</v>
       </c>
       <c r="I44" s="3">
-        <v>3470100</v>
+        <v>3756100</v>
       </c>
       <c r="J44" s="3">
+        <v>3355800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3747200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3664800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3649600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3598500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3875400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3879600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3580200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3284400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3610900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3538100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3539000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3009100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3299400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1105600</v>
+        <v>1212800</v>
       </c>
       <c r="E45" s="3">
-        <v>812600</v>
+        <v>1069200</v>
       </c>
       <c r="F45" s="3">
-        <v>842900</v>
+        <v>785900</v>
       </c>
       <c r="G45" s="3">
-        <v>885700</v>
+        <v>815200</v>
       </c>
       <c r="H45" s="3">
-        <v>1512500</v>
+        <v>856500</v>
       </c>
       <c r="I45" s="3">
-        <v>1401000</v>
+        <v>1462700</v>
       </c>
       <c r="J45" s="3">
+        <v>1354800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1398600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>838100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>933200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>806400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>928700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>969300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1244900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1019400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1182600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1199300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1194300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1576900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1208300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14086500</v>
+        <v>13926900</v>
       </c>
       <c r="E46" s="3">
-        <v>13732200</v>
+        <v>13622600</v>
       </c>
       <c r="F46" s="3">
-        <v>13885400</v>
+        <v>13280000</v>
       </c>
       <c r="G46" s="3">
-        <v>13281500</v>
+        <v>13428100</v>
       </c>
       <c r="H46" s="3">
-        <v>13132300</v>
+        <v>12844200</v>
       </c>
       <c r="I46" s="3">
-        <v>13566600</v>
+        <v>12699800</v>
       </c>
       <c r="J46" s="3">
+        <v>13119900</v>
+      </c>
+      <c r="K46" s="3">
         <v>14521100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15235900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15800200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16634000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16775900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16250200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16512000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16914700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16417600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16649400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17364900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18048700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15748800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2235700</v>
+        <v>2138200</v>
       </c>
       <c r="E47" s="3">
-        <v>2075500</v>
+        <v>2162100</v>
       </c>
       <c r="F47" s="3">
-        <v>1940700</v>
+        <v>2007100</v>
       </c>
       <c r="G47" s="3">
-        <v>2026500</v>
+        <v>1876800</v>
       </c>
       <c r="H47" s="3">
-        <v>1950200</v>
+        <v>1959800</v>
       </c>
       <c r="I47" s="3">
-        <v>1850500</v>
+        <v>1886000</v>
       </c>
       <c r="J47" s="3">
+        <v>1789600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2109300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2082200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2037500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2303400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2128200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2236700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2099400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2173900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2715900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2812500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2751100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2656900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3052200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6582700</v>
+        <v>6446000</v>
       </c>
       <c r="E48" s="3">
-        <v>6499600</v>
+        <v>6365900</v>
       </c>
       <c r="F48" s="3">
-        <v>6298000</v>
+        <v>6285500</v>
       </c>
       <c r="G48" s="3">
-        <v>6254000</v>
+        <v>6090600</v>
       </c>
       <c r="H48" s="3">
-        <v>6212400</v>
+        <v>6048000</v>
       </c>
       <c r="I48" s="3">
-        <v>6156600</v>
+        <v>6007800</v>
       </c>
       <c r="J48" s="3">
+        <v>5953900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6117700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6095400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4746100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5062500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5005900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5100000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4837700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4886300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4945600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4976300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4989300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4617800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4663300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8505600</v>
+        <v>8209400</v>
       </c>
       <c r="E49" s="3">
-        <v>8496900</v>
+        <v>8225500</v>
       </c>
       <c r="F49" s="3">
-        <v>7483800</v>
+        <v>8217000</v>
       </c>
       <c r="G49" s="3">
-        <v>7520800</v>
+        <v>7237300</v>
       </c>
       <c r="H49" s="3">
-        <v>7566700</v>
+        <v>7273100</v>
       </c>
       <c r="I49" s="3">
-        <v>7554200</v>
+        <v>7317600</v>
       </c>
       <c r="J49" s="3">
+        <v>7305500</v>
+      </c>
+      <c r="K49" s="3">
         <v>7664500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7549100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7199300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7693000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7718000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7845000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7296200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6533000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6655900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6660900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6641100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5111600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5222000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1577000</v>
+        <v>1518000</v>
       </c>
       <c r="E52" s="3">
-        <v>1529100</v>
+        <v>1525100</v>
       </c>
       <c r="F52" s="3">
-        <v>1092100</v>
+        <v>1478800</v>
       </c>
       <c r="G52" s="3">
-        <v>1055000</v>
+        <v>1056100</v>
       </c>
       <c r="H52" s="3">
-        <v>1038900</v>
+        <v>1020300</v>
       </c>
       <c r="I52" s="3">
-        <v>1132600</v>
+        <v>1004700</v>
       </c>
       <c r="J52" s="3">
+        <v>1095300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1025100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1025800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1798500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1122200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1174500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1234000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1142500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1242900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1181200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1180500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1225800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>904300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>879100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32987500</v>
+        <v>32238500</v>
       </c>
       <c r="E54" s="3">
-        <v>32333200</v>
+        <v>31901200</v>
       </c>
       <c r="F54" s="3">
-        <v>30700000</v>
+        <v>31268500</v>
       </c>
       <c r="G54" s="3">
-        <v>30137800</v>
+        <v>29689000</v>
       </c>
       <c r="H54" s="3">
-        <v>29900500</v>
+        <v>29145300</v>
       </c>
       <c r="I54" s="3">
-        <v>30260600</v>
+        <v>28915900</v>
       </c>
       <c r="J54" s="3">
+        <v>29264100</v>
+      </c>
+      <c r="K54" s="3">
         <v>31437700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31988400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31581600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32815200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32802600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32665900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31887700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31750800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31916300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32279500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32972100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31339400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29565300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2044900</v>
+        <v>1959000</v>
       </c>
       <c r="E57" s="3">
-        <v>1992900</v>
+        <v>1977500</v>
       </c>
       <c r="F57" s="3">
-        <v>1735900</v>
+        <v>1927300</v>
       </c>
       <c r="G57" s="3">
-        <v>1638400</v>
+        <v>1678800</v>
       </c>
       <c r="H57" s="3">
-        <v>1646300</v>
+        <v>1584400</v>
       </c>
       <c r="I57" s="3">
-        <v>1794100</v>
+        <v>1592000</v>
       </c>
       <c r="J57" s="3">
+        <v>1735000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1980900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1825700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1817300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2043100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2091300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2125900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1998500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2066900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2047300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2039700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2089400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2110600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2016200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>578700</v>
+        <v>1003500</v>
       </c>
       <c r="E58" s="3">
-        <v>604400</v>
+        <v>559700</v>
       </c>
       <c r="F58" s="3">
-        <v>721900</v>
+        <v>584500</v>
       </c>
       <c r="G58" s="3">
-        <v>663900</v>
+        <v>698200</v>
       </c>
       <c r="H58" s="3">
-        <v>637200</v>
+        <v>642100</v>
       </c>
       <c r="I58" s="3">
-        <v>1102300</v>
+        <v>616200</v>
       </c>
       <c r="J58" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2498700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1290600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1569800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1639300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>925600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>651400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>362700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>378800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>298400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>683500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1072600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1099900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1204700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3903500</v>
+        <v>3961700</v>
       </c>
       <c r="E59" s="3">
-        <v>3928000</v>
+        <v>3774900</v>
       </c>
       <c r="F59" s="3">
-        <v>3228500</v>
+        <v>3798600</v>
       </c>
       <c r="G59" s="3">
-        <v>3105900</v>
+        <v>3122200</v>
       </c>
       <c r="H59" s="3">
-        <v>3096700</v>
+        <v>3003700</v>
       </c>
       <c r="I59" s="3">
-        <v>3116300</v>
+        <v>2994800</v>
       </c>
       <c r="J59" s="3">
+        <v>3013600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2873800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3064600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3055500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3066600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2777400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3004200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3459000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3592000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2659800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2918900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2901100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2822700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2545900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6527000</v>
+        <v>6924200</v>
       </c>
       <c r="E60" s="3">
-        <v>6525300</v>
+        <v>6312100</v>
       </c>
       <c r="F60" s="3">
-        <v>5686400</v>
+        <v>6310500</v>
       </c>
       <c r="G60" s="3">
-        <v>5408300</v>
+        <v>5499200</v>
       </c>
       <c r="H60" s="3">
-        <v>5380200</v>
+        <v>5230200</v>
       </c>
       <c r="I60" s="3">
-        <v>6012700</v>
+        <v>5203000</v>
       </c>
       <c r="J60" s="3">
+        <v>5814700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7353500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6180800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6442600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6749000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5794300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5781500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5820200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6037700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5005500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5642100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6063100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6033200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5766900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4001700</v>
+        <v>3393600</v>
       </c>
       <c r="E61" s="3">
-        <v>4063700</v>
+        <v>3869900</v>
       </c>
       <c r="F61" s="3">
-        <v>4246300</v>
+        <v>3929900</v>
       </c>
       <c r="G61" s="3">
-        <v>4491700</v>
+        <v>4106500</v>
       </c>
       <c r="H61" s="3">
-        <v>4485000</v>
+        <v>4343800</v>
       </c>
       <c r="I61" s="3">
-        <v>4583900</v>
+        <v>4337300</v>
       </c>
       <c r="J61" s="3">
+        <v>4432900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3544500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3706300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3230300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3397500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4343600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3682800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3753100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3749600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3957200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3954200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4473500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3857100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2059100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1625200</v>
+        <v>1580500</v>
       </c>
       <c r="E62" s="3">
-        <v>1500300</v>
+        <v>1571600</v>
       </c>
       <c r="F62" s="3">
-        <v>1415800</v>
+        <v>1450900</v>
       </c>
       <c r="G62" s="3">
-        <v>1489200</v>
+        <v>1369200</v>
       </c>
       <c r="H62" s="3">
-        <v>1536800</v>
+        <v>1440100</v>
       </c>
       <c r="I62" s="3">
-        <v>1500900</v>
+        <v>1486200</v>
       </c>
       <c r="J62" s="3">
+        <v>1451500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1450100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1462500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1504700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1095900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1117900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1232000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1068700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1068200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1208300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1249400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1282400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1331500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1345000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12316900</v>
+        <v>12062700</v>
       </c>
       <c r="E66" s="3">
-        <v>12249600</v>
+        <v>11911300</v>
       </c>
       <c r="F66" s="3">
-        <v>11742000</v>
+        <v>11846300</v>
       </c>
       <c r="G66" s="3">
-        <v>11785300</v>
+        <v>11355300</v>
       </c>
       <c r="H66" s="3">
-        <v>11791100</v>
+        <v>11397200</v>
       </c>
       <c r="I66" s="3">
-        <v>12466500</v>
+        <v>11402800</v>
       </c>
       <c r="J66" s="3">
+        <v>12056000</v>
+      </c>
+      <c r="K66" s="3">
         <v>12708500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13278500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13058100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13240000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13187100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12636900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12636000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12851500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12264300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13003500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13939800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13213000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11233800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25144100</v>
+        <v>24459500</v>
       </c>
       <c r="E72" s="3">
-        <v>24622100</v>
+        <v>24316000</v>
       </c>
       <c r="F72" s="3">
-        <v>24313500</v>
+        <v>23811300</v>
       </c>
       <c r="G72" s="3">
-        <v>23775600</v>
+        <v>23512900</v>
       </c>
       <c r="H72" s="3">
-        <v>23581800</v>
+        <v>22992700</v>
       </c>
       <c r="I72" s="3">
-        <v>23349800</v>
+        <v>22805200</v>
       </c>
       <c r="J72" s="3">
+        <v>22580800</v>
+      </c>
+      <c r="K72" s="3">
         <v>23484400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23428300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23104800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>24099200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23909300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23567600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22110200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21668700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21549000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21064400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20967600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20184800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20233000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20670600</v>
+        <v>20175800</v>
       </c>
       <c r="E76" s="3">
-        <v>20083600</v>
+        <v>19989900</v>
       </c>
       <c r="F76" s="3">
-        <v>18957900</v>
+        <v>19422200</v>
       </c>
       <c r="G76" s="3">
-        <v>18352400</v>
+        <v>18333600</v>
       </c>
       <c r="H76" s="3">
-        <v>18109400</v>
+        <v>17748100</v>
       </c>
       <c r="I76" s="3">
-        <v>17794100</v>
+        <v>17513000</v>
       </c>
       <c r="J76" s="3">
+        <v>17208200</v>
+      </c>
+      <c r="K76" s="3">
         <v>18729200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18710000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18523500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19575200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19615500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20029000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19251700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18899300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19652000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19276000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19032300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18126400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18331500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>522100</v>
+        <v>343200</v>
       </c>
       <c r="E81" s="3">
-        <v>498500</v>
+        <v>504900</v>
       </c>
       <c r="F81" s="3">
-        <v>536400</v>
+        <v>482000</v>
       </c>
       <c r="G81" s="3">
-        <v>365400</v>
+        <v>518800</v>
       </c>
       <c r="H81" s="3">
-        <v>250500</v>
+        <v>353300</v>
       </c>
       <c r="I81" s="3">
-        <v>39400</v>
+        <v>242300</v>
       </c>
       <c r="J81" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K81" s="3">
         <v>542200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>427200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>134300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>356100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>341700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>357200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>257500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>147100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>484600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>245000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>396000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>484100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>393400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>297100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>275700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>286700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>270900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>266000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>263800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>271700</v>
+      </c>
+      <c r="K83" s="3">
         <v>285100</v>
       </c>
-      <c r="E83" s="3">
-        <v>296400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>280100</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="L83" s="3">
+        <v>280200</v>
+      </c>
+      <c r="M83" s="3">
         <v>275000</v>
       </c>
-      <c r="H83" s="3">
-        <v>272800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>281000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>285100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>280200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>275000</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>330200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>311100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>307000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>284100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>293600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>305100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>279200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>277600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>277400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>242800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>869500</v>
+        <v>461400</v>
       </c>
       <c r="E89" s="3">
-        <v>1170200</v>
+        <v>840800</v>
       </c>
       <c r="F89" s="3">
-        <v>891400</v>
+        <v>1131700</v>
       </c>
       <c r="G89" s="3">
-        <v>857500</v>
+        <v>862100</v>
       </c>
       <c r="H89" s="3">
-        <v>914900</v>
+        <v>829300</v>
       </c>
       <c r="I89" s="3">
-        <v>849700</v>
+        <v>884800</v>
       </c>
       <c r="J89" s="3">
+        <v>821700</v>
+      </c>
+      <c r="K89" s="3">
         <v>44100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>451600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>993100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1016600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>560200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>790800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>958700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>404200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>159000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>844200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>874800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>444300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-250100</v>
+        <v>-272500</v>
       </c>
       <c r="E91" s="3">
-        <v>-247500</v>
+        <v>-241900</v>
       </c>
       <c r="F91" s="3">
-        <v>-217300</v>
+        <v>-239400</v>
       </c>
       <c r="G91" s="3">
-        <v>-236900</v>
+        <v>-210100</v>
       </c>
       <c r="H91" s="3">
-        <v>-209900</v>
+        <v>-229100</v>
       </c>
       <c r="I91" s="3">
-        <v>-181400</v>
+        <v>-203000</v>
       </c>
       <c r="J91" s="3">
+        <v>-175400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-197200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-226500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-169200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-206100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-166600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-144300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-134100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-132800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-161000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-156000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-120800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-231900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>256900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-335800</v>
+        <v>-409400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1817100</v>
+        <v>-324700</v>
       </c>
       <c r="F94" s="3">
-        <v>-161700</v>
+        <v>-1757200</v>
       </c>
       <c r="G94" s="3">
-        <v>-261000</v>
+        <v>-156400</v>
       </c>
       <c r="H94" s="3">
-        <v>-305400</v>
+        <v>-252400</v>
       </c>
       <c r="I94" s="3">
-        <v>-386700</v>
+        <v>-295300</v>
       </c>
       <c r="J94" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-354400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-266300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-472700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-272000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-237200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-967300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>541500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>68900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-277700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-448100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-286800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-191200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-184900</v>
       </c>
       <c r="F96" s="3">
-        <v>-173000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-167300</v>
       </c>
       <c r="H96" s="3">
-        <v>-173000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-167300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-177200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-150000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-163700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-146700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-148200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-138500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-137700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-214100</v>
+        <v>-39400</v>
       </c>
       <c r="E100" s="3">
-        <v>-413900</v>
+        <v>-207000</v>
       </c>
       <c r="F100" s="3">
-        <v>-392800</v>
+        <v>-400300</v>
       </c>
       <c r="G100" s="3">
-        <v>45900</v>
+        <v>-379800</v>
       </c>
       <c r="H100" s="3">
-        <v>-725000</v>
+        <v>44400</v>
       </c>
       <c r="I100" s="3">
-        <v>-920000</v>
+        <v>-701100</v>
       </c>
       <c r="J100" s="3">
+        <v>-889700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>171400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-194400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-484300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>245200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-993500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-229600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-328100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-788100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-959700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-266900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1700900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-500500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13800</v>
+        <v>5700</v>
       </c>
       <c r="E101" s="3">
-        <v>150100</v>
+        <v>13400</v>
       </c>
       <c r="F101" s="3">
-        <v>2300</v>
+        <v>145100</v>
       </c>
       <c r="G101" s="3">
-        <v>6800</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
-        <v>25900</v>
+        <v>6600</v>
       </c>
       <c r="I101" s="3">
-        <v>-102600</v>
+        <v>25100</v>
       </c>
       <c r="J101" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="K101" s="3">
         <v>99400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-71200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-95600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-61900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>61900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-117200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>38500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>60700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>34300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-67600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>269600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>333400</v>
+        <v>18400</v>
       </c>
       <c r="E102" s="3">
-        <v>-910700</v>
+        <v>322400</v>
       </c>
       <c r="F102" s="3">
-        <v>339200</v>
+        <v>-880800</v>
       </c>
       <c r="G102" s="3">
-        <v>649300</v>
+        <v>328000</v>
       </c>
       <c r="H102" s="3">
-        <v>-89500</v>
+        <v>627900</v>
       </c>
       <c r="I102" s="3">
-        <v>-559600</v>
+        <v>-86600</v>
       </c>
       <c r="J102" s="3">
+        <v>-541200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-683600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>436800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>471500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-403000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1054900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-276500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-728700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2060000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-56300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5484100</v>
+        <v>5593700</v>
       </c>
       <c r="E8" s="3">
-        <v>5133200</v>
+        <v>5309800</v>
       </c>
       <c r="F8" s="3">
-        <v>5454100</v>
+        <v>4970000</v>
       </c>
       <c r="G8" s="3">
-        <v>5075000</v>
+        <v>5280800</v>
       </c>
       <c r="H8" s="3">
-        <v>4767300</v>
+        <v>4913700</v>
       </c>
       <c r="I8" s="3">
-        <v>4019700</v>
+        <v>4615700</v>
       </c>
       <c r="J8" s="3">
+        <v>3892000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5169200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5432000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5484700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4903600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6070400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6026200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5841400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5134900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5669300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5620600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5572700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5166300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5492800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5132600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3249100</v>
+        <v>3221100</v>
       </c>
       <c r="E9" s="3">
-        <v>2907200</v>
+        <v>3145800</v>
       </c>
       <c r="F9" s="3">
-        <v>3526900</v>
+        <v>2814800</v>
       </c>
       <c r="G9" s="3">
-        <v>2839800</v>
+        <v>3414800</v>
       </c>
       <c r="H9" s="3">
-        <v>2918900</v>
+        <v>2749600</v>
       </c>
       <c r="I9" s="3">
-        <v>2368500</v>
+        <v>2826100</v>
       </c>
       <c r="J9" s="3">
+        <v>2293200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3130300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3159200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3231600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2811300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3734400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3455200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3427600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2992100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3832100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3631400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3695600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3077700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3267700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3036000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2235000</v>
+        <v>2372600</v>
       </c>
       <c r="E10" s="3">
-        <v>2226000</v>
+        <v>2164000</v>
       </c>
       <c r="F10" s="3">
-        <v>1927200</v>
+        <v>2155200</v>
       </c>
       <c r="G10" s="3">
-        <v>2235100</v>
+        <v>1866000</v>
       </c>
       <c r="H10" s="3">
-        <v>1848400</v>
+        <v>2164100</v>
       </c>
       <c r="I10" s="3">
-        <v>1651300</v>
+        <v>1789600</v>
       </c>
       <c r="J10" s="3">
+        <v>1598800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2038900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2272800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2253100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2092300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2336000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2571000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2413900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2142700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1837200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1989100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1877100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2088600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2225200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2096500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>340200</v>
+        <v>308500</v>
       </c>
       <c r="E12" s="3">
-        <v>327400</v>
+        <v>329400</v>
       </c>
       <c r="F12" s="3">
-        <v>364700</v>
+        <v>317000</v>
       </c>
       <c r="G12" s="3">
-        <v>320200</v>
+        <v>353200</v>
       </c>
       <c r="H12" s="3">
-        <v>334900</v>
+        <v>310000</v>
       </c>
       <c r="I12" s="3">
-        <v>320700</v>
+        <v>324200</v>
       </c>
       <c r="J12" s="3">
+        <v>310500</v>
+      </c>
+      <c r="K12" s="3">
         <v>351400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>349000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>374200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>356900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>387500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>349000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>378100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>364900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>454200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>351000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>375500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>336800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>366000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>346100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5030000</v>
+        <v>4923300</v>
       </c>
       <c r="E17" s="3">
-        <v>4637000</v>
+        <v>4870100</v>
       </c>
       <c r="F17" s="3">
-        <v>5057600</v>
+        <v>4489600</v>
       </c>
       <c r="G17" s="3">
-        <v>4511100</v>
+        <v>4896900</v>
       </c>
       <c r="H17" s="3">
-        <v>4449400</v>
+        <v>4367800</v>
       </c>
       <c r="I17" s="3">
-        <v>3840100</v>
+        <v>4308000</v>
       </c>
       <c r="J17" s="3">
+        <v>3718100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4861400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4889000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4979900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4563600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5575700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5311000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5389100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4799900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5667700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5161200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5226700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4842300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4977100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4680500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>454100</v>
+        <v>670400</v>
       </c>
       <c r="E18" s="3">
-        <v>496200</v>
+        <v>439700</v>
       </c>
       <c r="F18" s="3">
-        <v>396500</v>
+        <v>480400</v>
       </c>
       <c r="G18" s="3">
-        <v>563800</v>
+        <v>383900</v>
       </c>
       <c r="H18" s="3">
-        <v>317900</v>
+        <v>545900</v>
       </c>
       <c r="I18" s="3">
-        <v>179600</v>
+        <v>307800</v>
       </c>
       <c r="J18" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K18" s="3">
         <v>307800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>542900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>504800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>340000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>494700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>715100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>452400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>335000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>459300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>346000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>324000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>515700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>452000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>10000</v>
+        <v>-5800</v>
       </c>
       <c r="E20" s="3">
-        <v>193800</v>
+        <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>146400</v>
+        <v>187700</v>
       </c>
       <c r="G20" s="3">
-        <v>107100</v>
+        <v>141700</v>
       </c>
       <c r="H20" s="3">
-        <v>192200</v>
+        <v>103700</v>
       </c>
       <c r="I20" s="3">
-        <v>197300</v>
+        <v>186100</v>
       </c>
       <c r="J20" s="3">
+        <v>191000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-246800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>90700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>155000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-91600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>69400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-171100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>66600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>90000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>217700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>222800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>49400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>209800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>105300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>149000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>761100</v>
+        <v>943700</v>
       </c>
       <c r="E21" s="3">
-        <v>965700</v>
+        <v>737000</v>
       </c>
       <c r="F21" s="3">
-        <v>829500</v>
+        <v>935000</v>
       </c>
       <c r="G21" s="3">
-        <v>941800</v>
+        <v>803200</v>
       </c>
       <c r="H21" s="3">
-        <v>776000</v>
+        <v>911900</v>
       </c>
       <c r="I21" s="3">
-        <v>640700</v>
+        <v>751400</v>
       </c>
       <c r="J21" s="3">
+        <v>620400</v>
+      </c>
+      <c r="K21" s="3">
         <v>332700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>918700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>940000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>523400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>894300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>855100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>826000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>709100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>512800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>987300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>674700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>811400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>898400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>843800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1593,203 +1632,212 @@
         <v>4900</v>
       </c>
       <c r="E22" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L22" s="3">
         <v>5100</v>
       </c>
-      <c r="J22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>459200</v>
+        <v>659700</v>
       </c>
       <c r="E23" s="3">
-        <v>685300</v>
+        <v>444600</v>
       </c>
       <c r="F23" s="3">
-        <v>537800</v>
+        <v>663500</v>
       </c>
       <c r="G23" s="3">
-        <v>663000</v>
+        <v>520700</v>
       </c>
       <c r="H23" s="3">
-        <v>505400</v>
+        <v>641900</v>
       </c>
       <c r="I23" s="3">
-        <v>371800</v>
+        <v>489400</v>
       </c>
       <c r="J23" s="3">
+        <v>360000</v>
+      </c>
+      <c r="K23" s="3">
         <v>57600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>628600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>653800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>241800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>559300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>535600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>509700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>416300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>211500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>672300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>384600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>520900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>608600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>586900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>112600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>196500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>80300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>150100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>27100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>73700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>164600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>64400</v>
+      </c>
+      <c r="O24" s="3">
+        <v>165400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>147300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>96100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>122900</v>
+      </c>
+      <c r="S24" s="3">
+        <v>125700</v>
+      </c>
+      <c r="T24" s="3">
+        <v>158200</v>
+      </c>
+      <c r="U24" s="3">
         <v>116300</v>
       </c>
-      <c r="E24" s="3">
-        <v>203000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>83000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>155000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>138200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>113800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>27100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>73700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>164600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>64400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>165400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>147300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>96100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>122900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>125700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>158200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>116300</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>92500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>63400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>162800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>342900</v>
+        <v>481500</v>
       </c>
       <c r="E26" s="3">
-        <v>482300</v>
+        <v>332000</v>
       </c>
       <c r="F26" s="3">
-        <v>454900</v>
+        <v>467000</v>
       </c>
       <c r="G26" s="3">
-        <v>508000</v>
+        <v>440400</v>
       </c>
       <c r="H26" s="3">
-        <v>367300</v>
+        <v>491800</v>
       </c>
       <c r="I26" s="3">
-        <v>258000</v>
+        <v>355600</v>
       </c>
       <c r="J26" s="3">
+        <v>249800</v>
+      </c>
+      <c r="K26" s="3">
         <v>30600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>554800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>489100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>177300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>393900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>388300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>413500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>293400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>85800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>514100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>268300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>428400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>545200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>424100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>343200</v>
+        <v>519000</v>
       </c>
       <c r="E27" s="3">
-        <v>504900</v>
+        <v>332300</v>
       </c>
       <c r="F27" s="3">
-        <v>482000</v>
+        <v>488800</v>
       </c>
       <c r="G27" s="3">
-        <v>518800</v>
+        <v>466700</v>
       </c>
       <c r="H27" s="3">
-        <v>353300</v>
+        <v>502300</v>
       </c>
       <c r="I27" s="3">
-        <v>242300</v>
+        <v>342100</v>
       </c>
       <c r="J27" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K27" s="3">
         <v>38100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>542200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>427200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>134300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>356100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>341700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>357200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>257500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>147100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>484600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>245000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>396000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>484100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>393400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-10000</v>
+        <v>5800</v>
       </c>
       <c r="E32" s="3">
-        <v>-193800</v>
+        <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-146400</v>
+        <v>-187700</v>
       </c>
       <c r="G32" s="3">
-        <v>-107100</v>
+        <v>-141700</v>
       </c>
       <c r="H32" s="3">
-        <v>-192200</v>
+        <v>-103700</v>
       </c>
       <c r="I32" s="3">
-        <v>-197300</v>
+        <v>-186100</v>
       </c>
       <c r="J32" s="3">
+        <v>-191000</v>
+      </c>
+      <c r="K32" s="3">
         <v>246800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-90700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-155000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>91600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-69400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>171100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-66600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-90000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-217700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-222800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-49400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-209800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-105300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-149000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>343200</v>
+        <v>519000</v>
       </c>
       <c r="E33" s="3">
-        <v>504900</v>
+        <v>332300</v>
       </c>
       <c r="F33" s="3">
-        <v>482000</v>
+        <v>488800</v>
       </c>
       <c r="G33" s="3">
-        <v>518800</v>
+        <v>466700</v>
       </c>
       <c r="H33" s="3">
-        <v>353300</v>
+        <v>502300</v>
       </c>
       <c r="I33" s="3">
-        <v>242300</v>
+        <v>342100</v>
       </c>
       <c r="J33" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K33" s="3">
         <v>38100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>542200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>427200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>134300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>356100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>341700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>357200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>257500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>147100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>484600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>245000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>396000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>484100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>393400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>343200</v>
+        <v>519000</v>
       </c>
       <c r="E35" s="3">
-        <v>504900</v>
+        <v>332300</v>
       </c>
       <c r="F35" s="3">
-        <v>482000</v>
+        <v>488800</v>
       </c>
       <c r="G35" s="3">
-        <v>518800</v>
+        <v>466700</v>
       </c>
       <c r="H35" s="3">
-        <v>353300</v>
+        <v>502300</v>
       </c>
       <c r="I35" s="3">
-        <v>242300</v>
+        <v>342100</v>
       </c>
       <c r="J35" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K35" s="3">
         <v>38100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>542200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>427200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>134300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>356100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>341700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>357200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>257500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>147100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>484600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>245000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>396000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>484100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>393400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3818900</v>
+        <v>3625700</v>
       </c>
       <c r="E41" s="3">
-        <v>3800600</v>
+        <v>3697500</v>
       </c>
       <c r="F41" s="3">
-        <v>3478100</v>
+        <v>3679800</v>
       </c>
       <c r="G41" s="3">
-        <v>4358900</v>
+        <v>3367600</v>
       </c>
       <c r="H41" s="3">
-        <v>4030900</v>
+        <v>4220400</v>
       </c>
       <c r="I41" s="3">
-        <v>3403000</v>
+        <v>3902800</v>
       </c>
       <c r="J41" s="3">
+        <v>3294800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3489600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4168000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5771700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6434200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6292100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6243000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5771500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6580400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6983400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5895800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6172300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7190000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7769700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5709700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2773,508 +2862,532 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>27600</v>
-      </c>
-      <c r="T42" s="3">
-        <v>54700</v>
       </c>
       <c r="U42" s="3">
         <v>54700</v>
       </c>
       <c r="V42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="W42" s="3">
         <v>53600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>26600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4816400</v>
+        <v>4943200</v>
       </c>
       <c r="E43" s="3">
-        <v>4717800</v>
+        <v>4663300</v>
       </c>
       <c r="F43" s="3">
-        <v>5336400</v>
+        <v>4567900</v>
       </c>
       <c r="G43" s="3">
-        <v>4669300</v>
+        <v>5166800</v>
       </c>
       <c r="H43" s="3">
-        <v>4379600</v>
+        <v>4520900</v>
       </c>
       <c r="I43" s="3">
-        <v>4078100</v>
+        <v>4240400</v>
       </c>
       <c r="J43" s="3">
+        <v>3948500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4919700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5207200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4961300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4783200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5937000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5728800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5629800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5106600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5627200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5700700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5684900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5386900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5639400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5504800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4078900</v>
+        <v>4153000</v>
       </c>
       <c r="E44" s="3">
-        <v>4035000</v>
+        <v>3949200</v>
       </c>
       <c r="F44" s="3">
-        <v>3679600</v>
+        <v>3906700</v>
       </c>
       <c r="G44" s="3">
-        <v>3584700</v>
+        <v>3562700</v>
       </c>
       <c r="H44" s="3">
-        <v>3577200</v>
+        <v>3470800</v>
       </c>
       <c r="I44" s="3">
-        <v>3756100</v>
+        <v>3463500</v>
       </c>
       <c r="J44" s="3">
+        <v>3636700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3355800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3747200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3664800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3649600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3598500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3875400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3879600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3580200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3284400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3610900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3538100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3539000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3009100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3299400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1212800</v>
+        <v>1138100</v>
       </c>
       <c r="E45" s="3">
-        <v>1069200</v>
+        <v>1174200</v>
       </c>
       <c r="F45" s="3">
-        <v>785900</v>
+        <v>1035200</v>
       </c>
       <c r="G45" s="3">
-        <v>815200</v>
+        <v>760900</v>
       </c>
       <c r="H45" s="3">
-        <v>856500</v>
+        <v>789300</v>
       </c>
       <c r="I45" s="3">
-        <v>1462700</v>
+        <v>829300</v>
       </c>
       <c r="J45" s="3">
+        <v>1416200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1354800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1398600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>838100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>933200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>806400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>928700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>969300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1244900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1019400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1182600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1199300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1194300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1576900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1208300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13926900</v>
+        <v>13860000</v>
       </c>
       <c r="E46" s="3">
-        <v>13622600</v>
+        <v>13484300</v>
       </c>
       <c r="F46" s="3">
-        <v>13280000</v>
+        <v>13189600</v>
       </c>
       <c r="G46" s="3">
-        <v>13428100</v>
+        <v>12857900</v>
       </c>
       <c r="H46" s="3">
-        <v>12844200</v>
+        <v>13001300</v>
       </c>
       <c r="I46" s="3">
-        <v>12699800</v>
+        <v>12435900</v>
       </c>
       <c r="J46" s="3">
+        <v>12296200</v>
+      </c>
+      <c r="K46" s="3">
         <v>13119900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14521100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15235900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15800200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16634000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16775900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16250200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16512000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16914700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16417600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16649400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17364900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18048700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15748800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2138200</v>
+        <v>1962200</v>
       </c>
       <c r="E47" s="3">
-        <v>2162100</v>
+        <v>2070200</v>
       </c>
       <c r="F47" s="3">
-        <v>2007100</v>
+        <v>2093400</v>
       </c>
       <c r="G47" s="3">
-        <v>1876800</v>
+        <v>1943400</v>
       </c>
       <c r="H47" s="3">
-        <v>1959800</v>
+        <v>1817200</v>
       </c>
       <c r="I47" s="3">
-        <v>1886000</v>
+        <v>1897500</v>
       </c>
       <c r="J47" s="3">
+        <v>1826100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1789600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2109300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2082200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2037500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2303400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2128200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2236700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2099400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2173900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2715900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2812500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2751100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2656900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3052200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6446000</v>
+        <v>6419800</v>
       </c>
       <c r="E48" s="3">
-        <v>6365900</v>
+        <v>6241100</v>
       </c>
       <c r="F48" s="3">
-        <v>6285500</v>
+        <v>6163600</v>
       </c>
       <c r="G48" s="3">
-        <v>6090600</v>
+        <v>6085800</v>
       </c>
       <c r="H48" s="3">
-        <v>6048000</v>
+        <v>5897000</v>
       </c>
       <c r="I48" s="3">
-        <v>6007800</v>
+        <v>5855800</v>
       </c>
       <c r="J48" s="3">
+        <v>5816900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5953900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6117700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6095400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4746100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5062500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5005900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5100000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4837700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4886300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4945600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4976300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4989300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4617800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4663300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8209400</v>
+        <v>8026000</v>
       </c>
       <c r="E49" s="3">
-        <v>8225500</v>
+        <v>7948500</v>
       </c>
       <c r="F49" s="3">
-        <v>8217000</v>
+        <v>7964100</v>
       </c>
       <c r="G49" s="3">
-        <v>7237300</v>
+        <v>7955900</v>
       </c>
       <c r="H49" s="3">
-        <v>7273100</v>
+        <v>7007300</v>
       </c>
       <c r="I49" s="3">
-        <v>7317600</v>
+        <v>7042000</v>
       </c>
       <c r="J49" s="3">
+        <v>7085000</v>
+      </c>
+      <c r="K49" s="3">
         <v>7305500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7664500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7549100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7199300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7693000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7718000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7845000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7296200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6533000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6655900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6660900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6641100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5111600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5222000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1518000</v>
+        <v>1515000</v>
       </c>
       <c r="E52" s="3">
-        <v>1525100</v>
+        <v>1469700</v>
       </c>
       <c r="F52" s="3">
-        <v>1478800</v>
+        <v>1476600</v>
       </c>
       <c r="G52" s="3">
-        <v>1056100</v>
+        <v>1431800</v>
       </c>
       <c r="H52" s="3">
-        <v>1020300</v>
+        <v>1022600</v>
       </c>
       <c r="I52" s="3">
-        <v>1004700</v>
+        <v>987800</v>
       </c>
       <c r="J52" s="3">
+        <v>972700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1095300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1025100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1025800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1798500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1122200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1174500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1142500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1242900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1181200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1180500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1225800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>904300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>879100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32238500</v>
+        <v>31782900</v>
       </c>
       <c r="E54" s="3">
-        <v>31901200</v>
+        <v>31213900</v>
       </c>
       <c r="F54" s="3">
-        <v>31268500</v>
+        <v>30887300</v>
       </c>
       <c r="G54" s="3">
-        <v>29689000</v>
+        <v>30274700</v>
       </c>
       <c r="H54" s="3">
-        <v>29145300</v>
+        <v>28745400</v>
       </c>
       <c r="I54" s="3">
-        <v>28915900</v>
+        <v>28219000</v>
       </c>
       <c r="J54" s="3">
+        <v>27996900</v>
+      </c>
+      <c r="K54" s="3">
         <v>29264100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31437700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31988400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31581600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32815200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32802600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32665900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31887700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31750800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31916300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32279500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32972100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31339400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29565300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1959000</v>
+        <v>1974400</v>
       </c>
       <c r="E57" s="3">
-        <v>1977500</v>
+        <v>1896700</v>
       </c>
       <c r="F57" s="3">
-        <v>1927300</v>
+        <v>1914700</v>
       </c>
       <c r="G57" s="3">
-        <v>1678800</v>
+        <v>1866000</v>
       </c>
       <c r="H57" s="3">
-        <v>1584400</v>
+        <v>1625400</v>
       </c>
       <c r="I57" s="3">
-        <v>1592000</v>
+        <v>1534100</v>
       </c>
       <c r="J57" s="3">
+        <v>1541400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1735000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1980900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1825700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1817300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2043100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2091300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2125900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1998500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2066900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2047300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2039700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2089400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2110600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2016200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1003500</v>
+        <v>1080100</v>
       </c>
       <c r="E58" s="3">
-        <v>559700</v>
+        <v>971600</v>
       </c>
       <c r="F58" s="3">
-        <v>584500</v>
+        <v>541900</v>
       </c>
       <c r="G58" s="3">
-        <v>698200</v>
+        <v>565900</v>
       </c>
       <c r="H58" s="3">
-        <v>642100</v>
+        <v>676000</v>
       </c>
       <c r="I58" s="3">
-        <v>616200</v>
+        <v>621700</v>
       </c>
       <c r="J58" s="3">
+        <v>596600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1066000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2498700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1290600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1569800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1639300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>925600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>651400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>362700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>378800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>298400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>683500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1072600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1099900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1204700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3961700</v>
+        <v>3770900</v>
       </c>
       <c r="E59" s="3">
-        <v>3774900</v>
+        <v>3835800</v>
       </c>
       <c r="F59" s="3">
-        <v>3798600</v>
+        <v>3654900</v>
       </c>
       <c r="G59" s="3">
-        <v>3122200</v>
+        <v>3677900</v>
       </c>
       <c r="H59" s="3">
-        <v>3003700</v>
+        <v>3023000</v>
       </c>
       <c r="I59" s="3">
-        <v>2994800</v>
+        <v>2908200</v>
       </c>
       <c r="J59" s="3">
+        <v>2899600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3013600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2873800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3064600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3055500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3066600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2777400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3004200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3459000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3592000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2659800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2918900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2901100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2822700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2545900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6924200</v>
+        <v>6825400</v>
       </c>
       <c r="E60" s="3">
-        <v>6312100</v>
+        <v>6704100</v>
       </c>
       <c r="F60" s="3">
-        <v>6310500</v>
+        <v>6111500</v>
       </c>
       <c r="G60" s="3">
-        <v>5499200</v>
+        <v>6109900</v>
       </c>
       <c r="H60" s="3">
-        <v>5230200</v>
+        <v>5324400</v>
       </c>
       <c r="I60" s="3">
-        <v>5203000</v>
+        <v>5063900</v>
       </c>
       <c r="J60" s="3">
+        <v>5037700</v>
+      </c>
+      <c r="K60" s="3">
         <v>5814700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7353500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6180800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6442600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6749000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5794300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5781500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5820200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6037700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5005500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5642100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6063100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6033200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5766900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3393600</v>
+        <v>2952700</v>
       </c>
       <c r="E61" s="3">
-        <v>3869900</v>
+        <v>3285700</v>
       </c>
       <c r="F61" s="3">
-        <v>3929900</v>
+        <v>3746900</v>
       </c>
       <c r="G61" s="3">
-        <v>4106500</v>
+        <v>3805000</v>
       </c>
       <c r="H61" s="3">
-        <v>4343800</v>
+        <v>3975900</v>
       </c>
       <c r="I61" s="3">
-        <v>4337300</v>
+        <v>4205700</v>
       </c>
       <c r="J61" s="3">
+        <v>4199500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4432900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3544500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3706300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3230300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3397500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4343600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3682800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3753100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3749600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3957200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3954200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4473500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3857100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2059100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1580500</v>
+        <v>1518400</v>
       </c>
       <c r="E62" s="3">
-        <v>1571600</v>
+        <v>1530300</v>
       </c>
       <c r="F62" s="3">
-        <v>1450900</v>
+        <v>1521700</v>
       </c>
       <c r="G62" s="3">
-        <v>1369200</v>
+        <v>1404800</v>
       </c>
       <c r="H62" s="3">
-        <v>1440100</v>
+        <v>1325700</v>
       </c>
       <c r="I62" s="3">
-        <v>1486200</v>
+        <v>1394400</v>
       </c>
       <c r="J62" s="3">
+        <v>1438900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1451500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1450100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1462500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1504700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1095900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1117900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1232000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1068700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1068200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1208300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1249400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1282400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1331500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1345000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12062700</v>
+        <v>11461300</v>
       </c>
       <c r="E66" s="3">
-        <v>11911300</v>
+        <v>11679300</v>
       </c>
       <c r="F66" s="3">
-        <v>11846300</v>
+        <v>11532800</v>
       </c>
       <c r="G66" s="3">
-        <v>11355300</v>
+        <v>11469800</v>
       </c>
       <c r="H66" s="3">
-        <v>11397200</v>
+        <v>10994400</v>
       </c>
       <c r="I66" s="3">
-        <v>11402800</v>
+        <v>11035000</v>
       </c>
       <c r="J66" s="3">
+        <v>11040400</v>
+      </c>
+      <c r="K66" s="3">
         <v>12056000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12708500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13278500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13058100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13240000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13187100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12636900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12636000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12851500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12264300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13003500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13939800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13213000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11233800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24459500</v>
+        <v>24186600</v>
       </c>
       <c r="E72" s="3">
-        <v>24316000</v>
+        <v>23682100</v>
       </c>
       <c r="F72" s="3">
-        <v>23811300</v>
+        <v>23543200</v>
       </c>
       <c r="G72" s="3">
-        <v>23512900</v>
+        <v>23054500</v>
       </c>
       <c r="H72" s="3">
-        <v>22992700</v>
+        <v>22765600</v>
       </c>
       <c r="I72" s="3">
-        <v>22805200</v>
+        <v>22261900</v>
       </c>
       <c r="J72" s="3">
+        <v>22080400</v>
+      </c>
+      <c r="K72" s="3">
         <v>22580800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23484400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23428300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23104800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24099200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23909300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23567600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22110200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21668700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21549000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21064400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20967600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20184800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20233000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20175800</v>
+        <v>20321600</v>
       </c>
       <c r="E76" s="3">
-        <v>19989900</v>
+        <v>19534600</v>
       </c>
       <c r="F76" s="3">
-        <v>19422200</v>
+        <v>19354600</v>
       </c>
       <c r="G76" s="3">
-        <v>18333600</v>
+        <v>18804900</v>
       </c>
       <c r="H76" s="3">
-        <v>17748100</v>
+        <v>17751000</v>
       </c>
       <c r="I76" s="3">
-        <v>17513000</v>
+        <v>17184000</v>
       </c>
       <c r="J76" s="3">
+        <v>16956400</v>
+      </c>
+      <c r="K76" s="3">
         <v>17208200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18729200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18710000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18523500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19575200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19615500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20029000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19251700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18899300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19652000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19276000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19032300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18126400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18331500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>343200</v>
+        <v>519000</v>
       </c>
       <c r="E81" s="3">
-        <v>504900</v>
+        <v>332300</v>
       </c>
       <c r="F81" s="3">
-        <v>482000</v>
+        <v>488800</v>
       </c>
       <c r="G81" s="3">
-        <v>518800</v>
+        <v>466700</v>
       </c>
       <c r="H81" s="3">
-        <v>353300</v>
+        <v>502300</v>
       </c>
       <c r="I81" s="3">
-        <v>242300</v>
+        <v>342100</v>
       </c>
       <c r="J81" s="3">
+        <v>234600</v>
+      </c>
+      <c r="K81" s="3">
         <v>38100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>542200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>427200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>134300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>356100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>341700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>357200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>257500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>147100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>484600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>245000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>396000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>484100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>393400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>297100</v>
+        <v>279100</v>
       </c>
       <c r="E83" s="3">
-        <v>275700</v>
+        <v>287600</v>
       </c>
       <c r="F83" s="3">
-        <v>286700</v>
+        <v>267000</v>
       </c>
       <c r="G83" s="3">
-        <v>270900</v>
+        <v>277600</v>
       </c>
       <c r="H83" s="3">
-        <v>266000</v>
+        <v>262300</v>
       </c>
       <c r="I83" s="3">
-        <v>263800</v>
+        <v>257500</v>
       </c>
       <c r="J83" s="3">
+        <v>255400</v>
+      </c>
+      <c r="K83" s="3">
         <v>271700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>285100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>280200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>275000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>330200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>311100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>307000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>284100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>293600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>305100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>279200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>277600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>277400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>242800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>461400</v>
+        <v>560100</v>
       </c>
       <c r="E89" s="3">
-        <v>840800</v>
+        <v>446800</v>
       </c>
       <c r="F89" s="3">
-        <v>1131700</v>
+        <v>814100</v>
       </c>
       <c r="G89" s="3">
-        <v>862100</v>
+        <v>1095700</v>
       </c>
       <c r="H89" s="3">
-        <v>829300</v>
+        <v>834700</v>
       </c>
       <c r="I89" s="3">
-        <v>884800</v>
+        <v>802900</v>
       </c>
       <c r="J89" s="3">
+        <v>856700</v>
+      </c>
+      <c r="K89" s="3">
         <v>821700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>451600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>993100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1016600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>560200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>790800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>958700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>404200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>159000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>844200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>874800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>444300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-272500</v>
+        <v>-277000</v>
       </c>
       <c r="E91" s="3">
-        <v>-241900</v>
+        <v>-263800</v>
       </c>
       <c r="F91" s="3">
-        <v>-239400</v>
+        <v>-234200</v>
       </c>
       <c r="G91" s="3">
-        <v>-210100</v>
+        <v>-231800</v>
       </c>
       <c r="H91" s="3">
-        <v>-229100</v>
+        <v>-203400</v>
       </c>
       <c r="I91" s="3">
-        <v>-203000</v>
+        <v>-221800</v>
       </c>
       <c r="J91" s="3">
+        <v>-196600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-175400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-197200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-226500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-169200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-206100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-166600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-144300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-134100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-132800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-161000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-156000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-120800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-231900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>256900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-409400</v>
+        <v>-272200</v>
       </c>
       <c r="E94" s="3">
-        <v>-324700</v>
+        <v>-396300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1757200</v>
+        <v>-314400</v>
       </c>
       <c r="G94" s="3">
-        <v>-156400</v>
+        <v>-1701400</v>
       </c>
       <c r="H94" s="3">
-        <v>-252400</v>
+        <v>-151400</v>
       </c>
       <c r="I94" s="3">
-        <v>-295300</v>
+        <v>-244400</v>
       </c>
       <c r="J94" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-374000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-354400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-266300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-472700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-272000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-237200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-967300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>541500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>68900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-277700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-448100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-286800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-188000</v>
       </c>
       <c r="E96" s="3">
-        <v>-184900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-179000</v>
       </c>
       <c r="G96" s="3">
-        <v>-167300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-162000</v>
       </c>
       <c r="I96" s="3">
-        <v>-167300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-162000</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-177200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-150000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-163700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-146700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-148200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-138500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-137700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39400</v>
+        <v>-425700</v>
       </c>
       <c r="E100" s="3">
-        <v>-207000</v>
+        <v>-38100</v>
       </c>
       <c r="F100" s="3">
-        <v>-400300</v>
+        <v>-200500</v>
       </c>
       <c r="G100" s="3">
-        <v>-379800</v>
+        <v>-387600</v>
       </c>
       <c r="H100" s="3">
-        <v>44400</v>
+        <v>-367700</v>
       </c>
       <c r="I100" s="3">
-        <v>-701100</v>
+        <v>43000</v>
       </c>
       <c r="J100" s="3">
+        <v>-678800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-889700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>171400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-194400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-484300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>245200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-993500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-229600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-328100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-788100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-959700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-266900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1700900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-500500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5700</v>
+        <v>65900</v>
       </c>
       <c r="E101" s="3">
-        <v>13400</v>
+        <v>5500</v>
       </c>
       <c r="F101" s="3">
-        <v>145100</v>
+        <v>12900</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>140500</v>
       </c>
       <c r="H101" s="3">
-        <v>6600</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>25100</v>
+        <v>6400</v>
       </c>
       <c r="J101" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-99200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>99400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-71200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-95600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-61900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>61900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-117200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>38500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>60700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>34300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-67600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>269600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18400</v>
+        <v>-71900</v>
       </c>
       <c r="E102" s="3">
-        <v>322400</v>
+        <v>17800</v>
       </c>
       <c r="F102" s="3">
-        <v>-880800</v>
+        <v>312200</v>
       </c>
       <c r="G102" s="3">
-        <v>328000</v>
+        <v>-852800</v>
       </c>
       <c r="H102" s="3">
-        <v>627900</v>
+        <v>317600</v>
       </c>
       <c r="I102" s="3">
-        <v>-86600</v>
+        <v>607900</v>
       </c>
       <c r="J102" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-541200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-683600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>436800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>471500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-403000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1054900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-276500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-728700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2060000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-56300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5593700</v>
+        <v>5179300</v>
       </c>
       <c r="E8" s="3">
-        <v>5309800</v>
+        <v>5108400</v>
       </c>
       <c r="F8" s="3">
-        <v>4970000</v>
+        <v>4849100</v>
       </c>
       <c r="G8" s="3">
-        <v>5280800</v>
+        <v>4538900</v>
       </c>
       <c r="H8" s="3">
-        <v>4913700</v>
+        <v>4822700</v>
       </c>
       <c r="I8" s="3">
-        <v>4615700</v>
+        <v>4487400</v>
       </c>
       <c r="J8" s="3">
+        <v>4215300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3892000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5169200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5432000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5484700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4903600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6070400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6026200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5841400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5134900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5669300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5620600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5572700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5166300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5492800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5132600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3221100</v>
+        <v>3241800</v>
       </c>
       <c r="E9" s="3">
-        <v>3145800</v>
+        <v>2941700</v>
       </c>
       <c r="F9" s="3">
-        <v>2814800</v>
+        <v>2872900</v>
       </c>
       <c r="G9" s="3">
-        <v>3414800</v>
+        <v>2570600</v>
       </c>
       <c r="H9" s="3">
-        <v>2749600</v>
+        <v>3118600</v>
       </c>
       <c r="I9" s="3">
-        <v>2826100</v>
+        <v>2511000</v>
       </c>
       <c r="J9" s="3">
+        <v>2580900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2293200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3130300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3159200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3231600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2811300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3734400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3455200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3427600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2992100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3832100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3631400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3695600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3077700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3267700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3036000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2372600</v>
+        <v>1937600</v>
       </c>
       <c r="E10" s="3">
-        <v>2164000</v>
+        <v>2166800</v>
       </c>
       <c r="F10" s="3">
-        <v>2155200</v>
+        <v>1976200</v>
       </c>
       <c r="G10" s="3">
-        <v>1866000</v>
+        <v>1968300</v>
       </c>
       <c r="H10" s="3">
-        <v>2164100</v>
+        <v>1704100</v>
       </c>
       <c r="I10" s="3">
-        <v>1789600</v>
+        <v>1976300</v>
       </c>
       <c r="J10" s="3">
+        <v>1634400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1598800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2038900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2272800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2253100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2092300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2336000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2571000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2413900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2142700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1837200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1989100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1877100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2088600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2225200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2096500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>308500</v>
+        <v>300600</v>
       </c>
       <c r="E12" s="3">
-        <v>329400</v>
+        <v>281700</v>
       </c>
       <c r="F12" s="3">
-        <v>317000</v>
+        <v>300800</v>
       </c>
       <c r="G12" s="3">
-        <v>353200</v>
+        <v>289500</v>
       </c>
       <c r="H12" s="3">
-        <v>310000</v>
+        <v>322500</v>
       </c>
       <c r="I12" s="3">
-        <v>324200</v>
+        <v>283100</v>
       </c>
       <c r="J12" s="3">
+        <v>296100</v>
+      </c>
+      <c r="K12" s="3">
         <v>310500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>351400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>349000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>374200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>356900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>387500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>349000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>378100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>364900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>454200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>351000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>375500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>336800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>366000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>346100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4923300</v>
+        <v>4842400</v>
       </c>
       <c r="E17" s="3">
-        <v>4870100</v>
+        <v>4496200</v>
       </c>
       <c r="F17" s="3">
-        <v>4489600</v>
+        <v>4447600</v>
       </c>
       <c r="G17" s="3">
-        <v>4896900</v>
+        <v>4100100</v>
       </c>
       <c r="H17" s="3">
-        <v>4367800</v>
+        <v>4472100</v>
       </c>
       <c r="I17" s="3">
-        <v>4308000</v>
+        <v>3988900</v>
       </c>
       <c r="J17" s="3">
+        <v>3934200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3718100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4861400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4889000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4979900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4563600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5575700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5311000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5389100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4799900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5667700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5161200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5226700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4842300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4977100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4680500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>670400</v>
+        <v>336900</v>
       </c>
       <c r="E18" s="3">
-        <v>439700</v>
+        <v>612200</v>
       </c>
       <c r="F18" s="3">
-        <v>480400</v>
+        <v>401500</v>
       </c>
       <c r="G18" s="3">
-        <v>383900</v>
+        <v>438700</v>
       </c>
       <c r="H18" s="3">
-        <v>545900</v>
+        <v>350600</v>
       </c>
       <c r="I18" s="3">
+        <v>498500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>281100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>173900</v>
+      </c>
+      <c r="L18" s="3">
         <v>307800</v>
       </c>
-      <c r="J18" s="3">
-        <v>173900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>307800</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>542900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>504800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>340000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>494700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>715100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>452400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>335000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>459300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>346000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>324000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>515700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>452000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-5800</v>
+        <v>82700</v>
       </c>
       <c r="E20" s="3">
-        <v>9700</v>
+        <v>-5300</v>
       </c>
       <c r="F20" s="3">
-        <v>187700</v>
+        <v>8800</v>
       </c>
       <c r="G20" s="3">
-        <v>141700</v>
+        <v>171400</v>
       </c>
       <c r="H20" s="3">
-        <v>103700</v>
+        <v>129400</v>
       </c>
       <c r="I20" s="3">
-        <v>186100</v>
+        <v>94700</v>
       </c>
       <c r="J20" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K20" s="3">
         <v>191000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-246800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>90700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>155000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-91600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>69400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-171100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>66600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>90000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>217700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>222800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>49400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>209800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>105300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>149000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>943700</v>
+        <v>694200</v>
       </c>
       <c r="E21" s="3">
-        <v>737000</v>
+        <v>861800</v>
       </c>
       <c r="F21" s="3">
-        <v>935000</v>
+        <v>673000</v>
       </c>
       <c r="G21" s="3">
-        <v>803200</v>
+        <v>853900</v>
       </c>
       <c r="H21" s="3">
-        <v>911900</v>
+        <v>733500</v>
       </c>
       <c r="I21" s="3">
-        <v>751400</v>
+        <v>832800</v>
       </c>
       <c r="J21" s="3">
+        <v>686200</v>
+      </c>
+      <c r="K21" s="3">
         <v>620400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>332700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>918700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>940000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>523400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>894300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>855100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>826000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>709100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>512800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>987300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>674700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>811400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>898400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>843800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4800</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>659700</v>
+        <v>414500</v>
       </c>
       <c r="E23" s="3">
-        <v>444600</v>
+        <v>602500</v>
       </c>
       <c r="F23" s="3">
-        <v>663500</v>
+        <v>406000</v>
       </c>
       <c r="G23" s="3">
-        <v>520700</v>
+        <v>605900</v>
       </c>
       <c r="H23" s="3">
-        <v>641900</v>
+        <v>475600</v>
       </c>
       <c r="I23" s="3">
-        <v>489400</v>
+        <v>586200</v>
       </c>
       <c r="J23" s="3">
+        <v>446900</v>
+      </c>
+      <c r="K23" s="3">
         <v>360000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>628600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>653800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>241800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>559300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>535600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>509700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>416300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>211500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>672300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>384600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>520900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>608600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>586900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>178200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>112600</v>
+        <v>162700</v>
       </c>
       <c r="F24" s="3">
-        <v>196500</v>
+        <v>102800</v>
       </c>
       <c r="G24" s="3">
-        <v>80300</v>
+        <v>179500</v>
       </c>
       <c r="H24" s="3">
-        <v>150100</v>
+        <v>73400</v>
       </c>
       <c r="I24" s="3">
-        <v>133800</v>
+        <v>137000</v>
       </c>
       <c r="J24" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K24" s="3">
         <v>110200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>73700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>164600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>165400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>147300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>96100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>122900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>125700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>158200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>116300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>92500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>63400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>162800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>481500</v>
+        <v>414400</v>
       </c>
       <c r="E26" s="3">
-        <v>332000</v>
+        <v>439800</v>
       </c>
       <c r="F26" s="3">
-        <v>467000</v>
+        <v>303200</v>
       </c>
       <c r="G26" s="3">
-        <v>440400</v>
+        <v>426500</v>
       </c>
       <c r="H26" s="3">
-        <v>491800</v>
+        <v>402200</v>
       </c>
       <c r="I26" s="3">
-        <v>355600</v>
+        <v>449200</v>
       </c>
       <c r="J26" s="3">
+        <v>324700</v>
+      </c>
+      <c r="K26" s="3">
         <v>249800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>554800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>489100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>177300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>393900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>388300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>413500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>293400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>85800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>514100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>268300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>428400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>545200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>424100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>519000</v>
+        <v>421200</v>
       </c>
       <c r="E27" s="3">
-        <v>332300</v>
+        <v>474000</v>
       </c>
       <c r="F27" s="3">
-        <v>488800</v>
+        <v>303400</v>
       </c>
       <c r="G27" s="3">
-        <v>466700</v>
+        <v>446400</v>
       </c>
       <c r="H27" s="3">
-        <v>502300</v>
+        <v>426200</v>
       </c>
       <c r="I27" s="3">
-        <v>342100</v>
+        <v>458700</v>
       </c>
       <c r="J27" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K27" s="3">
         <v>234600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>542200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>427200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>134300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>356100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>341700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>357200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>257500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>147100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>484600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>245000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>396000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>484100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>393400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>5800</v>
+        <v>-82700</v>
       </c>
       <c r="E32" s="3">
-        <v>-9700</v>
+        <v>5300</v>
       </c>
       <c r="F32" s="3">
-        <v>-187700</v>
+        <v>-8800</v>
       </c>
       <c r="G32" s="3">
-        <v>-141700</v>
+        <v>-171400</v>
       </c>
       <c r="H32" s="3">
-        <v>-103700</v>
+        <v>-129400</v>
       </c>
       <c r="I32" s="3">
-        <v>-186100</v>
+        <v>-94700</v>
       </c>
       <c r="J32" s="3">
+        <v>-169900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-191000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>246800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-90700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-155000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>91600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-69400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>171100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-66600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-90000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-217700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-222800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-49400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-209800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-105300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-149000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>519000</v>
+        <v>421200</v>
       </c>
       <c r="E33" s="3">
-        <v>332300</v>
+        <v>474000</v>
       </c>
       <c r="F33" s="3">
-        <v>488800</v>
+        <v>303400</v>
       </c>
       <c r="G33" s="3">
-        <v>466700</v>
+        <v>446400</v>
       </c>
       <c r="H33" s="3">
-        <v>502300</v>
+        <v>426200</v>
       </c>
       <c r="I33" s="3">
-        <v>342100</v>
+        <v>458700</v>
       </c>
       <c r="J33" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K33" s="3">
         <v>234600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>542200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>427200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>134300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>356100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>341700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>357200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>257500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>147100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>484600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>245000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>396000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>484100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>393400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>519000</v>
+        <v>421200</v>
       </c>
       <c r="E35" s="3">
-        <v>332300</v>
+        <v>474000</v>
       </c>
       <c r="F35" s="3">
-        <v>488800</v>
+        <v>303400</v>
       </c>
       <c r="G35" s="3">
-        <v>466700</v>
+        <v>446400</v>
       </c>
       <c r="H35" s="3">
-        <v>502300</v>
+        <v>426200</v>
       </c>
       <c r="I35" s="3">
-        <v>342100</v>
+        <v>458700</v>
       </c>
       <c r="J35" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K35" s="3">
         <v>234600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>542200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>427200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>134300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>356100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>341700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>357200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>257500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>147100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>484600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>245000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>396000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>484100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>393400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3625700</v>
+        <v>3788500</v>
       </c>
       <c r="E41" s="3">
-        <v>3697500</v>
+        <v>3311100</v>
       </c>
       <c r="F41" s="3">
-        <v>3679800</v>
+        <v>3376800</v>
       </c>
       <c r="G41" s="3">
-        <v>3367600</v>
+        <v>3360500</v>
       </c>
       <c r="H41" s="3">
-        <v>4220400</v>
+        <v>3075500</v>
       </c>
       <c r="I41" s="3">
-        <v>3902800</v>
+        <v>3854200</v>
       </c>
       <c r="J41" s="3">
+        <v>3564200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3294800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3489600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4168000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5771700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6434200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6292100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6243000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5771500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6580400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6983400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5895800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6172300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7190000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7769700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5709700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2865,529 +2955,553 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>27600</v>
-      </c>
-      <c r="U42" s="3">
-        <v>54700</v>
       </c>
       <c r="V42" s="3">
         <v>54700</v>
       </c>
       <c r="W42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="X42" s="3">
         <v>53600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>26600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4943200</v>
+        <v>4663400</v>
       </c>
       <c r="E43" s="3">
-        <v>4663300</v>
+        <v>4514400</v>
       </c>
       <c r="F43" s="3">
-        <v>4567900</v>
+        <v>4258700</v>
       </c>
       <c r="G43" s="3">
-        <v>5166800</v>
+        <v>4171600</v>
       </c>
       <c r="H43" s="3">
-        <v>4520900</v>
+        <v>4718500</v>
       </c>
       <c r="I43" s="3">
-        <v>4240400</v>
+        <v>4128700</v>
       </c>
       <c r="J43" s="3">
+        <v>3872500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3948500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4919700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5207200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4961300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4783200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5937000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5728800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5629800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5106600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5627200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5700700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5684900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5386900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5639400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5504800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4153000</v>
+        <v>3929800</v>
       </c>
       <c r="E44" s="3">
-        <v>3949200</v>
+        <v>3792700</v>
       </c>
       <c r="F44" s="3">
-        <v>3906700</v>
+        <v>3606600</v>
       </c>
       <c r="G44" s="3">
-        <v>3562700</v>
+        <v>3567800</v>
       </c>
       <c r="H44" s="3">
-        <v>3470800</v>
+        <v>3253600</v>
       </c>
       <c r="I44" s="3">
-        <v>3463500</v>
+        <v>3169700</v>
       </c>
       <c r="J44" s="3">
+        <v>3163000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3636700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3355800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3747200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3664800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3649600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3598500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3875400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3879600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3580200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3284400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3610900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3538100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3539000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3009100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3299400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1138100</v>
+        <v>1054000</v>
       </c>
       <c r="E45" s="3">
-        <v>1174200</v>
+        <v>1039400</v>
       </c>
       <c r="F45" s="3">
-        <v>1035200</v>
+        <v>1072400</v>
       </c>
       <c r="G45" s="3">
-        <v>760900</v>
+        <v>945400</v>
       </c>
       <c r="H45" s="3">
-        <v>789300</v>
+        <v>694900</v>
       </c>
       <c r="I45" s="3">
-        <v>829300</v>
+        <v>720800</v>
       </c>
       <c r="J45" s="3">
+        <v>757400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1416200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1354800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1398600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>838100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>933200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>806400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>928700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>969300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1244900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1019400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1182600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1199300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1194300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1576900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1208300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13860000</v>
+        <v>13435600</v>
       </c>
       <c r="E46" s="3">
-        <v>13484300</v>
+        <v>12657600</v>
       </c>
       <c r="F46" s="3">
-        <v>13189600</v>
+        <v>12314500</v>
       </c>
       <c r="G46" s="3">
-        <v>12857900</v>
+        <v>12045400</v>
       </c>
       <c r="H46" s="3">
-        <v>13001300</v>
+        <v>11742500</v>
       </c>
       <c r="I46" s="3">
-        <v>12435900</v>
+        <v>11873400</v>
       </c>
       <c r="J46" s="3">
+        <v>11357100</v>
+      </c>
+      <c r="K46" s="3">
         <v>12296200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13119900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14521100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15235900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15800200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16634000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16775900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16250200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16512000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16914700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16417600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16649400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17364900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18048700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15748800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1962200</v>
+        <v>1799900</v>
       </c>
       <c r="E47" s="3">
-        <v>2070200</v>
+        <v>1792000</v>
       </c>
       <c r="F47" s="3">
-        <v>2093400</v>
+        <v>1890600</v>
       </c>
       <c r="G47" s="3">
-        <v>1943400</v>
+        <v>1911800</v>
       </c>
       <c r="H47" s="3">
-        <v>1817200</v>
+        <v>1774800</v>
       </c>
       <c r="I47" s="3">
-        <v>1897500</v>
+        <v>1659500</v>
       </c>
       <c r="J47" s="3">
+        <v>1732900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1826100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1789600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2109300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2082200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2037500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2303400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2128200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2236700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2099400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2173900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2715900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2812500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2751100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2656900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3052200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6419800</v>
+        <v>6389600</v>
       </c>
       <c r="E48" s="3">
-        <v>6241100</v>
+        <v>5862900</v>
       </c>
       <c r="F48" s="3">
-        <v>6163600</v>
+        <v>5699700</v>
       </c>
       <c r="G48" s="3">
-        <v>6085800</v>
+        <v>5628900</v>
       </c>
       <c r="H48" s="3">
-        <v>5897000</v>
+        <v>5557800</v>
       </c>
       <c r="I48" s="3">
-        <v>5855800</v>
+        <v>5385500</v>
       </c>
       <c r="J48" s="3">
+        <v>5347800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5816900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5953900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6117700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6095400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4746100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5062500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5005900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5100000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4837700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4886300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4945600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4976300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4989300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4617800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4663300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8026000</v>
+        <v>7608400</v>
       </c>
       <c r="E49" s="3">
-        <v>7948500</v>
+        <v>7329700</v>
       </c>
       <c r="F49" s="3">
-        <v>7964100</v>
+        <v>7258900</v>
       </c>
       <c r="G49" s="3">
-        <v>7955900</v>
+        <v>7273200</v>
       </c>
       <c r="H49" s="3">
-        <v>7007300</v>
+        <v>7265700</v>
       </c>
       <c r="I49" s="3">
-        <v>7042000</v>
+        <v>6399400</v>
       </c>
       <c r="J49" s="3">
+        <v>6431100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7085000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7305500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7664500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7549100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7199300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7693000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7718000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7845000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7296200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6533000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6655900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6660900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6641100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5111600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5222000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1515000</v>
+        <v>1578100</v>
       </c>
       <c r="E52" s="3">
-        <v>1469700</v>
+        <v>1383500</v>
       </c>
       <c r="F52" s="3">
-        <v>1476600</v>
+        <v>1342200</v>
       </c>
       <c r="G52" s="3">
-        <v>1431800</v>
+        <v>1348500</v>
       </c>
       <c r="H52" s="3">
-        <v>1022600</v>
+        <v>1307600</v>
       </c>
       <c r="I52" s="3">
-        <v>987800</v>
+        <v>933900</v>
       </c>
       <c r="J52" s="3">
+        <v>902100</v>
+      </c>
+      <c r="K52" s="3">
         <v>972700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1095300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1025100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1025800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1798500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1122200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1174500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1234000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1142500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1242900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1181200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1180500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1225800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>904300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>879100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31782900</v>
+        <v>30811600</v>
       </c>
       <c r="E54" s="3">
-        <v>31213900</v>
+        <v>29025700</v>
       </c>
       <c r="F54" s="3">
-        <v>30887300</v>
+        <v>28506000</v>
       </c>
       <c r="G54" s="3">
-        <v>30274700</v>
+        <v>28207800</v>
       </c>
       <c r="H54" s="3">
-        <v>28745400</v>
+        <v>27648300</v>
       </c>
       <c r="I54" s="3">
-        <v>28219000</v>
+        <v>26251700</v>
       </c>
       <c r="J54" s="3">
+        <v>25770900</v>
+      </c>
+      <c r="K54" s="3">
         <v>27996900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29264100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31437700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31988400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31581600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32815200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32802600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32665900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31887700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31750800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31916300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32279500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>32972100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31339400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>29565300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1974400</v>
+        <v>1957700</v>
       </c>
       <c r="E57" s="3">
-        <v>1896700</v>
+        <v>1803100</v>
       </c>
       <c r="F57" s="3">
-        <v>1914700</v>
+        <v>1732200</v>
       </c>
       <c r="G57" s="3">
-        <v>1866000</v>
+        <v>1748600</v>
       </c>
       <c r="H57" s="3">
-        <v>1625400</v>
+        <v>1704200</v>
       </c>
       <c r="I57" s="3">
-        <v>1534100</v>
+        <v>1484400</v>
       </c>
       <c r="J57" s="3">
+        <v>1401000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1541400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1735000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1980900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1825700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1817300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2043100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2091300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2125900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1998500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2066900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2047300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2039700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2089400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2110600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2016200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1080100</v>
+        <v>1558700</v>
       </c>
       <c r="E58" s="3">
-        <v>971600</v>
+        <v>986400</v>
       </c>
       <c r="F58" s="3">
-        <v>541900</v>
+        <v>887300</v>
       </c>
       <c r="G58" s="3">
-        <v>565900</v>
+        <v>494900</v>
       </c>
       <c r="H58" s="3">
-        <v>676000</v>
+        <v>516900</v>
       </c>
       <c r="I58" s="3">
-        <v>621700</v>
+        <v>617300</v>
       </c>
       <c r="J58" s="3">
+        <v>567700</v>
+      </c>
+      <c r="K58" s="3">
         <v>596600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1066000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2498700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1290600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1569800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1639300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>925600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>651400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>362700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>378800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>298400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>683500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1072600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1099900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1204700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3770900</v>
+        <v>4114400</v>
       </c>
       <c r="E59" s="3">
-        <v>3835800</v>
+        <v>3443800</v>
       </c>
       <c r="F59" s="3">
-        <v>3654900</v>
+        <v>3503100</v>
       </c>
       <c r="G59" s="3">
-        <v>3677900</v>
+        <v>3337900</v>
       </c>
       <c r="H59" s="3">
-        <v>3023000</v>
+        <v>3358800</v>
       </c>
       <c r="I59" s="3">
-        <v>2908200</v>
+        <v>2760700</v>
       </c>
       <c r="J59" s="3">
+        <v>2655900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2899600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3013600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2873800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3064600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3055500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3066600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2777400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3004200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3459000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3592000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2659800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2918900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2901100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2822700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2545900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6825400</v>
+        <v>7630900</v>
       </c>
       <c r="E60" s="3">
-        <v>6704100</v>
+        <v>6233300</v>
       </c>
       <c r="F60" s="3">
-        <v>6111500</v>
+        <v>6122500</v>
       </c>
       <c r="G60" s="3">
-        <v>6109900</v>
+        <v>5581300</v>
       </c>
       <c r="H60" s="3">
-        <v>5324400</v>
+        <v>5579900</v>
       </c>
       <c r="I60" s="3">
-        <v>5063900</v>
+        <v>4862500</v>
       </c>
       <c r="J60" s="3">
+        <v>4624600</v>
+      </c>
+      <c r="K60" s="3">
         <v>5037700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5814700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7353500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6180800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6442600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6749000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5794300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5781500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5820200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6037700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5005500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5642100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6063100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6033200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5766900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2952700</v>
+        <v>1924900</v>
       </c>
       <c r="E61" s="3">
-        <v>3285700</v>
+        <v>2696500</v>
       </c>
       <c r="F61" s="3">
-        <v>3746900</v>
+        <v>3000700</v>
       </c>
       <c r="G61" s="3">
-        <v>3805000</v>
+        <v>3421900</v>
       </c>
       <c r="H61" s="3">
-        <v>3975900</v>
+        <v>3474900</v>
       </c>
       <c r="I61" s="3">
-        <v>4205700</v>
+        <v>3631000</v>
       </c>
       <c r="J61" s="3">
+        <v>3840900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4199500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4432900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3544500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3706300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3230300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3397500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4343600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3682800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3753100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3749600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3957200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3954200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4473500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3857100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2059100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1518400</v>
+        <v>1586500</v>
       </c>
       <c r="E62" s="3">
-        <v>1530300</v>
+        <v>1386700</v>
       </c>
       <c r="F62" s="3">
-        <v>1521700</v>
+        <v>1397600</v>
       </c>
       <c r="G62" s="3">
-        <v>1404800</v>
+        <v>1389700</v>
       </c>
       <c r="H62" s="3">
-        <v>1325700</v>
+        <v>1282900</v>
       </c>
       <c r="I62" s="3">
-        <v>1394400</v>
+        <v>1210700</v>
       </c>
       <c r="J62" s="3">
+        <v>1273400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1438900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1451500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1450100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1462500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1504700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1095900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1117900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1232000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1068700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1068200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1208300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1249400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1282400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1331500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1345000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11461300</v>
+        <v>11315900</v>
       </c>
       <c r="E66" s="3">
-        <v>11679300</v>
+        <v>10467000</v>
       </c>
       <c r="F66" s="3">
-        <v>11532800</v>
+        <v>10666100</v>
       </c>
       <c r="G66" s="3">
-        <v>11469800</v>
+        <v>10532300</v>
       </c>
       <c r="H66" s="3">
-        <v>10994400</v>
+        <v>10474700</v>
       </c>
       <c r="I66" s="3">
-        <v>11035000</v>
+        <v>10040600</v>
       </c>
       <c r="J66" s="3">
+        <v>10077700</v>
+      </c>
+      <c r="K66" s="3">
         <v>11040400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12056000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12708500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13278500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13058100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13240000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13187100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12636900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12636000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12851500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12264300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13003500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13939800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13213000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11233800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24186600</v>
+        <v>22340500</v>
       </c>
       <c r="E72" s="3">
-        <v>23682100</v>
+        <v>22088400</v>
       </c>
       <c r="F72" s="3">
-        <v>23543200</v>
+        <v>21627600</v>
       </c>
       <c r="G72" s="3">
-        <v>23054500</v>
+        <v>21500800</v>
       </c>
       <c r="H72" s="3">
-        <v>22765600</v>
+        <v>21054500</v>
       </c>
       <c r="I72" s="3">
-        <v>22261900</v>
+        <v>20790600</v>
       </c>
       <c r="J72" s="3">
+        <v>20330600</v>
+      </c>
+      <c r="K72" s="3">
         <v>22080400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22580800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23484400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23428300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23104800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24099200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23909300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23567600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22110200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21668700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21549000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21064400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20967600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20184800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20233000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20321600</v>
+        <v>19495700</v>
       </c>
       <c r="E76" s="3">
-        <v>19534600</v>
+        <v>18558700</v>
       </c>
       <c r="F76" s="3">
-        <v>19354600</v>
+        <v>17839900</v>
       </c>
       <c r="G76" s="3">
-        <v>18804900</v>
+        <v>17675500</v>
       </c>
       <c r="H76" s="3">
-        <v>17751000</v>
+        <v>17173600</v>
       </c>
       <c r="I76" s="3">
-        <v>17184000</v>
+        <v>16211000</v>
       </c>
       <c r="J76" s="3">
+        <v>15693300</v>
+      </c>
+      <c r="K76" s="3">
         <v>16956400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17208200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18729200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18710000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18523500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19575200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19615500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20029000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19251700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18899300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19652000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19276000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19032300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18126400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18331500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>519000</v>
+        <v>421200</v>
       </c>
       <c r="E81" s="3">
-        <v>332300</v>
+        <v>474000</v>
       </c>
       <c r="F81" s="3">
-        <v>488800</v>
+        <v>303400</v>
       </c>
       <c r="G81" s="3">
-        <v>466700</v>
+        <v>446400</v>
       </c>
       <c r="H81" s="3">
-        <v>502300</v>
+        <v>426200</v>
       </c>
       <c r="I81" s="3">
-        <v>342100</v>
+        <v>458700</v>
       </c>
       <c r="J81" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K81" s="3">
         <v>234600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>542200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>427200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>134300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>356100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>341700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>357200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>257500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>147100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>484600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>245000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>396000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>484100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>393400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>279100</v>
+        <v>274700</v>
       </c>
       <c r="E83" s="3">
-        <v>287600</v>
+        <v>254900</v>
       </c>
       <c r="F83" s="3">
-        <v>267000</v>
+        <v>262700</v>
       </c>
       <c r="G83" s="3">
+        <v>243800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>253500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>239500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>255400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>271700</v>
+      </c>
+      <c r="M83" s="3">
+        <v>285100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>280200</v>
+      </c>
+      <c r="O83" s="3">
+        <v>275000</v>
+      </c>
+      <c r="P83" s="3">
+        <v>330200</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>311100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>307000</v>
+      </c>
+      <c r="S83" s="3">
+        <v>284100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>293600</v>
+      </c>
+      <c r="U83" s="3">
+        <v>305100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>279200</v>
+      </c>
+      <c r="W83" s="3">
         <v>277600</v>
       </c>
-      <c r="H83" s="3">
-        <v>262300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>257500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>255400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>271700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>285100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>280200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>275000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>330200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>311100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>307000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>284100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>293600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>305100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>279200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>277600</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>277400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>242800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>560100</v>
+        <v>860400</v>
       </c>
       <c r="E89" s="3">
-        <v>446800</v>
+        <v>511500</v>
       </c>
       <c r="F89" s="3">
-        <v>814100</v>
+        <v>408000</v>
       </c>
       <c r="G89" s="3">
-        <v>1095700</v>
+        <v>743500</v>
       </c>
       <c r="H89" s="3">
-        <v>834700</v>
+        <v>1000600</v>
       </c>
       <c r="I89" s="3">
-        <v>802900</v>
+        <v>762300</v>
       </c>
       <c r="J89" s="3">
+        <v>733300</v>
+      </c>
+      <c r="K89" s="3">
         <v>856700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>821700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>451600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>993100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1016600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>560200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-16600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>790800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>958700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>404200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>159000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>844200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>874800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>444300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-277000</v>
+        <v>-274200</v>
       </c>
       <c r="E91" s="3">
-        <v>-263800</v>
+        <v>-253000</v>
       </c>
       <c r="F91" s="3">
-        <v>-234200</v>
+        <v>-240900</v>
       </c>
       <c r="G91" s="3">
-        <v>-231800</v>
+        <v>-213900</v>
       </c>
       <c r="H91" s="3">
-        <v>-203400</v>
+        <v>-211600</v>
       </c>
       <c r="I91" s="3">
-        <v>-221800</v>
+        <v>-185800</v>
       </c>
       <c r="J91" s="3">
+        <v>-202500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-196600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-175400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-197200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-226500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-169200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-206100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-166600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-144300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-134100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-132800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-161000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-156000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-120800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-231900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>256900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-272200</v>
+        <v>-298400</v>
       </c>
       <c r="E94" s="3">
-        <v>-396300</v>
+        <v>-248600</v>
       </c>
       <c r="F94" s="3">
-        <v>-314400</v>
+        <v>-362000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1701400</v>
+        <v>-287100</v>
       </c>
       <c r="H94" s="3">
-        <v>-151400</v>
+        <v>-1553800</v>
       </c>
       <c r="I94" s="3">
-        <v>-244400</v>
+        <v>-138300</v>
       </c>
       <c r="J94" s="3">
+        <v>-223200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-286000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-374000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-354400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-266300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-472700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-237200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-967300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>541500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>68900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-277700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-448100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-286800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-188000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-171700</v>
       </c>
       <c r="F96" s="3">
-        <v>-179000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-163500</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-147900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-162000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-177200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-150000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-163700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-146700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-148200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-138500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-137700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-425700</v>
+        <v>-212800</v>
       </c>
       <c r="E100" s="3">
-        <v>-38100</v>
+        <v>-388700</v>
       </c>
       <c r="F100" s="3">
-        <v>-200500</v>
+        <v>-34800</v>
       </c>
       <c r="G100" s="3">
-        <v>-387600</v>
+        <v>-183100</v>
       </c>
       <c r="H100" s="3">
-        <v>-367700</v>
+        <v>-354000</v>
       </c>
       <c r="I100" s="3">
-        <v>43000</v>
+        <v>-335800</v>
       </c>
       <c r="J100" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-678800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-889700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>171400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-194400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-484300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>245200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-993500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-229600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-328100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-788100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-959700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-266900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1700900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-500500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>65900</v>
+        <v>128100</v>
       </c>
       <c r="E101" s="3">
-        <v>5500</v>
+        <v>60100</v>
       </c>
       <c r="F101" s="3">
-        <v>12900</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="3">
-        <v>140500</v>
+        <v>11800</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>128300</v>
       </c>
       <c r="I101" s="3">
-        <v>6400</v>
+        <v>1900</v>
       </c>
       <c r="J101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K101" s="3">
         <v>24300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-99200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>99400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-71200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-95600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-61900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>61900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-117200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>38500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>60700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>34300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-67600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>269600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71900</v>
+        <v>477400</v>
       </c>
       <c r="E102" s="3">
-        <v>17800</v>
+        <v>-65600</v>
       </c>
       <c r="F102" s="3">
-        <v>312200</v>
+        <v>16200</v>
       </c>
       <c r="G102" s="3">
-        <v>-852800</v>
+        <v>285100</v>
       </c>
       <c r="H102" s="3">
-        <v>317600</v>
+        <v>-778800</v>
       </c>
       <c r="I102" s="3">
-        <v>607900</v>
+        <v>290100</v>
       </c>
       <c r="J102" s="3">
+        <v>555200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-83800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-541200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-683600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>436800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>471500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-403000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1054900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-276500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-728700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2060000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-56300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5179300</v>
+        <v>4587600</v>
       </c>
       <c r="E8" s="3">
-        <v>5108400</v>
+        <v>4873500</v>
       </c>
       <c r="F8" s="3">
-        <v>4849100</v>
+        <v>4806800</v>
       </c>
       <c r="G8" s="3">
-        <v>4538900</v>
+        <v>4562800</v>
       </c>
       <c r="H8" s="3">
-        <v>4822700</v>
+        <v>4270800</v>
       </c>
       <c r="I8" s="3">
-        <v>4487400</v>
+        <v>4537900</v>
       </c>
       <c r="J8" s="3">
+        <v>4222400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4215300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3892000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5169200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5432000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5484700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4903600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6070400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6026200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5841400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5134900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5669300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5620600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5572700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5166300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5492800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5132600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3241800</v>
+        <v>2722400</v>
       </c>
       <c r="E9" s="3">
-        <v>2941700</v>
+        <v>3050400</v>
       </c>
       <c r="F9" s="3">
-        <v>2872900</v>
+        <v>2768000</v>
       </c>
       <c r="G9" s="3">
-        <v>2570600</v>
+        <v>2703300</v>
       </c>
       <c r="H9" s="3">
-        <v>3118600</v>
+        <v>2418800</v>
       </c>
       <c r="I9" s="3">
-        <v>2511000</v>
+        <v>2934400</v>
       </c>
       <c r="J9" s="3">
+        <v>2362800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2580900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2293200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3130300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3159200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3231600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2811300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3734400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3455200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3427600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2992100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3832100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3631400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3695600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3077700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3267700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3036000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1937600</v>
+        <v>1865100</v>
       </c>
       <c r="E10" s="3">
-        <v>2166800</v>
+        <v>1823200</v>
       </c>
       <c r="F10" s="3">
-        <v>1976200</v>
+        <v>2038800</v>
       </c>
       <c r="G10" s="3">
-        <v>1968300</v>
+        <v>1859500</v>
       </c>
       <c r="H10" s="3">
-        <v>1704100</v>
+        <v>1852000</v>
       </c>
       <c r="I10" s="3">
-        <v>1976300</v>
+        <v>1603500</v>
       </c>
       <c r="J10" s="3">
+        <v>1859600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1634400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1598800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2038900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2272800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2253100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2092300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2336000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2571000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2413900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2142700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1837200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1989100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1877100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2088600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2225200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2096500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300600</v>
+        <v>275400</v>
       </c>
       <c r="E12" s="3">
-        <v>281700</v>
+        <v>282800</v>
       </c>
       <c r="F12" s="3">
-        <v>300800</v>
+        <v>265100</v>
       </c>
       <c r="G12" s="3">
-        <v>289500</v>
+        <v>283100</v>
       </c>
       <c r="H12" s="3">
-        <v>322500</v>
+        <v>272400</v>
       </c>
       <c r="I12" s="3">
-        <v>283100</v>
+        <v>303500</v>
       </c>
       <c r="J12" s="3">
+        <v>266400</v>
+      </c>
+      <c r="K12" s="3">
         <v>296100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>310500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>351400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>349000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>374200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>356900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>387500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>349000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>378100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>364900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>454200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>351000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>375500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>336800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>366000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>346100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4842400</v>
+        <v>4224400</v>
       </c>
       <c r="E17" s="3">
-        <v>4496200</v>
+        <v>4556500</v>
       </c>
       <c r="F17" s="3">
-        <v>4447600</v>
+        <v>4230700</v>
       </c>
       <c r="G17" s="3">
-        <v>4100100</v>
+        <v>4185000</v>
       </c>
       <c r="H17" s="3">
-        <v>4472100</v>
+        <v>3858000</v>
       </c>
       <c r="I17" s="3">
-        <v>3988900</v>
+        <v>4208000</v>
       </c>
       <c r="J17" s="3">
+        <v>3753300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3934200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3718100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4861400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4889000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4979900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4563600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5575700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5311000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5389100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4799900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5667700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5161200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5226700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4842300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4977100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4680500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>336900</v>
+        <v>363200</v>
       </c>
       <c r="E18" s="3">
-        <v>612200</v>
+        <v>317000</v>
       </c>
       <c r="F18" s="3">
-        <v>401500</v>
+        <v>576100</v>
       </c>
       <c r="G18" s="3">
-        <v>438700</v>
+        <v>377800</v>
       </c>
       <c r="H18" s="3">
-        <v>350600</v>
+        <v>412800</v>
       </c>
       <c r="I18" s="3">
-        <v>498500</v>
+        <v>329900</v>
       </c>
       <c r="J18" s="3">
+        <v>469100</v>
+      </c>
+      <c r="K18" s="3">
         <v>281100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>173900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>307800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>542900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>504800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>340000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>494700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>715100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>452400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>335000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>459300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>346000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>324000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>515700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>452000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>82700</v>
+        <v>47800</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>77800</v>
       </c>
       <c r="F20" s="3">
-        <v>8800</v>
+        <v>-5000</v>
       </c>
       <c r="G20" s="3">
-        <v>171400</v>
+        <v>8300</v>
       </c>
       <c r="H20" s="3">
-        <v>129400</v>
+        <v>161300</v>
       </c>
       <c r="I20" s="3">
-        <v>94700</v>
+        <v>121800</v>
       </c>
       <c r="J20" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K20" s="3">
         <v>169900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>191000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-246800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>90700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>155000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-91600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>69400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-171100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>66600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>90000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>217700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>222800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>49400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>209800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>105300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>149000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>694200</v>
+        <v>668000</v>
       </c>
       <c r="E21" s="3">
-        <v>861800</v>
+        <v>653200</v>
       </c>
       <c r="F21" s="3">
-        <v>673000</v>
+        <v>810900</v>
       </c>
       <c r="G21" s="3">
-        <v>853900</v>
+        <v>633300</v>
       </c>
       <c r="H21" s="3">
-        <v>733500</v>
+        <v>803500</v>
       </c>
       <c r="I21" s="3">
-        <v>832800</v>
+        <v>690200</v>
       </c>
       <c r="J21" s="3">
+        <v>783600</v>
+      </c>
+      <c r="K21" s="3">
         <v>686200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>620400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>332700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>918700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>940000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>523400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>894300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>855100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>826000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>709100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>512800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>987300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>674700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>811400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>898400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>843800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N22" s="3">
         <v>5100</v>
       </c>
-      <c r="E22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>414500</v>
+        <v>404600</v>
       </c>
       <c r="E23" s="3">
-        <v>602500</v>
+        <v>390000</v>
       </c>
       <c r="F23" s="3">
-        <v>406000</v>
+        <v>566900</v>
       </c>
       <c r="G23" s="3">
-        <v>605900</v>
+        <v>382000</v>
       </c>
       <c r="H23" s="3">
-        <v>475600</v>
+        <v>570200</v>
       </c>
       <c r="I23" s="3">
-        <v>586200</v>
+        <v>447500</v>
       </c>
       <c r="J23" s="3">
+        <v>551600</v>
+      </c>
+      <c r="K23" s="3">
         <v>446900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>360000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>628600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>653800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>241800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>559300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>535600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>509700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>416300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>211500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>672300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>384600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>520900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>608600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>586900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>162700</v>
-      </c>
       <c r="F24" s="3">
-        <v>102800</v>
+        <v>153100</v>
       </c>
       <c r="G24" s="3">
-        <v>179500</v>
+        <v>96700</v>
       </c>
       <c r="H24" s="3">
-        <v>73400</v>
+        <v>168900</v>
       </c>
       <c r="I24" s="3">
-        <v>137000</v>
+        <v>69000</v>
       </c>
       <c r="J24" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K24" s="3">
         <v>122200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>110200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>73700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>164600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>165400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>147300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>96100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>122900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>125700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>158200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>116300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>92500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>63400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>162800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>414400</v>
+        <v>289400</v>
       </c>
       <c r="E26" s="3">
-        <v>439800</v>
+        <v>389900</v>
       </c>
       <c r="F26" s="3">
-        <v>303200</v>
+        <v>413800</v>
       </c>
       <c r="G26" s="3">
-        <v>426500</v>
+        <v>285300</v>
       </c>
       <c r="H26" s="3">
-        <v>402200</v>
+        <v>401300</v>
       </c>
       <c r="I26" s="3">
-        <v>449200</v>
+        <v>378500</v>
       </c>
       <c r="J26" s="3">
+        <v>422600</v>
+      </c>
+      <c r="K26" s="3">
         <v>324700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>249800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>554800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>489100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>177300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>393900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>388300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>413500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>293400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>85800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>514100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>268300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>428400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>545200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>424100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>421200</v>
+        <v>303100</v>
       </c>
       <c r="E27" s="3">
-        <v>474000</v>
+        <v>396400</v>
       </c>
       <c r="F27" s="3">
-        <v>303400</v>
+        <v>446000</v>
       </c>
       <c r="G27" s="3">
-        <v>446400</v>
+        <v>285500</v>
       </c>
       <c r="H27" s="3">
-        <v>426200</v>
+        <v>420100</v>
       </c>
       <c r="I27" s="3">
-        <v>458700</v>
+        <v>401100</v>
       </c>
       <c r="J27" s="3">
+        <v>431600</v>
+      </c>
+      <c r="K27" s="3">
         <v>312400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>234600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>542200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>427200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>134300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>356100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>341700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>357200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>257500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>147100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>484600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>245000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>396000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>484100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>393400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-82700</v>
+        <v>-47800</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>-77800</v>
       </c>
       <c r="F32" s="3">
-        <v>-8800</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="3">
-        <v>-171400</v>
+        <v>-8300</v>
       </c>
       <c r="H32" s="3">
-        <v>-129400</v>
+        <v>-161300</v>
       </c>
       <c r="I32" s="3">
-        <v>-94700</v>
+        <v>-121800</v>
       </c>
       <c r="J32" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-169900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-191000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>246800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-90700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-155000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>91600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>171100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-66600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-90000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-217700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-222800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-49400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-209800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-105300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-149000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>421200</v>
+        <v>303100</v>
       </c>
       <c r="E33" s="3">
-        <v>474000</v>
+        <v>396400</v>
       </c>
       <c r="F33" s="3">
-        <v>303400</v>
+        <v>446000</v>
       </c>
       <c r="G33" s="3">
-        <v>446400</v>
+        <v>285500</v>
       </c>
       <c r="H33" s="3">
-        <v>426200</v>
+        <v>420100</v>
       </c>
       <c r="I33" s="3">
-        <v>458700</v>
+        <v>401100</v>
       </c>
       <c r="J33" s="3">
+        <v>431600</v>
+      </c>
+      <c r="K33" s="3">
         <v>312400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>234600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>542200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>427200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>134300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>356100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>341700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>357200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>257500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>147100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>484600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>245000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>396000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>484100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>393400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>421200</v>
+        <v>303100</v>
       </c>
       <c r="E35" s="3">
-        <v>474000</v>
+        <v>396400</v>
       </c>
       <c r="F35" s="3">
-        <v>303400</v>
+        <v>446000</v>
       </c>
       <c r="G35" s="3">
-        <v>446400</v>
+        <v>285500</v>
       </c>
       <c r="H35" s="3">
-        <v>426200</v>
+        <v>420100</v>
       </c>
       <c r="I35" s="3">
-        <v>458700</v>
+        <v>401100</v>
       </c>
       <c r="J35" s="3">
+        <v>431600</v>
+      </c>
+      <c r="K35" s="3">
         <v>312400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>234600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>542200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>427200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>134300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>356100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>341700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>357200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>257500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>147100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>484600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>245000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>396000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>484100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>393400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3788500</v>
+        <v>3943900</v>
       </c>
       <c r="E41" s="3">
-        <v>3311100</v>
+        <v>3564800</v>
       </c>
       <c r="F41" s="3">
-        <v>3376800</v>
+        <v>3115600</v>
       </c>
       <c r="G41" s="3">
-        <v>3360500</v>
+        <v>3177400</v>
       </c>
       <c r="H41" s="3">
-        <v>3075500</v>
+        <v>3162100</v>
       </c>
       <c r="I41" s="3">
-        <v>3854200</v>
+        <v>2893800</v>
       </c>
       <c r="J41" s="3">
+        <v>3626600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3564200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3294800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3489600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4168000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5771700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6434200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6292100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6243000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5771500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6580400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6983400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5895800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6172300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7190000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7769700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5709700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2958,550 +3048,574 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>27600</v>
-      </c>
-      <c r="V42" s="3">
-        <v>54700</v>
       </c>
       <c r="W42" s="3">
         <v>54700</v>
       </c>
       <c r="X42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="Y42" s="3">
         <v>53600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>26600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4663400</v>
+        <v>4417200</v>
       </c>
       <c r="E43" s="3">
-        <v>4514400</v>
+        <v>4388000</v>
       </c>
       <c r="F43" s="3">
-        <v>4258700</v>
+        <v>4247800</v>
       </c>
       <c r="G43" s="3">
-        <v>4171600</v>
+        <v>4007300</v>
       </c>
       <c r="H43" s="3">
-        <v>4718500</v>
+        <v>3925300</v>
       </c>
       <c r="I43" s="3">
-        <v>4128700</v>
+        <v>4439900</v>
       </c>
       <c r="J43" s="3">
+        <v>3884900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3872500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3948500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4919700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5207200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4961300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4783200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5937000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5728800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5629800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5106600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5627200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5700700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5684900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5386900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5639400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5504800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3929800</v>
+        <v>4333100</v>
       </c>
       <c r="E44" s="3">
-        <v>3792700</v>
+        <v>3697700</v>
       </c>
       <c r="F44" s="3">
-        <v>3606600</v>
+        <v>3568700</v>
       </c>
       <c r="G44" s="3">
-        <v>3567800</v>
+        <v>3393600</v>
       </c>
       <c r="H44" s="3">
-        <v>3253600</v>
+        <v>3357100</v>
       </c>
       <c r="I44" s="3">
-        <v>3169700</v>
+        <v>3061500</v>
       </c>
       <c r="J44" s="3">
+        <v>2982500</v>
+      </c>
+      <c r="K44" s="3">
         <v>3163000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3636700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3355800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3747200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3664800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3649600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3598500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3875400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3879600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3580200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3284400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3610900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3538100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3539000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3009100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3299400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1054000</v>
+        <v>1179700</v>
       </c>
       <c r="E45" s="3">
-        <v>1039400</v>
+        <v>991700</v>
       </c>
       <c r="F45" s="3">
-        <v>1072400</v>
+        <v>978000</v>
       </c>
       <c r="G45" s="3">
-        <v>945400</v>
+        <v>1009000</v>
       </c>
       <c r="H45" s="3">
-        <v>694900</v>
+        <v>889600</v>
       </c>
       <c r="I45" s="3">
-        <v>720800</v>
+        <v>653800</v>
       </c>
       <c r="J45" s="3">
+        <v>678200</v>
+      </c>
+      <c r="K45" s="3">
         <v>757400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1416200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1354800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1398600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>838100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>933200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>806400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>928700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>969300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1244900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1019400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1182600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1199300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1194300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1576900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1208300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13435600</v>
+        <v>13873900</v>
       </c>
       <c r="E46" s="3">
-        <v>12657600</v>
+        <v>12642300</v>
       </c>
       <c r="F46" s="3">
-        <v>12314500</v>
+        <v>11910200</v>
       </c>
       <c r="G46" s="3">
-        <v>12045400</v>
+        <v>11587300</v>
       </c>
       <c r="H46" s="3">
-        <v>11742500</v>
+        <v>11334100</v>
       </c>
       <c r="I46" s="3">
-        <v>11873400</v>
+        <v>11049100</v>
       </c>
       <c r="J46" s="3">
+        <v>11172300</v>
+      </c>
+      <c r="K46" s="3">
         <v>11357100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12296200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13119900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14521100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15235900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15800200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16634000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16775900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16250200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16512000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16914700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16417600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16649400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17364900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18048700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15748800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1799900</v>
+        <v>1680000</v>
       </c>
       <c r="E47" s="3">
-        <v>1792000</v>
+        <v>1693600</v>
       </c>
       <c r="F47" s="3">
-        <v>1890600</v>
+        <v>1686200</v>
       </c>
       <c r="G47" s="3">
-        <v>1911800</v>
+        <v>1779000</v>
       </c>
       <c r="H47" s="3">
-        <v>1774800</v>
+        <v>1798900</v>
       </c>
       <c r="I47" s="3">
-        <v>1659500</v>
+        <v>1670000</v>
       </c>
       <c r="J47" s="3">
+        <v>1561500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1732900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1826100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1789600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2109300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2082200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2037500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2303400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2128200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2236700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2099400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2173900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2715900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2812500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2751100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2656900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3052200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6389600</v>
+        <v>6540400</v>
       </c>
       <c r="E48" s="3">
-        <v>5862900</v>
+        <v>6012300</v>
       </c>
       <c r="F48" s="3">
-        <v>5699700</v>
+        <v>5516700</v>
       </c>
       <c r="G48" s="3">
-        <v>5628900</v>
+        <v>5363100</v>
       </c>
       <c r="H48" s="3">
-        <v>5557800</v>
+        <v>5296500</v>
       </c>
       <c r="I48" s="3">
-        <v>5385500</v>
+        <v>5229600</v>
       </c>
       <c r="J48" s="3">
+        <v>5067400</v>
+      </c>
+      <c r="K48" s="3">
         <v>5347800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5816900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5953900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6117700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6095400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4746100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5062500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5005900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5100000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4837700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4886300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4945600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4976300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4989300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4617800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4663300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7608400</v>
+        <v>7459500</v>
       </c>
       <c r="E49" s="3">
-        <v>7329700</v>
+        <v>7159200</v>
       </c>
       <c r="F49" s="3">
-        <v>7258900</v>
+        <v>6896900</v>
       </c>
       <c r="G49" s="3">
-        <v>7273200</v>
+        <v>6830300</v>
       </c>
       <c r="H49" s="3">
-        <v>7265700</v>
+        <v>6843700</v>
       </c>
       <c r="I49" s="3">
-        <v>6399400</v>
+        <v>6836700</v>
       </c>
       <c r="J49" s="3">
+        <v>6021500</v>
+      </c>
+      <c r="K49" s="3">
         <v>6431100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7085000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7305500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7664500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7549100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7199300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7693000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7718000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7845000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7296200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6533000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6655900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6660900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6641100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5111600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5222000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1578100</v>
+        <v>1575300</v>
       </c>
       <c r="E52" s="3">
-        <v>1383500</v>
+        <v>1484900</v>
       </c>
       <c r="F52" s="3">
-        <v>1342200</v>
+        <v>1301800</v>
       </c>
       <c r="G52" s="3">
-        <v>1348500</v>
+        <v>1263000</v>
       </c>
       <c r="H52" s="3">
-        <v>1307600</v>
+        <v>1268900</v>
       </c>
       <c r="I52" s="3">
-        <v>933900</v>
+        <v>1230400</v>
       </c>
       <c r="J52" s="3">
+        <v>878700</v>
+      </c>
+      <c r="K52" s="3">
         <v>902100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>972700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1095300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1025100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1025800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1798500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1122200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1174500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1234000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1142500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1242900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1181200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1180500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1225800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>904300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>879100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30811600</v>
+        <v>31129200</v>
       </c>
       <c r="E54" s="3">
-        <v>29025700</v>
+        <v>28992200</v>
       </c>
       <c r="F54" s="3">
-        <v>28506000</v>
+        <v>27311700</v>
       </c>
       <c r="G54" s="3">
-        <v>28207800</v>
+        <v>26822700</v>
       </c>
       <c r="H54" s="3">
-        <v>27648300</v>
+        <v>26542100</v>
       </c>
       <c r="I54" s="3">
-        <v>26251700</v>
+        <v>26015700</v>
       </c>
       <c r="J54" s="3">
+        <v>24701500</v>
+      </c>
+      <c r="K54" s="3">
         <v>25770900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27996900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29264100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31437700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31988400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31581600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32815200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32802600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32665900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31887700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31750800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31916300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>32279500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>32972100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>31339400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>29565300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1957700</v>
+        <v>1882000</v>
       </c>
       <c r="E57" s="3">
-        <v>1803100</v>
+        <v>1842100</v>
       </c>
       <c r="F57" s="3">
-        <v>1732200</v>
+        <v>1696700</v>
       </c>
       <c r="G57" s="3">
-        <v>1748600</v>
+        <v>1629900</v>
       </c>
       <c r="H57" s="3">
-        <v>1704200</v>
+        <v>1645300</v>
       </c>
       <c r="I57" s="3">
-        <v>1484400</v>
+        <v>1603500</v>
       </c>
       <c r="J57" s="3">
+        <v>1396800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1401000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1541400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1735000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1980900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1825700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1817300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2043100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2091300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2125900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1998500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2066900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2047300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2039700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2089400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2110600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2016200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1558700</v>
+        <v>1491300</v>
       </c>
       <c r="E58" s="3">
-        <v>986400</v>
+        <v>1482200</v>
       </c>
       <c r="F58" s="3">
-        <v>887300</v>
+        <v>928100</v>
       </c>
       <c r="G58" s="3">
-        <v>494900</v>
+        <v>834900</v>
       </c>
       <c r="H58" s="3">
-        <v>516900</v>
+        <v>465600</v>
       </c>
       <c r="I58" s="3">
-        <v>617300</v>
+        <v>486300</v>
       </c>
       <c r="J58" s="3">
+        <v>580900</v>
+      </c>
+      <c r="K58" s="3">
         <v>567700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>596600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1066000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2498700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1290600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1569800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1639300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>925600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>651400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>362700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>378800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>298400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>683500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1072600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1099900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1204700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4114400</v>
+        <v>3913700</v>
       </c>
       <c r="E59" s="3">
-        <v>3443800</v>
+        <v>3856000</v>
       </c>
       <c r="F59" s="3">
-        <v>3503100</v>
+        <v>3240400</v>
       </c>
       <c r="G59" s="3">
-        <v>3337900</v>
+        <v>3296200</v>
       </c>
       <c r="H59" s="3">
-        <v>3358800</v>
+        <v>3140800</v>
       </c>
       <c r="I59" s="3">
-        <v>2760700</v>
+        <v>3160500</v>
       </c>
       <c r="J59" s="3">
+        <v>2597700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2655900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2899600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3013600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2873800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3064600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3055500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3066600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2777400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3004200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3459000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3592000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2659800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2918900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2901100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2822700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2545900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7630900</v>
+        <v>7287000</v>
       </c>
       <c r="E60" s="3">
-        <v>6233300</v>
+        <v>7180300</v>
       </c>
       <c r="F60" s="3">
-        <v>6122500</v>
+        <v>5865200</v>
       </c>
       <c r="G60" s="3">
-        <v>5581300</v>
+        <v>5761000</v>
       </c>
       <c r="H60" s="3">
-        <v>5579900</v>
+        <v>5251700</v>
       </c>
       <c r="I60" s="3">
-        <v>4862500</v>
+        <v>5250400</v>
       </c>
       <c r="J60" s="3">
+        <v>4575300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4624600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5037700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5814700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7353500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6180800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6442600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6749000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5794300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5781500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5820200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6037700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5005500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5642100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6063100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6033200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5766900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1924900</v>
+        <v>2691300</v>
       </c>
       <c r="E61" s="3">
-        <v>2696500</v>
+        <v>1859000</v>
       </c>
       <c r="F61" s="3">
-        <v>3000700</v>
+        <v>2537300</v>
       </c>
       <c r="G61" s="3">
-        <v>3421900</v>
+        <v>2823500</v>
       </c>
       <c r="H61" s="3">
-        <v>3474900</v>
+        <v>3219800</v>
       </c>
       <c r="I61" s="3">
-        <v>3631000</v>
+        <v>3269700</v>
       </c>
       <c r="J61" s="3">
+        <v>3416600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3840900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4199500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4432900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3544500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3706300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3230300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3397500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4343600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3682800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3753100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3749600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3957200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3954200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4473500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3857100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2059100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1586500</v>
+        <v>1502900</v>
       </c>
       <c r="E62" s="3">
-        <v>1386700</v>
+        <v>1445100</v>
       </c>
       <c r="F62" s="3">
-        <v>1397600</v>
+        <v>1304800</v>
       </c>
       <c r="G62" s="3">
-        <v>1389700</v>
+        <v>1315000</v>
       </c>
       <c r="H62" s="3">
-        <v>1282900</v>
+        <v>1307600</v>
       </c>
       <c r="I62" s="3">
-        <v>1210700</v>
+        <v>1207200</v>
       </c>
       <c r="J62" s="3">
+        <v>1139200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1273400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1438900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1451500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1450100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1462500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1504700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1095900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1117900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1232000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1068700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1068200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1208300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1249400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1282400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1331500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1345000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11315900</v>
+        <v>11656800</v>
       </c>
       <c r="E66" s="3">
-        <v>10467000</v>
+        <v>10647700</v>
       </c>
       <c r="F66" s="3">
-        <v>10666100</v>
+        <v>9848900</v>
       </c>
       <c r="G66" s="3">
-        <v>10532300</v>
+        <v>10036300</v>
       </c>
       <c r="H66" s="3">
-        <v>10474700</v>
+        <v>9910300</v>
       </c>
       <c r="I66" s="3">
-        <v>10040600</v>
+        <v>9856200</v>
       </c>
       <c r="J66" s="3">
+        <v>9447700</v>
+      </c>
+      <c r="K66" s="3">
         <v>10077700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11040400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12056000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12708500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13278500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13058100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13240000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13187100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12636900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12636000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12851500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12264300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13003500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13939800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13213000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11233800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22340500</v>
+        <v>21324500</v>
       </c>
       <c r="E72" s="3">
-        <v>22088400</v>
+        <v>21021300</v>
       </c>
       <c r="F72" s="3">
-        <v>21627600</v>
+        <v>20784000</v>
       </c>
       <c r="G72" s="3">
-        <v>21500800</v>
+        <v>20350500</v>
       </c>
       <c r="H72" s="3">
-        <v>21054500</v>
+        <v>20231200</v>
       </c>
       <c r="I72" s="3">
-        <v>20790600</v>
+        <v>19811200</v>
       </c>
       <c r="J72" s="3">
+        <v>19562900</v>
+      </c>
+      <c r="K72" s="3">
         <v>20330600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22080400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22580800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23484400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23428300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23104800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24099200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23909300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23567600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22110200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21668700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21549000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21064400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>20967600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20184800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20233000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19495700</v>
+        <v>19472400</v>
       </c>
       <c r="E76" s="3">
-        <v>18558700</v>
+        <v>18344500</v>
       </c>
       <c r="F76" s="3">
-        <v>17839900</v>
+        <v>17462800</v>
       </c>
       <c r="G76" s="3">
-        <v>17675500</v>
+        <v>16786400</v>
       </c>
       <c r="H76" s="3">
-        <v>17173600</v>
+        <v>16631800</v>
       </c>
       <c r="I76" s="3">
-        <v>16211000</v>
+        <v>16159500</v>
       </c>
       <c r="J76" s="3">
+        <v>15253800</v>
+      </c>
+      <c r="K76" s="3">
         <v>15693300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16956400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17208200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18729200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18710000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18523500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19575200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19615500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20029000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19251700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18899300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19652000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19276000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19032300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18126400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18331500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>421200</v>
+        <v>303100</v>
       </c>
       <c r="E81" s="3">
-        <v>474000</v>
+        <v>396400</v>
       </c>
       <c r="F81" s="3">
-        <v>303400</v>
+        <v>446000</v>
       </c>
       <c r="G81" s="3">
-        <v>446400</v>
+        <v>285500</v>
       </c>
       <c r="H81" s="3">
-        <v>426200</v>
+        <v>420100</v>
       </c>
       <c r="I81" s="3">
-        <v>458700</v>
+        <v>401100</v>
       </c>
       <c r="J81" s="3">
+        <v>431600</v>
+      </c>
+      <c r="K81" s="3">
         <v>312400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>234600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>542200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>427200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>134300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>356100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>341700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>357200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>257500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>147100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>484600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>245000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>396000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>484100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>393400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>274700</v>
+        <v>257100</v>
       </c>
       <c r="E83" s="3">
-        <v>254900</v>
+        <v>258400</v>
       </c>
       <c r="F83" s="3">
-        <v>262700</v>
+        <v>239900</v>
       </c>
       <c r="G83" s="3">
-        <v>243800</v>
+        <v>247200</v>
       </c>
       <c r="H83" s="3">
-        <v>253500</v>
+        <v>229400</v>
       </c>
       <c r="I83" s="3">
-        <v>239500</v>
+        <v>238500</v>
       </c>
       <c r="J83" s="3">
+        <v>225400</v>
+      </c>
+      <c r="K83" s="3">
         <v>235200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>255400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>271700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>285100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>280200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>275000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>330200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>311100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>307000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>284100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>293600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>305100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>279200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>277600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>277400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>242800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>860400</v>
+        <v>107900</v>
       </c>
       <c r="E89" s="3">
-        <v>511500</v>
+        <v>809600</v>
       </c>
       <c r="F89" s="3">
-        <v>408000</v>
+        <v>481300</v>
       </c>
       <c r="G89" s="3">
-        <v>743500</v>
+        <v>383900</v>
       </c>
       <c r="H89" s="3">
-        <v>1000600</v>
+        <v>699600</v>
       </c>
       <c r="I89" s="3">
-        <v>762300</v>
+        <v>941600</v>
       </c>
       <c r="J89" s="3">
+        <v>717200</v>
+      </c>
+      <c r="K89" s="3">
         <v>733300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>856700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>821700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>44100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>451600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>993100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1016600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>560200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-16600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>790800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>958700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>404200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>159000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>844200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>874800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>444300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-274200</v>
+        <v>-380900</v>
       </c>
       <c r="E91" s="3">
-        <v>-253000</v>
+        <v>-258000</v>
       </c>
       <c r="F91" s="3">
-        <v>-240900</v>
+        <v>-238100</v>
       </c>
       <c r="G91" s="3">
-        <v>-213900</v>
+        <v>-226700</v>
       </c>
       <c r="H91" s="3">
-        <v>-211600</v>
+        <v>-201200</v>
       </c>
       <c r="I91" s="3">
-        <v>-185800</v>
+        <v>-199100</v>
       </c>
       <c r="J91" s="3">
+        <v>-174800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-202500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-196600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-175400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-197200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-226500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-169200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-206100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-166600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-144300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-134100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-132800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-161000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-156000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-120800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-231900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>256900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-298400</v>
+        <v>-601300</v>
       </c>
       <c r="E94" s="3">
-        <v>-248600</v>
+        <v>-280800</v>
       </c>
       <c r="F94" s="3">
-        <v>-362000</v>
+        <v>-233900</v>
       </c>
       <c r="G94" s="3">
-        <v>-287100</v>
+        <v>-340600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1553800</v>
+        <v>-270200</v>
       </c>
       <c r="I94" s="3">
-        <v>-138300</v>
+        <v>-1462000</v>
       </c>
       <c r="J94" s="3">
+        <v>-130100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-223200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-286000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-374000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-354400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-266300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-472700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-272000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-237200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-967300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>541500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>68900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-277700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-448100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-286800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-161600</v>
       </c>
       <c r="E96" s="3">
-        <v>-171700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-161600</v>
       </c>
       <c r="G96" s="3">
-        <v>-163500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-153900</v>
       </c>
       <c r="I96" s="3">
-        <v>-147900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-139200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-162000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-177200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-150000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-163700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-146700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-148200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-138500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-137700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-212800</v>
+        <v>712700</v>
       </c>
       <c r="E100" s="3">
-        <v>-388700</v>
+        <v>-200200</v>
       </c>
       <c r="F100" s="3">
-        <v>-34800</v>
+        <v>-365800</v>
       </c>
       <c r="G100" s="3">
-        <v>-183100</v>
+        <v>-32800</v>
       </c>
       <c r="H100" s="3">
-        <v>-354000</v>
+        <v>-172300</v>
       </c>
       <c r="I100" s="3">
-        <v>-335800</v>
+        <v>-333100</v>
       </c>
       <c r="J100" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="K100" s="3">
         <v>39200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-678800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-889700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>171400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-194400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-484300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>245200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-993500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-229600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-328100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-788100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-959700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-266900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1700900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-500500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>128100</v>
+        <v>159800</v>
       </c>
       <c r="E101" s="3">
-        <v>60100</v>
+        <v>120500</v>
       </c>
       <c r="F101" s="3">
-        <v>5000</v>
+        <v>56600</v>
       </c>
       <c r="G101" s="3">
-        <v>11800</v>
+        <v>4700</v>
       </c>
       <c r="H101" s="3">
-        <v>128300</v>
+        <v>11100</v>
       </c>
       <c r="I101" s="3">
-        <v>1900</v>
+        <v>120700</v>
       </c>
       <c r="J101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-99200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>99400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-71200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-95600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-61900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>61900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-117200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>38500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>60700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>34300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-67600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>269600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>477400</v>
+        <v>379100</v>
       </c>
       <c r="E102" s="3">
-        <v>-65600</v>
+        <v>449200</v>
       </c>
       <c r="F102" s="3">
-        <v>16200</v>
+        <v>-61800</v>
       </c>
       <c r="G102" s="3">
-        <v>285100</v>
+        <v>15300</v>
       </c>
       <c r="H102" s="3">
-        <v>-778800</v>
+        <v>268200</v>
       </c>
       <c r="I102" s="3">
-        <v>290100</v>
+        <v>-732800</v>
       </c>
       <c r="J102" s="3">
+        <v>272900</v>
+      </c>
+      <c r="K102" s="3">
         <v>555200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-83800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-541200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-683600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>436800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>49100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>471500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-403000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1054900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-276500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-728700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2060000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-56300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4587600</v>
+        <v>5133700</v>
       </c>
       <c r="E8" s="3">
-        <v>4873500</v>
+        <v>4437300</v>
       </c>
       <c r="F8" s="3">
-        <v>4806800</v>
+        <v>4713900</v>
       </c>
       <c r="G8" s="3">
-        <v>4562800</v>
+        <v>4649400</v>
       </c>
       <c r="H8" s="3">
-        <v>4270800</v>
+        <v>4413400</v>
       </c>
       <c r="I8" s="3">
-        <v>4537900</v>
+        <v>4131000</v>
       </c>
       <c r="J8" s="3">
+        <v>4389300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4222400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4215300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3892000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5169200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5432000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5484700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4903600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6070400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6026200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5841400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5134900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5669300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5620600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5572700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5166300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5492800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5132600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2722400</v>
+        <v>3104000</v>
       </c>
       <c r="E9" s="3">
-        <v>3050400</v>
+        <v>2633300</v>
       </c>
       <c r="F9" s="3">
-        <v>2768000</v>
+        <v>2950500</v>
       </c>
       <c r="G9" s="3">
-        <v>2703300</v>
+        <v>2677300</v>
       </c>
       <c r="H9" s="3">
-        <v>2418800</v>
+        <v>2614700</v>
       </c>
       <c r="I9" s="3">
-        <v>2934400</v>
+        <v>2339600</v>
       </c>
       <c r="J9" s="3">
+        <v>2838400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2362800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2580900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2293200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3130300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3159200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3231600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2811300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3734400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3455200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3427600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2992100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3832100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3631400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3695600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3077700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3267700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3036000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1865100</v>
+        <v>2029600</v>
       </c>
       <c r="E10" s="3">
-        <v>1823200</v>
+        <v>1804000</v>
       </c>
       <c r="F10" s="3">
-        <v>2038800</v>
+        <v>1763500</v>
       </c>
       <c r="G10" s="3">
-        <v>1859500</v>
+        <v>1972100</v>
       </c>
       <c r="H10" s="3">
-        <v>1852000</v>
+        <v>1798600</v>
       </c>
       <c r="I10" s="3">
-        <v>1603500</v>
+        <v>1791400</v>
       </c>
       <c r="J10" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1859600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1634400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1598800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2038900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2272800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2253100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2092300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2336000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2571000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2413900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2142700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1837200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1989100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1877100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2088600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2225200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2096500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>275400</v>
+        <v>276000</v>
       </c>
       <c r="E12" s="3">
-        <v>282800</v>
+        <v>266400</v>
       </c>
       <c r="F12" s="3">
-        <v>265100</v>
+        <v>273600</v>
       </c>
       <c r="G12" s="3">
-        <v>283100</v>
+        <v>256400</v>
       </c>
       <c r="H12" s="3">
-        <v>272400</v>
+        <v>273800</v>
       </c>
       <c r="I12" s="3">
-        <v>303500</v>
+        <v>263500</v>
       </c>
       <c r="J12" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K12" s="3">
         <v>266400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>296100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>310500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>351400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>349000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>374200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>356900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>387500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>349000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>378100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>364900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>454200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>351000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>375500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>336800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>366000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>346100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4224400</v>
+        <v>4628400</v>
       </c>
       <c r="E17" s="3">
-        <v>4556500</v>
+        <v>4086000</v>
       </c>
       <c r="F17" s="3">
-        <v>4230700</v>
+        <v>4407300</v>
       </c>
       <c r="G17" s="3">
-        <v>4185000</v>
+        <v>4092200</v>
       </c>
       <c r="H17" s="3">
-        <v>3858000</v>
+        <v>4047900</v>
       </c>
       <c r="I17" s="3">
-        <v>4208000</v>
+        <v>3731700</v>
       </c>
       <c r="J17" s="3">
+        <v>4070200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3753300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3934200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3718100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4861400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4889000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4979900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4563600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5575700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5311000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5389100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4799900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5667700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5161200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5226700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4842300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4977100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4680500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>363200</v>
+        <v>505200</v>
       </c>
       <c r="E18" s="3">
-        <v>317000</v>
+        <v>351300</v>
       </c>
       <c r="F18" s="3">
-        <v>576100</v>
+        <v>306600</v>
       </c>
       <c r="G18" s="3">
-        <v>377800</v>
+        <v>557200</v>
       </c>
       <c r="H18" s="3">
-        <v>412800</v>
+        <v>365400</v>
       </c>
       <c r="I18" s="3">
-        <v>329900</v>
+        <v>399300</v>
       </c>
       <c r="J18" s="3">
+        <v>319100</v>
+      </c>
+      <c r="K18" s="3">
         <v>469100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>281100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>173900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>307800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>542900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>504800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>340000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>494700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>715100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>452400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>335000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>459300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>346000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>324000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>515700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>452000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>47800</v>
+        <v>28400</v>
       </c>
       <c r="E20" s="3">
-        <v>77800</v>
+        <v>46200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5000</v>
+        <v>75200</v>
       </c>
       <c r="G20" s="3">
-        <v>8300</v>
+        <v>-4800</v>
       </c>
       <c r="H20" s="3">
-        <v>161300</v>
+        <v>8000</v>
       </c>
       <c r="I20" s="3">
-        <v>121800</v>
+        <v>156000</v>
       </c>
       <c r="J20" s="3">
+        <v>117800</v>
+      </c>
+      <c r="K20" s="3">
         <v>89100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>169900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>191000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-246800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>90700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>155000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-91600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>69400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-171100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>66600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>90000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>217700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>222800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>49400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>209800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>105300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>149000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>668000</v>
+        <v>787200</v>
       </c>
       <c r="E21" s="3">
-        <v>653200</v>
+        <v>646200</v>
       </c>
       <c r="F21" s="3">
-        <v>810900</v>
+        <v>631800</v>
       </c>
       <c r="G21" s="3">
-        <v>633300</v>
+        <v>784400</v>
       </c>
       <c r="H21" s="3">
-        <v>803500</v>
+        <v>612500</v>
       </c>
       <c r="I21" s="3">
-        <v>690200</v>
+        <v>777200</v>
       </c>
       <c r="J21" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K21" s="3">
         <v>783600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>686200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>620400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>332700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>918700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>940000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>523400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>894300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>855100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>826000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>709100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>512800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>987300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>674700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>811400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>898400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>843800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="R22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>4800</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>14200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>404600</v>
+        <v>527100</v>
       </c>
       <c r="E23" s="3">
-        <v>390000</v>
+        <v>391300</v>
       </c>
       <c r="F23" s="3">
-        <v>566900</v>
+        <v>377200</v>
       </c>
       <c r="G23" s="3">
-        <v>382000</v>
+        <v>548300</v>
       </c>
       <c r="H23" s="3">
-        <v>570200</v>
+        <v>369500</v>
       </c>
       <c r="I23" s="3">
-        <v>447500</v>
+        <v>551500</v>
       </c>
       <c r="J23" s="3">
+        <v>432800</v>
+      </c>
+      <c r="K23" s="3">
         <v>551600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>446900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>360000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>628600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>653800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>241800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>559300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>535600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>509700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>416300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>211500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>672300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>384600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>520900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>608600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>586900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>115200</v>
+        <v>136600</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>111400</v>
       </c>
       <c r="F24" s="3">
-        <v>153100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>96700</v>
+        <v>148100</v>
       </c>
       <c r="H24" s="3">
-        <v>168900</v>
+        <v>93600</v>
       </c>
       <c r="I24" s="3">
-        <v>69000</v>
+        <v>163300</v>
       </c>
       <c r="J24" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K24" s="3">
         <v>129000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>122200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>110200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>73700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>164600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>165400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>147300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>96100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>122900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>125700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>158200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>116300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>92500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>63400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>162800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>289400</v>
+        <v>390400</v>
       </c>
       <c r="E26" s="3">
-        <v>389900</v>
+        <v>279900</v>
       </c>
       <c r="F26" s="3">
-        <v>413800</v>
+        <v>377200</v>
       </c>
       <c r="G26" s="3">
-        <v>285300</v>
+        <v>400200</v>
       </c>
       <c r="H26" s="3">
-        <v>401300</v>
+        <v>275900</v>
       </c>
       <c r="I26" s="3">
-        <v>378500</v>
+        <v>388100</v>
       </c>
       <c r="J26" s="3">
+        <v>366100</v>
+      </c>
+      <c r="K26" s="3">
         <v>422600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>324700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>249800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>554800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>489100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>177300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>393900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>388300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>413500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>293400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>85800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>514100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>268300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>428400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>545200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>424100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>303100</v>
+        <v>381400</v>
       </c>
       <c r="E27" s="3">
-        <v>396400</v>
+        <v>293200</v>
       </c>
       <c r="F27" s="3">
-        <v>446000</v>
+        <v>383400</v>
       </c>
       <c r="G27" s="3">
-        <v>285500</v>
+        <v>431400</v>
       </c>
       <c r="H27" s="3">
-        <v>420100</v>
+        <v>276200</v>
       </c>
       <c r="I27" s="3">
-        <v>401100</v>
+        <v>406300</v>
       </c>
       <c r="J27" s="3">
+        <v>387900</v>
+      </c>
+      <c r="K27" s="3">
         <v>431600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>312400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>234600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>542200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>427200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>134300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>356100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>341700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>357200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>257500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>147100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>484600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>245000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>396000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>484100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>393400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-47800</v>
+        <v>-28400</v>
       </c>
       <c r="E32" s="3">
-        <v>-77800</v>
+        <v>-46200</v>
       </c>
       <c r="F32" s="3">
-        <v>5000</v>
+        <v>-75200</v>
       </c>
       <c r="G32" s="3">
-        <v>-8300</v>
+        <v>4800</v>
       </c>
       <c r="H32" s="3">
-        <v>-161300</v>
+        <v>-8000</v>
       </c>
       <c r="I32" s="3">
-        <v>-121800</v>
+        <v>-156000</v>
       </c>
       <c r="J32" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-89100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-169900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-191000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>246800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-90700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-155000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>91600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-69400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>171100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-66600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-90000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-217700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-222800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-49400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-209800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-105300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-149000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>303100</v>
+        <v>381400</v>
       </c>
       <c r="E33" s="3">
-        <v>396400</v>
+        <v>293200</v>
       </c>
       <c r="F33" s="3">
-        <v>446000</v>
+        <v>383400</v>
       </c>
       <c r="G33" s="3">
-        <v>285500</v>
+        <v>431400</v>
       </c>
       <c r="H33" s="3">
-        <v>420100</v>
+        <v>276200</v>
       </c>
       <c r="I33" s="3">
-        <v>401100</v>
+        <v>406300</v>
       </c>
       <c r="J33" s="3">
+        <v>387900</v>
+      </c>
+      <c r="K33" s="3">
         <v>431600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>312400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>234600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>542200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>427200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>134300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>356100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>341700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>357200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>257500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>147100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>484600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>245000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>396000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>484100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>393400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>303100</v>
+        <v>381400</v>
       </c>
       <c r="E35" s="3">
-        <v>396400</v>
+        <v>293200</v>
       </c>
       <c r="F35" s="3">
-        <v>446000</v>
+        <v>383400</v>
       </c>
       <c r="G35" s="3">
-        <v>285500</v>
+        <v>431400</v>
       </c>
       <c r="H35" s="3">
-        <v>420100</v>
+        <v>276200</v>
       </c>
       <c r="I35" s="3">
-        <v>401100</v>
+        <v>406300</v>
       </c>
       <c r="J35" s="3">
+        <v>387900</v>
+      </c>
+      <c r="K35" s="3">
         <v>431600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>312400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>234600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>542200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>427200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>134300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>356100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>341700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>357200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>257500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>147100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>484600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>245000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>396000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>484100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>393400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3943900</v>
+        <v>3168500</v>
       </c>
       <c r="E41" s="3">
-        <v>3564800</v>
+        <v>3814800</v>
       </c>
       <c r="F41" s="3">
-        <v>3115600</v>
+        <v>3448100</v>
       </c>
       <c r="G41" s="3">
-        <v>3177400</v>
+        <v>3013600</v>
       </c>
       <c r="H41" s="3">
-        <v>3162100</v>
+        <v>3073300</v>
       </c>
       <c r="I41" s="3">
-        <v>2893800</v>
+        <v>3058600</v>
       </c>
       <c r="J41" s="3">
+        <v>2799100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3626600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3564200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3294800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3489600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4168000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5771700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6434200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6292100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6243000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5771500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6580400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6983400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5895800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6172300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7190000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7769700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5709700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3051,571 +3141,595 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>27600</v>
-      </c>
-      <c r="W42" s="3">
-        <v>54700</v>
       </c>
       <c r="X42" s="3">
         <v>54700</v>
       </c>
       <c r="Y42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="Z42" s="3">
         <v>53600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>26600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4417200</v>
+        <v>4429600</v>
       </c>
       <c r="E43" s="3">
-        <v>4388000</v>
+        <v>4272600</v>
       </c>
       <c r="F43" s="3">
-        <v>4247800</v>
+        <v>4244300</v>
       </c>
       <c r="G43" s="3">
-        <v>4007300</v>
+        <v>4108700</v>
       </c>
       <c r="H43" s="3">
-        <v>3925300</v>
+        <v>3876100</v>
       </c>
       <c r="I43" s="3">
-        <v>4439900</v>
+        <v>3796800</v>
       </c>
       <c r="J43" s="3">
+        <v>4294500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3884900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3872500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3948500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4919700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5207200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4961300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4783200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5937000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5728800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5629800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5106600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5627200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5700700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5684900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5386900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5639400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5504800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4333100</v>
+        <v>4442100</v>
       </c>
       <c r="E44" s="3">
-        <v>3697700</v>
+        <v>4191200</v>
       </c>
       <c r="F44" s="3">
-        <v>3568700</v>
+        <v>3576700</v>
       </c>
       <c r="G44" s="3">
-        <v>3393600</v>
+        <v>3451900</v>
       </c>
       <c r="H44" s="3">
-        <v>3357100</v>
+        <v>3282500</v>
       </c>
       <c r="I44" s="3">
-        <v>3061500</v>
+        <v>3247200</v>
       </c>
       <c r="J44" s="3">
+        <v>2961200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2982500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3163000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3636700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3355800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3747200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3664800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3649600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3598500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3875400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3879600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3580200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3284400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3610900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3538100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3539000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3009100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3299400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1179700</v>
+        <v>1162600</v>
       </c>
       <c r="E45" s="3">
-        <v>991700</v>
+        <v>1141100</v>
       </c>
       <c r="F45" s="3">
-        <v>978000</v>
+        <v>959300</v>
       </c>
       <c r="G45" s="3">
-        <v>1009000</v>
+        <v>946000</v>
       </c>
       <c r="H45" s="3">
-        <v>889600</v>
+        <v>976000</v>
       </c>
       <c r="I45" s="3">
-        <v>653800</v>
+        <v>860500</v>
       </c>
       <c r="J45" s="3">
+        <v>632400</v>
+      </c>
+      <c r="K45" s="3">
         <v>678200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>757400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1416200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1354800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1398600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>838100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>933200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>806400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>928700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>969300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1244900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1019400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1182600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1199300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1194300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1576900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1208300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13873900</v>
+        <v>13202800</v>
       </c>
       <c r="E46" s="3">
-        <v>12642300</v>
+        <v>13419700</v>
       </c>
       <c r="F46" s="3">
-        <v>11910200</v>
+        <v>12228300</v>
       </c>
       <c r="G46" s="3">
-        <v>11587300</v>
+        <v>11520200</v>
       </c>
       <c r="H46" s="3">
-        <v>11334100</v>
+        <v>11207900</v>
       </c>
       <c r="I46" s="3">
-        <v>11049100</v>
+        <v>10963000</v>
       </c>
       <c r="J46" s="3">
+        <v>10687300</v>
+      </c>
+      <c r="K46" s="3">
         <v>11172300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11357100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12296200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13119900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14521100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15235900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15800200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16634000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16775900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16250200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16512000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16914700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16417600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16649400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17364900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18048700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15748800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1680000</v>
+        <v>1510400</v>
       </c>
       <c r="E47" s="3">
-        <v>1693600</v>
+        <v>1625000</v>
       </c>
       <c r="F47" s="3">
-        <v>1686200</v>
+        <v>1638100</v>
       </c>
       <c r="G47" s="3">
-        <v>1779000</v>
+        <v>1631000</v>
       </c>
       <c r="H47" s="3">
-        <v>1798900</v>
+        <v>1720800</v>
       </c>
       <c r="I47" s="3">
-        <v>1670000</v>
+        <v>1740000</v>
       </c>
       <c r="J47" s="3">
+        <v>1615300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1561500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1732900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1826100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1789600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2109300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2082200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2037500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2303400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2128200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2236700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2099400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2173900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2715900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2812500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2751100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2656900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3052200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6540400</v>
+        <v>6751600</v>
       </c>
       <c r="E48" s="3">
-        <v>6012300</v>
+        <v>6326300</v>
       </c>
       <c r="F48" s="3">
-        <v>5516700</v>
+        <v>5815400</v>
       </c>
       <c r="G48" s="3">
-        <v>5363100</v>
+        <v>5336000</v>
       </c>
       <c r="H48" s="3">
-        <v>5296500</v>
+        <v>5187500</v>
       </c>
       <c r="I48" s="3">
-        <v>5229600</v>
+        <v>5123100</v>
       </c>
       <c r="J48" s="3">
+        <v>5058400</v>
+      </c>
+      <c r="K48" s="3">
         <v>5067400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5347800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5816900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5953900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6117700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6095400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4746100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5062500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5005900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5100000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4837700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4886300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4945600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4976300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4989300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4617800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4663300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7459500</v>
+        <v>7305800</v>
       </c>
       <c r="E49" s="3">
-        <v>7159200</v>
+        <v>7215200</v>
       </c>
       <c r="F49" s="3">
-        <v>6896900</v>
+        <v>6924800</v>
       </c>
       <c r="G49" s="3">
-        <v>6830300</v>
+        <v>6671100</v>
       </c>
       <c r="H49" s="3">
-        <v>6843700</v>
+        <v>6606600</v>
       </c>
       <c r="I49" s="3">
-        <v>6836700</v>
+        <v>6619600</v>
       </c>
       <c r="J49" s="3">
+        <v>6612800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6021500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6431100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7085000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7305500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7664500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7549100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7199300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7693000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7718000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7845000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7296200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6533000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6655900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6660900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6641100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5111600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5222000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1575300</v>
+        <v>1620800</v>
       </c>
       <c r="E52" s="3">
-        <v>1484900</v>
+        <v>1523800</v>
       </c>
       <c r="F52" s="3">
-        <v>1301800</v>
+        <v>1436300</v>
       </c>
       <c r="G52" s="3">
-        <v>1263000</v>
+        <v>1259200</v>
       </c>
       <c r="H52" s="3">
-        <v>1268900</v>
+        <v>1221600</v>
       </c>
       <c r="I52" s="3">
-        <v>1230400</v>
+        <v>1227300</v>
       </c>
       <c r="J52" s="3">
+        <v>1190100</v>
+      </c>
+      <c r="K52" s="3">
         <v>878700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>902100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>972700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1095300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1025100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1025800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1798500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1122200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1174500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1234000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1142500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1242900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1181200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1180500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1225800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>904300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>879100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31129200</v>
+        <v>30391500</v>
       </c>
       <c r="E54" s="3">
-        <v>28992200</v>
+        <v>30110000</v>
       </c>
       <c r="F54" s="3">
-        <v>27311700</v>
+        <v>28042900</v>
       </c>
       <c r="G54" s="3">
-        <v>26822700</v>
+        <v>26417500</v>
       </c>
       <c r="H54" s="3">
-        <v>26542100</v>
+        <v>25944500</v>
       </c>
       <c r="I54" s="3">
-        <v>26015700</v>
+        <v>25673100</v>
       </c>
       <c r="J54" s="3">
+        <v>25163800</v>
+      </c>
+      <c r="K54" s="3">
         <v>24701500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25770900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27996900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29264100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31437700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31988400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31581600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32815200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32802600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32665900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31887700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31750800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31916300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>32279500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>32972100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>31339400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>29565300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1882000</v>
+        <v>2002900</v>
       </c>
       <c r="E57" s="3">
-        <v>1842100</v>
+        <v>1820300</v>
       </c>
       <c r="F57" s="3">
-        <v>1696700</v>
+        <v>1781800</v>
       </c>
       <c r="G57" s="3">
-        <v>1629900</v>
+        <v>1641100</v>
       </c>
       <c r="H57" s="3">
-        <v>1645300</v>
+        <v>1576500</v>
       </c>
       <c r="I57" s="3">
-        <v>1603500</v>
+        <v>1591400</v>
       </c>
       <c r="J57" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1396800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1401000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1541400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1735000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1980900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1825700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1817300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2043100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2091300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2125900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1998500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2066900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2047300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2039700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2089400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2110600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2016200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1491300</v>
+        <v>1265200</v>
       </c>
       <c r="E58" s="3">
-        <v>1482200</v>
+        <v>1442500</v>
       </c>
       <c r="F58" s="3">
-        <v>928100</v>
+        <v>1433600</v>
       </c>
       <c r="G58" s="3">
-        <v>834900</v>
+        <v>897700</v>
       </c>
       <c r="H58" s="3">
-        <v>465600</v>
+        <v>807600</v>
       </c>
       <c r="I58" s="3">
-        <v>486300</v>
+        <v>450400</v>
       </c>
       <c r="J58" s="3">
+        <v>470400</v>
+      </c>
+      <c r="K58" s="3">
         <v>580900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>567700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>596600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1066000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2498700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1290600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1569800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1639300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>925600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>651400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>362700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>378800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>298400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>683500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1072600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1099900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1204700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3913700</v>
+        <v>3764100</v>
       </c>
       <c r="E59" s="3">
-        <v>3856000</v>
+        <v>3785600</v>
       </c>
       <c r="F59" s="3">
-        <v>3240400</v>
+        <v>3729700</v>
       </c>
       <c r="G59" s="3">
-        <v>3296200</v>
+        <v>3134300</v>
       </c>
       <c r="H59" s="3">
-        <v>3140800</v>
+        <v>3188300</v>
       </c>
       <c r="I59" s="3">
-        <v>3160500</v>
+        <v>3037900</v>
       </c>
       <c r="J59" s="3">
+        <v>3057000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2597700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2655900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2899600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3013600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2873800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3064600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3055500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3066600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2777400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3004200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3459000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3592000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2659800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2918900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2901100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2822700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2545900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7287000</v>
+        <v>7032200</v>
       </c>
       <c r="E60" s="3">
-        <v>7180300</v>
+        <v>7048400</v>
       </c>
       <c r="F60" s="3">
-        <v>5865200</v>
+        <v>6945200</v>
       </c>
       <c r="G60" s="3">
-        <v>5761000</v>
+        <v>5673200</v>
       </c>
       <c r="H60" s="3">
-        <v>5251700</v>
+        <v>5572400</v>
       </c>
       <c r="I60" s="3">
-        <v>5250400</v>
+        <v>5079800</v>
       </c>
       <c r="J60" s="3">
+        <v>5078500</v>
+      </c>
+      <c r="K60" s="3">
         <v>4575300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4624600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5037700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5814700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7353500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6180800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6442600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6749000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5794300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5781500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5820200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6037700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5005500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5642100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6063100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6033200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5766900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2691300</v>
+        <v>2425900</v>
       </c>
       <c r="E61" s="3">
-        <v>1859000</v>
+        <v>2603100</v>
       </c>
       <c r="F61" s="3">
-        <v>2537300</v>
+        <v>1798100</v>
       </c>
       <c r="G61" s="3">
-        <v>2823500</v>
+        <v>2454200</v>
       </c>
       <c r="H61" s="3">
-        <v>3219800</v>
+        <v>2731000</v>
       </c>
       <c r="I61" s="3">
-        <v>3269700</v>
+        <v>3114400</v>
       </c>
       <c r="J61" s="3">
+        <v>3162700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3416600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3840900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4199500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4432900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3544500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3706300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3230300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3397500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4343600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3682800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3753100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3749600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3957200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3954200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4473500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3857100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2059100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1502900</v>
+        <v>1433300</v>
       </c>
       <c r="E62" s="3">
-        <v>1445100</v>
+        <v>1453700</v>
       </c>
       <c r="F62" s="3">
-        <v>1304800</v>
+        <v>1397800</v>
       </c>
       <c r="G62" s="3">
-        <v>1315000</v>
+        <v>1262100</v>
       </c>
       <c r="H62" s="3">
-        <v>1307600</v>
+        <v>1272000</v>
       </c>
       <c r="I62" s="3">
-        <v>1207200</v>
+        <v>1264800</v>
       </c>
       <c r="J62" s="3">
+        <v>1167700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1139200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1273400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1438900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1451500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1450100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1462500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1504700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1095900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1117900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1232000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1068700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1068200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1208300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1249400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1282400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1331500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1345000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11656800</v>
+        <v>11077800</v>
       </c>
       <c r="E66" s="3">
-        <v>10647700</v>
+        <v>11275100</v>
       </c>
       <c r="F66" s="3">
-        <v>9848900</v>
+        <v>10299100</v>
       </c>
       <c r="G66" s="3">
-        <v>10036300</v>
+        <v>9526500</v>
       </c>
       <c r="H66" s="3">
-        <v>9910300</v>
+        <v>9707700</v>
       </c>
       <c r="I66" s="3">
-        <v>9856200</v>
+        <v>9585800</v>
       </c>
       <c r="J66" s="3">
+        <v>9533500</v>
+      </c>
+      <c r="K66" s="3">
         <v>9447700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10077700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11040400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12056000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12708500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13278500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13058100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13240000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13187100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12636900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12636000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12851500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12264300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13003500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13939800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13213000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11233800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21324500</v>
+        <v>20833300</v>
       </c>
       <c r="E72" s="3">
-        <v>21021300</v>
+        <v>20626300</v>
       </c>
       <c r="F72" s="3">
-        <v>20784000</v>
+        <v>20333000</v>
       </c>
       <c r="G72" s="3">
-        <v>20350500</v>
+        <v>20103500</v>
       </c>
       <c r="H72" s="3">
-        <v>20231200</v>
+        <v>19684200</v>
       </c>
       <c r="I72" s="3">
-        <v>19811200</v>
+        <v>19568800</v>
       </c>
       <c r="J72" s="3">
+        <v>19162600</v>
+      </c>
+      <c r="K72" s="3">
         <v>19562900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20330600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22080400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22580800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23484400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23428300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23104800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24099200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23909300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23567600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22110200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21668700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21549000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21064400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>20967600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20184800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20233000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19472400</v>
+        <v>19313600</v>
       </c>
       <c r="E76" s="3">
-        <v>18344500</v>
+        <v>18834900</v>
       </c>
       <c r="F76" s="3">
-        <v>17462800</v>
+        <v>17743800</v>
       </c>
       <c r="G76" s="3">
-        <v>16786400</v>
+        <v>16891000</v>
       </c>
       <c r="H76" s="3">
-        <v>16631800</v>
+        <v>16236800</v>
       </c>
       <c r="I76" s="3">
-        <v>16159500</v>
+        <v>16087200</v>
       </c>
       <c r="J76" s="3">
+        <v>15630400</v>
+      </c>
+      <c r="K76" s="3">
         <v>15253800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15693300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16956400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17208200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18729200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18710000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18523500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19575200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19615500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20029000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19251700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18899300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19652000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19276000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19032300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18126400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18331500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>303100</v>
+        <v>381400</v>
       </c>
       <c r="E81" s="3">
-        <v>396400</v>
+        <v>293200</v>
       </c>
       <c r="F81" s="3">
-        <v>446000</v>
+        <v>383400</v>
       </c>
       <c r="G81" s="3">
-        <v>285500</v>
+        <v>431400</v>
       </c>
       <c r="H81" s="3">
-        <v>420100</v>
+        <v>276200</v>
       </c>
       <c r="I81" s="3">
-        <v>401100</v>
+        <v>406300</v>
       </c>
       <c r="J81" s="3">
+        <v>387900</v>
+      </c>
+      <c r="K81" s="3">
         <v>431600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>312400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>234600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>542200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>427200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>134300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>356100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>341700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>357200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>257500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>147100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>484600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>245000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>396000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>484100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>393400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>257100</v>
+        <v>253600</v>
       </c>
       <c r="E83" s="3">
-        <v>258400</v>
+        <v>248700</v>
       </c>
       <c r="F83" s="3">
-        <v>239900</v>
+        <v>250000</v>
       </c>
       <c r="G83" s="3">
-        <v>247200</v>
+        <v>232000</v>
       </c>
       <c r="H83" s="3">
-        <v>229400</v>
+        <v>239100</v>
       </c>
       <c r="I83" s="3">
-        <v>238500</v>
+        <v>221900</v>
       </c>
       <c r="J83" s="3">
+        <v>230700</v>
+      </c>
+      <c r="K83" s="3">
         <v>225400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>235200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>255400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>271700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>285100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>280200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>275000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>330200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>311100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>307000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>284100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>293600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>305100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>279200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>277600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>277400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>242800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>107900</v>
+        <v>283300</v>
       </c>
       <c r="E89" s="3">
-        <v>809600</v>
+        <v>104400</v>
       </c>
       <c r="F89" s="3">
-        <v>481300</v>
+        <v>783100</v>
       </c>
       <c r="G89" s="3">
-        <v>383900</v>
+        <v>465500</v>
       </c>
       <c r="H89" s="3">
-        <v>699600</v>
+        <v>371300</v>
       </c>
       <c r="I89" s="3">
-        <v>941600</v>
+        <v>676700</v>
       </c>
       <c r="J89" s="3">
+        <v>910700</v>
+      </c>
+      <c r="K89" s="3">
         <v>717200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>733300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>856700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>821700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>44100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>451600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>993100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1016600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>560200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>790800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>958700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>404200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>159000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>844200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>874800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>444300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-380900</v>
+        <v>-472100</v>
       </c>
       <c r="E91" s="3">
-        <v>-258000</v>
+        <v>-368500</v>
       </c>
       <c r="F91" s="3">
-        <v>-238100</v>
+        <v>-249500</v>
       </c>
       <c r="G91" s="3">
-        <v>-226700</v>
+        <v>-230300</v>
       </c>
       <c r="H91" s="3">
-        <v>-201200</v>
+        <v>-219300</v>
       </c>
       <c r="I91" s="3">
-        <v>-199100</v>
+        <v>-194600</v>
       </c>
       <c r="J91" s="3">
+        <v>-192600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-174800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-202500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-196600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-175400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-197200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-226500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-169200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-206100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-166600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-144300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-134100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-132800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-161000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-156000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-120800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-231900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>256900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-601300</v>
+        <v>-575000</v>
       </c>
       <c r="E94" s="3">
-        <v>-280800</v>
+        <v>-581600</v>
       </c>
       <c r="F94" s="3">
-        <v>-233900</v>
+        <v>-271600</v>
       </c>
       <c r="G94" s="3">
-        <v>-340600</v>
+        <v>-226200</v>
       </c>
       <c r="H94" s="3">
-        <v>-270200</v>
+        <v>-329400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1462000</v>
+        <v>-261300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1414200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-130100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-223200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-286000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-374000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-354400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-266300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-472700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-272000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-237200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-967300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>541500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>68900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-277700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-448100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-286800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-161600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-156300</v>
       </c>
       <c r="F96" s="3">
-        <v>-161600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-156300</v>
       </c>
       <c r="H96" s="3">
-        <v>-153900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-148800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-139200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-162000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-177200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-150000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-163700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-146700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-148200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-138500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-137700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>712700</v>
+        <v>-377300</v>
       </c>
       <c r="E100" s="3">
-        <v>-200200</v>
+        <v>689400</v>
       </c>
       <c r="F100" s="3">
-        <v>-365800</v>
+        <v>-193600</v>
       </c>
       <c r="G100" s="3">
-        <v>-32800</v>
+        <v>-353800</v>
       </c>
       <c r="H100" s="3">
-        <v>-172300</v>
+        <v>-31700</v>
       </c>
       <c r="I100" s="3">
-        <v>-333100</v>
+        <v>-166600</v>
       </c>
       <c r="J100" s="3">
+        <v>-322200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-316000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-678800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-889700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>171400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-194400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-484300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>245200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-993500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-229600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-328100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-788100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-959700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-266900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1700900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-500500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>159800</v>
+        <v>22700</v>
       </c>
       <c r="E101" s="3">
-        <v>120500</v>
+        <v>154500</v>
       </c>
       <c r="F101" s="3">
-        <v>56600</v>
+        <v>116600</v>
       </c>
       <c r="G101" s="3">
-        <v>4700</v>
+        <v>54700</v>
       </c>
       <c r="H101" s="3">
-        <v>11100</v>
+        <v>4600</v>
       </c>
       <c r="I101" s="3">
-        <v>120700</v>
+        <v>10700</v>
       </c>
       <c r="J101" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-99200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>99400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-71200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-95600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-61900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>61900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-117200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>38500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>60700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>34300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-67600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>269600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>379100</v>
+        <v>-646300</v>
       </c>
       <c r="E102" s="3">
-        <v>449200</v>
+        <v>366700</v>
       </c>
       <c r="F102" s="3">
-        <v>-61800</v>
+        <v>434500</v>
       </c>
       <c r="G102" s="3">
-        <v>15300</v>
+        <v>-59700</v>
       </c>
       <c r="H102" s="3">
-        <v>268200</v>
+        <v>14800</v>
       </c>
       <c r="I102" s="3">
-        <v>-732800</v>
+        <v>259500</v>
       </c>
       <c r="J102" s="3">
+        <v>-708800</v>
+      </c>
+      <c r="K102" s="3">
         <v>272900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>555200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-83800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-541200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-683600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>436800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>471500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-403000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1054900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-276500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-728700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2060000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-56300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5133700</v>
+        <v>5470800</v>
       </c>
       <c r="E8" s="3">
-        <v>4437300</v>
+        <v>5321900</v>
       </c>
       <c r="F8" s="3">
-        <v>4713900</v>
+        <v>4600100</v>
       </c>
       <c r="G8" s="3">
-        <v>4649400</v>
+        <v>4886800</v>
       </c>
       <c r="H8" s="3">
-        <v>4413400</v>
+        <v>4819900</v>
       </c>
       <c r="I8" s="3">
-        <v>4131000</v>
+        <v>4575200</v>
       </c>
       <c r="J8" s="3">
+        <v>4282500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4389300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4222400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4215300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3892000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5169200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5432000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5484700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4903600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6070400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6026200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5841400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5134900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5669300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5620600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5572700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5166300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5492800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5132600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3104000</v>
+        <v>3257900</v>
       </c>
       <c r="E9" s="3">
-        <v>2633300</v>
+        <v>3217900</v>
       </c>
       <c r="F9" s="3">
-        <v>2950500</v>
+        <v>2729900</v>
       </c>
       <c r="G9" s="3">
-        <v>2677300</v>
+        <v>3058700</v>
       </c>
       <c r="H9" s="3">
-        <v>2614700</v>
+        <v>2775500</v>
       </c>
       <c r="I9" s="3">
-        <v>2339600</v>
+        <v>2710600</v>
       </c>
       <c r="J9" s="3">
+        <v>2425400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2838400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2362800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2580900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2293200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3130300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3159200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3231600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2811300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3734400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3455200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3427600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2992100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3832100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3631400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3695600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3077700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3267700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3036000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2029600</v>
+        <v>2212900</v>
       </c>
       <c r="E10" s="3">
-        <v>1804000</v>
+        <v>2104000</v>
       </c>
       <c r="F10" s="3">
-        <v>1763500</v>
+        <v>1870200</v>
       </c>
       <c r="G10" s="3">
-        <v>1972100</v>
+        <v>1828100</v>
       </c>
       <c r="H10" s="3">
-        <v>1798600</v>
+        <v>2044400</v>
       </c>
       <c r="I10" s="3">
-        <v>1791400</v>
+        <v>1864600</v>
       </c>
       <c r="J10" s="3">
+        <v>1857100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1551000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1859600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1634400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1598800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2038900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2272800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2253100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2092300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2336000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2571000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2413900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2142700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1837200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1989100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1877100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2088600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2225200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2096500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>276000</v>
+        <v>282500</v>
       </c>
       <c r="E12" s="3">
+        <v>286200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>276200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>283600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>265800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>283800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>273100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>293500</v>
+      </c>
+      <c r="L12" s="3">
         <v>266400</v>
       </c>
-      <c r="F12" s="3">
-        <v>273600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>256400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>273800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>263500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>293500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>266400</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>296100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>310500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>351400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>349000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>374200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>356900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>387500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>349000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>378100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>364900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>454200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>351000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>375500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>336800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>366000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>346100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4628400</v>
+        <v>4869400</v>
       </c>
       <c r="E17" s="3">
-        <v>4086000</v>
+        <v>4798200</v>
       </c>
       <c r="F17" s="3">
-        <v>4407300</v>
+        <v>4235900</v>
       </c>
       <c r="G17" s="3">
-        <v>4092200</v>
+        <v>4568900</v>
       </c>
       <c r="H17" s="3">
-        <v>4047900</v>
+        <v>4242300</v>
       </c>
       <c r="I17" s="3">
-        <v>3731700</v>
+        <v>4196400</v>
       </c>
       <c r="J17" s="3">
+        <v>3868600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4070200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3753300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3934200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3718100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4861400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4889000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4979900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4563600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5575700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5311000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5389100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4799900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5667700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5161200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5226700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4842300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4977100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4680500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>505200</v>
+        <v>601400</v>
       </c>
       <c r="E18" s="3">
-        <v>351300</v>
+        <v>523800</v>
       </c>
       <c r="F18" s="3">
-        <v>306600</v>
+        <v>364200</v>
       </c>
       <c r="G18" s="3">
-        <v>557200</v>
+        <v>317900</v>
       </c>
       <c r="H18" s="3">
-        <v>365400</v>
+        <v>577600</v>
       </c>
       <c r="I18" s="3">
-        <v>399300</v>
+        <v>378800</v>
       </c>
       <c r="J18" s="3">
+        <v>413900</v>
+      </c>
+      <c r="K18" s="3">
         <v>319100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>469100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>281100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>173900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>307800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>542900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>504800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>340000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>494700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>715100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>452400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>335000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>459300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>346000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>324000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>515700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>452000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>28400</v>
+        <v>-42800</v>
       </c>
       <c r="E20" s="3">
-        <v>46200</v>
+        <v>29500</v>
       </c>
       <c r="F20" s="3">
-        <v>75200</v>
+        <v>47900</v>
       </c>
       <c r="G20" s="3">
-        <v>-4800</v>
+        <v>78000</v>
       </c>
       <c r="H20" s="3">
-        <v>8000</v>
+        <v>-5000</v>
       </c>
       <c r="I20" s="3">
-        <v>156000</v>
+        <v>8300</v>
       </c>
       <c r="J20" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K20" s="3">
         <v>117800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>89100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>169900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>191000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-246800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>90700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>155000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-91600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>69400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-171100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>66600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>90000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>217700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>222800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>49400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>209800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>105300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>149000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>787200</v>
+        <v>822500</v>
       </c>
       <c r="E21" s="3">
-        <v>646200</v>
+        <v>816100</v>
       </c>
       <c r="F21" s="3">
-        <v>631800</v>
+        <v>669900</v>
       </c>
       <c r="G21" s="3">
-        <v>784400</v>
+        <v>655000</v>
       </c>
       <c r="H21" s="3">
-        <v>612500</v>
+        <v>813100</v>
       </c>
       <c r="I21" s="3">
-        <v>777200</v>
+        <v>635000</v>
       </c>
       <c r="J21" s="3">
+        <v>805700</v>
+      </c>
+      <c r="K21" s="3">
         <v>667600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>783600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>686200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>620400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>332700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>918700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>940000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>523400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>894300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>855100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>826000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>709100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>512800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>987300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>674700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>811400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>898400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>843800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L22" s="3">
         <v>6600</v>
       </c>
-      <c r="E22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R22" s="3">
         <v>6600</v>
       </c>
-      <c r="L22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>14200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>527100</v>
+        <v>553100</v>
       </c>
       <c r="E23" s="3">
-        <v>391300</v>
+        <v>546400</v>
       </c>
       <c r="F23" s="3">
-        <v>377200</v>
+        <v>405700</v>
       </c>
       <c r="G23" s="3">
-        <v>548300</v>
+        <v>391100</v>
       </c>
       <c r="H23" s="3">
-        <v>369500</v>
+        <v>568400</v>
       </c>
       <c r="I23" s="3">
-        <v>551500</v>
+        <v>383100</v>
       </c>
       <c r="J23" s="3">
+        <v>571700</v>
+      </c>
+      <c r="K23" s="3">
         <v>432800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>551600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>446900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>360000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>57600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>628600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>653800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>241800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>559300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>535600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>509700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>416300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>211500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>672300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>384600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>520900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>608600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>586900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>136600</v>
+        <v>135400</v>
       </c>
       <c r="E24" s="3">
-        <v>111400</v>
+        <v>141600</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>115500</v>
       </c>
       <c r="G24" s="3">
-        <v>148100</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>93600</v>
+        <v>153500</v>
       </c>
       <c r="I24" s="3">
-        <v>163300</v>
+        <v>97000</v>
       </c>
       <c r="J24" s="3">
+        <v>169300</v>
+      </c>
+      <c r="K24" s="3">
         <v>66800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>129000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>122200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>110200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>73700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>164600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>165400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>147300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>96100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>122900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>125700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>158200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>116300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>92500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>63400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>162800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>390400</v>
+        <v>417700</v>
       </c>
       <c r="E26" s="3">
-        <v>279900</v>
+        <v>404800</v>
       </c>
       <c r="F26" s="3">
-        <v>377200</v>
+        <v>290200</v>
       </c>
       <c r="G26" s="3">
-        <v>400200</v>
+        <v>391000</v>
       </c>
       <c r="H26" s="3">
-        <v>275900</v>
+        <v>414900</v>
       </c>
       <c r="I26" s="3">
-        <v>388100</v>
+        <v>286100</v>
       </c>
       <c r="J26" s="3">
+        <v>402400</v>
+      </c>
+      <c r="K26" s="3">
         <v>366100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>422600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>324700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>249800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>554800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>489100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>177300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>393900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>388300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>413500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>293400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>85800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>514100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>268300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>428400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>545200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>424100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>381400</v>
+        <v>430200</v>
       </c>
       <c r="E27" s="3">
-        <v>293200</v>
+        <v>395300</v>
       </c>
       <c r="F27" s="3">
-        <v>383400</v>
+        <v>303900</v>
       </c>
       <c r="G27" s="3">
-        <v>431400</v>
+        <v>397400</v>
       </c>
       <c r="H27" s="3">
-        <v>276200</v>
+        <v>447200</v>
       </c>
       <c r="I27" s="3">
-        <v>406300</v>
+        <v>286300</v>
       </c>
       <c r="J27" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K27" s="3">
         <v>387900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>431600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>312400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>234600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>542200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>427200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>134300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>356100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>341700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>357200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>257500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>147100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>484600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>245000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>396000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>484100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>393400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-28400</v>
+        <v>42800</v>
       </c>
       <c r="E32" s="3">
-        <v>-46200</v>
+        <v>-29500</v>
       </c>
       <c r="F32" s="3">
-        <v>-75200</v>
+        <v>-47900</v>
       </c>
       <c r="G32" s="3">
-        <v>4800</v>
+        <v>-78000</v>
       </c>
       <c r="H32" s="3">
-        <v>-8000</v>
+        <v>5000</v>
       </c>
       <c r="I32" s="3">
-        <v>-156000</v>
+        <v>-8300</v>
       </c>
       <c r="J32" s="3">
+        <v>-161700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-117800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-89100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-169900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-191000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>246800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-90700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-155000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>91600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-69400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>171100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-66600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-90000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-217700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-222800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-49400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-209800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-105300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-149000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>381400</v>
+        <v>430200</v>
       </c>
       <c r="E33" s="3">
-        <v>293200</v>
+        <v>395300</v>
       </c>
       <c r="F33" s="3">
-        <v>383400</v>
+        <v>303900</v>
       </c>
       <c r="G33" s="3">
-        <v>431400</v>
+        <v>397400</v>
       </c>
       <c r="H33" s="3">
-        <v>276200</v>
+        <v>447200</v>
       </c>
       <c r="I33" s="3">
-        <v>406300</v>
+        <v>286300</v>
       </c>
       <c r="J33" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K33" s="3">
         <v>387900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>431600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>312400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>234600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>542200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>427200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>134300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>356100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>341700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>357200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>257500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>147100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>484600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>245000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>396000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>484100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>393400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>381400</v>
+        <v>430200</v>
       </c>
       <c r="E35" s="3">
-        <v>293200</v>
+        <v>395300</v>
       </c>
       <c r="F35" s="3">
-        <v>383400</v>
+        <v>303900</v>
       </c>
       <c r="G35" s="3">
-        <v>431400</v>
+        <v>397400</v>
       </c>
       <c r="H35" s="3">
-        <v>276200</v>
+        <v>447200</v>
       </c>
       <c r="I35" s="3">
-        <v>406300</v>
+        <v>286300</v>
       </c>
       <c r="J35" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K35" s="3">
         <v>387900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>431600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>312400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>234600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>542200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>427200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>134300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>356100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>341700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>357200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>257500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>147100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>484600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>245000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>396000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>484100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>393400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3168500</v>
+        <v>2336100</v>
       </c>
       <c r="E41" s="3">
-        <v>3814800</v>
+        <v>3284700</v>
       </c>
       <c r="F41" s="3">
-        <v>3448100</v>
+        <v>3954700</v>
       </c>
       <c r="G41" s="3">
-        <v>3013600</v>
+        <v>3574500</v>
       </c>
       <c r="H41" s="3">
-        <v>3073300</v>
+        <v>3124100</v>
       </c>
       <c r="I41" s="3">
-        <v>3058600</v>
+        <v>3186000</v>
       </c>
       <c r="J41" s="3">
+        <v>3170700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2799100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3626600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3564200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3294800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3489600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4168000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5771700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6434200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6292100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6243000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5771500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6580400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6983400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5895800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6172300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7190000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7769700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5709700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3144,592 +3233,616 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>27600</v>
-      </c>
-      <c r="X42" s="3">
-        <v>54700</v>
       </c>
       <c r="Y42" s="3">
         <v>54700</v>
       </c>
       <c r="Z42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="AA42" s="3">
         <v>53600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>26600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4429600</v>
+        <v>4822500</v>
       </c>
       <c r="E43" s="3">
-        <v>4272600</v>
+        <v>4592000</v>
       </c>
       <c r="F43" s="3">
-        <v>4244300</v>
+        <v>4429300</v>
       </c>
       <c r="G43" s="3">
-        <v>4108700</v>
+        <v>4400000</v>
       </c>
       <c r="H43" s="3">
-        <v>3876100</v>
+        <v>4259400</v>
       </c>
       <c r="I43" s="3">
-        <v>3796800</v>
+        <v>4018200</v>
       </c>
       <c r="J43" s="3">
+        <v>3936000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4294500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3884900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3872500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3948500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4919700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5207200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4961300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4783200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5937000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5728800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5629800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5106600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5627200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5700700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5684900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5386900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5639400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5504800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4442100</v>
+        <v>4564600</v>
       </c>
       <c r="E44" s="3">
-        <v>4191200</v>
+        <v>4605000</v>
       </c>
       <c r="F44" s="3">
-        <v>3576700</v>
+        <v>4344900</v>
       </c>
       <c r="G44" s="3">
-        <v>3451900</v>
+        <v>3707800</v>
       </c>
       <c r="H44" s="3">
-        <v>3282500</v>
+        <v>3578500</v>
       </c>
       <c r="I44" s="3">
-        <v>3247200</v>
+        <v>3402900</v>
       </c>
       <c r="J44" s="3">
+        <v>3366300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2961200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2982500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3163000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3636700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3355800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3747200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3664800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3649600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3598500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3875400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3879600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3580200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3284400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3610900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3538100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3539000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3009100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3299400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1162600</v>
+        <v>1186200</v>
       </c>
       <c r="E45" s="3">
-        <v>1141100</v>
+        <v>1205300</v>
       </c>
       <c r="F45" s="3">
-        <v>959300</v>
+        <v>1182900</v>
       </c>
       <c r="G45" s="3">
-        <v>946000</v>
+        <v>994500</v>
       </c>
       <c r="H45" s="3">
-        <v>976000</v>
+        <v>980700</v>
       </c>
       <c r="I45" s="3">
-        <v>860500</v>
+        <v>1011800</v>
       </c>
       <c r="J45" s="3">
+        <v>892000</v>
+      </c>
+      <c r="K45" s="3">
         <v>632400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>678200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>757400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1416200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1354800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1398600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>838100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>933200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>806400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>928700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>969300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1244900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1019400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1182600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1199300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1194300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1576900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1208300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13202800</v>
+        <v>12909500</v>
       </c>
       <c r="E46" s="3">
-        <v>13419700</v>
+        <v>13687000</v>
       </c>
       <c r="F46" s="3">
-        <v>12228300</v>
+        <v>13911800</v>
       </c>
       <c r="G46" s="3">
-        <v>11520200</v>
+        <v>12676800</v>
       </c>
       <c r="H46" s="3">
-        <v>11207900</v>
+        <v>11942700</v>
       </c>
       <c r="I46" s="3">
-        <v>10963000</v>
+        <v>11618900</v>
       </c>
       <c r="J46" s="3">
+        <v>11365000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10687300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11172300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11357100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12296200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13119900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14521100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15235900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15800200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16634000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16775900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16250200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16512000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16914700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16417600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16649400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17364900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18048700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>15748800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1510400</v>
+        <v>1435000</v>
       </c>
       <c r="E47" s="3">
-        <v>1625000</v>
+        <v>1565800</v>
       </c>
       <c r="F47" s="3">
-        <v>1638100</v>
+        <v>1684600</v>
       </c>
       <c r="G47" s="3">
-        <v>1631000</v>
+        <v>1698200</v>
       </c>
       <c r="H47" s="3">
-        <v>1720800</v>
+        <v>1690800</v>
       </c>
       <c r="I47" s="3">
-        <v>1740000</v>
+        <v>1783900</v>
       </c>
       <c r="J47" s="3">
+        <v>1803800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1615300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1561500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1732900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1826100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1789600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2109300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2082200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2037500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2303400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2128200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2236700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2099400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2173900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2715900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2812500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2751100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2656900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3052200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6751600</v>
+        <v>7154900</v>
       </c>
       <c r="E48" s="3">
-        <v>6326300</v>
+        <v>6999200</v>
       </c>
       <c r="F48" s="3">
-        <v>5815400</v>
+        <v>6558300</v>
       </c>
       <c r="G48" s="3">
-        <v>5336000</v>
+        <v>6028700</v>
       </c>
       <c r="H48" s="3">
-        <v>5187500</v>
+        <v>5531700</v>
       </c>
       <c r="I48" s="3">
-        <v>5123100</v>
+        <v>5377800</v>
       </c>
       <c r="J48" s="3">
+        <v>5310900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5058400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5067400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5347800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5816900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5953900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6117700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6095400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4746100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5062500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5005900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5100000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4837700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4886300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4945600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4976300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4989300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4617800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4663300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7305800</v>
+        <v>7300000</v>
       </c>
       <c r="E49" s="3">
-        <v>7215200</v>
+        <v>7573800</v>
       </c>
       <c r="F49" s="3">
-        <v>6924800</v>
+        <v>7479800</v>
       </c>
       <c r="G49" s="3">
-        <v>6671100</v>
+        <v>7178700</v>
       </c>
       <c r="H49" s="3">
-        <v>6606600</v>
+        <v>6915700</v>
       </c>
       <c r="I49" s="3">
-        <v>6619600</v>
+        <v>6848900</v>
       </c>
       <c r="J49" s="3">
+        <v>6862400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6612800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6021500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6431100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7085000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7305500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7664500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7549100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7199300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7693000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7718000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7845000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7296200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6533000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6655900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6660900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6641100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5111600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5222000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1620800</v>
+        <v>1692400</v>
       </c>
       <c r="E52" s="3">
-        <v>1523800</v>
+        <v>1680200</v>
       </c>
       <c r="F52" s="3">
-        <v>1436300</v>
+        <v>1579600</v>
       </c>
       <c r="G52" s="3">
-        <v>1259200</v>
+        <v>1489000</v>
       </c>
       <c r="H52" s="3">
-        <v>1221600</v>
+        <v>1305400</v>
       </c>
       <c r="I52" s="3">
-        <v>1227300</v>
+        <v>1266400</v>
       </c>
       <c r="J52" s="3">
+        <v>1272300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1190100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>878700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>902100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>972700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1095300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1025100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1025800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1798500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1122200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1174500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1234000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1142500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1242900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1181200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1180500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1225800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>904300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>879100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30391500</v>
+        <v>30491700</v>
       </c>
       <c r="E54" s="3">
-        <v>30110000</v>
+        <v>31506000</v>
       </c>
       <c r="F54" s="3">
-        <v>28042900</v>
+        <v>31214100</v>
       </c>
       <c r="G54" s="3">
-        <v>26417500</v>
+        <v>29071300</v>
       </c>
       <c r="H54" s="3">
-        <v>25944500</v>
+        <v>27386200</v>
       </c>
       <c r="I54" s="3">
-        <v>25673100</v>
+        <v>26895900</v>
       </c>
       <c r="J54" s="3">
+        <v>26614500</v>
+      </c>
+      <c r="K54" s="3">
         <v>25163800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24701500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25770900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27996900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29264100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31437700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31988400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31581600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32815200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32802600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32665900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31887700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31750800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31916300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>32279500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>32972100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>31339400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>29565300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2002900</v>
+        <v>1943600</v>
       </c>
       <c r="E57" s="3">
-        <v>1820300</v>
+        <v>2076400</v>
       </c>
       <c r="F57" s="3">
-        <v>1781800</v>
+        <v>1887100</v>
       </c>
       <c r="G57" s="3">
-        <v>1641100</v>
+        <v>1847200</v>
       </c>
       <c r="H57" s="3">
-        <v>1576500</v>
+        <v>1701300</v>
       </c>
       <c r="I57" s="3">
-        <v>1591400</v>
+        <v>1634400</v>
       </c>
       <c r="J57" s="3">
+        <v>1649800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1551000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1396800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1401000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1541400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1735000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1980900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1825700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1817300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2043100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2091300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2125900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1998500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2066900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2047300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2039700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2089400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2110600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2016200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1265200</v>
+        <v>1258300</v>
       </c>
       <c r="E58" s="3">
-        <v>1442500</v>
+        <v>1311600</v>
       </c>
       <c r="F58" s="3">
-        <v>1433600</v>
+        <v>1495400</v>
       </c>
       <c r="G58" s="3">
-        <v>897700</v>
+        <v>1486200</v>
       </c>
       <c r="H58" s="3">
-        <v>807600</v>
+        <v>930700</v>
       </c>
       <c r="I58" s="3">
-        <v>450400</v>
+        <v>837200</v>
       </c>
       <c r="J58" s="3">
+        <v>466900</v>
+      </c>
+      <c r="K58" s="3">
         <v>470400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>580900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>567700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>596600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1066000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2498700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1290600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1569800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1639300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>925600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>651400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>362700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>378800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>298400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>683500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1072600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1099900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1204700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3764100</v>
+        <v>3616000</v>
       </c>
       <c r="E59" s="3">
-        <v>3785600</v>
+        <v>3902200</v>
       </c>
       <c r="F59" s="3">
-        <v>3729700</v>
+        <v>3924400</v>
       </c>
       <c r="G59" s="3">
-        <v>3134300</v>
+        <v>3866500</v>
       </c>
       <c r="H59" s="3">
-        <v>3188300</v>
+        <v>3249300</v>
       </c>
       <c r="I59" s="3">
-        <v>3037900</v>
+        <v>3305200</v>
       </c>
       <c r="J59" s="3">
+        <v>3149300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3057000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2597700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2655900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2899600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3013600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2873800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3064600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3055500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3066600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2777400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3004200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3459000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3592000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2659800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2918900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2901100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2822700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2545900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7032200</v>
+        <v>6818000</v>
       </c>
       <c r="E60" s="3">
-        <v>7048400</v>
+        <v>7290100</v>
       </c>
       <c r="F60" s="3">
-        <v>6945200</v>
+        <v>7306900</v>
       </c>
       <c r="G60" s="3">
-        <v>5673200</v>
+        <v>7199900</v>
       </c>
       <c r="H60" s="3">
-        <v>5572400</v>
+        <v>5881200</v>
       </c>
       <c r="I60" s="3">
-        <v>5079800</v>
+        <v>5776700</v>
       </c>
       <c r="J60" s="3">
+        <v>5266000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5078500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4575300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4624600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5037700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5814700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7353500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6180800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6442600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6749000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5794300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5781500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5820200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6037700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5005500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5642100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6063100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6033200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5766900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2425900</v>
+        <v>2249500</v>
       </c>
       <c r="E61" s="3">
-        <v>2603100</v>
+        <v>2514800</v>
       </c>
       <c r="F61" s="3">
-        <v>1798100</v>
+        <v>2698600</v>
       </c>
       <c r="G61" s="3">
-        <v>2454200</v>
+        <v>1864100</v>
       </c>
       <c r="H61" s="3">
-        <v>2731000</v>
+        <v>2544200</v>
       </c>
       <c r="I61" s="3">
-        <v>3114400</v>
+        <v>2831200</v>
       </c>
       <c r="J61" s="3">
+        <v>3228600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3162700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3416600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3840900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4199500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4432900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3544500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3706300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3230300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3397500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4343600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3682800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3753100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3749600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3957200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3954200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4473500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3857100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2059100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1433300</v>
+        <v>1439900</v>
       </c>
       <c r="E62" s="3">
-        <v>1453700</v>
+        <v>1485900</v>
       </c>
       <c r="F62" s="3">
-        <v>1397800</v>
+        <v>1507000</v>
       </c>
       <c r="G62" s="3">
-        <v>1262100</v>
+        <v>1449000</v>
       </c>
       <c r="H62" s="3">
-        <v>1272000</v>
+        <v>1308400</v>
       </c>
       <c r="I62" s="3">
-        <v>1264800</v>
+        <v>1318600</v>
       </c>
       <c r="J62" s="3">
+        <v>1311200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1167700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1139200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1273400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1438900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1451500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1450100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1462500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1504700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1095900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1117900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1232000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1068700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1068200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1208300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1249400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1282400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1331500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1345000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11077800</v>
+        <v>10684700</v>
       </c>
       <c r="E66" s="3">
-        <v>11275100</v>
+        <v>11484100</v>
       </c>
       <c r="F66" s="3">
-        <v>10299100</v>
+        <v>11688600</v>
       </c>
       <c r="G66" s="3">
-        <v>9526500</v>
+        <v>10676800</v>
       </c>
       <c r="H66" s="3">
-        <v>9707700</v>
+        <v>9875800</v>
       </c>
       <c r="I66" s="3">
-        <v>9585800</v>
+        <v>10063600</v>
       </c>
       <c r="J66" s="3">
+        <v>9937400</v>
+      </c>
+      <c r="K66" s="3">
         <v>9533500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9447700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10077700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11040400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12056000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12708500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13278500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13058100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13240000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13187100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12636900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12636000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12851500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12264300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13003500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13939800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13213000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11233800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20833300</v>
+        <v>22030000</v>
       </c>
       <c r="E72" s="3">
-        <v>20626300</v>
+        <v>21597300</v>
       </c>
       <c r="F72" s="3">
-        <v>20333000</v>
+        <v>21382700</v>
       </c>
       <c r="G72" s="3">
-        <v>20103500</v>
+        <v>21078700</v>
       </c>
       <c r="H72" s="3">
-        <v>19684200</v>
+        <v>20840700</v>
       </c>
       <c r="I72" s="3">
-        <v>19568800</v>
+        <v>20406000</v>
       </c>
       <c r="J72" s="3">
+        <v>20286400</v>
+      </c>
+      <c r="K72" s="3">
         <v>19162600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19562900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20330600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22080400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22580800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23484400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23428300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23104800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24099200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23909300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23567600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22110200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21668700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21549000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21064400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>20967600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20184800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20233000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19313600</v>
+        <v>19807000</v>
       </c>
       <c r="E76" s="3">
-        <v>18834900</v>
+        <v>20021900</v>
       </c>
       <c r="F76" s="3">
-        <v>17743800</v>
+        <v>19525600</v>
       </c>
       <c r="G76" s="3">
-        <v>16891000</v>
+        <v>18394500</v>
       </c>
       <c r="H76" s="3">
-        <v>16236800</v>
+        <v>17510400</v>
       </c>
       <c r="I76" s="3">
-        <v>16087200</v>
+        <v>16832200</v>
       </c>
       <c r="J76" s="3">
+        <v>16677200</v>
+      </c>
+      <c r="K76" s="3">
         <v>15630400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15253800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15693300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16956400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17208200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18729200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18710000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18523500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19575200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19615500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20029000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19251700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18899300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19652000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19276000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19032300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18126400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18331500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>381400</v>
+        <v>430200</v>
       </c>
       <c r="E81" s="3">
-        <v>293200</v>
+        <v>395300</v>
       </c>
       <c r="F81" s="3">
-        <v>383400</v>
+        <v>303900</v>
       </c>
       <c r="G81" s="3">
-        <v>431400</v>
+        <v>397400</v>
       </c>
       <c r="H81" s="3">
-        <v>276200</v>
+        <v>447200</v>
       </c>
       <c r="I81" s="3">
-        <v>406300</v>
+        <v>286300</v>
       </c>
       <c r="J81" s="3">
+        <v>421200</v>
+      </c>
+      <c r="K81" s="3">
         <v>387900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>431600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>312400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>234600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>542200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>427200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>134300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>356100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>341700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>357200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>257500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>147100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>484600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>245000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>396000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>484100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>393400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>253600</v>
+        <v>263900</v>
       </c>
       <c r="E83" s="3">
-        <v>248700</v>
+        <v>262900</v>
       </c>
       <c r="F83" s="3">
-        <v>250000</v>
+        <v>257800</v>
       </c>
       <c r="G83" s="3">
-        <v>232000</v>
+        <v>259200</v>
       </c>
       <c r="H83" s="3">
-        <v>239100</v>
+        <v>240500</v>
       </c>
       <c r="I83" s="3">
-        <v>221900</v>
+        <v>247800</v>
       </c>
       <c r="J83" s="3">
+        <v>230000</v>
+      </c>
+      <c r="K83" s="3">
         <v>230700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>225400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>235200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>255400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>271700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>285100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>280200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>275000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>330200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>311100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>307000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>284100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>293600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>305100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>279200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>277600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>277400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>242800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>283300</v>
+        <v>62800</v>
       </c>
       <c r="E89" s="3">
-        <v>104400</v>
+        <v>293700</v>
       </c>
       <c r="F89" s="3">
-        <v>783100</v>
+        <v>108200</v>
       </c>
       <c r="G89" s="3">
-        <v>465500</v>
+        <v>811800</v>
       </c>
       <c r="H89" s="3">
-        <v>371300</v>
+        <v>482600</v>
       </c>
       <c r="I89" s="3">
-        <v>676700</v>
+        <v>385000</v>
       </c>
       <c r="J89" s="3">
+        <v>701500</v>
+      </c>
+      <c r="K89" s="3">
         <v>910700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>717200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>733300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>856700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>821700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>451600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>993100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1016600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>560200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-16600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>790800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>958700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>404200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>159000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>844200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>874800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>444300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-472100</v>
+        <v>-532500</v>
       </c>
       <c r="E91" s="3">
-        <v>-368500</v>
+        <v>-489400</v>
       </c>
       <c r="F91" s="3">
-        <v>-249500</v>
+        <v>-382000</v>
       </c>
       <c r="G91" s="3">
-        <v>-230300</v>
+        <v>-258700</v>
       </c>
       <c r="H91" s="3">
-        <v>-219300</v>
+        <v>-238700</v>
       </c>
       <c r="I91" s="3">
-        <v>-194600</v>
+        <v>-227300</v>
       </c>
       <c r="J91" s="3">
+        <v>-201800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-192600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-174800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-202500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-196600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-175400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-197200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-226500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-169200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-206100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-166600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-144300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-134100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-132800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-161000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-156000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-120800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-231900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>256900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-575000</v>
+        <v>-461900</v>
       </c>
       <c r="E94" s="3">
-        <v>-581600</v>
+        <v>-596100</v>
       </c>
       <c r="F94" s="3">
-        <v>-271600</v>
+        <v>-602900</v>
       </c>
       <c r="G94" s="3">
-        <v>-226200</v>
+        <v>-281600</v>
       </c>
       <c r="H94" s="3">
-        <v>-329400</v>
+        <v>-234500</v>
       </c>
       <c r="I94" s="3">
-        <v>-261300</v>
+        <v>-341500</v>
       </c>
       <c r="J94" s="3">
+        <v>-270900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1414200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-130100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-223200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-286000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-374000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-354400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-266300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-472700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-272000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-237200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-967300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>541500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>68900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-277700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-448100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-286800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-176900</v>
       </c>
       <c r="E96" s="3">
-        <v>-156300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-162000</v>
       </c>
       <c r="G96" s="3">
-        <v>-156300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-162000</v>
       </c>
       <c r="I96" s="3">
-        <v>-148800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-154300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-139200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-162000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-177200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-150000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-163700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-146700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-148200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-138500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-137700</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-377300</v>
+        <v>-480100</v>
       </c>
       <c r="E100" s="3">
-        <v>689400</v>
+        <v>-391100</v>
       </c>
       <c r="F100" s="3">
-        <v>-193600</v>
+        <v>714600</v>
       </c>
       <c r="G100" s="3">
-        <v>-353800</v>
+        <v>-200700</v>
       </c>
       <c r="H100" s="3">
-        <v>-31700</v>
+        <v>-366800</v>
       </c>
       <c r="I100" s="3">
-        <v>-166600</v>
+        <v>-32900</v>
       </c>
       <c r="J100" s="3">
+        <v>-172700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-322200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-316000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>39200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-678800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-889700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>171400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-194400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-484300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>245200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-993500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-229600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-328100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-788100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-959700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-266900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1700900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-500500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22700</v>
+        <v>-69400</v>
       </c>
       <c r="E101" s="3">
-        <v>154500</v>
+        <v>23600</v>
       </c>
       <c r="F101" s="3">
-        <v>116600</v>
+        <v>160200</v>
       </c>
       <c r="G101" s="3">
-        <v>54700</v>
+        <v>120900</v>
       </c>
       <c r="H101" s="3">
-        <v>4600</v>
+        <v>56700</v>
       </c>
       <c r="I101" s="3">
-        <v>10700</v>
+        <v>4700</v>
       </c>
       <c r="J101" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K101" s="3">
         <v>116800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-99200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>99400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-95600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-61900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>61900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-117200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>38500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>60700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>34300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-67600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>269600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-646300</v>
+        <v>-948600</v>
       </c>
       <c r="E102" s="3">
-        <v>366700</v>
+        <v>-670000</v>
       </c>
       <c r="F102" s="3">
-        <v>434500</v>
+        <v>380200</v>
       </c>
       <c r="G102" s="3">
-        <v>-59700</v>
+        <v>450400</v>
       </c>
       <c r="H102" s="3">
-        <v>14800</v>
+        <v>-61900</v>
       </c>
       <c r="I102" s="3">
-        <v>259500</v>
+        <v>15300</v>
       </c>
       <c r="J102" s="3">
+        <v>269000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-708800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>272900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>555200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-83800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-541200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-683600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>436800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>471500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-403000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1054900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-276500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-728700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2060000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-56300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5470800</v>
+        <v>5514100</v>
       </c>
       <c r="E8" s="3">
-        <v>5321900</v>
+        <v>5366600</v>
       </c>
       <c r="F8" s="3">
-        <v>4600100</v>
+        <v>5220600</v>
       </c>
       <c r="G8" s="3">
-        <v>4886800</v>
+        <v>4512500</v>
       </c>
       <c r="H8" s="3">
-        <v>4819900</v>
+        <v>4793700</v>
       </c>
       <c r="I8" s="3">
-        <v>4575200</v>
+        <v>4728100</v>
       </c>
       <c r="J8" s="3">
+        <v>4488100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4282500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4389300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4222400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4215300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3892000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5169200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5432000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5484700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4903600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6070400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6026200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5841400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5134900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5669300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5620600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5572700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5166300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5492800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5132600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3257900</v>
+        <v>3378900</v>
       </c>
       <c r="E9" s="3">
-        <v>3217900</v>
+        <v>3195900</v>
       </c>
       <c r="F9" s="3">
-        <v>2729900</v>
+        <v>3156600</v>
       </c>
       <c r="G9" s="3">
-        <v>3058700</v>
+        <v>2677900</v>
       </c>
       <c r="H9" s="3">
-        <v>2775500</v>
+        <v>3000400</v>
       </c>
       <c r="I9" s="3">
-        <v>2710600</v>
+        <v>2722700</v>
       </c>
       <c r="J9" s="3">
+        <v>2659000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2425400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2838400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2362800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2580900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2293200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3130300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3159200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3231600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2811300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3734400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3455200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3427600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2992100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3832100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3631400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3695600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3077700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3267700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3036000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2212900</v>
+        <v>2135200</v>
       </c>
       <c r="E10" s="3">
-        <v>2104000</v>
+        <v>2170700</v>
       </c>
       <c r="F10" s="3">
-        <v>1870200</v>
+        <v>2064000</v>
       </c>
       <c r="G10" s="3">
-        <v>1828100</v>
+        <v>1834600</v>
       </c>
       <c r="H10" s="3">
-        <v>2044400</v>
+        <v>1793300</v>
       </c>
       <c r="I10" s="3">
-        <v>1864600</v>
+        <v>2005400</v>
       </c>
       <c r="J10" s="3">
+        <v>1829100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1857100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1551000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1859600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1634400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1598800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2038900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2272800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2253100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2092300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2336000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2571000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2413900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2142700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1837200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1989100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1877100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2088600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2225200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2096500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1068,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>282500</v>
+        <v>282700</v>
       </c>
       <c r="E12" s="3">
-        <v>286200</v>
+        <v>277100</v>
       </c>
       <c r="F12" s="3">
-        <v>276200</v>
+        <v>280700</v>
       </c>
       <c r="G12" s="3">
-        <v>283600</v>
+        <v>270900</v>
       </c>
       <c r="H12" s="3">
-        <v>265800</v>
+        <v>278200</v>
       </c>
       <c r="I12" s="3">
-        <v>283800</v>
+        <v>260700</v>
       </c>
       <c r="J12" s="3">
+        <v>278400</v>
+      </c>
+      <c r="K12" s="3">
         <v>273100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>293500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>266400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>296100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>310500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>351400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>349000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>374200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>356900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>387500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>349000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>378100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>364900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>454200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>351000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>375500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>336800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>366000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>346100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1238,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1308,8 +1324,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4869400</v>
+        <v>5006200</v>
       </c>
       <c r="E17" s="3">
-        <v>4798200</v>
+        <v>4776600</v>
       </c>
       <c r="F17" s="3">
-        <v>4235900</v>
+        <v>4706800</v>
       </c>
       <c r="G17" s="3">
-        <v>4568900</v>
+        <v>4155200</v>
       </c>
       <c r="H17" s="3">
-        <v>4242300</v>
+        <v>4481900</v>
       </c>
       <c r="I17" s="3">
-        <v>4196400</v>
+        <v>4161400</v>
       </c>
       <c r="J17" s="3">
+        <v>4116500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3868600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4070200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3753300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3934200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3718100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4861400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4889000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4979900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4563600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5575700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5311000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5389100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4799900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5667700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5161200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5226700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4842300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4977100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4680500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>601400</v>
+        <v>507900</v>
       </c>
       <c r="E18" s="3">
-        <v>523800</v>
+        <v>590000</v>
       </c>
       <c r="F18" s="3">
-        <v>364200</v>
+        <v>513800</v>
       </c>
       <c r="G18" s="3">
-        <v>317900</v>
+        <v>357300</v>
       </c>
       <c r="H18" s="3">
-        <v>577600</v>
+        <v>311800</v>
       </c>
       <c r="I18" s="3">
-        <v>378800</v>
+        <v>566600</v>
       </c>
       <c r="J18" s="3">
+        <v>371600</v>
+      </c>
+      <c r="K18" s="3">
         <v>413900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>319100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>469100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>281100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>173900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>307800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>542900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>504800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>340000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>494700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>715100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>452400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>335000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>459300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>346000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>324000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>515700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>452000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-42800</v>
+        <v>68100</v>
       </c>
       <c r="E20" s="3">
-        <v>29500</v>
+        <v>-42000</v>
       </c>
       <c r="F20" s="3">
-        <v>47900</v>
+        <v>28900</v>
       </c>
       <c r="G20" s="3">
-        <v>78000</v>
+        <v>47000</v>
       </c>
       <c r="H20" s="3">
-        <v>-5000</v>
+        <v>76500</v>
       </c>
       <c r="I20" s="3">
-        <v>8300</v>
+        <v>-4900</v>
       </c>
       <c r="J20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>161700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>117800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>89100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>169900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>191000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-246800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>90700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>155000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-91600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>69400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-171100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>66600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>90000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>217700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>222800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>49400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>209800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>105300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>149000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>822500</v>
+        <v>831800</v>
       </c>
       <c r="E21" s="3">
-        <v>816100</v>
+        <v>806800</v>
       </c>
       <c r="F21" s="3">
-        <v>669900</v>
+        <v>800600</v>
       </c>
       <c r="G21" s="3">
-        <v>655000</v>
+        <v>657100</v>
       </c>
       <c r="H21" s="3">
-        <v>813100</v>
+        <v>642500</v>
       </c>
       <c r="I21" s="3">
-        <v>635000</v>
+        <v>797700</v>
       </c>
       <c r="J21" s="3">
+        <v>622900</v>
+      </c>
+      <c r="K21" s="3">
         <v>805700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>667600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>783600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>686200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>620400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>332700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>918700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>940000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>523400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>894300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>855100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>826000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>709100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>512800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>987300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>674700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>811400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>898400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>843800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>5500</v>
+        <v>17700</v>
       </c>
       <c r="E22" s="3">
-        <v>6900</v>
+        <v>5400</v>
       </c>
       <c r="F22" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="G22" s="3">
-        <v>4800</v>
+        <v>6300</v>
       </c>
       <c r="H22" s="3">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="I22" s="3">
         <v>4100</v>
       </c>
       <c r="J22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>7800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>14200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>553100</v>
+        <v>558300</v>
       </c>
       <c r="E23" s="3">
-        <v>546400</v>
+        <v>542600</v>
       </c>
       <c r="F23" s="3">
-        <v>405700</v>
+        <v>536000</v>
       </c>
       <c r="G23" s="3">
-        <v>391100</v>
+        <v>398000</v>
       </c>
       <c r="H23" s="3">
-        <v>568400</v>
+        <v>383600</v>
       </c>
       <c r="I23" s="3">
-        <v>383100</v>
+        <v>557600</v>
       </c>
       <c r="J23" s="3">
+        <v>375800</v>
+      </c>
+      <c r="K23" s="3">
         <v>571700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>432800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>551600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>446900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>360000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>628600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>653800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>241800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>559300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>535600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>509700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>416300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>211500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>672300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>384600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>520900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>608600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>586900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>135400</v>
+        <v>85100</v>
       </c>
       <c r="E24" s="3">
-        <v>141600</v>
+        <v>132800</v>
       </c>
       <c r="F24" s="3">
-        <v>115500</v>
+        <v>138900</v>
       </c>
       <c r="G24" s="3">
+        <v>113300</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>153500</v>
-      </c>
       <c r="I24" s="3">
-        <v>97000</v>
+        <v>150600</v>
       </c>
       <c r="J24" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K24" s="3">
         <v>169300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>129000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>122200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>110200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>73700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>164600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>64400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>165400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>147300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>96100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>122900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>125700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>158200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>116300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>92500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>63400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>162800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>417700</v>
+        <v>473300</v>
       </c>
       <c r="E26" s="3">
-        <v>404800</v>
+        <v>409700</v>
       </c>
       <c r="F26" s="3">
-        <v>290200</v>
+        <v>397000</v>
       </c>
       <c r="G26" s="3">
-        <v>391000</v>
+        <v>284700</v>
       </c>
       <c r="H26" s="3">
-        <v>414900</v>
+        <v>383600</v>
       </c>
       <c r="I26" s="3">
-        <v>286100</v>
+        <v>407000</v>
       </c>
       <c r="J26" s="3">
+        <v>280600</v>
+      </c>
+      <c r="K26" s="3">
         <v>402400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>366100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>422600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>324700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>249800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>554800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>489100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>177300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>393900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>388300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>413500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>293400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>85800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>514100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>268300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>428400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>545200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>424100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>430200</v>
+        <v>473300</v>
       </c>
       <c r="E27" s="3">
-        <v>395300</v>
+        <v>422000</v>
       </c>
       <c r="F27" s="3">
-        <v>303900</v>
+        <v>387700</v>
       </c>
       <c r="G27" s="3">
-        <v>397400</v>
+        <v>298100</v>
       </c>
       <c r="H27" s="3">
-        <v>447200</v>
+        <v>389900</v>
       </c>
       <c r="I27" s="3">
-        <v>286300</v>
+        <v>438700</v>
       </c>
       <c r="J27" s="3">
+        <v>280800</v>
+      </c>
+      <c r="K27" s="3">
         <v>421200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>387900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>431600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>312400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>234600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>542200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>427200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>134300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>356100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>341700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>357200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>257500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>147100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>484600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>245000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>396000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>484100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>393400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>42800</v>
+        <v>-68100</v>
       </c>
       <c r="E32" s="3">
-        <v>-29500</v>
+        <v>42000</v>
       </c>
       <c r="F32" s="3">
-        <v>-47900</v>
+        <v>-28900</v>
       </c>
       <c r="G32" s="3">
-        <v>-78000</v>
+        <v>-47000</v>
       </c>
       <c r="H32" s="3">
-        <v>5000</v>
+        <v>-76500</v>
       </c>
       <c r="I32" s="3">
-        <v>-8300</v>
+        <v>4900</v>
       </c>
       <c r="J32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-161700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-117800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-89100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-169900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-191000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>246800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-90700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-155000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>91600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-69400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>171100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-66600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-90000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-217700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-222800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-49400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-209800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-105300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-149000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>430200</v>
+        <v>473300</v>
       </c>
       <c r="E33" s="3">
-        <v>395300</v>
+        <v>422000</v>
       </c>
       <c r="F33" s="3">
-        <v>303900</v>
+        <v>387700</v>
       </c>
       <c r="G33" s="3">
-        <v>397400</v>
+        <v>298100</v>
       </c>
       <c r="H33" s="3">
-        <v>447200</v>
+        <v>389900</v>
       </c>
       <c r="I33" s="3">
-        <v>286300</v>
+        <v>438700</v>
       </c>
       <c r="J33" s="3">
+        <v>280800</v>
+      </c>
+      <c r="K33" s="3">
         <v>421200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>387900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>431600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>312400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>234600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>542200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>427200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>134300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>356100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>341700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>357200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>257500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>147100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>484600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>245000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>396000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>484100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>393400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>430200</v>
+        <v>473300</v>
       </c>
       <c r="E35" s="3">
-        <v>395300</v>
+        <v>422000</v>
       </c>
       <c r="F35" s="3">
-        <v>303900</v>
+        <v>387700</v>
       </c>
       <c r="G35" s="3">
-        <v>397400</v>
+        <v>298100</v>
       </c>
       <c r="H35" s="3">
-        <v>447200</v>
+        <v>389900</v>
       </c>
       <c r="I35" s="3">
-        <v>286300</v>
+        <v>438700</v>
       </c>
       <c r="J35" s="3">
+        <v>280800</v>
+      </c>
+      <c r="K35" s="3">
         <v>421200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>387900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>431600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>312400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>234600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>542200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>427200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>134300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>356100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>341700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>357200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>257500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>147100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>484600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>245000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>396000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>484100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>393400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,91 +3176,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2336100</v>
+        <v>1936700</v>
       </c>
       <c r="E41" s="3">
-        <v>3284700</v>
+        <v>2291600</v>
       </c>
       <c r="F41" s="3">
-        <v>3954700</v>
+        <v>3222100</v>
       </c>
       <c r="G41" s="3">
-        <v>3574500</v>
+        <v>3879400</v>
       </c>
       <c r="H41" s="3">
-        <v>3124100</v>
+        <v>3506400</v>
       </c>
       <c r="I41" s="3">
-        <v>3186000</v>
+        <v>3064600</v>
       </c>
       <c r="J41" s="3">
+        <v>3125400</v>
+      </c>
+      <c r="K41" s="3">
         <v>3170700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2799100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3626600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3564200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3294800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3489600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4168000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5771700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6434200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6292100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6243000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5771500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6580400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6983400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5895800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6172300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7190000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7769700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5709700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3236,613 +3322,637 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>27600</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>54700</v>
       </c>
       <c r="Z42" s="3">
         <v>54700</v>
       </c>
       <c r="AA42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="AB42" s="3">
         <v>53600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>26600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4822500</v>
+        <v>4564300</v>
       </c>
       <c r="E43" s="3">
-        <v>4592000</v>
+        <v>4730700</v>
       </c>
       <c r="F43" s="3">
-        <v>4429300</v>
+        <v>4504600</v>
       </c>
       <c r="G43" s="3">
-        <v>4400000</v>
+        <v>4344900</v>
       </c>
       <c r="H43" s="3">
-        <v>4259400</v>
+        <v>4316200</v>
       </c>
       <c r="I43" s="3">
-        <v>4018200</v>
+        <v>4178300</v>
       </c>
       <c r="J43" s="3">
+        <v>3941700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3936000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4294500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3884900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3872500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3948500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4919700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5207200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4961300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4783200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5937000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5728800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5629800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5106600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5627200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5700700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5684900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5386900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5639400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5504800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4564600</v>
+        <v>4090200</v>
       </c>
       <c r="E44" s="3">
-        <v>4605000</v>
+        <v>4477700</v>
       </c>
       <c r="F44" s="3">
-        <v>4344900</v>
+        <v>4517200</v>
       </c>
       <c r="G44" s="3">
-        <v>3707800</v>
+        <v>4262100</v>
       </c>
       <c r="H44" s="3">
-        <v>3578500</v>
+        <v>3637200</v>
       </c>
       <c r="I44" s="3">
-        <v>3402900</v>
+        <v>3510300</v>
       </c>
       <c r="J44" s="3">
+        <v>3338100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3366300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2961200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2982500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3163000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3636700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3355800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3747200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3664800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3649600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3598500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3875400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3879600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3580200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3284400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3610900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3538100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3539000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3009100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3299400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1186200</v>
+        <v>1169100</v>
       </c>
       <c r="E45" s="3">
-        <v>1205300</v>
+        <v>1163600</v>
       </c>
       <c r="F45" s="3">
-        <v>1182900</v>
+        <v>1182300</v>
       </c>
       <c r="G45" s="3">
-        <v>994500</v>
+        <v>1160400</v>
       </c>
       <c r="H45" s="3">
-        <v>980700</v>
+        <v>975500</v>
       </c>
       <c r="I45" s="3">
-        <v>1011800</v>
+        <v>962000</v>
       </c>
       <c r="J45" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K45" s="3">
         <v>892000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>632400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>678200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>757400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1416200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1354800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1398600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>838100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>933200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>806400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>928700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>969300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1244900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1019400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1182600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1199300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1194300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1576900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1208300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12909500</v>
+        <v>11760300</v>
       </c>
       <c r="E46" s="3">
-        <v>13687000</v>
+        <v>12663600</v>
       </c>
       <c r="F46" s="3">
-        <v>13911800</v>
+        <v>13426300</v>
       </c>
       <c r="G46" s="3">
-        <v>12676800</v>
+        <v>13646800</v>
       </c>
       <c r="H46" s="3">
-        <v>11942700</v>
+        <v>12435300</v>
       </c>
       <c r="I46" s="3">
-        <v>11618900</v>
+        <v>11715200</v>
       </c>
       <c r="J46" s="3">
+        <v>11397600</v>
+      </c>
+      <c r="K46" s="3">
         <v>11365000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10687300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11172300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11357100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12296200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13119900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14521100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15235900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15800200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16634000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16775900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16250200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16512000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16914700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16417600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16649400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17364900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>18048700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>15748800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1435000</v>
+        <v>1362000</v>
       </c>
       <c r="E47" s="3">
-        <v>1565800</v>
+        <v>1407600</v>
       </c>
       <c r="F47" s="3">
-        <v>1684600</v>
+        <v>1536000</v>
       </c>
       <c r="G47" s="3">
-        <v>1698200</v>
+        <v>1652500</v>
       </c>
       <c r="H47" s="3">
-        <v>1690800</v>
+        <v>1665800</v>
       </c>
       <c r="I47" s="3">
-        <v>1783900</v>
+        <v>1658600</v>
       </c>
       <c r="J47" s="3">
+        <v>1749900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1803800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1615300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1561500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1732900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1826100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1789600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2109300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2082200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2037500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2303400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2128200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2236700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2099400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2173900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2715900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2812500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2751100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2656900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3052200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7154900</v>
+        <v>7631000</v>
       </c>
       <c r="E48" s="3">
-        <v>6999200</v>
+        <v>7018600</v>
       </c>
       <c r="F48" s="3">
-        <v>6558300</v>
+        <v>6865900</v>
       </c>
       <c r="G48" s="3">
-        <v>6028700</v>
+        <v>6433300</v>
       </c>
       <c r="H48" s="3">
-        <v>5531700</v>
+        <v>5913800</v>
       </c>
       <c r="I48" s="3">
-        <v>5377800</v>
+        <v>5426300</v>
       </c>
       <c r="J48" s="3">
+        <v>5275300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5310900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5058400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5067400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5347800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5816900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5953900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6117700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6095400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4746100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5062500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5005900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5100000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4837700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4886300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4945600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4976300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4989300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4617800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4663300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7300000</v>
+        <v>7228500</v>
       </c>
       <c r="E49" s="3">
-        <v>7573800</v>
+        <v>7160900</v>
       </c>
       <c r="F49" s="3">
-        <v>7479800</v>
+        <v>7429500</v>
       </c>
       <c r="G49" s="3">
-        <v>7178700</v>
+        <v>7337400</v>
       </c>
       <c r="H49" s="3">
-        <v>6915700</v>
+        <v>7042000</v>
       </c>
       <c r="I49" s="3">
-        <v>6848900</v>
+        <v>6784000</v>
       </c>
       <c r="J49" s="3">
+        <v>6718400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6862400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6612800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6021500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6431100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7085000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7305500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7664500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7549100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7199300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7693000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7718000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7845000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7296200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6533000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6655900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6660900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6641100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5111600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5222000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1692400</v>
+        <v>1826600</v>
       </c>
       <c r="E52" s="3">
-        <v>1680200</v>
+        <v>1660200</v>
       </c>
       <c r="F52" s="3">
-        <v>1579600</v>
+        <v>1648200</v>
       </c>
       <c r="G52" s="3">
-        <v>1489000</v>
+        <v>1549600</v>
       </c>
       <c r="H52" s="3">
-        <v>1305400</v>
+        <v>1460600</v>
       </c>
       <c r="I52" s="3">
-        <v>1266400</v>
+        <v>1280500</v>
       </c>
       <c r="J52" s="3">
+        <v>1242300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1272300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1190100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>878700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>902100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>972700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1095300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1025100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1025800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1798500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1122200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1174500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1234000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1142500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1242900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1181200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1180500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1225800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>904300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>879100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30491700</v>
+        <v>29808400</v>
       </c>
       <c r="E54" s="3">
-        <v>31506000</v>
+        <v>29910900</v>
       </c>
       <c r="F54" s="3">
-        <v>31214100</v>
+        <v>30905900</v>
       </c>
       <c r="G54" s="3">
-        <v>29071300</v>
+        <v>30619600</v>
       </c>
       <c r="H54" s="3">
-        <v>27386200</v>
+        <v>28517600</v>
       </c>
       <c r="I54" s="3">
-        <v>26895900</v>
+        <v>26864600</v>
       </c>
       <c r="J54" s="3">
+        <v>26383600</v>
+      </c>
+      <c r="K54" s="3">
         <v>26614500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25163800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24701500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25770900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27996900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29264100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31437700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31988400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31581600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32815200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32802600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32665900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31887700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31750800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>31916300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>32279500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>32972100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>31339400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>29565300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1943600</v>
+        <v>1785900</v>
       </c>
       <c r="E57" s="3">
-        <v>2076400</v>
+        <v>1906600</v>
       </c>
       <c r="F57" s="3">
-        <v>1887100</v>
+        <v>2036800</v>
       </c>
       <c r="G57" s="3">
-        <v>1847200</v>
+        <v>1851200</v>
       </c>
       <c r="H57" s="3">
-        <v>1701300</v>
+        <v>1812000</v>
       </c>
       <c r="I57" s="3">
-        <v>1634400</v>
+        <v>1668900</v>
       </c>
       <c r="J57" s="3">
+        <v>1603200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1649800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1551000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1396800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1401000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1541400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1735000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1980900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1825700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1817300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2043100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2091300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2125900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1998500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2066900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2047300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2039700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2089400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2110600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2016200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1258300</v>
+        <v>764900</v>
       </c>
       <c r="E58" s="3">
-        <v>1311600</v>
+        <v>1234400</v>
       </c>
       <c r="F58" s="3">
-        <v>1495400</v>
+        <v>1286600</v>
       </c>
       <c r="G58" s="3">
-        <v>1486200</v>
+        <v>1466900</v>
       </c>
       <c r="H58" s="3">
-        <v>930700</v>
+        <v>1457900</v>
       </c>
       <c r="I58" s="3">
-        <v>837200</v>
+        <v>912900</v>
       </c>
       <c r="J58" s="3">
+        <v>821200</v>
+      </c>
+      <c r="K58" s="3">
         <v>466900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>470400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>580900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>567700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>596600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1066000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2498700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1290600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1569800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1639300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>925600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>651400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>362700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>378800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>298400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>683500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1072600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1099900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1204700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3616000</v>
+        <v>3868400</v>
       </c>
       <c r="E59" s="3">
-        <v>3902200</v>
+        <v>3547200</v>
       </c>
       <c r="F59" s="3">
-        <v>3924400</v>
+        <v>3827800</v>
       </c>
       <c r="G59" s="3">
-        <v>3866500</v>
+        <v>3849600</v>
       </c>
       <c r="H59" s="3">
-        <v>3249300</v>
+        <v>3792800</v>
       </c>
       <c r="I59" s="3">
-        <v>3305200</v>
+        <v>3187400</v>
       </c>
       <c r="J59" s="3">
+        <v>3242200</v>
+      </c>
+      <c r="K59" s="3">
         <v>3149300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3057000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2597700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2655900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2899600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3013600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2873800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3064600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3055500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3066600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2777400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3004200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3459000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3592000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2659800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2918900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2901100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2822700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2545900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6818000</v>
+        <v>6419200</v>
       </c>
       <c r="E60" s="3">
-        <v>7290100</v>
+        <v>6688100</v>
       </c>
       <c r="F60" s="3">
-        <v>7306900</v>
+        <v>7151300</v>
       </c>
       <c r="G60" s="3">
-        <v>7199900</v>
+        <v>7167700</v>
       </c>
       <c r="H60" s="3">
-        <v>5881200</v>
+        <v>7062700</v>
       </c>
       <c r="I60" s="3">
-        <v>5776700</v>
+        <v>5769200</v>
       </c>
       <c r="J60" s="3">
+        <v>5666700</v>
+      </c>
+      <c r="K60" s="3">
         <v>5266000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5078500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4575300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4624600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5037700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5814700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7353500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6180800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6442600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6749000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5794300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5781500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5820200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6037700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5005500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5642100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6063100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6033200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5766900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2249500</v>
+        <v>1947100</v>
       </c>
       <c r="E61" s="3">
-        <v>2514800</v>
+        <v>2206700</v>
       </c>
       <c r="F61" s="3">
-        <v>2698600</v>
+        <v>2466900</v>
       </c>
       <c r="G61" s="3">
-        <v>1864100</v>
+        <v>2647200</v>
       </c>
       <c r="H61" s="3">
-        <v>2544200</v>
+        <v>1828600</v>
       </c>
       <c r="I61" s="3">
-        <v>2831200</v>
+        <v>2495700</v>
       </c>
       <c r="J61" s="3">
+        <v>2777300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3228600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3162700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3416600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3840900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4199500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4432900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3544500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3706300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3230300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3397500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4343600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3682800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3753100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3749600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3957200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3954200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4473500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3857100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2059100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1439900</v>
+        <v>1341600</v>
       </c>
       <c r="E62" s="3">
-        <v>1485900</v>
+        <v>1412500</v>
       </c>
       <c r="F62" s="3">
-        <v>1507000</v>
+        <v>1457600</v>
       </c>
       <c r="G62" s="3">
-        <v>1449000</v>
+        <v>1478300</v>
       </c>
       <c r="H62" s="3">
-        <v>1308400</v>
+        <v>1421400</v>
       </c>
       <c r="I62" s="3">
-        <v>1318600</v>
+        <v>1283400</v>
       </c>
       <c r="J62" s="3">
+        <v>1293500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1311200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1167700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1139200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1273400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1438900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1451500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1450100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1462500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1504700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1095900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1117900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1232000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1068700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1068200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1208300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1249400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1282400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1331500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1345000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10684700</v>
+        <v>9886100</v>
       </c>
       <c r="E66" s="3">
-        <v>11484100</v>
+        <v>10481200</v>
       </c>
       <c r="F66" s="3">
-        <v>11688600</v>
+        <v>11265300</v>
       </c>
       <c r="G66" s="3">
-        <v>10676800</v>
+        <v>11465900</v>
       </c>
       <c r="H66" s="3">
-        <v>9875800</v>
+        <v>10473400</v>
       </c>
       <c r="I66" s="3">
-        <v>10063600</v>
+        <v>9687700</v>
       </c>
       <c r="J66" s="3">
+        <v>9872000</v>
+      </c>
+      <c r="K66" s="3">
         <v>9937400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9533500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9447700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10077700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11040400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12056000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12708500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13278500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13058100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13240000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13187100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12636900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12636000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12851500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12264300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>13003500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13939800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13213000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11233800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22030000</v>
+        <v>18862700</v>
       </c>
       <c r="E72" s="3">
-        <v>21597300</v>
+        <v>21610400</v>
       </c>
       <c r="F72" s="3">
-        <v>21382700</v>
+        <v>21185900</v>
       </c>
       <c r="G72" s="3">
-        <v>21078700</v>
+        <v>20975400</v>
       </c>
       <c r="H72" s="3">
-        <v>20840700</v>
+        <v>20677200</v>
       </c>
       <c r="I72" s="3">
-        <v>20406000</v>
+        <v>20443800</v>
       </c>
       <c r="J72" s="3">
+        <v>20017300</v>
+      </c>
+      <c r="K72" s="3">
         <v>20286400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19162600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19562900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20330600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22080400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22580800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23484400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23428300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23104800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24099200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23909300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23567600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22110200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21668700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21549000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21064400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>20967600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20184800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>20233000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19807000</v>
+        <v>19922300</v>
       </c>
       <c r="E76" s="3">
-        <v>20021900</v>
+        <v>19429700</v>
       </c>
       <c r="F76" s="3">
-        <v>19525600</v>
+        <v>19640500</v>
       </c>
       <c r="G76" s="3">
-        <v>18394500</v>
+        <v>19153700</v>
       </c>
       <c r="H76" s="3">
-        <v>17510400</v>
+        <v>18044200</v>
       </c>
       <c r="I76" s="3">
-        <v>16832200</v>
+        <v>17176900</v>
       </c>
       <c r="J76" s="3">
+        <v>16511600</v>
+      </c>
+      <c r="K76" s="3">
         <v>16677200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15630400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15253800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15693300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16956400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17208200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18729200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18710000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18523500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19575200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19615500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20029000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19251700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18899300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19652000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19276000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19032300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18126400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18331500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>430200</v>
+        <v>473300</v>
       </c>
       <c r="E81" s="3">
-        <v>395300</v>
+        <v>422000</v>
       </c>
       <c r="F81" s="3">
-        <v>303900</v>
+        <v>387700</v>
       </c>
       <c r="G81" s="3">
-        <v>397400</v>
+        <v>298100</v>
       </c>
       <c r="H81" s="3">
-        <v>447200</v>
+        <v>389900</v>
       </c>
       <c r="I81" s="3">
-        <v>286300</v>
+        <v>438700</v>
       </c>
       <c r="J81" s="3">
+        <v>280800</v>
+      </c>
+      <c r="K81" s="3">
         <v>421200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>387900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>431600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>312400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>234600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>542200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>427200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>134300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>356100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>341700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>357200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>257500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>147100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>484600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>245000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>396000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>484100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>393400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>263900</v>
+        <v>255800</v>
       </c>
       <c r="E83" s="3">
-        <v>262900</v>
+        <v>258800</v>
       </c>
       <c r="F83" s="3">
-        <v>257800</v>
+        <v>257900</v>
       </c>
       <c r="G83" s="3">
-        <v>259200</v>
+        <v>252900</v>
       </c>
       <c r="H83" s="3">
-        <v>240500</v>
+        <v>254200</v>
       </c>
       <c r="I83" s="3">
-        <v>247800</v>
+        <v>235900</v>
       </c>
       <c r="J83" s="3">
+        <v>243100</v>
+      </c>
+      <c r="K83" s="3">
         <v>230000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>230700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>225400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>235200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>255400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>271700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>285100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>280200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>275000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>330200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>311100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>307000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>284100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>293600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>305100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>279200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>277600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>277400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>242800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62800</v>
+        <v>1061500</v>
       </c>
       <c r="E89" s="3">
-        <v>293700</v>
+        <v>61600</v>
       </c>
       <c r="F89" s="3">
-        <v>108200</v>
+        <v>288100</v>
       </c>
       <c r="G89" s="3">
-        <v>811800</v>
+        <v>106200</v>
       </c>
       <c r="H89" s="3">
-        <v>482600</v>
+        <v>796400</v>
       </c>
       <c r="I89" s="3">
-        <v>385000</v>
+        <v>473400</v>
       </c>
       <c r="J89" s="3">
+        <v>377600</v>
+      </c>
+      <c r="K89" s="3">
         <v>701500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>910700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>717200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>733300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>856700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>821700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>451600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>993100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1016600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>560200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-16600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>790800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>958700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>404200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>159000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>844200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>874800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>444300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-532500</v>
+        <v>-96830000</v>
       </c>
       <c r="E91" s="3">
-        <v>-489400</v>
+        <v>-80081000</v>
       </c>
       <c r="F91" s="3">
-        <v>-382000</v>
+        <v>-83312000</v>
       </c>
       <c r="G91" s="3">
-        <v>-258700</v>
+        <v>-63249000</v>
       </c>
       <c r="H91" s="3">
-        <v>-238700</v>
+        <v>-48088000</v>
       </c>
       <c r="I91" s="3">
-        <v>-227300</v>
+        <v>-41842000</v>
       </c>
       <c r="J91" s="3">
+        <v>-41566000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-201800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-192600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-174800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-202500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-196600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-175400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-197200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-226500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-169200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-206100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-166600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-144300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-134100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-132800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-161000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-156000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-120800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-231900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>256900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-461900</v>
+        <v>-701100</v>
       </c>
       <c r="E94" s="3">
-        <v>-596100</v>
+        <v>-453100</v>
       </c>
       <c r="F94" s="3">
-        <v>-602900</v>
+        <v>-584700</v>
       </c>
       <c r="G94" s="3">
-        <v>-281600</v>
+        <v>-591400</v>
       </c>
       <c r="H94" s="3">
-        <v>-234500</v>
+        <v>-276200</v>
       </c>
       <c r="I94" s="3">
-        <v>-341500</v>
+        <v>-230100</v>
       </c>
       <c r="J94" s="3">
+        <v>-335000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-270900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1414200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-130100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-223200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-286000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-374000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-354400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-266300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-472700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-272000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-237200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-967300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>541500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>68900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-277700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-448100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-286800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7415,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-176900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-173500</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-158900</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-158900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-154300</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-162000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-154300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-139200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-177200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-150000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-163700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-146700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-148200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-138500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-137700</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7757,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-480100</v>
+        <v>-738300</v>
       </c>
       <c r="E100" s="3">
-        <v>-391100</v>
+        <v>-470900</v>
       </c>
       <c r="F100" s="3">
-        <v>714600</v>
+        <v>-383700</v>
       </c>
       <c r="G100" s="3">
-        <v>-200700</v>
+        <v>701000</v>
       </c>
       <c r="H100" s="3">
-        <v>-366800</v>
+        <v>-196900</v>
       </c>
       <c r="I100" s="3">
-        <v>-32900</v>
+        <v>-359800</v>
       </c>
       <c r="J100" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-172700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-322200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-316000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-678800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-889700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>171400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-194400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-484300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>245200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-993500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-229600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-328100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-788100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-959700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-266900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1700900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-500500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-69400</v>
+        <v>23000</v>
       </c>
       <c r="E101" s="3">
-        <v>23600</v>
+        <v>-68100</v>
       </c>
       <c r="F101" s="3">
-        <v>160200</v>
+        <v>23100</v>
       </c>
       <c r="G101" s="3">
-        <v>120900</v>
+        <v>157200</v>
       </c>
       <c r="H101" s="3">
-        <v>56700</v>
+        <v>118600</v>
       </c>
       <c r="I101" s="3">
-        <v>4700</v>
+        <v>55700</v>
       </c>
       <c r="J101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K101" s="3">
         <v>11100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>116800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-99200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>99400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-71200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-95600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-61900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>61900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-117200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>38500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>60700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>34300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-67600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>269600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-948600</v>
+        <v>-355000</v>
       </c>
       <c r="E102" s="3">
-        <v>-670000</v>
+        <v>-930500</v>
       </c>
       <c r="F102" s="3">
-        <v>380200</v>
+        <v>-657200</v>
       </c>
       <c r="G102" s="3">
-        <v>450400</v>
+        <v>372900</v>
       </c>
       <c r="H102" s="3">
-        <v>-61900</v>
+        <v>441800</v>
       </c>
       <c r="I102" s="3">
-        <v>15300</v>
+        <v>-60800</v>
       </c>
       <c r="J102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K102" s="3">
         <v>269000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-708800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>272900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>555200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-83800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-541200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-683600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>436800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>49100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>471500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-403000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1054900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-276500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-728700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2060000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-56300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,393 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5514100</v>
+        <v>4539400</v>
       </c>
       <c r="E8" s="3">
-        <v>5366600</v>
+        <v>5254000</v>
       </c>
       <c r="F8" s="3">
-        <v>5220600</v>
+        <v>5113500</v>
       </c>
       <c r="G8" s="3">
-        <v>4512500</v>
+        <v>4974400</v>
       </c>
       <c r="H8" s="3">
-        <v>4793700</v>
+        <v>4299700</v>
       </c>
       <c r="I8" s="3">
-        <v>4728100</v>
+        <v>4567700</v>
       </c>
       <c r="J8" s="3">
+        <v>4505100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4488100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4282500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4389300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4222400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4215300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3892000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5169200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5432000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5484700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4903600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6070400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6026200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5841400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5134900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5669300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5620600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5572700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5166300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5492800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5132600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3378900</v>
+        <v>2731400</v>
       </c>
       <c r="E9" s="3">
-        <v>3195900</v>
+        <v>3219500</v>
       </c>
       <c r="F9" s="3">
-        <v>3156600</v>
+        <v>3045200</v>
       </c>
       <c r="G9" s="3">
-        <v>2677900</v>
+        <v>3007700</v>
       </c>
       <c r="H9" s="3">
-        <v>3000400</v>
+        <v>2551600</v>
       </c>
       <c r="I9" s="3">
-        <v>2722700</v>
+        <v>2858900</v>
       </c>
       <c r="J9" s="3">
+        <v>2594300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2659000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2425400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2838400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2362800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2580900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2293200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3130300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3159200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3231600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2811300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3734400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3455200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3427600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2992100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3832100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3631400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3695600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3077700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3267700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3036000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2135200</v>
+        <v>1808000</v>
       </c>
       <c r="E10" s="3">
-        <v>2170700</v>
+        <v>2034500</v>
       </c>
       <c r="F10" s="3">
-        <v>2064000</v>
+        <v>2068400</v>
       </c>
       <c r="G10" s="3">
-        <v>1834600</v>
+        <v>1966600</v>
       </c>
       <c r="H10" s="3">
-        <v>1793300</v>
+        <v>1748100</v>
       </c>
       <c r="I10" s="3">
-        <v>2005400</v>
+        <v>1708700</v>
       </c>
       <c r="J10" s="3">
+        <v>1910900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1829100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1857100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1551000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1859600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1634400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1598800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2038900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2272800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2253100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2092300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2336000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2571000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2413900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2142700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1837200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1989100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1877100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2088600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2225200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2096500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,94 +1082,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>282700</v>
+        <v>265400</v>
       </c>
       <c r="E12" s="3">
-        <v>277100</v>
+        <v>269400</v>
       </c>
       <c r="F12" s="3">
-        <v>280700</v>
+        <v>264000</v>
       </c>
       <c r="G12" s="3">
-        <v>270900</v>
+        <v>267500</v>
       </c>
       <c r="H12" s="3">
-        <v>278200</v>
+        <v>258100</v>
       </c>
       <c r="I12" s="3">
-        <v>260700</v>
+        <v>265100</v>
       </c>
       <c r="J12" s="3">
+        <v>248400</v>
+      </c>
+      <c r="K12" s="3">
         <v>278400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>273100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>293500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>266400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>296100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>310500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>351400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>349000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>374200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>356900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>387500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>349000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>378100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>364900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>454200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>351000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>375500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>336800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>366000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>346100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,8 +1258,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1327,8 +1347,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1413,8 +1436,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5006200</v>
+        <v>4180700</v>
       </c>
       <c r="E17" s="3">
-        <v>4776600</v>
+        <v>4770100</v>
       </c>
       <c r="F17" s="3">
-        <v>4706800</v>
+        <v>4551400</v>
       </c>
       <c r="G17" s="3">
-        <v>4155200</v>
+        <v>4484800</v>
       </c>
       <c r="H17" s="3">
-        <v>4481900</v>
+        <v>3959200</v>
       </c>
       <c r="I17" s="3">
-        <v>4161400</v>
+        <v>4270500</v>
       </c>
       <c r="J17" s="3">
+        <v>3965200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4116500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3868600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4070200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3753300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3934200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3718100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4861400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4889000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4979900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4563600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5575700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5311000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5389100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4799900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5667700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5161200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5226700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4842300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4977100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4680500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>507900</v>
+        <v>358700</v>
       </c>
       <c r="E18" s="3">
-        <v>590000</v>
+        <v>483900</v>
       </c>
       <c r="F18" s="3">
-        <v>513800</v>
+        <v>562200</v>
       </c>
       <c r="G18" s="3">
-        <v>357300</v>
+        <v>489600</v>
       </c>
       <c r="H18" s="3">
-        <v>311800</v>
+        <v>340400</v>
       </c>
       <c r="I18" s="3">
-        <v>566600</v>
+        <v>297100</v>
       </c>
       <c r="J18" s="3">
+        <v>539900</v>
+      </c>
+      <c r="K18" s="3">
         <v>371600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>413900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>319100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>469100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>281100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>173900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>307800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>542900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>504800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>340000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>494700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>715100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>452400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>335000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>459300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>346000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>324000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>515700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>452000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1646,438 +1679,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>68100</v>
+        <v>132200</v>
       </c>
       <c r="E20" s="3">
-        <v>-42000</v>
+        <v>64900</v>
       </c>
       <c r="F20" s="3">
-        <v>28900</v>
+        <v>-40000</v>
       </c>
       <c r="G20" s="3">
-        <v>47000</v>
+        <v>27600</v>
       </c>
       <c r="H20" s="3">
-        <v>76500</v>
+        <v>44800</v>
       </c>
       <c r="I20" s="3">
-        <v>-4900</v>
+        <v>72900</v>
       </c>
       <c r="J20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K20" s="3">
         <v>8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>161700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>117800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>89100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>169900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>191000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-246800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>90700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>155000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-91600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>69400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-171100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>66600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>90000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>217700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>222800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>49400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>209800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>105300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>149000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>831800</v>
+        <v>737900</v>
       </c>
       <c r="E21" s="3">
-        <v>806800</v>
+        <v>792600</v>
       </c>
       <c r="F21" s="3">
-        <v>800600</v>
+        <v>768800</v>
       </c>
       <c r="G21" s="3">
-        <v>657100</v>
+        <v>762800</v>
       </c>
       <c r="H21" s="3">
-        <v>642500</v>
+        <v>626100</v>
       </c>
       <c r="I21" s="3">
-        <v>797700</v>
+        <v>612200</v>
       </c>
       <c r="J21" s="3">
+        <v>760000</v>
+      </c>
+      <c r="K21" s="3">
         <v>622900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>805700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>667600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>783600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>686200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>620400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>332700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>918700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>940000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>523400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>894300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>855100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>826000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>709100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>512800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>987300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>674700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>811400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>898400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>843800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>17700</v>
+        <v>14800</v>
       </c>
       <c r="E22" s="3">
-        <v>5400</v>
+        <v>16800</v>
       </c>
       <c r="F22" s="3">
-        <v>6700</v>
+        <v>5200</v>
       </c>
       <c r="G22" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H22" s="3">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="I22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T22" s="3">
         <v>6600</v>
       </c>
-      <c r="N22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>7800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>12400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>14200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>558300</v>
+        <v>476100</v>
       </c>
       <c r="E23" s="3">
-        <v>542600</v>
+        <v>532000</v>
       </c>
       <c r="F23" s="3">
-        <v>536000</v>
+        <v>517000</v>
       </c>
       <c r="G23" s="3">
-        <v>398000</v>
+        <v>510700</v>
       </c>
       <c r="H23" s="3">
-        <v>383600</v>
+        <v>379200</v>
       </c>
       <c r="I23" s="3">
-        <v>557600</v>
+        <v>365500</v>
       </c>
       <c r="J23" s="3">
+        <v>531300</v>
+      </c>
+      <c r="K23" s="3">
         <v>375800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>571700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>432800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>551600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>446900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>360000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>628600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>653800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>241800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>559300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>535600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>509700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>416300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>211500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>672300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>384600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>520900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>608600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>586900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>85100</v>
+        <v>114300</v>
       </c>
       <c r="E24" s="3">
-        <v>132800</v>
+        <v>81000</v>
       </c>
       <c r="F24" s="3">
-        <v>138900</v>
+        <v>126600</v>
       </c>
       <c r="G24" s="3">
-        <v>113300</v>
+        <v>132400</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>108000</v>
       </c>
       <c r="I24" s="3">
-        <v>150600</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>143500</v>
+      </c>
+      <c r="K24" s="3">
         <v>95200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>169300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>129000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>122200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>110200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>73700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>164600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>64400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>165400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>147300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>96100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>122900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>125700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>158200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>116300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>92500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>63400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>162800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2162,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>473300</v>
+        <v>361800</v>
       </c>
       <c r="E26" s="3">
-        <v>409700</v>
+        <v>450900</v>
       </c>
       <c r="F26" s="3">
-        <v>397000</v>
+        <v>390400</v>
       </c>
       <c r="G26" s="3">
-        <v>284700</v>
+        <v>378300</v>
       </c>
       <c r="H26" s="3">
-        <v>383600</v>
+        <v>271200</v>
       </c>
       <c r="I26" s="3">
-        <v>407000</v>
+        <v>365500</v>
       </c>
       <c r="J26" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K26" s="3">
         <v>280600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>402400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>366100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>422600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>324700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>249800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>554800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>489100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>177300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>393900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>388300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>413500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>293400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>85800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>514100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>268300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>428400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>545200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>424100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>473300</v>
+        <v>373600</v>
       </c>
       <c r="E27" s="3">
-        <v>422000</v>
+        <v>451000</v>
       </c>
       <c r="F27" s="3">
-        <v>387700</v>
+        <v>402100</v>
       </c>
       <c r="G27" s="3">
-        <v>298100</v>
+        <v>369500</v>
       </c>
       <c r="H27" s="3">
-        <v>389900</v>
+        <v>284100</v>
       </c>
       <c r="I27" s="3">
-        <v>438700</v>
+        <v>371500</v>
       </c>
       <c r="J27" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K27" s="3">
         <v>280800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>421200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>387900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>431600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>312400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>234600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>542200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>427200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>134300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>356100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>341700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>357200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>257500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>147100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>484600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>245000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>396000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>484100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>393400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2420,8 +2478,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2506,8 +2567,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2592,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2678,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-68100</v>
+        <v>-132200</v>
       </c>
       <c r="E32" s="3">
-        <v>42000</v>
+        <v>-64900</v>
       </c>
       <c r="F32" s="3">
-        <v>-28900</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="3">
-        <v>-47000</v>
+        <v>-27600</v>
       </c>
       <c r="H32" s="3">
-        <v>-76500</v>
+        <v>-44800</v>
       </c>
       <c r="I32" s="3">
-        <v>4900</v>
+        <v>-72900</v>
       </c>
       <c r="J32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-161700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-117800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-89100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-169900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-191000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>246800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-90700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-155000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>91600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-69400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>171100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-66600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-90000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-217700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-222800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-49400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-209800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-105300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-149000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>473300</v>
+        <v>373600</v>
       </c>
       <c r="E33" s="3">
-        <v>422000</v>
+        <v>451000</v>
       </c>
       <c r="F33" s="3">
-        <v>387700</v>
+        <v>402100</v>
       </c>
       <c r="G33" s="3">
-        <v>298100</v>
+        <v>369500</v>
       </c>
       <c r="H33" s="3">
-        <v>389900</v>
+        <v>284100</v>
       </c>
       <c r="I33" s="3">
-        <v>438700</v>
+        <v>371500</v>
       </c>
       <c r="J33" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K33" s="3">
         <v>280800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>421200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>387900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>431600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>312400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>234600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>542200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>427200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>134300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>356100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>341700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>357200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>257500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>147100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>484600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>245000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>396000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>484100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>393400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2936,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>473300</v>
+        <v>373600</v>
       </c>
       <c r="E35" s="3">
-        <v>422000</v>
+        <v>451000</v>
       </c>
       <c r="F35" s="3">
-        <v>387700</v>
+        <v>402100</v>
       </c>
       <c r="G35" s="3">
-        <v>298100</v>
+        <v>369500</v>
       </c>
       <c r="H35" s="3">
-        <v>389900</v>
+        <v>284100</v>
       </c>
       <c r="I35" s="3">
-        <v>438700</v>
+        <v>371500</v>
       </c>
       <c r="J35" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K35" s="3">
         <v>280800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>421200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>387900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>431600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>312400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>234600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>542200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>427200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>134300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>356100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>341700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>357200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>257500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>147100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>484600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>245000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>396000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>484100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>393400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3145,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3177,94 +3263,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1936700</v>
+        <v>1717700</v>
       </c>
       <c r="E41" s="3">
-        <v>2291600</v>
+        <v>1845300</v>
       </c>
       <c r="F41" s="3">
-        <v>3222100</v>
+        <v>2183600</v>
       </c>
       <c r="G41" s="3">
-        <v>3879400</v>
+        <v>3070200</v>
       </c>
       <c r="H41" s="3">
-        <v>3506400</v>
+        <v>3696400</v>
       </c>
       <c r="I41" s="3">
-        <v>3064600</v>
+        <v>3341100</v>
       </c>
       <c r="J41" s="3">
+        <v>2920100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3125400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3170700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2799100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3626600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3564200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3294800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3489600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4168000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5771700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6434200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6292100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6243000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5771500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6580400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6983400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5895800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6172300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7190000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7769700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5709700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3325,634 +3415,658 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>27600</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>54700</v>
       </c>
       <c r="AA42" s="3">
         <v>54700</v>
       </c>
       <c r="AB42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="AC42" s="3">
         <v>53600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>26600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4564300</v>
+        <v>4202000</v>
       </c>
       <c r="E43" s="3">
-        <v>4730700</v>
+        <v>4349100</v>
       </c>
       <c r="F43" s="3">
-        <v>4504600</v>
+        <v>4507600</v>
       </c>
       <c r="G43" s="3">
-        <v>4344900</v>
+        <v>4292100</v>
       </c>
       <c r="H43" s="3">
-        <v>4316200</v>
+        <v>4140000</v>
       </c>
       <c r="I43" s="3">
-        <v>4178300</v>
+        <v>4112600</v>
       </c>
       <c r="J43" s="3">
+        <v>3981200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3941700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3936000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4294500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3884900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3872500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3948500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4919700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5207200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4961300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4783200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5937000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5728800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5629800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5106600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5627200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5700700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5684900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5386900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5639400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5504800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4090200</v>
+        <v>4330200</v>
       </c>
       <c r="E44" s="3">
-        <v>4477700</v>
+        <v>3897400</v>
       </c>
       <c r="F44" s="3">
-        <v>4517200</v>
+        <v>4266500</v>
       </c>
       <c r="G44" s="3">
-        <v>4262100</v>
+        <v>4304200</v>
       </c>
       <c r="H44" s="3">
-        <v>3637200</v>
+        <v>4061100</v>
       </c>
       <c r="I44" s="3">
-        <v>3510300</v>
+        <v>3465700</v>
       </c>
       <c r="J44" s="3">
+        <v>3344800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3338100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3366300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2961200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2982500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3163000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3636700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3355800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3747200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3664800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3649600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3598500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3875400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3879600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3580200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3284400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3610900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3538100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3539000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3009100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3299400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1169100</v>
+        <v>1317100</v>
       </c>
       <c r="E45" s="3">
-        <v>1163600</v>
+        <v>1113900</v>
       </c>
       <c r="F45" s="3">
-        <v>1182300</v>
+        <v>1108700</v>
       </c>
       <c r="G45" s="3">
-        <v>1160400</v>
+        <v>1126500</v>
       </c>
       <c r="H45" s="3">
-        <v>975500</v>
+        <v>1105700</v>
       </c>
       <c r="I45" s="3">
-        <v>962000</v>
+        <v>929500</v>
       </c>
       <c r="J45" s="3">
+        <v>916700</v>
+      </c>
+      <c r="K45" s="3">
         <v>992500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>892000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>632400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>678200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>757400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1416200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1354800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1398600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>838100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>933200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>806400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>928700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>969300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1244900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1019400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1182600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1199300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1194300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1576900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1208300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11760300</v>
+        <v>11567000</v>
       </c>
       <c r="E46" s="3">
-        <v>12663600</v>
+        <v>11205700</v>
       </c>
       <c r="F46" s="3">
-        <v>13426300</v>
+        <v>12066400</v>
       </c>
       <c r="G46" s="3">
-        <v>13646800</v>
+        <v>12793100</v>
       </c>
       <c r="H46" s="3">
-        <v>12435300</v>
+        <v>13003200</v>
       </c>
       <c r="I46" s="3">
-        <v>11715200</v>
+        <v>11848900</v>
       </c>
       <c r="J46" s="3">
+        <v>11162700</v>
+      </c>
+      <c r="K46" s="3">
         <v>11397600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11365000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10687300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11172300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11357100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12296200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13119900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14521100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15235900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15800200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16634000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16775900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16250200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16512000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16914700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16417600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16649400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17364900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>18048700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>15748800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1362000</v>
+        <v>1361900</v>
       </c>
       <c r="E47" s="3">
-        <v>1407600</v>
+        <v>1297800</v>
       </c>
       <c r="F47" s="3">
-        <v>1536000</v>
+        <v>1341300</v>
       </c>
       <c r="G47" s="3">
-        <v>1652500</v>
+        <v>1463500</v>
       </c>
       <c r="H47" s="3">
-        <v>1665800</v>
+        <v>1574600</v>
       </c>
       <c r="I47" s="3">
-        <v>1658600</v>
+        <v>1587300</v>
       </c>
       <c r="J47" s="3">
+        <v>1580400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1749900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1803800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1615300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1561500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1732900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1826100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1789600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2109300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2082200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2037500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2303400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2128200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2236700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2099400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2173900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2715900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2812500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2751100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2656900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3052200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7631000</v>
+        <v>8158600</v>
       </c>
       <c r="E48" s="3">
-        <v>7018600</v>
+        <v>7271100</v>
       </c>
       <c r="F48" s="3">
-        <v>6865900</v>
+        <v>6687600</v>
       </c>
       <c r="G48" s="3">
-        <v>6433300</v>
+        <v>6542100</v>
       </c>
       <c r="H48" s="3">
-        <v>5913800</v>
+        <v>6130000</v>
       </c>
       <c r="I48" s="3">
-        <v>5426300</v>
+        <v>5635000</v>
       </c>
       <c r="J48" s="3">
+        <v>5170500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5275300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5310900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5058400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5067400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5347800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5816900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5953900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6117700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6095400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4746100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5062500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5005900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5100000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4837700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4886300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4945600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4976300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4989300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4617800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4663300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7228500</v>
+        <v>7114100</v>
       </c>
       <c r="E49" s="3">
-        <v>7160900</v>
+        <v>6887600</v>
       </c>
       <c r="F49" s="3">
-        <v>7429500</v>
+        <v>6823200</v>
       </c>
       <c r="G49" s="3">
-        <v>7337400</v>
+        <v>7079100</v>
       </c>
       <c r="H49" s="3">
-        <v>7042000</v>
+        <v>6991400</v>
       </c>
       <c r="I49" s="3">
-        <v>6784000</v>
+        <v>6709900</v>
       </c>
       <c r="J49" s="3">
+        <v>6464100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6718400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6862400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6612800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6021500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6431100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7085000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7305500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7664500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7549100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7199300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7693000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7718000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7845000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7296200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6533000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6655900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6660900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6641100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5111600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5222000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1826600</v>
+        <v>1851800</v>
       </c>
       <c r="E52" s="3">
-        <v>1660200</v>
+        <v>1740500</v>
       </c>
       <c r="F52" s="3">
-        <v>1648200</v>
+        <v>1581900</v>
       </c>
       <c r="G52" s="3">
-        <v>1549600</v>
+        <v>1570500</v>
       </c>
       <c r="H52" s="3">
-        <v>1460600</v>
+        <v>1476500</v>
       </c>
       <c r="I52" s="3">
-        <v>1280500</v>
+        <v>1391700</v>
       </c>
       <c r="J52" s="3">
+        <v>1220100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1242300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1272300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1190100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>878700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>902100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>972700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1095300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1025100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1025800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1798500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1122200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1174500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1234000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1142500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1242900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1181200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1180500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1225800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>904300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>879100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29808400</v>
+        <v>30053400</v>
       </c>
       <c r="E54" s="3">
-        <v>29910900</v>
+        <v>28402700</v>
       </c>
       <c r="F54" s="3">
-        <v>30905900</v>
+        <v>28500400</v>
       </c>
       <c r="G54" s="3">
-        <v>30619600</v>
+        <v>29448400</v>
       </c>
       <c r="H54" s="3">
-        <v>28517600</v>
+        <v>29175700</v>
       </c>
       <c r="I54" s="3">
-        <v>26864600</v>
+        <v>27172800</v>
       </c>
       <c r="J54" s="3">
+        <v>25597800</v>
+      </c>
+      <c r="K54" s="3">
         <v>26383600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26614500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25163800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24701500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25770900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27996900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29264100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31437700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31988400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31581600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32815200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32802600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>32665900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31887700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>31750800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>31916300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>32279500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>32972100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>31339400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>29565300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4575,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1785900</v>
+        <v>1743000</v>
       </c>
       <c r="E57" s="3">
-        <v>1906600</v>
+        <v>1701700</v>
       </c>
       <c r="F57" s="3">
-        <v>2036800</v>
+        <v>1816700</v>
       </c>
       <c r="G57" s="3">
-        <v>1851200</v>
+        <v>1940800</v>
       </c>
       <c r="H57" s="3">
-        <v>1812000</v>
+        <v>1763900</v>
       </c>
       <c r="I57" s="3">
-        <v>1668900</v>
+        <v>1726500</v>
       </c>
       <c r="J57" s="3">
+        <v>1590200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1603200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1649800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1551000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1396800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1401000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1541400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1735000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1980900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1825700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1817300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2043100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2091300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2125900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1998500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2066900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2047300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2039700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2089400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2110600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2016200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>764900</v>
+        <v>1350800</v>
       </c>
       <c r="E58" s="3">
-        <v>1234400</v>
+        <v>742800</v>
       </c>
       <c r="F58" s="3">
-        <v>1286600</v>
+        <v>1176100</v>
       </c>
       <c r="G58" s="3">
-        <v>1466900</v>
+        <v>1225900</v>
       </c>
       <c r="H58" s="3">
-        <v>1457900</v>
+        <v>1397700</v>
       </c>
       <c r="I58" s="3">
-        <v>912900</v>
+        <v>1389200</v>
       </c>
       <c r="J58" s="3">
+        <v>869900</v>
+      </c>
+      <c r="K58" s="3">
         <v>821200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>466900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>470400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>580900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>567700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>596600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2498700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1290600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1569800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1639300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>925600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>651400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>362700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>378800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>298400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>683500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1072600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1099900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1204700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3868400</v>
+        <v>3731400</v>
       </c>
       <c r="E59" s="3">
-        <v>3547200</v>
+        <v>3672100</v>
       </c>
       <c r="F59" s="3">
-        <v>3827800</v>
+        <v>3379900</v>
       </c>
       <c r="G59" s="3">
-        <v>3849600</v>
+        <v>3647300</v>
       </c>
       <c r="H59" s="3">
-        <v>3792800</v>
+        <v>3668100</v>
       </c>
       <c r="I59" s="3">
-        <v>3187400</v>
+        <v>3614000</v>
       </c>
       <c r="J59" s="3">
+        <v>3037100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3242200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3149300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3057000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2597700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2655900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2899600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3013600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2873800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3064600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3055500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3066600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2777400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3004200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3459000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3592000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2659800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2918900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2901100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2822700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2545900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6419200</v>
+        <v>6825200</v>
       </c>
       <c r="E60" s="3">
-        <v>6688100</v>
+        <v>6116500</v>
       </c>
       <c r="F60" s="3">
-        <v>7151300</v>
+        <v>6372700</v>
       </c>
       <c r="G60" s="3">
-        <v>7167700</v>
+        <v>6814000</v>
       </c>
       <c r="H60" s="3">
-        <v>7062700</v>
+        <v>6829700</v>
       </c>
       <c r="I60" s="3">
-        <v>5769200</v>
+        <v>6729700</v>
       </c>
       <c r="J60" s="3">
+        <v>5497100</v>
+      </c>
+      <c r="K60" s="3">
         <v>5666700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5266000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5078500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4575300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4624600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5037700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5814700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7353500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6180800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6442600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6749000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5794300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5781500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5820200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6037700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5005500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5642100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6063100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6033200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5766900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1947100</v>
+        <v>1839500</v>
       </c>
       <c r="E61" s="3">
-        <v>2206700</v>
+        <v>1900300</v>
       </c>
       <c r="F61" s="3">
-        <v>2466900</v>
+        <v>2102600</v>
       </c>
       <c r="G61" s="3">
-        <v>2647200</v>
+        <v>2350600</v>
       </c>
       <c r="H61" s="3">
-        <v>1828600</v>
+        <v>2522400</v>
       </c>
       <c r="I61" s="3">
-        <v>2495700</v>
+        <v>1742300</v>
       </c>
       <c r="J61" s="3">
+        <v>2378100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2777300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3228600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3162700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3416600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3840900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4199500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4432900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3544500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3706300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3230300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3397500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4343600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3682800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3753100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3749600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3957200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3954200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4473500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3857100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2059100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1341600</v>
+        <v>1408000</v>
       </c>
       <c r="E62" s="3">
-        <v>1412500</v>
+        <v>1233300</v>
       </c>
       <c r="F62" s="3">
-        <v>1457600</v>
+        <v>1345900</v>
       </c>
       <c r="G62" s="3">
-        <v>1478300</v>
+        <v>1388800</v>
       </c>
       <c r="H62" s="3">
-        <v>1421400</v>
+        <v>1408600</v>
       </c>
       <c r="I62" s="3">
-        <v>1283400</v>
+        <v>1354400</v>
       </c>
       <c r="J62" s="3">
+        <v>1222900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1293500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1311200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1167700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1139200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1273400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1438900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1451500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1450100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1462500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1504700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1095900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1117900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1232000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1068700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1068200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1208300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1249400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1282400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1331500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1345000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5133,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9886100</v>
+        <v>10096000</v>
       </c>
       <c r="E66" s="3">
-        <v>10481200</v>
+        <v>9419900</v>
       </c>
       <c r="F66" s="3">
-        <v>11265300</v>
+        <v>9986900</v>
       </c>
       <c r="G66" s="3">
-        <v>11465900</v>
+        <v>10734100</v>
       </c>
       <c r="H66" s="3">
-        <v>10473400</v>
+        <v>10925200</v>
       </c>
       <c r="I66" s="3">
-        <v>9687700</v>
+        <v>9979500</v>
       </c>
       <c r="J66" s="3">
+        <v>9230900</v>
+      </c>
+      <c r="K66" s="3">
         <v>9872000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9937400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9533500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9447700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10077700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11040400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12056000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12708500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13278500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13058100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13240000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13187100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12636900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12636000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12851500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12264300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>13003500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13939800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13213000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11233800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18862700</v>
+        <v>17949100</v>
       </c>
       <c r="E72" s="3">
-        <v>21610400</v>
+        <v>17973200</v>
       </c>
       <c r="F72" s="3">
-        <v>21185900</v>
+        <v>20591300</v>
       </c>
       <c r="G72" s="3">
-        <v>20975400</v>
+        <v>20186900</v>
       </c>
       <c r="H72" s="3">
-        <v>20677200</v>
+        <v>19986300</v>
       </c>
       <c r="I72" s="3">
-        <v>20443800</v>
+        <v>19702100</v>
       </c>
       <c r="J72" s="3">
+        <v>19479700</v>
+      </c>
+      <c r="K72" s="3">
         <v>20017300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20286400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19162600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19562900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20330600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22080400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22580800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23484400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23428300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23104800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24099200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23909300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23567600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22110200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21668700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21549000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21064400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>20967600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>20184800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>20233000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19922300</v>
+        <v>19957400</v>
       </c>
       <c r="E76" s="3">
-        <v>19429700</v>
+        <v>18982800</v>
       </c>
       <c r="F76" s="3">
-        <v>19640500</v>
+        <v>18513500</v>
       </c>
       <c r="G76" s="3">
-        <v>19153700</v>
+        <v>18714300</v>
       </c>
       <c r="H76" s="3">
-        <v>18044200</v>
+        <v>18250400</v>
       </c>
       <c r="I76" s="3">
-        <v>17176900</v>
+        <v>17193300</v>
       </c>
       <c r="J76" s="3">
+        <v>16366900</v>
+      </c>
+      <c r="K76" s="3">
         <v>16511600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16677200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15630400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15253800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15693300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16956400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17208200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18729200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18710000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18523500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19575200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19615500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>20029000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19251700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18899300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>19652000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19276000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19032300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18126400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18331500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>473300</v>
+        <v>373600</v>
       </c>
       <c r="E81" s="3">
-        <v>422000</v>
+        <v>451000</v>
       </c>
       <c r="F81" s="3">
-        <v>387700</v>
+        <v>402100</v>
       </c>
       <c r="G81" s="3">
-        <v>298100</v>
+        <v>369500</v>
       </c>
       <c r="H81" s="3">
-        <v>389900</v>
+        <v>284100</v>
       </c>
       <c r="I81" s="3">
-        <v>438700</v>
+        <v>371500</v>
       </c>
       <c r="J81" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K81" s="3">
         <v>280800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>421200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>387900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>431600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>312400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>234600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>542200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>427200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>134300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>356100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>341700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>357200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>257500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>147100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>484600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>245000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>396000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>484100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>393400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>255800</v>
+        <v>247000</v>
       </c>
       <c r="E83" s="3">
-        <v>258800</v>
+        <v>243800</v>
       </c>
       <c r="F83" s="3">
-        <v>257900</v>
+        <v>246600</v>
       </c>
       <c r="G83" s="3">
-        <v>252900</v>
+        <v>245700</v>
       </c>
       <c r="H83" s="3">
-        <v>254200</v>
+        <v>240900</v>
       </c>
       <c r="I83" s="3">
-        <v>235900</v>
+        <v>242200</v>
       </c>
       <c r="J83" s="3">
+        <v>224800</v>
+      </c>
+      <c r="K83" s="3">
         <v>243100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>230000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>230700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>225400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>235200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>255400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>271700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>285100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>280200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>275000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>330200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>311100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>307000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>284100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>293600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>305100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>279200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>277600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>277400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>242800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1061500</v>
+        <v>513000</v>
       </c>
       <c r="E89" s="3">
-        <v>61600</v>
+        <v>1011400</v>
       </c>
       <c r="F89" s="3">
-        <v>288100</v>
+        <v>58700</v>
       </c>
       <c r="G89" s="3">
-        <v>106200</v>
+        <v>274500</v>
       </c>
       <c r="H89" s="3">
-        <v>796400</v>
+        <v>101200</v>
       </c>
       <c r="I89" s="3">
-        <v>473400</v>
+        <v>758800</v>
       </c>
       <c r="J89" s="3">
+        <v>451100</v>
+      </c>
+      <c r="K89" s="3">
         <v>377600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>701500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>910700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>717200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>733300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>856700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>821700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>451600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>993100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1016600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>560200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-16600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>790800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>958700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>404200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>159000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>844200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>874800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>444300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-101342000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-96830000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-80081000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-83312000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63249000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48088000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41842000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41566000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-201800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-192600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-174800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-202500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-196600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-175400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-197200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-226500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-169200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-206100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-166600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-144300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-134100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-132800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-161000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-156000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-120800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-231900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>256900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-701100</v>
+        <v>-677000</v>
       </c>
       <c r="E94" s="3">
-        <v>-453100</v>
+        <v>-668100</v>
       </c>
       <c r="F94" s="3">
-        <v>-584700</v>
+        <v>-431800</v>
       </c>
       <c r="G94" s="3">
-        <v>-591400</v>
+        <v>-557200</v>
       </c>
       <c r="H94" s="3">
-        <v>-276200</v>
+        <v>-563600</v>
       </c>
       <c r="I94" s="3">
-        <v>-230100</v>
+        <v>-263200</v>
       </c>
       <c r="J94" s="3">
+        <v>-219200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-335000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-270900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1414200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-130100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-223200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-286000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-374000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-354400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-266300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-472700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-272000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-237200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-967300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>541500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>68900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-277700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-448100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-286800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,94 +7649,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-192900</v>
       </c>
       <c r="E96" s="3">
-        <v>-173500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-165300</v>
       </c>
       <c r="G96" s="3">
-        <v>-158900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-151400</v>
       </c>
       <c r="I96" s="3">
-        <v>-158900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-151400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-154300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-139200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-162000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-177200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-150000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-163700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-146700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-148200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-138500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-137700</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,262 +8003,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-738300</v>
+        <v>-91700</v>
       </c>
       <c r="E100" s="3">
-        <v>-470900</v>
+        <v>-703500</v>
       </c>
       <c r="F100" s="3">
-        <v>-383700</v>
+        <v>-448700</v>
       </c>
       <c r="G100" s="3">
-        <v>701000</v>
+        <v>-365600</v>
       </c>
       <c r="H100" s="3">
-        <v>-196900</v>
+        <v>668000</v>
       </c>
       <c r="I100" s="3">
-        <v>-359800</v>
+        <v>-187600</v>
       </c>
       <c r="J100" s="3">
+        <v>-342800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-32200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-172700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-322200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-316000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-678800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-889700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>171400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-194400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-484300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>245200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-993500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-229600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-328100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-788100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-959700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-266900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1700900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-500500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23000</v>
+        <v>128000</v>
       </c>
       <c r="E101" s="3">
-        <v>-68100</v>
+        <v>21900</v>
       </c>
       <c r="F101" s="3">
-        <v>23100</v>
+        <v>-64900</v>
       </c>
       <c r="G101" s="3">
-        <v>157200</v>
+        <v>22000</v>
       </c>
       <c r="H101" s="3">
-        <v>118600</v>
+        <v>149700</v>
       </c>
       <c r="I101" s="3">
-        <v>55700</v>
+        <v>113000</v>
       </c>
       <c r="J101" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K101" s="3">
         <v>4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>116800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-99200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>99400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-71200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-95600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-61900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>61900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-117200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>38500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>60700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>34300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-67600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>269600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-355000</v>
+        <v>-127600</v>
       </c>
       <c r="E102" s="3">
-        <v>-930500</v>
+        <v>-338200</v>
       </c>
       <c r="F102" s="3">
-        <v>-657200</v>
+        <v>-886600</v>
       </c>
       <c r="G102" s="3">
-        <v>372900</v>
+        <v>-626200</v>
       </c>
       <c r="H102" s="3">
-        <v>441800</v>
+        <v>355300</v>
       </c>
       <c r="I102" s="3">
-        <v>-60800</v>
+        <v>421000</v>
       </c>
       <c r="J102" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="K102" s="3">
         <v>15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>269000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-708800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>272900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>555200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-83800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-541200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-683600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>436800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>49100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>471500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-403000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1054900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-276500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-728700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2060000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-56300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>351900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUJIY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,405 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4539400</v>
+        <v>4832000</v>
       </c>
       <c r="E8" s="3">
-        <v>5254000</v>
+        <v>4387400</v>
       </c>
       <c r="F8" s="3">
-        <v>5113500</v>
+        <v>5078100</v>
       </c>
       <c r="G8" s="3">
-        <v>4974400</v>
+        <v>4942300</v>
       </c>
       <c r="H8" s="3">
-        <v>4299700</v>
+        <v>4807800</v>
       </c>
       <c r="I8" s="3">
-        <v>4567700</v>
+        <v>4155700</v>
       </c>
       <c r="J8" s="3">
+        <v>4414700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4505100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4488100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4282500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4389300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4222400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4215300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3892000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5169200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5432000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5484700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4903600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6070400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6026200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5841400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5134900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5669300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5620600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5572700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5166300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5492800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>5132600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>5036100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2731400</v>
+        <v>2871800</v>
       </c>
       <c r="E9" s="3">
-        <v>3219500</v>
+        <v>2640000</v>
       </c>
       <c r="F9" s="3">
-        <v>3045200</v>
+        <v>3111800</v>
       </c>
       <c r="G9" s="3">
-        <v>3007700</v>
+        <v>2943200</v>
       </c>
       <c r="H9" s="3">
-        <v>2551600</v>
+        <v>2907000</v>
       </c>
       <c r="I9" s="3">
-        <v>2858900</v>
+        <v>2466200</v>
       </c>
       <c r="J9" s="3">
+        <v>2763200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2594300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2659000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2425400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2838400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2362800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2580900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2293200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3130300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3159200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3231600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2811300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3734400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3455200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3427600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2992100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3832100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3631400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3695600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3077700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3267700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3036000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3013500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1808000</v>
+        <v>1960200</v>
       </c>
       <c r="E10" s="3">
-        <v>2034500</v>
+        <v>1747500</v>
       </c>
       <c r="F10" s="3">
-        <v>2068400</v>
+        <v>1966400</v>
       </c>
       <c r="G10" s="3">
-        <v>1966600</v>
+        <v>1999100</v>
       </c>
       <c r="H10" s="3">
-        <v>1748100</v>
+        <v>1900800</v>
       </c>
       <c r="I10" s="3">
-        <v>1708700</v>
+        <v>1689500</v>
       </c>
       <c r="J10" s="3">
+        <v>1651500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1910900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1829100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1857100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1551000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1859600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1634400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1598800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2038900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2272800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2253100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2092300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2336000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2571000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2413900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2142700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1837200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1989100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1877100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2088600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2225200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2096500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2022600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,97 +1095,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>265400</v>
+        <v>264200</v>
       </c>
       <c r="E12" s="3">
-        <v>269400</v>
+        <v>256600</v>
       </c>
       <c r="F12" s="3">
-        <v>264000</v>
+        <v>260300</v>
       </c>
       <c r="G12" s="3">
-        <v>267500</v>
+        <v>255200</v>
       </c>
       <c r="H12" s="3">
-        <v>258100</v>
+        <v>258500</v>
       </c>
       <c r="I12" s="3">
-        <v>265100</v>
+        <v>249500</v>
       </c>
       <c r="J12" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K12" s="3">
         <v>248400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>278400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>273100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>293500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>266400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>296100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>310500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>351400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>349000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>374200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>356900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>387500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>349000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>378100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>364900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>454200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>351000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>375500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>336800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>366000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>346100</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>365400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1261,8 +1277,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1350,8 +1369,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1439,8 +1461,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1494,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>4180700</v>
+        <v>4345100</v>
       </c>
       <c r="E17" s="3">
-        <v>4770100</v>
+        <v>4040700</v>
       </c>
       <c r="F17" s="3">
-        <v>4551400</v>
+        <v>4610400</v>
       </c>
       <c r="G17" s="3">
-        <v>4484800</v>
+        <v>4399000</v>
       </c>
       <c r="H17" s="3">
-        <v>3959200</v>
+        <v>4334700</v>
       </c>
       <c r="I17" s="3">
-        <v>4270500</v>
+        <v>3826700</v>
       </c>
       <c r="J17" s="3">
+        <v>4127600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3965200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4116500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3868600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4070200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3753300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3934200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3718100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4861400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4889000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4979900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4563600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5575700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5311000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5389100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4799900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5667700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5161200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5226700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4842300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4977100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4680500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>4700400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>358700</v>
+        <v>486900</v>
       </c>
       <c r="E18" s="3">
-        <v>483900</v>
+        <v>346700</v>
       </c>
       <c r="F18" s="3">
-        <v>562200</v>
+        <v>467700</v>
       </c>
       <c r="G18" s="3">
-        <v>489600</v>
+        <v>543300</v>
       </c>
       <c r="H18" s="3">
-        <v>340400</v>
+        <v>473200</v>
       </c>
       <c r="I18" s="3">
-        <v>297100</v>
+        <v>329000</v>
       </c>
       <c r="J18" s="3">
+        <v>287200</v>
+      </c>
+      <c r="K18" s="3">
         <v>539900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>371600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>413900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>319100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>469100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>281100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>173900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>307800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>542900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>504800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>340000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>494700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>715100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>452400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>335000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>459300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>346000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>324000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>515700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>452000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>335800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1680,453 +1712,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>132200</v>
+        <v>74100</v>
       </c>
       <c r="E20" s="3">
-        <v>64900</v>
+        <v>127700</v>
       </c>
       <c r="F20" s="3">
-        <v>-40000</v>
+        <v>62700</v>
       </c>
       <c r="G20" s="3">
-        <v>27600</v>
+        <v>-38700</v>
       </c>
       <c r="H20" s="3">
-        <v>44800</v>
+        <v>26600</v>
       </c>
       <c r="I20" s="3">
-        <v>72900</v>
+        <v>43300</v>
       </c>
       <c r="J20" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>161700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>117800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>89100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>169900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>191000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-246800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>90700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>155000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-91600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>69400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-171100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>66600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>90000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>217700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>222800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>49400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>209800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>105300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>149000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>737900</v>
+        <v>798900</v>
       </c>
       <c r="E21" s="3">
-        <v>792600</v>
+        <v>713200</v>
       </c>
       <c r="F21" s="3">
-        <v>768800</v>
+        <v>766100</v>
       </c>
       <c r="G21" s="3">
-        <v>762800</v>
+        <v>743000</v>
       </c>
       <c r="H21" s="3">
-        <v>626100</v>
+        <v>737300</v>
       </c>
       <c r="I21" s="3">
-        <v>612200</v>
+        <v>605100</v>
       </c>
       <c r="J21" s="3">
+        <v>591700</v>
+      </c>
+      <c r="K21" s="3">
         <v>760000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>622900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>805700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>667600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>783600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>686200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>620400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>332700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>918700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>940000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>523400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>894300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>855100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>826000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>709100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>512800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>987300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>674700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>811400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>898400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>843800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>624400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>14800</v>
+        <v>11300</v>
       </c>
       <c r="E22" s="3">
-        <v>16800</v>
+        <v>14300</v>
       </c>
       <c r="F22" s="3">
-        <v>5200</v>
+        <v>16300</v>
       </c>
       <c r="G22" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="H22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="T22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="U22" s="3">
         <v>6600</v>
       </c>
-      <c r="O22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>6600</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>7800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>12900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>12400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>14200</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>476100</v>
+        <v>549600</v>
       </c>
       <c r="E23" s="3">
-        <v>532000</v>
+        <v>460100</v>
       </c>
       <c r="F23" s="3">
-        <v>517000</v>
+        <v>514200</v>
       </c>
       <c r="G23" s="3">
-        <v>510700</v>
+        <v>499700</v>
       </c>
       <c r="H23" s="3">
-        <v>379200</v>
+        <v>493600</v>
       </c>
       <c r="I23" s="3">
-        <v>365500</v>
+        <v>366500</v>
       </c>
       <c r="J23" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K23" s="3">
         <v>531300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>375800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>571700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>432800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>551600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>446900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>360000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>628600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>653800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>241800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>559300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>535600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>509700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>416300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>211500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>672300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>384600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>520900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>608600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>586900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>361400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>114300</v>
+        <v>160900</v>
       </c>
       <c r="E24" s="3">
-        <v>81000</v>
+        <v>110500</v>
       </c>
       <c r="F24" s="3">
-        <v>126600</v>
+        <v>78300</v>
       </c>
       <c r="G24" s="3">
-        <v>132400</v>
+        <v>122300</v>
       </c>
       <c r="H24" s="3">
-        <v>108000</v>
+        <v>128000</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>104300</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>143500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>95200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>169300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>129000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>122200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>110200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>73700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>164600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>165400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>147300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>96100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>122900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>125700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>158200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>116300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>92500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>63400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>162800</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>106800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2214,186 +2262,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>361800</v>
+        <v>388800</v>
       </c>
       <c r="E26" s="3">
-        <v>450900</v>
+        <v>349600</v>
       </c>
       <c r="F26" s="3">
-        <v>390400</v>
+        <v>435800</v>
       </c>
       <c r="G26" s="3">
-        <v>378300</v>
+        <v>377300</v>
       </c>
       <c r="H26" s="3">
-        <v>271200</v>
+        <v>365700</v>
       </c>
       <c r="I26" s="3">
-        <v>365500</v>
+        <v>262200</v>
       </c>
       <c r="J26" s="3">
+        <v>353200</v>
+      </c>
+      <c r="K26" s="3">
         <v>387800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>280600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>402400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>366100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>422600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>324700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>249800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>554800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>489100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>177300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>393900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>388300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>413500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>293400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>85800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>514100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>268300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>428400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>545200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>424100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>254600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>373600</v>
+        <v>392500</v>
       </c>
       <c r="E27" s="3">
-        <v>451000</v>
+        <v>361100</v>
       </c>
       <c r="F27" s="3">
-        <v>402100</v>
+        <v>435900</v>
       </c>
       <c r="G27" s="3">
-        <v>369500</v>
+        <v>388700</v>
       </c>
       <c r="H27" s="3">
-        <v>284100</v>
+        <v>357100</v>
       </c>
       <c r="I27" s="3">
-        <v>371500</v>
+        <v>274600</v>
       </c>
       <c r="J27" s="3">
+        <v>359100</v>
+      </c>
+      <c r="K27" s="3">
         <v>418000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>280800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>421200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>387900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>431600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>312400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>234600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>542200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>427200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>134300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>356100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>341700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>357200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>257500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>147100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>484600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>245000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>396000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>484100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>393400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2481,8 +2538,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2570,8 +2630,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2659,8 +2722,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2748,186 +2814,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-132200</v>
+        <v>-74100</v>
       </c>
       <c r="E32" s="3">
-        <v>-64900</v>
+        <v>-127700</v>
       </c>
       <c r="F32" s="3">
-        <v>40000</v>
+        <v>-62700</v>
       </c>
       <c r="G32" s="3">
-        <v>-27600</v>
+        <v>38700</v>
       </c>
       <c r="H32" s="3">
-        <v>-44800</v>
+        <v>-26600</v>
       </c>
       <c r="I32" s="3">
-        <v>-72900</v>
+        <v>-43300</v>
       </c>
       <c r="J32" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="K32" s="3">
         <v>4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-161700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-117800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-89100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-169900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-191000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>246800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-90700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-155000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>91600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-69400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>171100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-66600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-90000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-217700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-222800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-49400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-209800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-105300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-149000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>373600</v>
+        <v>392500</v>
       </c>
       <c r="E33" s="3">
-        <v>451000</v>
+        <v>361100</v>
       </c>
       <c r="F33" s="3">
-        <v>402100</v>
+        <v>435900</v>
       </c>
       <c r="G33" s="3">
-        <v>369500</v>
+        <v>388700</v>
       </c>
       <c r="H33" s="3">
-        <v>284100</v>
+        <v>357100</v>
       </c>
       <c r="I33" s="3">
-        <v>371500</v>
+        <v>274600</v>
       </c>
       <c r="J33" s="3">
+        <v>359100</v>
+      </c>
+      <c r="K33" s="3">
         <v>418000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>280800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>421200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>387900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>431600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>312400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>234600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>542200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>427200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>134300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>356100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>341700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>357200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>257500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>147100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>484600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>245000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>396000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>484100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>393400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3015,191 +3090,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>373600</v>
+        <v>392500</v>
       </c>
       <c r="E35" s="3">
-        <v>451000</v>
+        <v>361100</v>
       </c>
       <c r="F35" s="3">
-        <v>402100</v>
+        <v>435900</v>
       </c>
       <c r="G35" s="3">
-        <v>369500</v>
+        <v>388700</v>
       </c>
       <c r="H35" s="3">
-        <v>284100</v>
+        <v>357100</v>
       </c>
       <c r="I35" s="3">
-        <v>371500</v>
+        <v>274600</v>
       </c>
       <c r="J35" s="3">
+        <v>359100</v>
+      </c>
+      <c r="K35" s="3">
         <v>418000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>280800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>421200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>387900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>431600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>312400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>234600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>542200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>427200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>134300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>356100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>341700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>357200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>257500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>147100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>484600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>245000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>396000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>484100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>393400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3231,8 +3315,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3264,97 +3349,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1717700</v>
+        <v>2139300</v>
       </c>
       <c r="E41" s="3">
-        <v>1845300</v>
+        <v>1660200</v>
       </c>
       <c r="F41" s="3">
-        <v>2183600</v>
+        <v>1783600</v>
       </c>
       <c r="G41" s="3">
-        <v>3070200</v>
+        <v>2110500</v>
       </c>
       <c r="H41" s="3">
-        <v>3696400</v>
+        <v>2967400</v>
       </c>
       <c r="I41" s="3">
-        <v>3341100</v>
+        <v>3572700</v>
       </c>
       <c r="J41" s="3">
+        <v>3229200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2920100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3125400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3170700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2799100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3626600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3564200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3294800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3489600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4168000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5771700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6434200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6292100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6243000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5771500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6580400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6983400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5895800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6172300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7190000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7769700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5709700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>5766000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3418,655 +3507,679 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>27600</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>54700</v>
       </c>
       <c r="AB42" s="3">
         <v>54700</v>
       </c>
       <c r="AC42" s="3">
+        <v>54700</v>
+      </c>
+      <c r="AD42" s="3">
         <v>53600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>26600</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4202000</v>
+        <v>4223000</v>
       </c>
       <c r="E43" s="3">
-        <v>4349100</v>
+        <v>4061300</v>
       </c>
       <c r="F43" s="3">
-        <v>4507600</v>
+        <v>4203500</v>
       </c>
       <c r="G43" s="3">
-        <v>4292100</v>
+        <v>4356700</v>
       </c>
       <c r="H43" s="3">
-        <v>4140000</v>
+        <v>4148400</v>
       </c>
       <c r="I43" s="3">
-        <v>4112600</v>
+        <v>4001400</v>
       </c>
       <c r="J43" s="3">
+        <v>3974900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3981200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3941700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3936000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4294500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3884900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3872500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3948500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4919700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5207200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4961300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4783200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5937000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5728800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5629800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5106600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5627200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5700700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5684900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5386900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5639400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>5504800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>5021500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4330200</v>
+        <v>4063100</v>
       </c>
       <c r="E44" s="3">
-        <v>3897400</v>
+        <v>4185200</v>
       </c>
       <c r="F44" s="3">
-        <v>4266500</v>
+        <v>3766900</v>
       </c>
       <c r="G44" s="3">
-        <v>4304200</v>
+        <v>4123700</v>
       </c>
       <c r="H44" s="3">
-        <v>4061100</v>
+        <v>4160100</v>
       </c>
       <c r="I44" s="3">
-        <v>3465700</v>
+        <v>3925200</v>
       </c>
       <c r="J44" s="3">
+        <v>3349700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3344800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3338100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3366300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2961200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2982500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3163000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3636700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3355800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3747200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3664800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3649600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3598500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3875400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3879600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3580200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3284400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3610900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3538100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3539000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3009100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3299400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3026300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1317100</v>
+        <v>1095100</v>
       </c>
       <c r="E45" s="3">
-        <v>1113900</v>
+        <v>1273000</v>
       </c>
       <c r="F45" s="3">
-        <v>1108700</v>
+        <v>1076600</v>
       </c>
       <c r="G45" s="3">
-        <v>1126500</v>
+        <v>1071600</v>
       </c>
       <c r="H45" s="3">
-        <v>1105700</v>
+        <v>1088800</v>
       </c>
       <c r="I45" s="3">
-        <v>929500</v>
+        <v>1068600</v>
       </c>
       <c r="J45" s="3">
+        <v>898400</v>
+      </c>
+      <c r="K45" s="3">
         <v>916700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>992500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>892000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>632400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>678200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>757400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1416200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1354800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1398600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>838100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>933200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>806400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>928700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>969300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1244900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1019400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1182600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1199300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1194300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1576900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1208300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1165200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11567000</v>
+        <v>11520400</v>
       </c>
       <c r="E46" s="3">
-        <v>11205700</v>
+        <v>11179800</v>
       </c>
       <c r="F46" s="3">
-        <v>12066400</v>
+        <v>10830600</v>
       </c>
       <c r="G46" s="3">
-        <v>12793100</v>
+        <v>11662400</v>
       </c>
       <c r="H46" s="3">
-        <v>13003200</v>
+        <v>12364800</v>
       </c>
       <c r="I46" s="3">
-        <v>11848900</v>
+        <v>12567900</v>
       </c>
       <c r="J46" s="3">
+        <v>11452200</v>
+      </c>
+      <c r="K46" s="3">
         <v>11162700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11397600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11365000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10687300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11172300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11357100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12296200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13119900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14521100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15235900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15800200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16634000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16775900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16250200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16512000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16914700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16417600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16649400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17364900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>18048700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>15748800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>15041100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1361900</v>
+        <v>1329500</v>
       </c>
       <c r="E47" s="3">
-        <v>1297800</v>
+        <v>1316300</v>
       </c>
       <c r="F47" s="3">
-        <v>1341300</v>
+        <v>1254300</v>
       </c>
       <c r="G47" s="3">
-        <v>1463500</v>
+        <v>1296300</v>
       </c>
       <c r="H47" s="3">
-        <v>1574600</v>
+        <v>1414500</v>
       </c>
       <c r="I47" s="3">
-        <v>1587300</v>
+        <v>1521900</v>
       </c>
       <c r="J47" s="3">
+        <v>1534200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1580400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1749900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1803800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1615300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1561500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1732900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1826100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1789600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2109300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2082200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2037500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2303400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2128200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2236700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2099400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2173900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2715900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2812500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2751100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2656900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3052200</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2765500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8158600</v>
+        <v>8413700</v>
       </c>
       <c r="E48" s="3">
-        <v>7271100</v>
+        <v>7885500</v>
       </c>
       <c r="F48" s="3">
-        <v>6687600</v>
+        <v>7027700</v>
       </c>
       <c r="G48" s="3">
-        <v>6542100</v>
+        <v>6463700</v>
       </c>
       <c r="H48" s="3">
-        <v>6130000</v>
+        <v>6323100</v>
       </c>
       <c r="I48" s="3">
-        <v>5635000</v>
+        <v>5924700</v>
       </c>
       <c r="J48" s="3">
+        <v>5446300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5170500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5275300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5310900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5058400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5067400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5347800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5816900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5953900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6117700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6095400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4746100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5062500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5005900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5100000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4837700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4886300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4945600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4976300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4989300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4617800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4663300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>4567200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7114100</v>
+        <v>6934800</v>
       </c>
       <c r="E49" s="3">
-        <v>6887600</v>
+        <v>6875900</v>
       </c>
       <c r="F49" s="3">
-        <v>6823200</v>
+        <v>6657100</v>
       </c>
       <c r="G49" s="3">
-        <v>7079100</v>
+        <v>6594800</v>
       </c>
       <c r="H49" s="3">
-        <v>6991400</v>
+        <v>6842100</v>
       </c>
       <c r="I49" s="3">
-        <v>6709900</v>
+        <v>6757300</v>
       </c>
       <c r="J49" s="3">
+        <v>6485200</v>
+      </c>
+      <c r="K49" s="3">
         <v>6464100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6718400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6862400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6612800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6021500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6431100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7085000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7305500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7664500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7549100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7199300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7693000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7718000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7845000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7296200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6533000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6655900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6660900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6641100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5111600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5222000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>4920600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4267,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4359,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1851800</v>
+        <v>1860600</v>
       </c>
       <c r="E52" s="3">
-        <v>1740500</v>
+        <v>1789800</v>
       </c>
       <c r="F52" s="3">
-        <v>1581900</v>
+        <v>1682200</v>
       </c>
       <c r="G52" s="3">
-        <v>1570500</v>
+        <v>1528900</v>
       </c>
       <c r="H52" s="3">
-        <v>1476500</v>
+        <v>1517900</v>
       </c>
       <c r="I52" s="3">
-        <v>1391700</v>
+        <v>1427100</v>
       </c>
       <c r="J52" s="3">
+        <v>1345100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1220100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1242300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1272300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1190100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>878700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>902100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>972700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1095300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1025100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1025800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1798500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1122200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1174500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1234000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1142500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1242900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1181200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1180500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1225800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>904300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>879100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>865500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4543,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30053400</v>
+        <v>30059100</v>
       </c>
       <c r="E54" s="3">
-        <v>28402700</v>
+        <v>29047300</v>
       </c>
       <c r="F54" s="3">
-        <v>28500400</v>
+        <v>27451800</v>
       </c>
       <c r="G54" s="3">
-        <v>29448400</v>
+        <v>27546200</v>
       </c>
       <c r="H54" s="3">
-        <v>29175700</v>
+        <v>28462500</v>
       </c>
       <c r="I54" s="3">
-        <v>27172800</v>
+        <v>28198900</v>
       </c>
       <c r="J54" s="3">
+        <v>26263100</v>
+      </c>
+      <c r="K54" s="3">
         <v>25597800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26383600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26614500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25163800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24701500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25770900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27996900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29264100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31437700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31988400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31581600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32815200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>32802600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>32665900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>31887700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>31750800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>31916300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>32279500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>32972100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>31339400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>29565300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>28159800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4671,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,542 +4705,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1743000</v>
+        <v>1651200</v>
       </c>
       <c r="E57" s="3">
-        <v>1701700</v>
+        <v>1684700</v>
       </c>
       <c r="F57" s="3">
-        <v>1816700</v>
+        <v>1644700</v>
       </c>
       <c r="G57" s="3">
-        <v>1940800</v>
+        <v>1755900</v>
       </c>
       <c r="H57" s="3">
-        <v>1763900</v>
+        <v>1875800</v>
       </c>
       <c r="I57" s="3">
-        <v>1726500</v>
+        <v>1704800</v>
       </c>
       <c r="J57" s="3">
+        <v>1668700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1590200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1603200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1649800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1551000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1396800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1401000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1541400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1735000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1980900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1825700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1817300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2043100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2091300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2125900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1998500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2066900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2047300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2039700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2089400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2110600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2016200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1869300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1350800</v>
+        <v>2054800</v>
       </c>
       <c r="E58" s="3">
-        <v>742800</v>
+        <v>1305600</v>
       </c>
       <c r="F58" s="3">
-        <v>1176100</v>
+        <v>717900</v>
       </c>
       <c r="G58" s="3">
-        <v>1225900</v>
+        <v>1136800</v>
       </c>
       <c r="H58" s="3">
-        <v>1397700</v>
+        <v>1184900</v>
       </c>
       <c r="I58" s="3">
-        <v>1389200</v>
+        <v>1350900</v>
       </c>
       <c r="J58" s="3">
+        <v>1342700</v>
+      </c>
+      <c r="K58" s="3">
         <v>869900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>821200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>466900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>470400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>580900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>567700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>596600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1066000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2498700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1290600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1569800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1639300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>925600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>651400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>362700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>378800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>298400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>683500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1072600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1099900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1204700</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>817100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3731400</v>
+        <v>3678200</v>
       </c>
       <c r="E59" s="3">
-        <v>3672100</v>
+        <v>3606500</v>
       </c>
       <c r="F59" s="3">
-        <v>3379900</v>
+        <v>3549100</v>
       </c>
       <c r="G59" s="3">
-        <v>3647300</v>
+        <v>3266700</v>
       </c>
       <c r="H59" s="3">
-        <v>3668100</v>
+        <v>3525200</v>
       </c>
       <c r="I59" s="3">
-        <v>3614000</v>
+        <v>3545300</v>
       </c>
       <c r="J59" s="3">
+        <v>3493000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3037100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3242200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3149300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3057000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2597700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2655900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2899600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3013600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2873800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3064600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3055500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3066600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2777400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3004200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3459000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3592000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2659800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2918900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2901100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2822700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2545900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2518200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6825200</v>
+        <v>7384300</v>
       </c>
       <c r="E60" s="3">
-        <v>6116500</v>
+        <v>6596700</v>
       </c>
       <c r="F60" s="3">
-        <v>6372700</v>
+        <v>5911700</v>
       </c>
       <c r="G60" s="3">
-        <v>6814000</v>
+        <v>6159400</v>
       </c>
       <c r="H60" s="3">
-        <v>6829700</v>
+        <v>6585900</v>
       </c>
       <c r="I60" s="3">
-        <v>6729700</v>
+        <v>6601000</v>
       </c>
       <c r="J60" s="3">
+        <v>6504400</v>
+      </c>
+      <c r="K60" s="3">
         <v>5497100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5666700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5266000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5078500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4575300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4624600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5037700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5814700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7353500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6180800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6442600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6749000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5794300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5781500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5820200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6037700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5005500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5642100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6063100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6033200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5766900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5204600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1839500</v>
+        <v>1578500</v>
       </c>
       <c r="E61" s="3">
-        <v>1900300</v>
+        <v>1777900</v>
       </c>
       <c r="F61" s="3">
-        <v>2102600</v>
+        <v>1836700</v>
       </c>
       <c r="G61" s="3">
-        <v>2350600</v>
+        <v>2032200</v>
       </c>
       <c r="H61" s="3">
-        <v>2522400</v>
+        <v>2271900</v>
       </c>
       <c r="I61" s="3">
-        <v>1742300</v>
+        <v>2437900</v>
       </c>
       <c r="J61" s="3">
+        <v>1684000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2378100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2777300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3228600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3162700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3416600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3840900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4199500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4432900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3544500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3706300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3230300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3397500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4343600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3682800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3753100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3749600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3957200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3954200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4473500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3857100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2059100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2570500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1408000</v>
+        <v>1319600</v>
       </c>
       <c r="E62" s="3">
-        <v>1233300</v>
+        <v>1360900</v>
       </c>
       <c r="F62" s="3">
-        <v>1345900</v>
+        <v>1192000</v>
       </c>
       <c r="G62" s="3">
-        <v>1388800</v>
+        <v>1300800</v>
       </c>
       <c r="H62" s="3">
-        <v>1408600</v>
+        <v>1342300</v>
       </c>
       <c r="I62" s="3">
-        <v>1354400</v>
+        <v>1361500</v>
       </c>
       <c r="J62" s="3">
+        <v>1309100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1222900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1293500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1311200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1167700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1139200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1273400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1438900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1451500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1450100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1462500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1504700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1095900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1117900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1232000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1068700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1068200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1208300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1249400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1282400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1331500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1345000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1254600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5347,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5288,8 +5439,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5531,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10096000</v>
+        <v>10306000</v>
       </c>
       <c r="E66" s="3">
-        <v>9419900</v>
+        <v>9758000</v>
       </c>
       <c r="F66" s="3">
-        <v>9986900</v>
+        <v>9104500</v>
       </c>
       <c r="G66" s="3">
-        <v>10734100</v>
+        <v>9652500</v>
       </c>
       <c r="H66" s="3">
-        <v>10925200</v>
+        <v>10374700</v>
       </c>
       <c r="I66" s="3">
-        <v>9979500</v>
+        <v>10559500</v>
       </c>
       <c r="J66" s="3">
+        <v>9645400</v>
+      </c>
+      <c r="K66" s="3">
         <v>9230900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9872000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9937400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9533500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9447700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10077700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11040400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12056000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12708500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13278500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13058100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13240000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13187100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12636900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12636000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12851500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12264300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>13003500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>13939800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>13213000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11233800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>10991000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5659,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5749,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5841,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5933,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6025,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17949100</v>
+        <v>17550100</v>
       </c>
       <c r="E72" s="3">
-        <v>17973200</v>
+        <v>17348200</v>
       </c>
       <c r="F72" s="3">
-        <v>20591300</v>
+        <v>17371500</v>
       </c>
       <c r="G72" s="3">
-        <v>20186900</v>
+        <v>19901900</v>
       </c>
       <c r="H72" s="3">
-        <v>19986300</v>
+        <v>19511000</v>
       </c>
       <c r="I72" s="3">
-        <v>19702100</v>
+        <v>19317100</v>
       </c>
       <c r="J72" s="3">
+        <v>19042500</v>
+      </c>
+      <c r="K72" s="3">
         <v>19479700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20017300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20286400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19162600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19562900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20330600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22080400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22580800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23484400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23428300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23104800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24099200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23909300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23567600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22110200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21668700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21549000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21064400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>20967600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>20184800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>20233000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>19848100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6209,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6301,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6393,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19957400</v>
+        <v>19753100</v>
       </c>
       <c r="E76" s="3">
-        <v>18982800</v>
+        <v>19289200</v>
       </c>
       <c r="F76" s="3">
-        <v>18513500</v>
+        <v>18347300</v>
       </c>
       <c r="G76" s="3">
-        <v>18714300</v>
+        <v>17893700</v>
       </c>
       <c r="H76" s="3">
-        <v>18250400</v>
+        <v>18087800</v>
       </c>
       <c r="I76" s="3">
-        <v>17193300</v>
+        <v>17639400</v>
       </c>
       <c r="J76" s="3">
+        <v>16617600</v>
+      </c>
+      <c r="K76" s="3">
         <v>16366900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16511600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16677200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15630400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15253800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15693300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16956400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17208200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18729200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18710000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18523500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>19575200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>19615500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>20029000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19251700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18899300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>19652000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>19276000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>19032300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>18126400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>18331500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>17168900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6577,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>373600</v>
+        <v>392500</v>
       </c>
       <c r="E81" s="3">
-        <v>451000</v>
+        <v>361100</v>
       </c>
       <c r="F81" s="3">
-        <v>402100</v>
+        <v>435900</v>
       </c>
       <c r="G81" s="3">
-        <v>369500</v>
+        <v>388700</v>
       </c>
       <c r="H81" s="3">
-        <v>284100</v>
+        <v>357100</v>
       </c>
       <c r="I81" s="3">
-        <v>371500</v>
+        <v>274600</v>
       </c>
       <c r="J81" s="3">
+        <v>359100</v>
+      </c>
+      <c r="K81" s="3">
         <v>418000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>280800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>421200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>387900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>431600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>312400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>234600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>542200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>427200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>134300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>356100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>341700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>357200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>257500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>147100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>484600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>245000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>396000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>484100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>393400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6802,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>247000</v>
+        <v>238000</v>
       </c>
       <c r="E83" s="3">
-        <v>243800</v>
+        <v>238700</v>
       </c>
       <c r="F83" s="3">
-        <v>246600</v>
+        <v>235600</v>
       </c>
       <c r="G83" s="3">
-        <v>245700</v>
+        <v>238400</v>
       </c>
       <c r="H83" s="3">
-        <v>240900</v>
+        <v>237500</v>
       </c>
       <c r="I83" s="3">
-        <v>242200</v>
+        <v>232900</v>
       </c>
       <c r="J83" s="3">
+        <v>234100</v>
+      </c>
+      <c r="K83" s="3">
         <v>224800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>243100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>230000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>230700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>225400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>235200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>255400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>271700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>285100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>280200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>275000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>330200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>311100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>307000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>284100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>293600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>305100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>279200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>277600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>277400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>242800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6984,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7076,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7168,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7260,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7352,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>513000</v>
+        <v>469800</v>
       </c>
       <c r="E89" s="3">
-        <v>1011400</v>
+        <v>495800</v>
       </c>
       <c r="F89" s="3">
-        <v>58700</v>
+        <v>977600</v>
       </c>
       <c r="G89" s="3">
-        <v>274500</v>
+        <v>56800</v>
       </c>
       <c r="H89" s="3">
-        <v>101200</v>
+        <v>265300</v>
       </c>
       <c r="I89" s="3">
-        <v>758800</v>
+        <v>97800</v>
       </c>
       <c r="J89" s="3">
+        <v>733400</v>
+      </c>
+      <c r="K89" s="3">
         <v>451100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>377600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>701500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>910700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>717200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>733300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>856700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>821700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>451600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>993100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1016600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>560200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-16600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>790800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>958700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>404200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>159000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>844200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>874800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>444300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7480,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-111976000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-101342000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-96830000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-80081000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-83312000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63249000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48088000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41842000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41566000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-201800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-192600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-174800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-202500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-196600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-175400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-197200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-226500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-169200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-206100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-166600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-144300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-134100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-132800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-161000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-156000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-120800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-231900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>256900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-468700</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7662,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7754,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-677000</v>
+        <v>-593600</v>
       </c>
       <c r="E94" s="3">
-        <v>-668100</v>
+        <v>-654300</v>
       </c>
       <c r="F94" s="3">
-        <v>-431800</v>
+        <v>-645700</v>
       </c>
       <c r="G94" s="3">
-        <v>-557200</v>
+        <v>-417300</v>
       </c>
       <c r="H94" s="3">
-        <v>-563600</v>
+        <v>-538500</v>
       </c>
       <c r="I94" s="3">
-        <v>-263200</v>
+        <v>-544700</v>
       </c>
       <c r="J94" s="3">
+        <v>-254400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-219200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-335000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-270900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1414200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-130100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-223200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-286000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-374000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-354400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1235400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-266300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-472700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-272000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-237200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-967300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>541500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>68900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-277700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1340300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-448100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-286800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,97 +7882,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-192900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-186400</v>
       </c>
       <c r="F96" s="3">
-        <v>-165300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-159800</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-146400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-151400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-151400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-154300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-139200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-162000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-177200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-150000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-163700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-146700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-148200</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-138500</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-137700</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8064,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8156,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,271 +8248,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-91700</v>
+        <v>570600</v>
       </c>
       <c r="E100" s="3">
-        <v>-703500</v>
+        <v>-88600</v>
       </c>
       <c r="F100" s="3">
-        <v>-448700</v>
+        <v>-679900</v>
       </c>
       <c r="G100" s="3">
-        <v>-365600</v>
+        <v>-433700</v>
       </c>
       <c r="H100" s="3">
-        <v>668000</v>
+        <v>-353300</v>
       </c>
       <c r="I100" s="3">
-        <v>-187600</v>
+        <v>645600</v>
       </c>
       <c r="J100" s="3">
+        <v>-181300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-342800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-172700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-322200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-316000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-678800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-889700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1342600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>171400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-194400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-484300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>245200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-993500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-229600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-328100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-788100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-959700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-266900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1700900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-500500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>176800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>128000</v>
+        <v>32400</v>
       </c>
       <c r="E101" s="3">
-        <v>21900</v>
+        <v>123700</v>
       </c>
       <c r="F101" s="3">
-        <v>-64900</v>
+        <v>21200</v>
       </c>
       <c r="G101" s="3">
-        <v>22000</v>
+        <v>-62700</v>
       </c>
       <c r="H101" s="3">
-        <v>149700</v>
+        <v>21300</v>
       </c>
       <c r="I101" s="3">
-        <v>113000</v>
+        <v>144700</v>
       </c>
       <c r="J101" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K101" s="3">
         <v>53000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>116800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-99200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>99400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-71200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-95600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-61900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>61900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-117200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>38500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>60700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>34300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-67600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>269600</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-127600</v>
+        <v>479100</v>
       </c>
       <c r="E102" s="3">
-        <v>-338200</v>
+        <v>-123400</v>
       </c>
       <c r="F102" s="3">
-        <v>-886600</v>
+        <v>-326900</v>
       </c>
       <c r="G102" s="3">
-        <v>-626200</v>
+        <v>-857000</v>
       </c>
       <c r="H102" s="3">
-        <v>355300</v>
+        <v>-605200</v>
       </c>
       <c r="I102" s="3">
-        <v>421000</v>
+        <v>343400</v>
       </c>
       <c r="J102" s="3">
+        <v>406900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-57900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>269000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-708800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>272900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>555200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-83800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-541200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1553400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-683600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>436800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>49100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>471500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1185300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-403000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1054900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-276500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1017700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-728700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2060000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-56300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>351900</v>
       </c>
     </row>
